--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="402">
   <si>
     <t>isolate</t>
   </si>
@@ -784,9 +784,6 @@
     <t>tick</t>
   </si>
   <si>
-    <t>DQ235149.1</t>
-  </si>
-  <si>
     <t>Turkish sheep encephalitis</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
     <t>Primate</t>
   </si>
   <si>
-    <t>JF416960.1</t>
-  </si>
-  <si>
     <t>Bainyink virus</t>
   </si>
   <si>
@@ -814,9 +808,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>KM408491.1</t>
-  </si>
-  <si>
     <t>La Tina</t>
   </si>
   <si>
@@ -826,279 +817,57 @@
     <t>Neoaves</t>
   </si>
   <si>
-    <t>NC_000943.1</t>
-  </si>
-  <si>
-    <t>NC_001437.1</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t>NC_001461.1</t>
-  </si>
-  <si>
-    <t>NC_001474.2</t>
-  </si>
-  <si>
-    <t>NC_001475.2</t>
-  </si>
-  <si>
-    <t>NC_001477.1</t>
-  </si>
-  <si>
-    <t>NC_001563.2</t>
-  </si>
-  <si>
     <t>Insect</t>
   </si>
   <si>
-    <t>NC_001564.2</t>
-  </si>
-  <si>
     <t>Rodent</t>
   </si>
   <si>
-    <t>NC_001672.1</t>
-  </si>
-  <si>
-    <t>NC_001710.1</t>
-  </si>
-  <si>
-    <t>NC_001809.1</t>
-  </si>
-  <si>
-    <t>NC_001837.1</t>
-  </si>
-  <si>
-    <t>NC_002031.1</t>
-  </si>
-  <si>
-    <t>NC_002032.1</t>
-  </si>
-  <si>
-    <t>NC_002640.1</t>
-  </si>
-  <si>
     <t>Suidae</t>
   </si>
   <si>
-    <t>NC_002657.1</t>
-  </si>
-  <si>
-    <t>NC_003635.1</t>
-  </si>
-  <si>
     <t>Vespbat</t>
   </si>
   <si>
-    <t>NC_003675.1</t>
-  </si>
-  <si>
-    <t>NC_003676.1</t>
-  </si>
-  <si>
     <t>Pestivirus Giraffe-1</t>
   </si>
   <si>
     <t>Giraffidae</t>
   </si>
   <si>
-    <t>NC_003678.1</t>
-  </si>
-  <si>
-    <t>NC_003679.1</t>
-  </si>
-  <si>
-    <t>NC_003687.1</t>
-  </si>
-  <si>
-    <t>NC_003690.1</t>
-  </si>
-  <si>
-    <t>NC_003996.1</t>
-  </si>
-  <si>
     <t>Hepatitis C virus</t>
   </si>
   <si>
-    <t>NC_004102.1</t>
-  </si>
-  <si>
-    <t>NC_004119.1</t>
-  </si>
-  <si>
-    <t>NC_004355.1</t>
-  </si>
-  <si>
-    <t>NC_005039.1</t>
-  </si>
-  <si>
-    <t>NC_005062.1</t>
-  </si>
-  <si>
-    <t>NC_005064.1</t>
-  </si>
-  <si>
-    <t>NC_006551.1</t>
-  </si>
-  <si>
-    <t>NC_006947.1</t>
-  </si>
-  <si>
     <t>St. Louis encephalitis virus</t>
   </si>
   <si>
-    <t>NC_007580.2</t>
-  </si>
-  <si>
-    <t>NC_008604.2</t>
-  </si>
-  <si>
-    <t>NC_008718.1</t>
-  </si>
-  <si>
-    <t>NC_008719.1</t>
-  </si>
-  <si>
-    <t>NC_009026.2</t>
-  </si>
-  <si>
-    <t>NC_009028.2</t>
-  </si>
-  <si>
-    <t>NC_012532.1</t>
-  </si>
-  <si>
-    <t>NC_012533.1</t>
-  </si>
-  <si>
     <t>Galloanserae</t>
   </si>
   <si>
-    <t>NC_012534.1</t>
-  </si>
-  <si>
-    <t>NC_012671.1</t>
-  </si>
-  <si>
-    <t>NC_012735.1</t>
-  </si>
-  <si>
     <t>Bovine viral diarrhea virus 3</t>
   </si>
   <si>
-    <t>NC_012812.1</t>
-  </si>
-  <si>
-    <t>NC_012932.1</t>
-  </si>
-  <si>
-    <t>NC_015843.2</t>
-  </si>
-  <si>
-    <t>NC_017086.1</t>
-  </si>
-  <si>
-    <t>NC_018705.3</t>
-  </si>
-  <si>
-    <t>NC_018713.1</t>
-  </si>
-  <si>
     <t>Perissodactyla</t>
   </si>
   <si>
-    <t>NC_020902.1</t>
-  </si>
-  <si>
-    <t>NC_021069.1</t>
-  </si>
-  <si>
-    <t>NC_021153.1</t>
-  </si>
-  <si>
-    <t>NC_021154.1</t>
-  </si>
-  <si>
-    <t>NC_023176.1</t>
-  </si>
-  <si>
-    <t>NC_023424.1</t>
-  </si>
-  <si>
-    <t>NC_023439.1</t>
-  </si>
-  <si>
     <t>Antilocapridae</t>
   </si>
   <si>
-    <t>NC_024018.2</t>
-  </si>
-  <si>
-    <t>NC_024377.1</t>
-  </si>
-  <si>
     <t>Illomantsi virus</t>
   </si>
   <si>
-    <t>NC_024889.1</t>
-  </si>
-  <si>
-    <t>NC_025672.1</t>
-  </si>
-  <si>
-    <t>NC_025673.1</t>
-  </si>
-  <si>
-    <t>NC_025677.1</t>
-  </si>
-  <si>
-    <t>NC_025679.1</t>
-  </si>
-  <si>
-    <t>NC_026620.1</t>
-  </si>
-  <si>
-    <t>NC_026623.1</t>
-  </si>
-  <si>
-    <t>NC_026624.1</t>
-  </si>
-  <si>
-    <t>NC_026797.1</t>
-  </si>
-  <si>
-    <t>NC_027709.1</t>
-  </si>
-  <si>
-    <t>NC_027817.1</t>
-  </si>
-  <si>
-    <t>NC_027819.1</t>
-  </si>
-  <si>
-    <t>NC_027998.2</t>
-  </si>
-  <si>
     <t>sandfly</t>
   </si>
   <si>
-    <t>NC_027999.1</t>
-  </si>
-  <si>
-    <t>NC_029055.1</t>
-  </si>
-  <si>
     <t>Kokobera virus</t>
   </si>
   <si>
     <t>Diprotodontia</t>
   </si>
   <si>
-    <t>NC_032088.1</t>
-  </si>
-  <si>
     <t>Boubou virus</t>
   </si>
   <si>
@@ -1219,20 +988,251 @@
     <t>Aedes aegypti</t>
   </si>
   <si>
-    <t>Accession</t>
-  </si>
-  <si>
     <t>Modoc county</t>
   </si>
   <si>
     <t>Ovis aries</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>DQ235149</t>
+  </si>
+  <si>
+    <t>JF416960</t>
+  </si>
+  <si>
+    <t>KM408491</t>
+  </si>
+  <si>
+    <t>NC_000943</t>
+  </si>
+  <si>
+    <t>NC_001437</t>
+  </si>
+  <si>
+    <t>NC_001461</t>
+  </si>
+  <si>
+    <t>NC_001477</t>
+  </si>
+  <si>
+    <t>NC_001672</t>
+  </si>
+  <si>
+    <t>NC_001710</t>
+  </si>
+  <si>
+    <t>NC_001809</t>
+  </si>
+  <si>
+    <t>NC_001837</t>
+  </si>
+  <si>
+    <t>NC_002031</t>
+  </si>
+  <si>
+    <t>NC_002032</t>
+  </si>
+  <si>
+    <t>NC_002640</t>
+  </si>
+  <si>
+    <t>NC_002657</t>
+  </si>
+  <si>
+    <t>NC_003635</t>
+  </si>
+  <si>
+    <t>NC_003675</t>
+  </si>
+  <si>
+    <t>NC_003676</t>
+  </si>
+  <si>
+    <t>NC_003678</t>
+  </si>
+  <si>
+    <t>NC_003679</t>
+  </si>
+  <si>
+    <t>NC_003687</t>
+  </si>
+  <si>
+    <t>NC_003690</t>
+  </si>
+  <si>
+    <t>NC_003996</t>
+  </si>
+  <si>
+    <t>NC_004102</t>
+  </si>
+  <si>
+    <t>NC_004119</t>
+  </si>
+  <si>
+    <t>NC_004355</t>
+  </si>
+  <si>
+    <t>NC_005039</t>
+  </si>
+  <si>
+    <t>NC_005062</t>
+  </si>
+  <si>
+    <t>NC_005064</t>
+  </si>
+  <si>
+    <t>NC_006551</t>
+  </si>
+  <si>
+    <t>NC_006947</t>
+  </si>
+  <si>
+    <t>NC_008718</t>
+  </si>
+  <si>
+    <t>NC_008719</t>
+  </si>
+  <si>
+    <t>NC_012532</t>
+  </si>
+  <si>
+    <t>NC_012533</t>
+  </si>
+  <si>
+    <t>NC_012534</t>
+  </si>
+  <si>
+    <t>NC_012671</t>
+  </si>
+  <si>
+    <t>NC_012735</t>
+  </si>
+  <si>
+    <t>NC_012812</t>
+  </si>
+  <si>
+    <t>NC_012932</t>
+  </si>
+  <si>
+    <t>NC_017086</t>
+  </si>
+  <si>
+    <t>NC_018713</t>
+  </si>
+  <si>
+    <t>NC_020902</t>
+  </si>
+  <si>
+    <t>NC_021069</t>
+  </si>
+  <si>
+    <t>NC_021153</t>
+  </si>
+  <si>
+    <t>NC_021154</t>
+  </si>
+  <si>
+    <t>NC_023176</t>
+  </si>
+  <si>
+    <t>NC_023424</t>
+  </si>
+  <si>
+    <t>NC_023439</t>
+  </si>
+  <si>
+    <t>NC_024377</t>
+  </si>
+  <si>
+    <t>NC_024889</t>
+  </si>
+  <si>
+    <t>NC_025672</t>
+  </si>
+  <si>
+    <t>NC_025673</t>
+  </si>
+  <si>
+    <t>NC_025677</t>
+  </si>
+  <si>
+    <t>NC_025679</t>
+  </si>
+  <si>
+    <t>NC_026620</t>
+  </si>
+  <si>
+    <t>NC_026623</t>
+  </si>
+  <si>
+    <t>NC_026624</t>
+  </si>
+  <si>
+    <t>NC_026797</t>
+  </si>
+  <si>
+    <t>NC_027709</t>
+  </si>
+  <si>
+    <t>NC_027817</t>
+  </si>
+  <si>
+    <t>NC_027819</t>
+  </si>
+  <si>
+    <t>NC_027999</t>
+  </si>
+  <si>
+    <t>NC_029055</t>
+  </si>
+  <si>
+    <t>NC_032088</t>
+  </si>
+  <si>
+    <t>NC_001474</t>
+  </si>
+  <si>
+    <t>NC_001475</t>
+  </si>
+  <si>
+    <t>NC_001563</t>
+  </si>
+  <si>
+    <t>NC_001564</t>
+  </si>
+  <si>
+    <t>NC_007580</t>
+  </si>
+  <si>
+    <t>NC_008604</t>
+  </si>
+  <si>
+    <t>NC_009026</t>
+  </si>
+  <si>
+    <t>NC_009028</t>
+  </si>
+  <si>
+    <t>NC_015843</t>
+  </si>
+  <si>
+    <t>NC_024018</t>
+  </si>
+  <si>
+    <t>NC_027998</t>
+  </si>
+  <si>
+    <t>NC_018705</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1248,6 +1248,22 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1359,8 +1375,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1403,7 +1427,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1736,7 +1768,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R111"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1755,7 +1787,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>399</v>
+        <v>324</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>109</v>
@@ -1770,22 +1802,22 @@
         <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>364</v>
+        <v>287</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>250</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>363</v>
+        <v>286</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>249</v>
@@ -1943,7 +1975,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>115</v>
@@ -1996,7 +2028,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
@@ -2133,7 +2165,9 @@
       <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2236,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="8"/>
@@ -2264,7 +2298,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>7</v>
@@ -2282,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -2290,10 +2324,10 @@
         <v>178</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>7</v>
@@ -2307,7 +2341,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>124</v>
@@ -2322,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>125</v>
@@ -2540,7 +2574,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>7</v>
@@ -2623,10 +2657,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="11" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>7</v>
@@ -2638,7 +2672,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>135</v>
@@ -2647,10 +2681,10 @@
         <v>135</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="13">
@@ -2707,7 +2741,7 @@
         <v>47</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="P21" s="8">
         <v>2013</v>
@@ -2721,10 +2755,10 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>7</v>
@@ -2748,10 +2782,10 @@
         <v>39</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="P22" s="8">
         <v>1996</v>
@@ -2809,7 +2843,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="11" t="s">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>141</v>
@@ -2824,7 +2858,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>7</v>
@@ -2863,7 +2897,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="11" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>142</v>
@@ -2878,7 +2912,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>7</v>
@@ -2917,13 +2951,13 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="11" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>143</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>251</v>
@@ -2932,7 +2966,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>7</v>
@@ -2944,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="13">
@@ -2971,13 +3005,13 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="11" t="s">
-        <v>272</v>
+        <v>390</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>144</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>251</v>
@@ -2986,7 +3020,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>7</v>
@@ -3025,13 +3059,13 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="11" t="s">
-        <v>273</v>
+        <v>391</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>251</v>
@@ -3040,7 +3074,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>7</v>
@@ -3079,13 +3113,13 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="11" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>146</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>251</v>
@@ -3094,7 +3128,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>7</v>
@@ -3133,13 +3167,13 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>251</v>
@@ -3148,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>7</v>
@@ -3187,7 +3221,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
-        <v>277</v>
+        <v>393</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>148</v>
@@ -3202,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>149</v>
@@ -3215,7 +3249,7 @@
         <v>127</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
       <c r="L31" s="13">
         <v>31658</v>
@@ -3241,7 +3275,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="11" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>150</v>
@@ -3256,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>7</v>
@@ -3295,7 +3329,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>151</v>
@@ -3310,7 +3344,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>7</v>
@@ -3322,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="13">
@@ -3349,13 +3383,13 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="11" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>251</v>
@@ -3364,7 +3398,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>7</v>
@@ -3403,7 +3437,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="11" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>153</v>
@@ -3418,7 +3452,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>7</v>
@@ -3430,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="13">
@@ -3457,13 +3491,13 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="11" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>154</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>251</v>
@@ -3472,7 +3506,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>7</v>
@@ -3511,7 +3545,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="11" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>155</v>
@@ -3526,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>7</v>
@@ -3538,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="13">
@@ -3565,13 +3599,13 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="11" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>391</v>
+        <v>314</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>251</v>
@@ -3580,7 +3614,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>7</v>
@@ -3619,7 +3653,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>157</v>
@@ -3634,7 +3668,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>7</v>
@@ -3646,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="13">
@@ -3673,7 +3707,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>158</v>
@@ -3688,7 +3722,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>7</v>
@@ -3700,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="13">
@@ -3713,7 +3747,7 @@
         <v>47</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="P40" s="8" t="s">
         <v>7</v>
@@ -3727,7 +3761,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>159</v>
@@ -3742,7 +3776,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>7</v>
@@ -3754,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="13">
@@ -3781,7 +3815,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>160</v>
@@ -3796,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>7</v>
@@ -3808,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="13">
@@ -3835,10 +3869,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>7</v>
@@ -3850,7 +3884,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>161</v>
@@ -3862,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="13">
@@ -3889,7 +3923,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>162</v>
@@ -3904,7 +3938,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>7</v>
@@ -3916,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="13">
@@ -3943,7 +3977,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>163</v>
@@ -3958,7 +3992,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>7</v>
@@ -3997,7 +4031,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="11" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>164</v>
@@ -4051,7 +4085,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="11" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>165</v>
@@ -4066,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>166</v>
@@ -4078,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="13">
@@ -4088,10 +4122,10 @@
         <v>7</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="P47" s="8" t="s">
         <v>7</v>
@@ -4105,22 +4139,22 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="11" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>251</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>393</v>
+        <v>316</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>7</v>
@@ -4132,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="13">
@@ -4159,7 +4193,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="11" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>167</v>
@@ -4174,7 +4208,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>7</v>
@@ -4186,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="13">
@@ -4199,7 +4233,7 @@
         <v>47</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="P49" s="8" t="s">
         <v>7</v>
@@ -4213,7 +4247,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="11" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>168</v>
@@ -4267,7 +4301,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="11" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>170</v>
@@ -4282,7 +4316,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>7</v>
@@ -4291,10 +4325,10 @@
         <v>7</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="13">
@@ -4321,13 +4355,13 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="11" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>171</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>251</v>
@@ -4336,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>7</v>
@@ -4375,13 +4409,13 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="11" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>172</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>251</v>
@@ -4390,7 +4424,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>7</v>
@@ -4429,7 +4463,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>173</v>
@@ -4444,7 +4478,7 @@
         <v>7</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>7</v>
@@ -4483,7 +4517,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="11" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>174</v>
@@ -4537,10 +4571,10 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="11" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>7</v>
@@ -4552,7 +4586,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>7</v>
@@ -4591,7 +4625,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="11" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>175</v>
@@ -4606,7 +4640,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>7</v>
@@ -4631,7 +4665,7 @@
         <v>78</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="P57" s="8">
         <v>2003</v>
@@ -4645,7 +4679,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="11" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>176</v>
@@ -4660,7 +4694,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>177</v>
@@ -4669,10 +4703,10 @@
         <v>177</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="13">
@@ -4699,7 +4733,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="11" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>178</v>
@@ -4714,7 +4748,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>127</v>
@@ -4753,7 +4787,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="11" t="s">
-        <v>313</v>
+        <v>396</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>179</v>
@@ -4768,7 +4802,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>7</v>
@@ -4807,7 +4841,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="11" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>180</v>
@@ -4822,7 +4856,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>7</v>
@@ -4861,7 +4895,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="11" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>181</v>
@@ -4915,7 +4949,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="11" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>183</v>
@@ -4967,7 +5001,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="11" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>184</v>
@@ -4982,7 +5016,7 @@
         <v>7</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>127</v>
@@ -5019,7 +5053,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="11" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>185</v>
@@ -5034,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>186</v>
@@ -5073,7 +5107,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="11" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>187</v>
@@ -5127,10 +5161,10 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="11" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -5142,7 +5176,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>188</v>
@@ -5154,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="13">
@@ -5181,7 +5215,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="11" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>189</v>
@@ -5196,7 +5230,7 @@
         <v>7</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>190</v>
@@ -5221,7 +5255,7 @@
         <v>78</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="P68" s="8">
         <v>2003</v>
@@ -5235,7 +5269,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="11" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>191</v>
@@ -5333,7 +5367,7 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="11" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>194</v>
@@ -5348,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>127</v>
@@ -5385,7 +5419,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="11" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>195</v>
@@ -5439,7 +5473,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="11" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>196</v>
@@ -5454,10 +5488,10 @@
         <v>7</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>197</v>
@@ -5466,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="13">
@@ -5493,7 +5527,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="11" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>198</v>
@@ -5508,7 +5542,7 @@
         <v>7</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>221</v>
@@ -5520,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="13">
@@ -5547,7 +5581,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="11" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>200</v>
@@ -5562,7 +5596,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>201</v>
@@ -5601,7 +5635,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="11" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>202</v>
@@ -5616,7 +5650,7 @@
         <v>7</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>203</v>
@@ -5628,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="13">
@@ -5655,7 +5689,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="11" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>204</v>
@@ -5670,7 +5704,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>205</v>
@@ -5682,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="13">
@@ -5709,7 +5743,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="11" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>206</v>
@@ -5736,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="13">
@@ -5763,7 +5797,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="11" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>207</v>
@@ -5778,7 +5812,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="9"/>
@@ -5798,10 +5832,10 @@
         <v>7</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="P79" s="8">
         <v>1969</v>
@@ -5815,7 +5849,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="11" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>209</v>
@@ -5830,7 +5864,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="9"/>
@@ -5850,10 +5884,10 @@
         <v>7</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="P80" s="8">
         <v>1989</v>
@@ -5899,7 +5933,7 @@
         <v>86</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="P81" s="8">
         <v>2010</v>
@@ -5913,7 +5947,7 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="11" t="s">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>213</v>
@@ -5926,7 +5960,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>214</v>
@@ -5938,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="13">
@@ -6011,7 +6045,7 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="11" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>217</v>
@@ -6026,7 +6060,7 @@
         <v>7</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>218</v>
@@ -6038,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="13">
@@ -6051,7 +6085,7 @@
         <v>23</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="P84" s="8">
         <v>2010</v>
@@ -6068,7 +6102,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>7</v>
@@ -6149,7 +6183,7 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="11" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>220</v>
@@ -6162,7 +6196,7 @@
         <v>7</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>221</v>
@@ -6174,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K87" s="9"/>
       <c r="L87" s="13">
@@ -6201,7 +6235,7 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="11" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>222</v>
@@ -6216,7 +6250,7 @@
         <v>7</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>223</v>
@@ -6228,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K88" s="9"/>
       <c r="L88" s="13">
@@ -6241,7 +6275,7 @@
         <v>47</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="P88" s="8">
         <v>2013</v>
@@ -6255,7 +6289,7 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="11" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>224</v>
@@ -6270,7 +6304,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>223</v>
@@ -6282,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K89" s="9"/>
       <c r="L89" s="13">
@@ -6295,7 +6329,7 @@
         <v>47</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="P89" s="8">
         <v>2012</v>
@@ -6309,7 +6343,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="11" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>225</v>
@@ -6324,7 +6358,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>223</v>
@@ -6336,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K90" s="9"/>
       <c r="L90" s="13">
@@ -6349,7 +6383,7 @@
         <v>47</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="P90" s="8">
         <v>2013</v>
@@ -6363,7 +6397,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="11" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>226</v>
@@ -6378,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>223</v>
@@ -6390,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K91" s="9"/>
       <c r="L91" s="13">
@@ -6403,7 +6437,7 @@
         <v>47</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="P91" s="8">
         <v>2012</v>
@@ -6417,7 +6451,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="11" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>227</v>
@@ -6432,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>228</v>
@@ -6444,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="13">
@@ -6471,7 +6505,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="11" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>229</v>
@@ -6525,7 +6559,7 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="11" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>231</v>
@@ -6540,7 +6574,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>232</v>
@@ -6549,10 +6583,10 @@
         <v>232</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K94" s="9"/>
       <c r="L94" s="13">
@@ -6579,7 +6613,7 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="11" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>233</v>
@@ -6594,7 +6628,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>188</v>
@@ -6606,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="13">
@@ -6633,7 +6667,7 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="11" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>234</v>
@@ -6687,7 +6721,7 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="11" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>236</v>
@@ -6702,7 +6736,7 @@
         <v>7</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>7</v>
@@ -6741,7 +6775,7 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="11" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>237</v>
@@ -6756,7 +6790,7 @@
         <v>7</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>216</v>
@@ -6795,7 +6829,7 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="11" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>238</v>
@@ -6810,7 +6844,7 @@
         <v>7</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>169</v>
@@ -6822,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="13">
@@ -6849,7 +6883,7 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="11" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>239</v>
@@ -6864,7 +6898,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>240</v>
@@ -6876,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="13">
@@ -6903,7 +6937,7 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="11" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>241</v>
@@ -7003,10 +7037,10 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="11" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>7</v>
@@ -7016,7 +7050,7 @@
         <v>7</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>127</v>
@@ -7041,7 +7075,7 @@
         <v>10</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="P103" s="8">
         <v>1998</v>
@@ -7058,7 +7092,7 @@
         <v>98</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>7</v>
@@ -7307,7 +7341,7 @@
         <v>10</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="P109" s="8" t="s">
         <v>7</v>
@@ -7368,7 +7402,7 @@
         <v>107</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>360</v>
+        <v>283</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>7</v>
@@ -7379,10 +7413,10 @@
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="17" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="16"/>
@@ -7395,7 +7429,7 @@
         <v>10</v>
       </c>
       <c r="O111" s="17" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="P111" s="17" t="s">
         <v>7</v>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="628">
   <si>
     <t>isolate</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>D3/H/IMTSSA-SRI/2000/1266</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>SR-82</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
@@ -442,9 +436,6 @@
     <t>Marisma mosquito virus</t>
   </si>
   <si>
-    <t>Ochlerotatus caspius</t>
-  </si>
-  <si>
     <t>Murray Valley encephalitis virus</t>
   </si>
   <si>
@@ -469,9 +460,6 @@
     <t>Cell fusing agent virus</t>
   </si>
   <si>
-    <t>Aedes aegypti Galveston colony</t>
-  </si>
-  <si>
     <t>Tick-borne encephalitis virus</t>
   </si>
   <si>
@@ -559,9 +547,6 @@
     <t>Sepik virus</t>
   </si>
   <si>
-    <t>Aroa virus</t>
-  </si>
-  <si>
     <t>Ilheus virus</t>
   </si>
   <si>
@@ -715,9 +700,6 @@
     <t>Formicarius analis</t>
   </si>
   <si>
-    <t>Sokoluk virus</t>
-  </si>
-  <si>
     <t>Vespertilio pipistrellus</t>
   </si>
   <si>
@@ -862,15 +844,9 @@
     <t>sandfly</t>
   </si>
   <si>
-    <t>Kokobera virus</t>
-  </si>
-  <si>
     <t>Diprotodontia</t>
   </si>
   <si>
-    <t>Boubou virus</t>
-  </si>
-  <si>
     <t>Saumarez reef virus</t>
   </si>
   <si>
@@ -943,18 +919,6 @@
     <t>Dunas Douradas-Almancil</t>
   </si>
   <si>
-    <t>BDV</t>
-  </si>
-  <si>
-    <t>DEN2</t>
-  </si>
-  <si>
-    <t>DEN3</t>
-  </si>
-  <si>
-    <t>DEN1</t>
-  </si>
-  <si>
     <t>WNV</t>
   </si>
   <si>
@@ -973,9 +937,6 @@
     <t>Genotype 1</t>
   </si>
   <si>
-    <t>OHFV</t>
-  </si>
-  <si>
     <t>KRV</t>
   </si>
   <si>
@@ -1226,13 +1187,730 @@
   </si>
   <si>
     <t>NC_018705</t>
+  </si>
+  <si>
+    <t>IGUV</t>
+  </si>
+  <si>
+    <t>sentinel mouse</t>
+  </si>
+  <si>
+    <t>SPAn 71686</t>
+  </si>
+  <si>
+    <t>Iguape county, Sao Paulo State</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>ROCV</t>
+  </si>
+  <si>
+    <t>SPH 34675</t>
+  </si>
+  <si>
+    <t>ALFV</t>
+  </si>
+  <si>
+    <t>Centropus phasianius</t>
+  </si>
+  <si>
+    <t>MRM3929</t>
+  </si>
+  <si>
+    <t>Mitchell River Mission</t>
+  </si>
+  <si>
+    <t>RFV</t>
+  </si>
+  <si>
+    <t>Argas hermanni</t>
+  </si>
+  <si>
+    <t>ArT 371</t>
+  </si>
+  <si>
+    <t>Royal Farm near Kabul</t>
+  </si>
+  <si>
+    <t>TSEV</t>
+  </si>
+  <si>
+    <t>TTE80</t>
+  </si>
+  <si>
+    <t>BANV</t>
+  </si>
+  <si>
+    <t>H336</t>
+  </si>
+  <si>
+    <t>Ndumu, Natal</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>YAOV</t>
+  </si>
+  <si>
+    <t>Culex nebulosis</t>
+  </si>
+  <si>
+    <t>ArY 276</t>
+  </si>
+  <si>
+    <t>Nkolbisson, Yaounde</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>KOUV</t>
+  </si>
+  <si>
+    <t>Tatera kempi</t>
+  </si>
+  <si>
+    <t>DakAnD 5443</t>
+  </si>
+  <si>
+    <t>Koutango Village, Saboya region</t>
+  </si>
+  <si>
+    <t>NOUV</t>
+  </si>
+  <si>
+    <t>Nounane_B3</t>
+  </si>
+  <si>
+    <t>Taï National Park</t>
+  </si>
+  <si>
+    <t>NAKV</t>
+  </si>
+  <si>
+    <t>Mansonia africana nigerrima</t>
+  </si>
+  <si>
+    <t>Uganda08</t>
+  </si>
+  <si>
+    <t>CTFV</t>
+  </si>
+  <si>
+    <t>KFDV</t>
+  </si>
+  <si>
+    <t>Kyasanur Forest near Baragi Village</t>
+  </si>
+  <si>
+    <t>HANKV</t>
+  </si>
+  <si>
+    <t>Ochlerotatus mosquito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hanko peninsula</t>
+  </si>
+  <si>
+    <t>BJV</t>
+  </si>
+  <si>
+    <t>PCV</t>
+  </si>
+  <si>
+    <t>Northern Territory</t>
+  </si>
+  <si>
+    <t>STRV</t>
+  </si>
+  <si>
+    <t>Aedes vigilax</t>
+  </si>
+  <si>
+    <t>C338</t>
+  </si>
+  <si>
+    <t>Stratford suburb of Cairns</t>
+  </si>
+  <si>
+    <t>MK7979</t>
+  </si>
+  <si>
+    <t>TS5273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Torres Strait, Queensland</t>
+  </si>
+  <si>
+    <t>Pestivirus</t>
+  </si>
+  <si>
+    <t>LPKV</t>
+  </si>
+  <si>
+    <t>EVG-1-33</t>
+  </si>
+  <si>
+    <t>LTNV</t>
+  </si>
+  <si>
+    <t>MMV</t>
+  </si>
+  <si>
+    <t>Aedes caspius</t>
+  </si>
+  <si>
+    <t>MVEV</t>
+  </si>
+  <si>
+    <t>Culex annulirostris</t>
+  </si>
+  <si>
+    <t>MVE/1/1951</t>
+  </si>
+  <si>
+    <t>Mooroopna, Victoria,</t>
+  </si>
+  <si>
+    <t>JEBV</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>BVDV1</t>
+  </si>
+  <si>
+    <t>DENV2</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>DENV3</t>
+  </si>
+  <si>
+    <t>D3SriLa1266</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>DENV1</t>
+  </si>
+  <si>
+    <t>45AZ5</t>
+  </si>
+  <si>
+    <t>B956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omogo, West Nile District </t>
+  </si>
+  <si>
+    <t>CFAV</t>
+  </si>
+  <si>
+    <t>Galveston</t>
+  </si>
+  <si>
+    <t>TBEV</t>
+  </si>
+  <si>
+    <t>Neudoerfl</t>
+  </si>
+  <si>
+    <t>HGV1</t>
+  </si>
+  <si>
+    <t>Sheep (Ovis aries)</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Selkirkshire</t>
+  </si>
+  <si>
+    <t>GBV-A</t>
+  </si>
+  <si>
+    <t>BVDV2</t>
+  </si>
+  <si>
+    <t>C413</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>CSFV</t>
+  </si>
+  <si>
+    <t>Eystrup</t>
+  </si>
+  <si>
+    <t>MODV</t>
+  </si>
+  <si>
+    <t>M544</t>
+  </si>
+  <si>
+    <t>RBV</t>
+  </si>
+  <si>
+    <t>Tadarida brasiliensis mexicana</t>
+  </si>
+  <si>
+    <t>M64</t>
+  </si>
+  <si>
+    <t>Kern County, California</t>
+  </si>
+  <si>
+    <t>APOIV</t>
+  </si>
+  <si>
+    <t>Apodemus spp.</t>
+  </si>
+  <si>
+    <t>Apoi</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>X818</t>
+  </si>
+  <si>
+    <t>POWV</t>
+  </si>
+  <si>
+    <t>L.B.</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>LGTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ixodes granulatus </t>
+  </si>
+  <si>
+    <t>TP-21</t>
+  </si>
+  <si>
+    <t>Ulu Langat Forest</t>
+  </si>
+  <si>
+    <t>TABV</t>
+  </si>
+  <si>
+    <t>Tr127154</t>
+  </si>
+  <si>
+    <t>Hepacivirus</t>
+  </si>
+  <si>
+    <t>MMLV</t>
+  </si>
+  <si>
+    <t>Myotis lucifugus</t>
+  </si>
+  <si>
+    <t>ALKV</t>
+  </si>
+  <si>
+    <t>YOKV</t>
+  </si>
+  <si>
+    <t>Oita 36</t>
+  </si>
+  <si>
+    <t>OMSKV</t>
+  </si>
+  <si>
+    <t>Bogoluvovska</t>
+  </si>
+  <si>
+    <t>Omsk Oblast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ae. macintoshi </t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>USUV</t>
+  </si>
+  <si>
+    <t>Culex neavei</t>
+  </si>
+  <si>
+    <t>SAAr 1776</t>
+  </si>
+  <si>
+    <t>KSIV</t>
+  </si>
+  <si>
+    <t>Ornithodoros papillipes</t>
+  </si>
+  <si>
+    <t>LEIV-2247 US</t>
+  </si>
+  <si>
+    <t>Karshi desert</t>
+  </si>
+  <si>
+    <t>SLEV</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>CxFV</t>
+  </si>
+  <si>
+    <t>Culex pipiens</t>
+  </si>
+  <si>
+    <t>ENTV</t>
+  </si>
+  <si>
+    <t>Tadarida limbata</t>
+  </si>
+  <si>
+    <t>UgIL-30</t>
+  </si>
+  <si>
+    <t>Entebbe</t>
+  </si>
+  <si>
+    <t>SEPV</t>
+  </si>
+  <si>
+    <t>Mansonia septempunctata</t>
+  </si>
+  <si>
+    <t>MK 7148</t>
+  </si>
+  <si>
+    <t>Timaui, Sepik District</t>
+  </si>
+  <si>
+    <t>Bussuquara virus</t>
+  </si>
+  <si>
+    <t>BSQV</t>
+  </si>
+  <si>
+    <t>Alouatta beelzebul Sentinel</t>
+  </si>
+  <si>
+    <t>ILHV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psorophora spp. </t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>ZIKV</t>
+  </si>
+  <si>
+    <t>MR 766</t>
+  </si>
+  <si>
+    <t>Zika forest,Entebbe</t>
+  </si>
+  <si>
+    <t>KEDV</t>
+  </si>
+  <si>
+    <t>Aedes minutus</t>
+  </si>
+  <si>
+    <t>ArD 14701</t>
+  </si>
+  <si>
+    <t>Kedougou</t>
+  </si>
+  <si>
+    <t>BAGV</t>
+  </si>
+  <si>
+    <t>Culex</t>
+  </si>
+  <si>
+    <t>DakArB 209</t>
+  </si>
+  <si>
+    <t>Bagaza</t>
+  </si>
+  <si>
+    <t>QBV</t>
+  </si>
+  <si>
+    <t>WSLV</t>
+  </si>
+  <si>
+    <t>Merino sheep</t>
+  </si>
+  <si>
+    <t>van Tonder</t>
+  </si>
+  <si>
+    <t>Wesselsbron</t>
+  </si>
+  <si>
+    <t>BVDV3</t>
+  </si>
+  <si>
+    <t>AEFV</t>
+  </si>
+  <si>
+    <t>Narita-21</t>
+  </si>
+  <si>
+    <t>TMUV</t>
+  </si>
+  <si>
+    <t>JS804</t>
+  </si>
+  <si>
+    <t>Jiangsu Province</t>
+  </si>
+  <si>
+    <t>DONV</t>
+  </si>
+  <si>
+    <t>CHAOV</t>
+  </si>
+  <si>
+    <t>NTAV</t>
+  </si>
+  <si>
+    <t>Pegivirus</t>
+  </si>
+  <si>
+    <t>TYUV</t>
+  </si>
+  <si>
+    <t>LEIV 6C</t>
+  </si>
+  <si>
+    <t>KAMV</t>
+  </si>
+  <si>
+    <t>NHUV</t>
+  </si>
+  <si>
+    <t>BrMS-MQ10</t>
+  </si>
+  <si>
+    <t>PAPeV</t>
+  </si>
+  <si>
+    <t>NIEV</t>
+  </si>
+  <si>
+    <t>ILOV</t>
+  </si>
+  <si>
+    <t>LAMV</t>
+  </si>
+  <si>
+    <t>JUTV</t>
+  </si>
+  <si>
+    <t>JG-128</t>
+  </si>
+  <si>
+    <t>Jutiapa</t>
+  </si>
+  <si>
+    <t>CPCV</t>
+  </si>
+  <si>
+    <t>BeAn 327600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriximina, Para </t>
+  </si>
+  <si>
+    <t>Sokuluk virus</t>
+  </si>
+  <si>
+    <t>SOKV</t>
+  </si>
+  <si>
+    <t>LEIV-400K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sokuluk District </t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>SGEV</t>
+  </si>
+  <si>
+    <t>Asturias</t>
+  </si>
+  <si>
+    <t>PaRV</t>
+  </si>
+  <si>
+    <t>A. vigilax</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>MECDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darien Province </t>
+  </si>
+  <si>
+    <t>HPgV-2</t>
+  </si>
+  <si>
+    <t>EPEV</t>
+  </si>
+  <si>
+    <t>Pichincha Province</t>
+  </si>
+  <si>
+    <t>SPOV</t>
+  </si>
+  <si>
+    <t>Mansonia uniformis</t>
+  </si>
+  <si>
+    <t>SAAr 94</t>
+  </si>
+  <si>
+    <t>Lake Simbu, Natal</t>
+  </si>
+  <si>
+    <t>EHV</t>
+  </si>
+  <si>
+    <t>C281</t>
+  </si>
+  <si>
+    <t>Queensland, Australia</t>
+  </si>
+  <si>
+    <t>New Mapoon virus</t>
+  </si>
+  <si>
+    <t>NMV</t>
+  </si>
+  <si>
+    <t>CY1014</t>
+  </si>
+  <si>
+    <t>Bouboui virus</t>
+  </si>
+  <si>
+    <t>BOUV</t>
+  </si>
+  <si>
+    <t>Anopheles paludis</t>
+  </si>
+  <si>
+    <t>DakArB 490</t>
+  </si>
+  <si>
+    <t>Bouboui</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>SABV</t>
+  </si>
+  <si>
+    <t>DakAnD 4600</t>
+  </si>
+  <si>
+    <t>Saboya</t>
+  </si>
+  <si>
+    <t>UGSV</t>
+  </si>
+  <si>
+    <t>Aedes spp.</t>
+  </si>
+  <si>
+    <t>Bwamba County</t>
+  </si>
+  <si>
+    <t>JUGV</t>
+  </si>
+  <si>
+    <t>Aedes spp</t>
+  </si>
+  <si>
+    <t>P9-314</t>
+  </si>
+  <si>
+    <t>Carey Island</t>
+  </si>
+  <si>
+    <t>MEAV</t>
+  </si>
+  <si>
+    <t>Ornithodoros maritimus</t>
+  </si>
+  <si>
+    <t>Brest/Ar/T-707</t>
+  </si>
+  <si>
+    <t>Morbihan</t>
+  </si>
+  <si>
+    <t>GGYV</t>
+  </si>
+  <si>
+    <t>CSIRO 122</t>
+  </si>
+  <si>
+    <t>KADV</t>
+  </si>
+  <si>
+    <t>Rhipicephalus pravus</t>
+  </si>
+  <si>
+    <t>AMP 6640</t>
+  </si>
+  <si>
+    <t>Namalu, South Karamoja</t>
+  </si>
+  <si>
+    <t>SREV</t>
+  </si>
+  <si>
+    <t>CSIRO4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1263,6 +1941,17 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1375,7 +2064,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1385,8 +2074,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1426,16 +2127,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1767,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1787,40 +2517,40 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>0</v>
@@ -1846,43 +2576,49 @@
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8"/>
+        <v>389</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
+      <c r="G2" s="19" t="s">
+        <v>390</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
-        <v>7</v>
+      <c r="L2" s="20">
+        <v>64308</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>391</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>7</v>
+        <v>392</v>
+      </c>
+      <c r="P2" s="8">
+        <v>1979</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1890,43 +2626,49 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>394</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>7</v>
+      <c r="L3" s="20">
+        <v>64315</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="P3" s="21">
+        <v>1975</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>8</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1934,93 +2676,101 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>396</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
-        <v>7</v>
+        <v>397</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="K4" s="9"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>7</v>
+      <c r="L4" s="20">
+        <v>44017</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>398</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>7</v>
+        <v>399</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1966</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>4</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="13"/>
+        <v>246</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>401</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13">
         <v>1</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K5" s="9"/>
-      <c r="L5" s="13">
+      <c r="L5" s="22">
         <v>64288</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>7</v>
+      <c r="M5" s="14" t="s">
+        <v>402</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>7</v>
+        <v>403</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1968</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>2</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2028,12 +2778,14 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>404</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2047,9 +2799,11 @@
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8" t="s">
-        <v>7</v>
+      <c r="L6" s="20">
+        <v>47300</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>405</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>13</v>
@@ -2072,18 +2826,20 @@
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>406</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>7</v>
@@ -2091,24 +2847,26 @@
       <c r="I7" s="8"/>
       <c r="J7" s="7"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8" t="s">
-        <v>7</v>
+      <c r="L7" s="20">
+        <v>38837</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>407</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>7</v>
+        <v>408</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1956</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>28</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2116,18 +2874,20 @@
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>410</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>7</v>
+        <v>411</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>7</v>
@@ -2135,24 +2895,26 @@
       <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8" t="s">
-        <v>7</v>
+      <c r="L8" s="20">
+        <v>64319</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>412</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>7</v>
+        <v>413</v>
+      </c>
+      <c r="P8" s="8">
+        <v>1968</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>25</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2160,20 +2922,20 @@
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>415</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>7</v>
+        <v>416</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>7</v>
@@ -2181,24 +2943,26 @@
       <c r="I9" s="8"/>
       <c r="J9" s="7"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
-        <v>7</v>
+      <c r="L9" s="20">
+        <v>44025</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>417</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>7</v>
+        <v>418</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1968</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>24</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2206,37 +2970,43 @@
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>419</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8" t="s">
-        <v>7</v>
+      <c r="L10" s="20">
+        <v>486494</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>420</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>7</v>
+        <v>421</v>
+      </c>
+      <c r="P10" s="8">
+        <v>2004</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>7</v>
@@ -2250,32 +3020,36 @@
         <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>422</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>122</v>
+        <v>423</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8" t="s">
-        <v>7</v>
+      <c r="L11" s="20">
+        <v>667516</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>424</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>23</v>
@@ -2290,7 +3064,7 @@
         <v>7</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2298,39 +3072,43 @@
         <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>425</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="14">
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
+      <c r="L12" s="20">
+        <v>1244563</v>
+      </c>
+      <c r="M12" s="14">
         <v>178</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>7</v>
+        <v>298</v>
+      </c>
+      <c r="P12" s="8">
+        <v>2011</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>7</v>
@@ -2341,56 +3119,56 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>7</v>
+        <v>426</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I13" s="13">
         <v>1</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="13">
+      <c r="L13" s="22">
         <v>33743</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>7</v>
+        <v>427</v>
       </c>
       <c r="P13" s="8">
         <v>1957</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>7</v>
+      <c r="Q13" s="8">
+        <v>27</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2398,34 +3176,40 @@
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>428</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>429</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1125677</v>
+      </c>
+      <c r="M14" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>7</v>
+        <v>430</v>
       </c>
       <c r="P14" s="8">
         <v>2005</v>
@@ -2434,7 +3218,7 @@
         <v>7</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2442,27 +3226,33 @@
         <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>431</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="20">
+        <v>478577</v>
+      </c>
+      <c r="M15" s="14" t="s">
         <v>29</v>
       </c>
       <c r="N15" s="8" t="s">
@@ -2486,34 +3276,40 @@
         <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>432</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E16" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8">
+      <c r="L16" s="20">
+        <v>1302179</v>
+      </c>
+      <c r="M16" s="14">
         <v>56</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>7</v>
+        <v>433</v>
       </c>
       <c r="P16" s="8">
         <v>2010</v>
@@ -2530,43 +3326,49 @@
         <v>32</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>434</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="8" t="s">
-        <v>7</v>
+        <v>435</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K17" s="9"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8" t="s">
-        <v>7</v>
+      <c r="L17" s="20">
+        <v>44027</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>7</v>
+        <v>437</v>
       </c>
       <c r="P17" s="8">
         <v>1961</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>7</v>
+      <c r="Q17" s="8">
+        <v>1</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2574,28 +3376,34 @@
         <v>33</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K18" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8" t="s">
-        <v>7</v>
+        <v>131</v>
+      </c>
+      <c r="L18" s="20">
+        <v>1534467</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>438</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>34</v>
@@ -2618,32 +3426,38 @@
         <v>35</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8" t="s">
-        <v>7</v>
+      <c r="L19" s="20">
+        <v>1534468</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>439</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>7</v>
+        <v>440</v>
       </c>
       <c r="P19" s="8">
         <v>2000</v>
@@ -2657,40 +3471,40 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="11" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="13">
+      <c r="L20" s="22">
         <v>1594788</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="14" t="s">
         <v>36</v>
       </c>
       <c r="N20" s="8" t="s">
@@ -2714,34 +3528,40 @@
         <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>442</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K21" s="9"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8" t="s">
-        <v>7</v>
+      <c r="L21" s="20">
+        <v>2045185</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>443</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P21" s="8">
         <v>2013</v>
@@ -2755,37 +3575,43 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="8"/>
+        <v>444</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8" t="s">
+      <c r="L22" s="20">
+        <v>2045187</v>
+      </c>
+      <c r="M22" s="14" t="s">
         <v>39</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="P22" s="8">
         <v>1996</v>
@@ -2802,27 +3628,33 @@
         <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>445</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8" t="s">
-        <v>140</v>
+        <v>446</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>140</v>
+        <v>446</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8" t="s">
+      <c r="L23" s="20">
+        <v>1105173</v>
+      </c>
+      <c r="M23" s="14" t="s">
         <v>42</v>
       </c>
       <c r="N23" s="8" t="s">
@@ -2843,25 +3675,25 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>7</v>
+        <v>447</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>7</v>
@@ -2870,52 +3702,54 @@
         <v>1</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="13">
+        <v>125</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="L24" s="22">
         <v>11079</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>7</v>
+      <c r="M24" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>7</v>
+        <v>450</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1951</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>9</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>7</v>
+        <v>451</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>7</v>
@@ -2924,49 +3758,49 @@
         <v>1</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="13">
+        <v>125</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" s="22">
         <v>11072</v>
       </c>
-      <c r="M25" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="M25" s="14"/>
       <c r="N25" s="8" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>7</v>
+        <v>452</v>
+      </c>
+      <c r="P25" s="8">
+        <v>1935</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>21</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>307</v>
+        <v>453</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>7</v>
@@ -2978,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K26" s="9"/>
-      <c r="L26" s="13">
+      <c r="L26" s="22">
         <v>11099</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N26" s="8" t="s">
@@ -3005,25 +3839,25 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="11" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>308</v>
+        <v>454</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>7</v>
@@ -3032,20 +3866,20 @@
         <v>1</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K27" s="9"/>
-      <c r="L27" s="13">
+      <c r="L27" s="22">
         <v>11060</v>
       </c>
-      <c r="M27" s="8" t="s">
-        <v>7</v>
+      <c r="M27" s="14">
+        <v>16681</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>44</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="P27" s="8">
         <v>1964</v>
@@ -3059,22 +3893,22 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="11" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>309</v>
+        <v>456</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>7</v>
@@ -3086,49 +3920,49 @@
         <v>1</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K28" s="9"/>
-      <c r="L28" s="13">
+      <c r="L28" s="22">
         <v>11069</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="O28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>7</v>
+      <c r="P28" s="8">
+        <v>2000</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>7</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="11" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>310</v>
+        <v>459</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>7</v>
@@ -3140,14 +3974,14 @@
         <v>1</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K29" s="9"/>
-      <c r="L29" s="13">
+      <c r="L29" s="22">
         <v>11053</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>7</v>
+      <c r="M29" s="14" t="s">
+        <v>460</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>7</v>
@@ -3167,25 +4001,25 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>7</v>
@@ -3194,74 +4028,74 @@
         <v>1</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K30" s="9"/>
-      <c r="L30" s="13">
+      <c r="L30" s="22">
         <v>11082</v>
       </c>
-      <c r="M30" s="8" t="s">
-        <v>7</v>
+      <c r="M30" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>7</v>
+        <v>462</v>
+      </c>
+      <c r="P30" s="8">
+        <v>1937</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>12</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>149</v>
+        <v>308</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="L31" s="13">
+        <v>308</v>
+      </c>
+      <c r="L31" s="22">
         <v>31658</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>7</v>
+      <c r="M31" s="14" t="s">
+        <v>464</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="P31" s="8">
         <v>2012</v>
@@ -3275,22 +4109,22 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="11" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>7</v>
@@ -3302,14 +4136,14 @@
         <v>1</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="13">
+      <c r="L32" s="22">
         <v>11084</v>
       </c>
-      <c r="M32" s="8" t="s">
-        <v>7</v>
+      <c r="M32" s="14" t="s">
+        <v>466</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>7</v>
@@ -3329,22 +4163,22 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>7</v>
+        <v>467</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>7</v>
@@ -3356,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="13">
+      <c r="L33" s="22">
         <v>54290</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N33" s="8" t="s">
@@ -3383,25 +4217,25 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="11" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>7</v>
+        <v>468</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>7</v>
@@ -3410,49 +4244,49 @@
         <v>1</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="13">
+      <c r="L34" s="22">
         <v>11086</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q34" s="8" t="s">
-        <v>7</v>
+        <v>470</v>
+      </c>
+      <c r="P34" s="8">
+        <v>1929</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>1</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="11" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>7</v>
+        <v>471</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>7</v>
@@ -3464,13 +4298,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K35" s="9"/>
-      <c r="L35" s="13">
+      <c r="L35" s="22">
         <v>1307800</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N35" s="8" t="s">
@@ -3491,22 +4325,22 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="11" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>7</v>
@@ -3518,13 +4352,13 @@
         <v>1</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K36" s="9"/>
-      <c r="L36" s="13">
+      <c r="L36" s="22">
         <v>11089</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N36" s="8" t="s">
@@ -3545,22 +4379,22 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="11" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>7</v>
@@ -3572,20 +4406,20 @@
         <v>0</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="13">
+      <c r="L37" s="22">
         <v>54315</v>
       </c>
-      <c r="M37" s="8" t="s">
-        <v>7</v>
+      <c r="M37" s="14" t="s">
+        <v>473</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>7</v>
@@ -3599,22 +4433,22 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="11" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>7</v>
@@ -3626,13 +4460,13 @@
         <v>1</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K38" s="9"/>
-      <c r="L38" s="13">
+      <c r="L38" s="22">
         <v>12637</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N38" s="8" t="s">
@@ -3653,22 +4487,22 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>7</v>
@@ -3680,14 +4514,14 @@
         <v>0</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K39" s="9"/>
-      <c r="L39" s="13">
+      <c r="L39" s="22">
         <v>11096</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>7</v>
+      <c r="M39" s="14" t="s">
+        <v>476</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>7</v>
@@ -3707,25 +4541,25 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>7</v>
+        <v>477</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>7</v>
@@ -3734,52 +4568,52 @@
         <v>0</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K40" s="9"/>
-      <c r="L40" s="13">
+      <c r="L40" s="22">
         <v>64300</v>
       </c>
-      <c r="M40" s="8" t="s">
-        <v>7</v>
+      <c r="M40" s="14" t="s">
+        <v>478</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q40" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="P40" s="8">
+        <v>1958</v>
+      </c>
+      <c r="Q40" s="8">
         <v>7</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>7</v>
+        <v>479</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>7</v>
@@ -3788,52 +4622,52 @@
         <v>0</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K41" s="9"/>
-      <c r="L41" s="13">
+      <c r="L41" s="22">
         <v>64285</v>
       </c>
-      <c r="M41" s="8" t="s">
-        <v>7</v>
+      <c r="M41" s="14" t="s">
+        <v>481</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>7</v>
+        <v>482</v>
+      </c>
+      <c r="P41" s="8">
+        <v>1954</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>10</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>7</v>
+        <v>483</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>7</v>
+        <v>484</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>7</v>
@@ -3842,71 +4676,71 @@
         <v>0</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K42" s="9"/>
-      <c r="L42" s="13">
+      <c r="L42" s="22">
         <v>64280</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q42" s="8" t="s">
-        <v>7</v>
+        <v>485</v>
+      </c>
+      <c r="P42" s="8">
+        <v>1954</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>9</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="13">
+      <c r="L43" s="22">
         <v>155905</v>
       </c>
-      <c r="M43" s="8" t="s">
-        <v>48</v>
+      <c r="M43" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>7</v>
+        <v>486</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>7</v>
@@ -3923,22 +4757,22 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>7</v>
@@ -3950,14 +4784,14 @@
         <v>0</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K44" s="9"/>
-      <c r="L44" s="13">
+      <c r="L44" s="22">
         <v>358764</v>
       </c>
-      <c r="M44" s="8" t="s">
-        <v>7</v>
+      <c r="M44" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>7</v>
@@ -3977,25 +4811,25 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>7</v>
+        <v>488</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>7</v>
@@ -4004,52 +4838,52 @@
         <v>1</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K45" s="9"/>
-      <c r="L45" s="13">
+      <c r="L45" s="22">
         <v>11083</v>
       </c>
-      <c r="M45" s="8" t="s">
-        <v>7</v>
+      <c r="M45" s="14" t="s">
+        <v>489</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>7</v>
+        <v>490</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>7</v>
+        <v>491</v>
+      </c>
+      <c r="P45" s="8">
+        <v>1958</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>23</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="11" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>7</v>
+        <v>492</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>7</v>
+        <v>493</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>7</v>
@@ -4058,103 +4892,103 @@
         <v>1</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K46" s="9"/>
-      <c r="L46" s="13">
+      <c r="L46" s="22">
         <v>11085</v>
       </c>
-      <c r="M46" s="8" t="s">
-        <v>7</v>
+      <c r="M46" s="14" t="s">
+        <v>494</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q46" s="8" t="s">
-        <v>7</v>
+        <v>495</v>
+      </c>
+      <c r="P46" s="8">
+        <v>1956</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>17</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="11" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>7</v>
+        <v>496</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I47" s="13">
         <v>0</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="13">
+      <c r="L47" s="22">
         <v>161675</v>
       </c>
-      <c r="M47" s="8" t="s">
-        <v>7</v>
+      <c r="M47" s="14" t="s">
+        <v>497</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>7</v>
+        <v>283</v>
+      </c>
+      <c r="P47" s="8">
+        <v>1974</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="11" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>7</v>
@@ -4166,14 +5000,14 @@
         <v>0</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K48" s="9"/>
-      <c r="L48" s="13">
+      <c r="L48" s="22">
         <v>11103</v>
       </c>
-      <c r="M48" s="8" t="s">
-        <v>49</v>
+      <c r="M48" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>7</v>
@@ -4193,25 +5027,25 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="11" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>7</v>
+        <v>499</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>7</v>
@@ -4220,77 +5054,77 @@
         <v>0</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K49" s="9"/>
-      <c r="L49" s="13">
+      <c r="L49" s="22">
         <v>64312</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q49" s="8" t="s">
-        <v>7</v>
+        <v>285</v>
+      </c>
+      <c r="P49" s="8">
+        <v>1958</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>29</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="11" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I50" s="13">
         <v>1</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="13">
+      <c r="L50" s="22">
         <v>172148</v>
       </c>
-      <c r="M50" s="8" t="s">
-        <v>7</v>
+      <c r="M50" s="14">
+        <v>1176</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P50" s="8" t="s">
-        <v>7</v>
+      <c r="P50" s="8">
+        <v>1995</v>
       </c>
       <c r="Q50" s="8" t="s">
         <v>7</v>
@@ -4301,50 +5135,50 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="11" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>7</v>
+        <v>502</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K51" s="9"/>
-      <c r="L51" s="13">
+      <c r="L51" s="22">
         <v>64294</v>
       </c>
-      <c r="M51" s="8" t="s">
-        <v>7</v>
+      <c r="M51" s="14" t="s">
+        <v>503</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P51" s="8" t="s">
-        <v>7</v>
+      <c r="P51" s="8">
+        <v>1971</v>
       </c>
       <c r="Q51" s="8" t="s">
         <v>7</v>
@@ -4355,25 +5189,25 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="11" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>7</v>
@@ -4382,52 +5216,52 @@
         <v>1</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K52" s="9"/>
-      <c r="L52" s="13">
+      <c r="L52" s="22">
         <v>12542</v>
       </c>
-      <c r="M52" s="8" t="s">
-        <v>7</v>
+      <c r="M52" s="14" t="s">
+        <v>505</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>7</v>
+        <v>506</v>
+      </c>
+      <c r="P52" s="8">
+        <v>1947</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>14</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="11" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>7</v>
@@ -4436,23 +5270,23 @@
         <v>0</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K53" s="9"/>
-      <c r="L53" s="13">
+      <c r="L53" s="22">
         <v>218849</v>
       </c>
-      <c r="M53" s="8" t="s">
-        <v>51</v>
+      <c r="M53" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>7</v>
+        <v>486</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>7</v>
+        <v>508</v>
+      </c>
+      <c r="P53" s="8">
+        <v>1999</v>
       </c>
       <c r="Q53" s="8" t="s">
         <v>7</v>
@@ -4463,25 +5297,25 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>7</v>
+        <v>509</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>7</v>
@@ -4490,52 +5324,52 @@
         <v>1</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K54" s="9"/>
-      <c r="L54" s="13">
+      <c r="L54" s="22">
         <v>64286</v>
       </c>
-      <c r="M54" s="8" t="s">
-        <v>7</v>
+      <c r="M54" s="14" t="s">
+        <v>511</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q54" s="8" t="s">
-        <v>7</v>
+        <v>408</v>
+      </c>
+      <c r="P54" s="8">
+        <v>1959</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>30</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="11" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>7</v>
+        <v>513</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>7</v>
@@ -4544,52 +5378,52 @@
         <v>1</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K55" s="9"/>
-      <c r="L55" s="13">
+      <c r="L55" s="22">
         <v>64287</v>
       </c>
-      <c r="M55" s="8" t="s">
-        <v>7</v>
+      <c r="M55" s="14" t="s">
+        <v>514</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q55" s="8" t="s">
-        <v>7</v>
+        <v>515</v>
+      </c>
+      <c r="P55" s="8">
+        <v>1972</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>9</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="11" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>7</v>
+        <v>516</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>7</v>
@@ -4598,20 +5432,20 @@
         <v>1</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K56" s="9"/>
-      <c r="L56" s="13">
+      <c r="L56" s="22">
         <v>11080</v>
       </c>
-      <c r="M56" s="8" t="s">
+      <c r="M56" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>7</v>
+        <v>517</v>
       </c>
       <c r="P56" s="8" t="s">
         <v>7</v>
@@ -4625,25 +5459,25 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="11" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>7</v>
+        <v>518</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>7</v>
+        <v>519</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>7</v>
@@ -4652,20 +5486,20 @@
         <v>0</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K57" s="9"/>
-      <c r="L57" s="13">
+      <c r="L57" s="22">
         <v>390844</v>
       </c>
-      <c r="M57" s="8" t="s">
-        <v>7</v>
+      <c r="M57" s="14" t="s">
+        <v>452</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P57" s="8">
         <v>2003</v>
@@ -4679,133 +5513,133 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="11" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>7</v>
+        <v>520</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>177</v>
+        <v>521</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K58" s="9"/>
-      <c r="L58" s="13">
+      <c r="L58" s="22">
         <v>64283</v>
       </c>
-      <c r="M58" s="8" t="s">
-        <v>7</v>
+      <c r="M58" s="14" t="s">
+        <v>522</v>
       </c>
       <c r="N58" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>7</v>
+        <v>523</v>
+      </c>
+      <c r="P58" s="8">
+        <v>1957</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>4</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="11" t="s">
-        <v>357</v>
+      <c r="A59" s="23" t="s">
+        <v>344</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>7</v>
+        <v>524</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>127</v>
+        <v>525</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I59" s="13">
         <v>1</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="13">
+        <v>125</v>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="22">
         <v>44026</v>
       </c>
-      <c r="M59" s="8" t="s">
-        <v>7</v>
+      <c r="M59" s="14" t="s">
+        <v>526</v>
       </c>
       <c r="N59" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q59" s="8" t="s">
-        <v>7</v>
+        <v>527</v>
+      </c>
+      <c r="P59" s="8">
+        <v>1966</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>21</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="11" t="s">
-        <v>396</v>
+      <c r="A60" s="23" t="s">
+        <v>383</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>179</v>
+        <v>528</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>7</v>
+        <v>529</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>7</v>
+        <v>530</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>7</v>
@@ -4814,52 +5648,52 @@
         <v>1</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="13">
+        <v>125</v>
+      </c>
+      <c r="K60" s="8"/>
+      <c r="L60" s="22">
         <v>64303</v>
       </c>
-      <c r="M60" s="8" t="s">
-        <v>54</v>
+      <c r="M60" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q60" s="8" t="s">
-        <v>7</v>
+      <c r="P60" s="8">
+        <v>1956</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>2</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="11" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>7</v>
+        <v>532</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>7</v>
@@ -4868,23 +5702,23 @@
         <v>1</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K61" s="9"/>
-      <c r="L61" s="13">
+      <c r="L61" s="22">
         <v>59563</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="M61" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P61" s="8" t="s">
-        <v>7</v>
+        <v>533</v>
+      </c>
+      <c r="P61" s="8">
+        <v>1944</v>
       </c>
       <c r="Q61" s="8" t="s">
         <v>7</v>
@@ -4895,202 +5729,202 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="11" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>7</v>
+        <v>534</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I62" s="13">
         <v>1</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K62" s="9"/>
-      <c r="L62" s="13">
+      <c r="L62" s="22">
         <v>64320</v>
       </c>
-      <c r="M62" s="8" t="s">
-        <v>7</v>
+      <c r="M62" s="14" t="s">
+        <v>535</v>
       </c>
       <c r="N62" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P62" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q62" s="8" t="s">
-        <v>7</v>
+        <v>536</v>
+      </c>
+      <c r="P62" s="8">
+        <v>1947</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>20</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="11" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>7</v>
+        <v>537</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>127</v>
+        <v>538</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="13">
         <v>1</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K63" s="9"/>
-      <c r="L63" s="13">
+      <c r="L63" s="22">
         <v>64311</v>
       </c>
-      <c r="M63" s="8" t="s">
-        <v>7</v>
+      <c r="M63" s="14" t="s">
+        <v>539</v>
       </c>
       <c r="N63" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q63" s="8" t="s">
-        <v>7</v>
+        <v>540</v>
+      </c>
+      <c r="P63" s="8">
+        <v>1972</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>26</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="11" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>7</v>
+        <v>541</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>127</v>
+        <v>542</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="13">
         <v>1</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K64" s="9"/>
-      <c r="L64" s="13">
+      <c r="L64" s="22">
         <v>64290</v>
       </c>
-      <c r="M64" s="8" t="s">
-        <v>7</v>
+      <c r="M64" s="14" t="s">
+        <v>543</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P64" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q64" s="8" t="s">
-        <v>7</v>
+        <v>544</v>
+      </c>
+      <c r="P64" s="8">
+        <v>1966</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>31</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="11" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>7</v>
+        <v>545</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I65" s="13">
         <v>0</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K65" s="9"/>
-      <c r="L65" s="13">
+      <c r="L65" s="22">
         <v>643132</v>
       </c>
-      <c r="M65" s="8" t="s">
-        <v>56</v>
+      <c r="M65" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>7</v>
@@ -5102,30 +5936,30 @@
         <v>7</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="11" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>7</v>
+        <v>546</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>7</v>
+        <v>547</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>7</v>
@@ -5134,67 +5968,67 @@
         <v>1</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K66" s="9"/>
-      <c r="L66" s="13">
+      <c r="L66" s="22">
         <v>164416</v>
       </c>
-      <c r="M66" s="8" t="s">
-        <v>7</v>
+      <c r="M66" s="14" t="s">
+        <v>548</v>
       </c>
       <c r="N66" s="8" t="s">
         <v>15</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P66" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>7</v>
+        <v>549</v>
+      </c>
+      <c r="P66" s="8">
+        <v>1955</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>3</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>7</v>
+        <v>550</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K67" s="9"/>
-      <c r="L67" s="13">
+      <c r="L67" s="22">
         <v>381707</v>
       </c>
-      <c r="M67" s="8" t="s">
+      <c r="M67" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N67" s="8" t="s">
@@ -5215,47 +6049,47 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="11" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>7</v>
+        <v>551</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="13">
         <v>0</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="L68" s="13">
+        <v>185</v>
+      </c>
+      <c r="L68" s="22">
         <v>390845</v>
       </c>
-      <c r="M68" s="8" t="s">
-        <v>7</v>
+      <c r="M68" s="14" t="s">
+        <v>552</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P68" s="8">
         <v>2003</v>
@@ -5269,49 +6103,49 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="11" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>7</v>
+        <v>553</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I69" s="13">
         <v>1</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L69" s="13">
+        <v>131</v>
+      </c>
+      <c r="L69" s="22">
         <v>64293</v>
       </c>
-      <c r="M69" s="8" t="s">
-        <v>7</v>
+      <c r="M69" s="14" t="s">
+        <v>554</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>7</v>
+        <v>555</v>
       </c>
       <c r="P69" s="8">
         <v>2010</v>
@@ -5320,37 +6154,43 @@
         <v>7</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>7</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="8"/>
+        <v>556</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E70" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K70" s="9"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8" t="s">
-        <v>60</v>
+      <c r="L70" s="20">
+        <v>985683</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O70" s="8" t="s">
         <v>7</v>
@@ -5367,42 +6207,42 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="11" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>7</v>
+        <v>557</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="13">
         <v>0</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K71" s="9"/>
-      <c r="L71" s="13">
+      <c r="L71" s="22">
         <v>631267</v>
       </c>
-      <c r="M71" s="8" t="s">
-        <v>61</v>
+      <c r="M71" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O71" s="8" t="s">
         <v>7</v>
@@ -5419,22 +6259,22 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="11" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>7</v>
+        <v>558</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>7</v>
@@ -5446,21 +6286,19 @@
         <v>1</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K72" s="9"/>
-      <c r="L72" s="13">
+      <c r="L72" s="22">
         <v>64292</v>
       </c>
-      <c r="M72" s="8" t="s">
-        <v>62</v>
+      <c r="M72" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O72" s="8"/>
       <c r="P72" s="8">
         <v>1966</v>
       </c>
@@ -5473,40 +6311,40 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="11" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I73" s="13">
         <v>0</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K73" s="9"/>
-      <c r="L73" s="13">
+      <c r="L73" s="22">
         <v>1234809</v>
       </c>
-      <c r="M73" s="8" t="s">
+      <c r="M73" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N73" s="8" t="s">
@@ -5527,44 +6365,44 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="11" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>251</v>
+        <v>559</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I74" s="13">
         <v>0</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K74" s="9"/>
-      <c r="L74" s="13">
+      <c r="L74" s="22">
         <v>1307803</v>
       </c>
-      <c r="M74" s="8" t="s">
-        <v>63</v>
+      <c r="M74" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O74" s="8" t="s">
         <v>7</v>
@@ -5581,44 +6419,44 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="11" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H75" s="9"/>
       <c r="I75" s="13">
         <v>0</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L75" s="13">
+        <v>196</v>
+      </c>
+      <c r="L75" s="22">
         <v>673515</v>
       </c>
-      <c r="M75" s="8" t="s">
-        <v>64</v>
+      <c r="M75" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O75" s="8" t="s">
         <v>7</v>
@@ -5635,44 +6473,44 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="11" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I76" s="13">
         <v>0</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K76" s="9"/>
-      <c r="L76" s="13">
+      <c r="L76" s="22">
         <v>1281454</v>
       </c>
-      <c r="M76" s="8" t="s">
-        <v>65</v>
+      <c r="M76" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O76" s="8" t="s">
         <v>7</v>
@@ -5689,44 +6527,44 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="11" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>251</v>
+        <v>559</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I77" s="13">
         <v>0</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K77" s="9"/>
-      <c r="L77" s="13">
+      <c r="L77" s="22">
         <v>1321391</v>
       </c>
-      <c r="M77" s="8" t="s">
-        <v>66</v>
+      <c r="M77" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O77" s="8" t="s">
         <v>7</v>
@@ -5743,22 +6581,22 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="11" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>7</v>
@@ -5770,14 +6608,14 @@
         <v>0</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K78" s="9"/>
-      <c r="L78" s="13">
+      <c r="L78" s="22">
         <v>412969</v>
       </c>
-      <c r="M78" s="8" t="s">
-        <v>67</v>
+      <c r="M78" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="N78" s="8" t="s">
         <v>10</v>
@@ -5797,97 +6635,101 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="11" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>7</v>
+        <v>560</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G79" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="H79" s="9"/>
       <c r="I79" s="13">
         <v>1</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="L79" s="13">
+        <v>203</v>
+      </c>
+      <c r="L79" s="22">
         <v>40004</v>
       </c>
-      <c r="M79" s="8" t="s">
-        <v>7</v>
+      <c r="M79" s="14" t="s">
+        <v>561</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P79" s="8">
         <v>1969</v>
       </c>
-      <c r="Q79" s="8" t="s">
-        <v>7</v>
+      <c r="Q79" s="8">
+        <v>18</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="11" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>7</v>
+        <v>562</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G80" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="H80" s="9"/>
       <c r="I80" s="13">
         <v>1</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="L80" s="13">
+        <v>205</v>
+      </c>
+      <c r="L80" s="22">
         <v>1456752</v>
       </c>
-      <c r="M80" s="8" t="s">
+      <c r="M80" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P80" s="8">
         <v>1989</v>
@@ -5901,39 +6743,43 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>7</v>
+        <v>563</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I81" s="8"/>
-      <c r="J81" s="7"/>
+      <c r="J81" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K81" s="9"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8" t="s">
-        <v>7</v>
+      <c r="L81" s="20">
+        <v>1485186</v>
+      </c>
+      <c r="M81" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P81" s="8">
         <v>2010</v>
@@ -5942,47 +6788,49 @@
         <v>17</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="11" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="8"/>
+        <v>565</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>441</v>
+      </c>
       <c r="E82" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I82" s="13">
         <v>0</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K82" s="9"/>
-      <c r="L82" s="13">
+      <c r="L82" s="22">
         <v>188938</v>
       </c>
-      <c r="M82" s="8" t="s">
+      <c r="M82" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O82" s="8" t="s">
         <v>7</v>
@@ -5999,39 +6847,41 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>7</v>
+        <v>566</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="8"/>
       <c r="J83" s="7"/>
       <c r="K83" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8" t="s">
-        <v>71</v>
+        <v>211</v>
+      </c>
+      <c r="L83" s="20">
+        <v>1286143</v>
+      </c>
+      <c r="M83" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="N83" s="8" t="s">
         <v>21</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>7</v>
+        <v>421</v>
       </c>
       <c r="P83" s="8">
         <v>2004</v>
@@ -6045,47 +6895,47 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="11" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>251</v>
+        <v>559</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I84" s="13">
         <v>0</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K84" s="9"/>
-      <c r="L84" s="13">
+      <c r="L84" s="22">
         <v>1454041</v>
       </c>
-      <c r="M84" s="8" t="s">
-        <v>72</v>
+      <c r="M84" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P84" s="8">
         <v>2010</v>
@@ -6094,34 +6944,38 @@
         <v>15</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="8"/>
+        <v>567</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E85" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="7"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8" t="s">
-        <v>75</v>
+      <c r="L85" s="20">
+        <v>1445557</v>
+      </c>
+      <c r="M85" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="N85" s="8" t="s">
         <v>27</v>
@@ -6136,34 +6990,38 @@
         <v>7</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="8"/>
+        <v>568</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E86" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="7"/>
       <c r="K86" s="9"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8" t="s">
-        <v>77</v>
+      <c r="L86" s="20">
+        <v>649187</v>
+      </c>
+      <c r="M86" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="N86" s="8" t="s">
         <v>27</v>
@@ -6178,47 +7036,49 @@
         <v>7</v>
       </c>
       <c r="R86" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="11" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="8"/>
+      <c r="D87" s="8" t="s">
+        <v>498</v>
+      </c>
       <c r="E87" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I87" s="13">
         <v>0</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K87" s="9"/>
-      <c r="L87" s="13">
+      <c r="L87" s="22">
         <v>1416349</v>
       </c>
-      <c r="M87" s="8" t="s">
+      <c r="M87" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O87" s="8" t="s">
         <v>7</v>
@@ -6235,47 +7095,47 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="11" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I88" s="13">
         <v>0</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K88" s="9"/>
-      <c r="L88" s="13">
+      <c r="L88" s="22">
         <v>1562038</v>
       </c>
-      <c r="M88" s="8" t="s">
-        <v>79</v>
+      <c r="M88" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P88" s="8">
         <v>2013</v>
@@ -6284,52 +7144,52 @@
         <v>7</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="11" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I89" s="13">
         <v>0</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K89" s="9"/>
-      <c r="L89" s="13">
+      <c r="L89" s="22">
         <v>1562039</v>
       </c>
-      <c r="M89" s="8" t="s">
-        <v>81</v>
+      <c r="M89" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P89" s="8">
         <v>2012</v>
@@ -6338,52 +7198,52 @@
         <v>20</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="11" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I90" s="13">
         <v>0</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K90" s="9"/>
-      <c r="L90" s="13">
+      <c r="L90" s="22">
         <v>1562066</v>
       </c>
-      <c r="M90" s="8" t="s">
-        <v>83</v>
+      <c r="M90" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P90" s="8">
         <v>2013</v>
@@ -6397,47 +7257,47 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="11" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I91" s="13">
         <v>0</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K91" s="9"/>
-      <c r="L91" s="13">
+      <c r="L91" s="22">
         <v>1562065</v>
       </c>
-      <c r="M91" s="8" t="s">
-        <v>84</v>
+      <c r="M91" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P91" s="8">
         <v>2012</v>
@@ -6446,211 +7306,211 @@
         <v>2</v>
       </c>
       <c r="R91" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="11" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>7</v>
+        <v>569</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I92" s="13">
         <v>0</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K92" s="9"/>
-      <c r="L92" s="13">
+      <c r="L92" s="22">
         <v>64299</v>
       </c>
-      <c r="M92" s="8" t="s">
-        <v>7</v>
+      <c r="M92" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>7</v>
+        <v>571</v>
       </c>
       <c r="P92" s="8">
         <v>1969</v>
       </c>
-      <c r="Q92" s="8" t="s">
-        <v>7</v>
+      <c r="Q92" s="8">
+        <v>8</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="11" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>7</v>
+        <v>572</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I93" s="13">
         <v>1</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K93" s="9"/>
-      <c r="L93" s="13">
+      <c r="L93" s="22">
         <v>64305</v>
       </c>
-      <c r="M93" s="8" t="s">
-        <v>7</v>
+      <c r="M93" s="14" t="s">
+        <v>573</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>7</v>
+        <v>574</v>
       </c>
       <c r="P93" s="8">
         <v>1977</v>
       </c>
-      <c r="Q93" s="8" t="s">
-        <v>7</v>
+      <c r="Q93" s="8">
+        <v>28</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="11" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>231</v>
+        <v>575</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>7</v>
+        <v>576</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K94" s="9"/>
-      <c r="L94" s="13">
+      <c r="L94" s="22">
         <v>64317</v>
       </c>
-      <c r="M94" s="8" t="s">
-        <v>7</v>
+      <c r="M94" s="14" t="s">
+        <v>577</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>7</v>
+        <v>578</v>
       </c>
       <c r="P94" s="8">
         <v>1970</v>
       </c>
-      <c r="Q94" s="8" t="s">
-        <v>7</v>
+      <c r="Q94" s="8">
+        <v>8</v>
       </c>
       <c r="R94" s="10" t="s">
-        <v>7</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="11" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I95" s="13">
         <v>0</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K95" s="9"/>
-      <c r="L95" s="13">
+      <c r="L95" s="22">
         <v>1633878</v>
       </c>
-      <c r="M95" s="8" t="s">
-        <v>88</v>
+      <c r="M95" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O95" s="8" t="s">
         <v>7</v>
@@ -6667,47 +7527,47 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="11" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>7</v>
+        <v>580</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I96" s="13">
         <v>1</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K96" s="9"/>
-      <c r="L96" s="13">
+      <c r="L96" s="22">
         <v>1691889</v>
       </c>
-      <c r="M96" s="8" t="s">
-        <v>90</v>
+      <c r="M96" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="N96" s="8" t="s">
         <v>43</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>7</v>
+        <v>581</v>
       </c>
       <c r="P96" s="8">
         <v>2011</v>
@@ -6721,25 +7581,25 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="11" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>7</v>
+        <v>582</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>7</v>
+        <v>583</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>7</v>
@@ -6748,20 +7608,20 @@
         <v>0</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K97" s="9"/>
-      <c r="L97" s="13">
+      <c r="L97" s="22">
         <v>1708654</v>
       </c>
-      <c r="M97" s="8" t="s">
-        <v>91</v>
+      <c r="M97" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="N97" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>7</v>
+        <v>584</v>
       </c>
       <c r="P97" s="8">
         <v>2007</v>
@@ -6774,48 +7634,48 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="11" t="s">
-        <v>386</v>
+      <c r="A98" s="23" t="s">
+        <v>373</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>7</v>
+        <v>585</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H98" s="9"/>
+        <v>211</v>
+      </c>
+      <c r="H98" s="8"/>
       <c r="I98" s="13">
         <v>0</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="L98" s="13">
+        <v>211</v>
+      </c>
+      <c r="L98" s="22">
         <v>1708574</v>
       </c>
-      <c r="M98" s="8" t="s">
-        <v>92</v>
+      <c r="M98" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>7</v>
+        <v>586</v>
       </c>
       <c r="P98" s="8">
         <v>2011</v>
@@ -6829,44 +7689,44 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="11" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>7</v>
+        <v>587</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>251</v>
+        <v>559</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I99" s="13">
         <v>0</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K99" s="9"/>
-      <c r="L99" s="13">
+      <c r="L99" s="22">
         <v>1729141</v>
       </c>
-      <c r="M99" s="8" t="s">
-        <v>94</v>
+      <c r="M99" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O99" s="8" t="s">
         <v>7</v>
@@ -6883,47 +7743,47 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="11" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>7</v>
+        <v>588</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K100" s="9"/>
-      <c r="L100" s="13">
+      <c r="L100" s="22">
         <v>1566298</v>
       </c>
-      <c r="M100" s="8" t="s">
-        <v>95</v>
+      <c r="M100" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>7</v>
+        <v>589</v>
       </c>
       <c r="P100" s="8">
         <v>2012</v>
@@ -6937,25 +7797,25 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="11" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>7</v>
+        <v>590</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>7</v>
+        <v>591</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>7</v>
@@ -6964,118 +7824,124 @@
         <v>1</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K101" s="9"/>
-      <c r="L101" s="13">
+      <c r="L101" s="22">
         <v>64318</v>
       </c>
-      <c r="M101" s="8" t="s">
-        <v>7</v>
+      <c r="M101" s="14" t="s">
+        <v>592</v>
       </c>
       <c r="N101" s="8" t="s">
         <v>15</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q101" s="8" t="s">
-        <v>7</v>
+        <v>593</v>
+      </c>
+      <c r="P101" s="8">
+        <v>1955</v>
+      </c>
+      <c r="Q101" s="8">
+        <v>2</v>
       </c>
       <c r="R101" s="10" t="s">
-        <v>7</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>7</v>
+        <v>594</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="8" t="s">
-        <v>7</v>
+        <v>435</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I102" s="8"/>
-      <c r="J102" s="7"/>
+      <c r="J102" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K102" s="9"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8" t="s">
-        <v>7</v>
+      <c r="L102" s="20">
+        <v>64296</v>
+      </c>
+      <c r="M102" s="14" t="s">
+        <v>595</v>
       </c>
       <c r="N102" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q102" s="8" t="s">
-        <v>7</v>
+        <v>596</v>
+      </c>
+      <c r="P102" s="8">
+        <v>1969</v>
+      </c>
+      <c r="Q102" s="8">
+        <v>29</v>
       </c>
       <c r="R102" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="11" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>280</v>
+        <v>597</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="8"/>
+        <v>598</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E103" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>127</v>
+        <v>448</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I103" s="13">
         <v>1</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K103" s="9"/>
-      <c r="L103" s="13">
+      <c r="L103" s="22">
         <v>44024</v>
       </c>
-      <c r="M103" s="8" t="s">
-        <v>7</v>
+      <c r="M103" s="14" t="s">
+        <v>599</v>
       </c>
       <c r="N103" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P103" s="8">
         <v>1998</v>
@@ -7089,67 +7955,71 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>282</v>
+        <v>600</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>7</v>
+        <v>601</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="8" t="s">
-        <v>7</v>
+        <v>602</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="7"/>
       <c r="K104" s="9"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8" t="s">
-        <v>7</v>
+      <c r="L104" s="20">
+        <v>64295</v>
+      </c>
+      <c r="M104" s="14" t="s">
+        <v>603</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P104" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q104" s="8" t="s">
-        <v>7</v>
+        <v>604</v>
+      </c>
+      <c r="P104" s="8">
+        <v>1967</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>2</v>
       </c>
       <c r="R104" s="10" t="s">
-        <v>7</v>
+        <v>605</v>
       </c>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="8"/>
+        <v>606</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E105" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F105" s="7"/>
       <c r="G105" s="8" t="s">
-        <v>7</v>
+        <v>416</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>7</v>
@@ -7157,87 +8027,95 @@
       <c r="I105" s="8"/>
       <c r="J105" s="7"/>
       <c r="K105" s="9"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8" t="s">
-        <v>7</v>
+      <c r="L105" s="20">
+        <v>64284</v>
+      </c>
+      <c r="M105" s="14" t="s">
+        <v>607</v>
       </c>
       <c r="N105" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P105" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q105" s="8" t="s">
-        <v>7</v>
+        <v>608</v>
+      </c>
+      <c r="P105" s="8">
+        <v>1968</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>22</v>
       </c>
       <c r="R105" s="10" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="8"/>
+        <v>609</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E106" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="8" t="s">
-        <v>7</v>
+        <v>610</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="7"/>
       <c r="K106" s="9"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8" t="s">
+      <c r="L106" s="20">
+        <v>64297</v>
+      </c>
+      <c r="M106" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N106" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q106" s="8" t="s">
-        <v>7</v>
+        <v>611</v>
+      </c>
+      <c r="P106" s="8">
+        <v>1947</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>27</v>
       </c>
       <c r="R106" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="8"/>
+        <v>612</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E107" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="8" t="s">
-        <v>7</v>
+        <v>613</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>7</v>
@@ -7245,43 +8123,47 @@
       <c r="I107" s="8"/>
       <c r="J107" s="7"/>
       <c r="K107" s="9"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8" t="s">
-        <v>7</v>
+      <c r="L107" s="20">
+        <v>64309</v>
+      </c>
+      <c r="M107" s="14" t="s">
+        <v>614</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P107" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q107" s="8" t="s">
-        <v>7</v>
+        <v>615</v>
+      </c>
+      <c r="P107" s="8">
+        <v>1968</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>11</v>
       </c>
       <c r="R107" s="10" t="s">
-        <v>7</v>
+        <v>605</v>
       </c>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="8"/>
+        <v>616</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E108" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="8" t="s">
-        <v>7</v>
+        <v>617</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>7</v>
@@ -7289,43 +8171,47 @@
       <c r="I108" s="8"/>
       <c r="J108" s="7"/>
       <c r="K108" s="9"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8" t="s">
-        <v>7</v>
+      <c r="L108" s="20">
+        <v>35279</v>
+      </c>
+      <c r="M108" s="14" t="s">
+        <v>618</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P108" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q108" s="8" t="s">
-        <v>7</v>
+        <v>619</v>
+      </c>
+      <c r="P108" s="8">
+        <v>1981</v>
+      </c>
+      <c r="Q108" s="8">
+        <v>3</v>
       </c>
       <c r="R108" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="8"/>
+        <v>620</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E109" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F109" s="7"/>
       <c r="G109" s="8" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>7</v>
@@ -7333,43 +8219,47 @@
       <c r="I109" s="8"/>
       <c r="J109" s="7"/>
       <c r="K109" s="9"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8" t="s">
-        <v>7</v>
+      <c r="L109" s="20">
+        <v>64307</v>
+      </c>
+      <c r="M109" s="14" t="s">
+        <v>621</v>
       </c>
       <c r="N109" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="P109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q109" s="8" t="s">
-        <v>7</v>
+        <v>294</v>
+      </c>
+      <c r="P109" s="8">
+        <v>1976</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>20</v>
       </c>
       <c r="R109" s="10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="8"/>
+        <v>622</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E110" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="8" t="s">
-        <v>7</v>
+        <v>623</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>7</v>
@@ -7377,68 +8267,74 @@
       <c r="I110" s="8"/>
       <c r="J110" s="7"/>
       <c r="K110" s="9"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8" t="s">
-        <v>7</v>
+      <c r="L110" s="20">
+        <v>64310</v>
+      </c>
+      <c r="M110" s="14" t="s">
+        <v>624</v>
       </c>
       <c r="N110" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q110" s="8" t="s">
-        <v>7</v>
+        <v>625</v>
+      </c>
+      <c r="P110" s="8">
+        <v>1967</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>8</v>
       </c>
       <c r="R110" s="10" t="s">
-        <v>7</v>
+        <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="17"/>
+        <v>626</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="E111" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F111" s="16"/>
       <c r="G111" s="17" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="16"/>
       <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17" t="s">
-        <v>7</v>
+      <c r="L111" s="24">
+        <v>40012</v>
+      </c>
+      <c r="M111" s="25" t="s">
+        <v>627</v>
       </c>
       <c r="N111" s="17" t="s">
         <v>10</v>
       </c>
       <c r="O111" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="P111" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q111" s="17" t="s">
-        <v>7</v>
+        <v>293</v>
+      </c>
+      <c r="P111" s="17">
+        <v>1974</v>
+      </c>
+      <c r="Q111" s="17">
+        <v>26</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="5000" windowWidth="36080" windowHeight="22400" tabRatio="500"/>
+    <workbookView xWindow="6500" yWindow="2360" windowWidth="36080" windowHeight="22400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -2087,7 +2087,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2119,14 +2119,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2138,12 +2131,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2497,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" activeCellId="1" sqref="G4 F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2588,7 +2602,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>390</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -2599,7 +2613,7 @@
         <v>125</v>
       </c>
       <c r="K2" s="9"/>
-      <c r="L2" s="20">
+      <c r="L2" s="17">
         <v>64308</v>
       </c>
       <c r="M2" s="14" t="s">
@@ -2649,19 +2663,19 @@
         <v>125</v>
       </c>
       <c r="K3" s="9"/>
-      <c r="L3" s="20">
+      <c r="L3" s="17">
         <v>64315</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="18">
         <v>1975</v>
       </c>
       <c r="Q3" s="8">
@@ -2699,7 +2713,7 @@
         <v>255</v>
       </c>
       <c r="K4" s="9"/>
-      <c r="L4" s="20">
+      <c r="L4" s="17">
         <v>44017</v>
       </c>
       <c r="M4" s="14" t="s">
@@ -2751,7 +2765,7 @@
         <v>247</v>
       </c>
       <c r="K5" s="9"/>
-      <c r="L5" s="22">
+      <c r="L5" s="19">
         <v>64288</v>
       </c>
       <c r="M5" s="14" t="s">
@@ -2799,7 +2813,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="20">
+      <c r="L6" s="17">
         <v>47300</v>
       </c>
       <c r="M6" s="14" t="s">
@@ -2847,7 +2861,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="7"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="20">
+      <c r="L7" s="17">
         <v>38837</v>
       </c>
       <c r="M7" s="14" t="s">
@@ -2895,7 +2909,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="20">
+      <c r="L8" s="17">
         <v>64319</v>
       </c>
       <c r="M8" s="14" t="s">
@@ -2943,7 +2957,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="7"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="20">
+      <c r="L9" s="17">
         <v>44025</v>
       </c>
       <c r="M9" s="14" t="s">
@@ -2993,7 +3007,7 @@
         <v>125</v>
       </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="20">
+      <c r="L10" s="17">
         <v>486494</v>
       </c>
       <c r="M10" s="14" t="s">
@@ -3045,7 +3059,7 @@
         <v>259</v>
       </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="20">
+      <c r="L11" s="17">
         <v>667516</v>
       </c>
       <c r="M11" s="14" t="s">
@@ -3095,7 +3109,7 @@
         <v>259</v>
       </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="20">
+      <c r="L12" s="17">
         <v>1244563</v>
       </c>
       <c r="M12" s="14">
@@ -3149,7 +3163,7 @@
         <v>247</v>
       </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="22">
+      <c r="L13" s="19">
         <v>33743</v>
       </c>
       <c r="M13" s="14" t="s">
@@ -3199,7 +3213,7 @@
       <c r="K14" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="17">
         <v>1125677</v>
       </c>
       <c r="M14" s="14" t="s">
@@ -3249,7 +3263,7 @@
       <c r="K15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="17">
         <v>478577</v>
       </c>
       <c r="M15" s="14" t="s">
@@ -3299,7 +3313,7 @@
         <v>125</v>
       </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="20">
+      <c r="L16" s="17">
         <v>1302179</v>
       </c>
       <c r="M16" s="14">
@@ -3349,7 +3363,7 @@
         <v>125</v>
       </c>
       <c r="K17" s="9"/>
-      <c r="L17" s="20">
+      <c r="L17" s="17">
         <v>44027</v>
       </c>
       <c r="M17" s="14" t="s">
@@ -3399,7 +3413,7 @@
       <c r="K18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="17">
         <v>1534467</v>
       </c>
       <c r="M18" s="14" t="s">
@@ -3447,7 +3461,7 @@
         <v>125</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="20">
+      <c r="L19" s="17">
         <v>1534468</v>
       </c>
       <c r="M19" s="14" t="s">
@@ -3470,68 +3484,64 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>252</v>
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>7</v>
+        <v>442</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>253</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>255</v>
+        <v>135</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="22">
-        <v>1594788</v>
+      <c r="L20" s="17">
+        <v>2045185</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>36</v>
+        <v>443</v>
       </c>
       <c r="N20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="P20" s="8">
+        <v>2013</v>
+      </c>
+      <c r="Q20" s="8">
         <v>13</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="8">
-        <v>2005</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="R20" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>245</v>
@@ -3541,47 +3551,47 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K21" s="9"/>
-      <c r="L21" s="20">
-        <v>2045185</v>
+      <c r="L21" s="17">
+        <v>2045187</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>443</v>
+        <v>39</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P21" s="8">
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="Q21" s="8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="6" t="s">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>245</v>
@@ -3591,47 +3601,47 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
-        <v>136</v>
+        <v>446</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>136</v>
+        <v>446</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="20">
-        <v>2045187</v>
+      <c r="L22" s="17">
+        <v>1105173</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="P22" s="8">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="Q22" s="8">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="R22" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>137</v>
+      <c r="A23" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>245</v>
@@ -3639,49 +3649,55 @@
       <c r="E23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="G23" s="8" t="s">
-        <v>446</v>
+        <v>165</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="20">
-        <v>1105173</v>
+      <c r="K23" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="L23" s="19">
+        <v>11079</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>7</v>
+        <v>450</v>
       </c>
       <c r="P23" s="8">
-        <v>2007</v>
+        <v>1951</v>
       </c>
       <c r="Q23" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>245</v>
@@ -3705,39 +3721,37 @@
         <v>125</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="L24" s="22">
-        <v>11079</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>449</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L24" s="19">
+        <v>11072</v>
+      </c>
+      <c r="M24" s="14"/>
       <c r="N24" s="8" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P24" s="8">
-        <v>1951</v>
+        <v>1935</v>
       </c>
       <c r="Q24" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="11" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>245</v>
@@ -3746,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>165</v>
@@ -3760,47 +3774,47 @@
       <c r="J25" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L25" s="22">
-        <v>11072</v>
-      </c>
-      <c r="M25" s="14"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="19">
+        <v>11060</v>
+      </c>
+      <c r="M25" s="14">
+        <v>16681</v>
+      </c>
       <c r="N25" s="8" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P25" s="8">
-        <v>1935</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>21</v>
+        <v>1964</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="11" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>7</v>
@@ -3809,43 +3823,43 @@
         <v>7</v>
       </c>
       <c r="I26" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K26" s="9"/>
-      <c r="L26" s="22">
-        <v>11099</v>
+      <c r="L26" s="19">
+        <v>11069</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>7</v>
+      <c r="P26" s="8">
+        <v>2000</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>7</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="11" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>454</v>
+        <v>143</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>245</v>
@@ -3857,7 +3871,7 @@
         <v>250</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>7</v>
@@ -3869,20 +3883,20 @@
         <v>125</v>
       </c>
       <c r="K27" s="9"/>
-      <c r="L27" s="22">
-        <v>11060</v>
-      </c>
-      <c r="M27" s="14">
-        <v>16681</v>
+      <c r="L27" s="19">
+        <v>11053</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>460</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="P27" s="8">
-        <v>1964</v>
+        <v>7</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>7</v>
@@ -3893,13 +3907,13 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>456</v>
+        <v>299</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>245</v>
@@ -3908,10 +3922,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>7</v>
@@ -3923,37 +3937,37 @@
         <v>125</v>
       </c>
       <c r="K28" s="9"/>
-      <c r="L28" s="22">
-        <v>11069</v>
+      <c r="L28" s="19">
+        <v>11082</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>7</v>
+        <v>462</v>
       </c>
       <c r="P28" s="8">
-        <v>2000</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>7</v>
+        <v>1937</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>12</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="11" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>459</v>
+        <v>145</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>245</v>
@@ -3962,35 +3976,35 @@
         <v>7</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="H29" s="9"/>
       <c r="I29" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="22">
-        <v>11053</v>
+      <c r="K29" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="L29" s="19">
+        <v>31658</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>7</v>
+        <v>464</v>
+      </c>
+      <c r="P29" s="8">
+        <v>2012</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>7</v>
@@ -4001,13 +4015,13 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>299</v>
+        <v>465</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>245</v>
@@ -4016,10 +4030,10 @@
         <v>7</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>7</v>
@@ -4028,40 +4042,40 @@
         <v>1</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="K30" s="9"/>
-      <c r="L30" s="22">
-        <v>11082</v>
+      <c r="L30" s="19">
+        <v>11084</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="P30" s="8">
-        <v>1937</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>245</v>
@@ -4070,35 +4084,35 @@
         <v>7</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H31" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="L31" s="22">
-        <v>31658</v>
+        <v>259</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="19">
+        <v>54290</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>464</v>
+        <v>7</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="P31" s="8">
-        <v>2012</v>
+        <v>7</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q31" s="8" t="s">
         <v>7</v>
@@ -4109,13 +4123,13 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>465</v>
+        <v>300</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>245</v>
@@ -4124,10 +4138,10 @@
         <v>7</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>7</v>
+        <v>468</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>7</v>
@@ -4139,37 +4153,37 @@
         <v>247</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="22">
-        <v>11084</v>
+      <c r="L32" s="19">
+        <v>11086</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>466</v>
+        <v>7</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>7</v>
+        <v>469</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>7</v>
+        <v>470</v>
+      </c>
+      <c r="P32" s="8">
+        <v>1929</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>1</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>245</v>
@@ -4193,8 +4207,8 @@
         <v>259</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="22">
-        <v>54290</v>
+      <c r="L33" s="19">
+        <v>1307800</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>7</v>
@@ -4217,13 +4231,13 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>245</v>
@@ -4232,10 +4246,10 @@
         <v>7</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>7</v>
@@ -4244,40 +4258,40 @@
         <v>1</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="22">
-        <v>11086</v>
+      <c r="L34" s="19">
+        <v>11089</v>
       </c>
       <c r="M34" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>469</v>
+        <v>7</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="P34" s="8">
-        <v>1929</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>471</v>
+        <v>302</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>245</v>
@@ -4295,14 +4309,14 @@
         <v>7</v>
       </c>
       <c r="I35" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K35" s="9"/>
-      <c r="L35" s="22">
-        <v>1307800</v>
+      <c r="L35" s="19">
+        <v>12637</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>7</v>
@@ -4325,13 +4339,13 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>301</v>
+        <v>477</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>245</v>
@@ -4340,64 +4354,64 @@
         <v>7</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I36" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K36" s="9"/>
-      <c r="L36" s="22">
-        <v>11089</v>
+      <c r="L36" s="19">
+        <v>64300</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>7</v>
+        <v>478</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="P36" s="8">
+        <v>1958</v>
+      </c>
+      <c r="Q36" s="8">
         <v>7</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>7</v>
@@ -4409,37 +4423,37 @@
         <v>259</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="22">
-        <v>54315</v>
+      <c r="L37" s="19">
+        <v>64285</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="N37" s="8" t="s">
         <v>46</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>7</v>
+        <v>482</v>
+      </c>
+      <c r="P37" s="8">
+        <v>1954</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>10</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>302</v>
+        <v>483</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>245</v>
@@ -4448,106 +4462,106 @@
         <v>7</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>7</v>
+        <v>484</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I38" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K38" s="9"/>
-      <c r="L38" s="22">
-        <v>12637</v>
+      <c r="L38" s="19">
+        <v>64280</v>
       </c>
       <c r="M38" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>7</v>
+        <v>485</v>
+      </c>
+      <c r="P38" s="8">
+        <v>1954</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>9</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K39" s="9"/>
-      <c r="L39" s="22">
-        <v>11096</v>
+      <c r="L39" s="19">
+        <v>11083</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>7</v>
+        <v>490</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>7</v>
+        <v>491</v>
+      </c>
+      <c r="P39" s="8">
+        <v>1958</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>23</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>245</v>
@@ -4556,52 +4570,52 @@
         <v>7</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>198</v>
+        <v>493</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I40" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K40" s="9"/>
-      <c r="L40" s="22">
-        <v>64300</v>
+      <c r="L40" s="19">
+        <v>11085</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>309</v>
+        <v>495</v>
       </c>
       <c r="P40" s="8">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="Q40" s="8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>414</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>245</v>
@@ -4613,10 +4627,10 @@
         <v>263</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>480</v>
+        <v>162</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -4625,37 +4639,37 @@
         <v>259</v>
       </c>
       <c r="K41" s="9"/>
-      <c r="L41" s="22">
-        <v>64285</v>
+      <c r="L41" s="19">
+        <v>161675</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>482</v>
+        <v>283</v>
       </c>
       <c r="P41" s="8">
-        <v>1954</v>
-      </c>
-      <c r="Q41" s="8">
-        <v>10</v>
+        <v>1974</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>393</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>245</v>
@@ -4664,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>7</v>
@@ -4679,74 +4693,74 @@
         <v>259</v>
       </c>
       <c r="K42" s="9"/>
-      <c r="L42" s="22">
-        <v>64280</v>
+      <c r="L42" s="19">
+        <v>64312</v>
       </c>
       <c r="M42" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>485</v>
+        <v>285</v>
       </c>
       <c r="P42" s="8">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="Q42" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>67</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>7</v>
+        <v>501</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I43" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="22">
-        <v>155905</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>47</v>
+      <c r="L43" s="19">
+        <v>172148</v>
+      </c>
+      <c r="M43" s="14">
+        <v>1176</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>486</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P43" s="8" t="s">
-        <v>7</v>
+      <c r="P43" s="8">
+        <v>1995</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>7</v>
@@ -4757,50 +4771,50 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>7</v>
+        <v>502</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="13">
-        <v>0</v>
+      <c r="I44" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K44" s="9"/>
-      <c r="L44" s="22">
-        <v>358764</v>
+      <c r="L44" s="19">
+        <v>64294</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P44" s="8" t="s">
-        <v>7</v>
+      <c r="P44" s="8">
+        <v>1971</v>
       </c>
       <c r="Q44" s="8" t="s">
         <v>7</v>
@@ -4811,13 +4825,13 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>245</v>
@@ -4841,37 +4855,37 @@
         <v>247</v>
       </c>
       <c r="K45" s="9"/>
-      <c r="L45" s="22">
-        <v>11083</v>
+      <c r="L45" s="19">
+        <v>12542</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>490</v>
+        <v>289</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="P45" s="8">
-        <v>1958</v>
+        <v>1947</v>
       </c>
       <c r="Q45" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="11" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>492</v>
+        <v>305</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>245</v>
@@ -4880,52 +4894,52 @@
         <v>7</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I46" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="K46" s="9"/>
-      <c r="L46" s="22">
-        <v>11085</v>
+      <c r="L46" s="19">
+        <v>218849</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>494</v>
+        <v>50</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>100</v>
+        <v>486</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="P46" s="8">
-        <v>1956</v>
-      </c>
-      <c r="Q46" s="8">
-        <v>17</v>
+        <v>1999</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="11" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>245</v>
@@ -4934,106 +4948,106 @@
         <v>7</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>162</v>
+        <v>510</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="I47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="22">
-        <v>161675</v>
+      <c r="L47" s="19">
+        <v>64286</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>283</v>
+        <v>408</v>
       </c>
       <c r="P47" s="8">
-        <v>1974</v>
-      </c>
-      <c r="Q47" s="8" t="s">
-        <v>7</v>
+        <v>1959</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>30</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>80</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="11" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>498</v>
+        <v>245</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>7</v>
+        <v>513</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I48" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K48" s="9"/>
-      <c r="L48" s="22">
-        <v>11103</v>
+      <c r="L48" s="19">
+        <v>64287</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>48</v>
+        <v>514</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>7</v>
+        <v>515</v>
+      </c>
+      <c r="P48" s="8">
+        <v>1972</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>9</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="11" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>245</v>
@@ -5042,23 +5056,23 @@
         <v>7</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>500</v>
+        <v>165</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K49" s="9"/>
-      <c r="L49" s="22">
-        <v>64312</v>
+      <c r="L49" s="19">
+        <v>11080</v>
       </c>
       <c r="M49" s="14" t="s">
         <v>7</v>
@@ -5067,27 +5081,27 @@
         <v>46</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="P49" s="8">
-        <v>1958</v>
-      </c>
-      <c r="Q49" s="8">
-        <v>29</v>
+        <v>517</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>414</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="11" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>245</v>
@@ -5096,35 +5110,35 @@
         <v>7</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>165</v>
+        <v>519</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="I50" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="22">
-        <v>172148</v>
-      </c>
-      <c r="M50" s="14">
-        <v>1176</v>
+      <c r="L50" s="19">
+        <v>390844</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>452</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="P50" s="8">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="Q50" s="8" t="s">
         <v>7</v>
@@ -5135,13 +5149,13 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="11" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>245</v>
@@ -5153,10 +5167,10 @@
         <v>263</v>
       </c>
       <c r="G51" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>254</v>
@@ -5165,37 +5179,37 @@
         <v>255</v>
       </c>
       <c r="K51" s="9"/>
-      <c r="L51" s="22">
-        <v>64294</v>
+      <c r="L51" s="19">
+        <v>64283</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>7</v>
+        <v>523</v>
       </c>
       <c r="P51" s="8">
-        <v>1971</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>7</v>
+        <v>1957</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>4</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="11" t="s">
-        <v>339</v>
+      <c r="A52" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>245</v>
@@ -5204,52 +5218,52 @@
         <v>7</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>165</v>
+        <v>525</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I52" s="13">
         <v>1</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="22">
-        <v>12542</v>
+        <v>125</v>
+      </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="19">
+        <v>44026</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="P52" s="8">
-        <v>1947</v>
+        <v>1966</v>
       </c>
       <c r="Q52" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R52" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="11" t="s">
-        <v>340</v>
+      <c r="A53" s="20" t="s">
+        <v>383</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>168</v>
+        <v>528</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>305</v>
+        <v>529</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>245</v>
@@ -5258,52 +5272,52 @@
         <v>7</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I53" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="22">
-        <v>218849</v>
+      <c r="K53" s="8"/>
+      <c r="L53" s="19">
+        <v>64303</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>486</v>
+        <v>84</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>508</v>
+        <v>7</v>
       </c>
       <c r="P53" s="8">
-        <v>1999</v>
-      </c>
-      <c r="Q53" s="8" t="s">
-        <v>7</v>
+        <v>1956</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>2</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>245</v>
@@ -5315,7 +5329,7 @@
         <v>258</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>7</v>
@@ -5327,37 +5341,37 @@
         <v>125</v>
       </c>
       <c r="K54" s="9"/>
-      <c r="L54" s="22">
-        <v>64286</v>
+      <c r="L54" s="19">
+        <v>59563</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>511</v>
+        <v>7</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>408</v>
+        <v>533</v>
       </c>
       <c r="P54" s="8">
-        <v>1959</v>
-      </c>
-      <c r="Q54" s="8">
-        <v>30</v>
+        <v>1944</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>245</v>
@@ -5369,49 +5383,49 @@
         <v>246</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>513</v>
+        <v>177</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="I55" s="13">
         <v>1</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="K55" s="9"/>
-      <c r="L55" s="22">
-        <v>64287</v>
+      <c r="L55" s="19">
+        <v>64320</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="P55" s="8">
-        <v>1972</v>
+        <v>1947</v>
       </c>
       <c r="Q55" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="11" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>245</v>
@@ -5420,14 +5434,12 @@
         <v>7</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="H56" s="8"/>
       <c r="I56" s="13">
         <v>1</v>
       </c>
@@ -5435,37 +5447,37 @@
         <v>125</v>
       </c>
       <c r="K56" s="9"/>
-      <c r="L56" s="22">
-        <v>11080</v>
+      <c r="L56" s="19">
+        <v>64311</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>7</v>
+        <v>539</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="P56" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q56" s="8" t="s">
-        <v>7</v>
+        <v>540</v>
+      </c>
+      <c r="P56" s="8">
+        <v>1972</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>26</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="11" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>245</v>
@@ -5474,52 +5486,50 @@
         <v>7</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="H57" s="8"/>
       <c r="I57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K57" s="9"/>
-      <c r="L57" s="22">
-        <v>390844</v>
+      <c r="L57" s="19">
+        <v>64290</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>286</v>
+        <v>544</v>
       </c>
       <c r="P57" s="8">
-        <v>2003</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>7</v>
+        <v>1966</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>31</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="11" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>245</v>
@@ -5528,52 +5538,52 @@
         <v>7</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>521</v>
+        <v>181</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>254</v>
+        <v>181</v>
+      </c>
+      <c r="I58" s="13">
+        <v>0</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="K58" s="9"/>
-      <c r="L58" s="22">
-        <v>64283</v>
+      <c r="L58" s="19">
+        <v>643132</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>522</v>
+        <v>54</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>523</v>
+        <v>7</v>
       </c>
       <c r="P58" s="8">
-        <v>1957</v>
-      </c>
-      <c r="Q58" s="8">
-        <v>4</v>
+        <v>2002</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>414</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="23" t="s">
-        <v>344</v>
+      <c r="A59" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>245</v>
@@ -5582,13 +5592,13 @@
         <v>7</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="I59" s="13">
         <v>1</v>
@@ -5596,38 +5606,38 @@
       <c r="J59" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="22">
-        <v>44026</v>
+      <c r="K59" s="9"/>
+      <c r="L59" s="19">
+        <v>164416</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="P59" s="8">
-        <v>1966</v>
+        <v>1955</v>
       </c>
       <c r="Q59" s="8">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>38</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="23" t="s">
-        <v>383</v>
+      <c r="A60" s="11" t="s">
+        <v>351</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>528</v>
+        <v>184</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>245</v>
@@ -5636,52 +5646,52 @@
         <v>7</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="H60" s="9"/>
       <c r="I60" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="22">
-        <v>64303</v>
+      <c r="K60" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L60" s="19">
+        <v>390845</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>52</v>
+        <v>552</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="P60" s="8">
-        <v>1956</v>
-      </c>
-      <c r="Q60" s="8">
-        <v>2</v>
+        <v>2003</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>245</v>
@@ -5690,13 +5700,13 @@
         <v>7</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>532</v>
+        <v>187</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="I61" s="13">
         <v>1</v>
@@ -5704,38 +5714,40 @@
       <c r="J61" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K61" s="9"/>
-      <c r="L61" s="22">
-        <v>59563</v>
+      <c r="K61" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L61" s="19">
+        <v>64293</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>7</v>
+        <v>554</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="P61" s="8">
-        <v>1944</v>
+        <v>2010</v>
       </c>
       <c r="Q61" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>7</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>176</v>
+      <c r="A62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>245</v>
@@ -5743,53 +5755,47 @@
       <c r="E62" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I62" s="13">
-        <v>1</v>
-      </c>
-      <c r="J62" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K62" s="9"/>
-      <c r="L62" s="22">
-        <v>64320</v>
+      <c r="L62" s="17">
+        <v>985683</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>535</v>
+        <v>58</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>536</v>
+        <v>7</v>
       </c>
       <c r="P62" s="8">
-        <v>1947</v>
-      </c>
-      <c r="Q62" s="8">
-        <v>20</v>
+        <v>2009</v>
+      </c>
+      <c r="Q62" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="11" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>245</v>
@@ -5798,50 +5804,50 @@
         <v>7</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>538</v>
+        <v>125</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K63" s="9"/>
-      <c r="L63" s="22">
-        <v>64311</v>
+      <c r="L63" s="19">
+        <v>631267</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>539</v>
+        <v>59</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>540</v>
+        <v>7</v>
       </c>
       <c r="P63" s="8">
-        <v>1972</v>
-      </c>
-      <c r="Q63" s="8">
-        <v>26</v>
+        <v>2010</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="11" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>245</v>
@@ -5850,12 +5856,14 @@
         <v>7</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="H64" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I64" s="13">
         <v>1</v>
       </c>
@@ -5863,37 +5871,35 @@
         <v>125</v>
       </c>
       <c r="K64" s="9"/>
-      <c r="L64" s="22">
-        <v>64290</v>
+      <c r="L64" s="19">
+        <v>64292</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>543</v>
+        <v>60</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O64" s="8" t="s">
-        <v>544</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O64" s="8"/>
       <c r="P64" s="8">
         <v>1966</v>
       </c>
-      <c r="Q64" s="8">
-        <v>31</v>
+      <c r="Q64" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="11" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>545</v>
+        <v>7</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>245</v>
@@ -5905,49 +5911,49 @@
         <v>260</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="H65" s="9"/>
       <c r="I65" s="13">
         <v>0</v>
       </c>
       <c r="J65" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="22">
-        <v>643132</v>
+      <c r="K65" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L65" s="19">
+        <v>673515</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P65" s="8">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="Q65" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="11" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>245</v>
@@ -5956,216 +5962,204 @@
         <v>7</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H66" s="9"/>
       <c r="I66" s="13">
         <v>1</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K66" s="9"/>
-      <c r="L66" s="22">
-        <v>164416</v>
+        <v>247</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L66" s="19">
+        <v>40004</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>549</v>
+        <v>288</v>
       </c>
       <c r="P66" s="8">
-        <v>1955</v>
+        <v>1969</v>
       </c>
       <c r="Q66" s="8">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>393</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="11" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="H67" s="9"/>
       <c r="I67" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="22">
-        <v>381707</v>
+        <v>247</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L67" s="19">
+        <v>1456752</v>
       </c>
       <c r="M67" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>7</v>
+        <v>290</v>
       </c>
       <c r="P67" s="8">
+        <v>1989</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R67" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="17">
+        <v>1485186</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="P68" s="8">
+        <v>2010</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>17</v>
+      </c>
+      <c r="R68" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L69" s="17">
+        <v>1286143</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="P69" s="8">
         <v>2004</v>
       </c>
-      <c r="Q67" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R67" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
-      <c r="A68" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="13">
-        <v>0</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L68" s="22">
-        <v>390845</v>
-      </c>
-      <c r="M68" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O68" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="P68" s="8">
-        <v>2003</v>
-      </c>
-      <c r="Q68" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R68" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I69" s="13">
-        <v>1</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L69" s="22">
-        <v>64293</v>
-      </c>
-      <c r="M69" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="N69" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="P69" s="8">
-        <v>2010</v>
-      </c>
       <c r="Q69" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>458</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>245</v>
@@ -6175,45 +6169,43 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H70" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="H70" s="8"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="J70" s="7"/>
       <c r="K70" s="9"/>
-      <c r="L70" s="20">
-        <v>985683</v>
+      <c r="L70" s="17">
+        <v>1445557</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="O70" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P70" s="8">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="Q70" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>189</v>
+      <c r="A71" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>245</v>
@@ -6221,51 +6213,45 @@
       <c r="E71" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="8" t="s">
         <v>125</v>
       </c>
       <c r="H71" s="8"/>
-      <c r="I71" s="13">
-        <v>0</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="9"/>
-      <c r="L71" s="22">
-        <v>631267</v>
+      <c r="L71" s="17">
+        <v>649187</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="O71" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P71" s="8">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="Q71" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="11" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>245</v>
@@ -6274,158 +6260,160 @@
         <v>7</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="I72" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K72" s="9"/>
-      <c r="L72" s="22">
-        <v>64292</v>
+      <c r="L72" s="19">
+        <v>64299</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>60</v>
+        <v>570</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O72" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>571</v>
+      </c>
       <c r="P72" s="8">
-        <v>1966</v>
-      </c>
-      <c r="Q72" s="8" t="s">
-        <v>7</v>
+        <v>1969</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>8</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="11" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>7</v>
+        <v>572</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="I73" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K73" s="9"/>
-      <c r="L73" s="22">
-        <v>1234809</v>
+      <c r="L73" s="19">
+        <v>64305</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>7</v>
+        <v>573</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>7</v>
+        <v>574</v>
       </c>
       <c r="P73" s="8">
-        <v>2004</v>
-      </c>
-      <c r="Q73" s="8" t="s">
-        <v>7</v>
+        <v>1977</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>28</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="11" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>193</v>
+        <v>575</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>7</v>
+        <v>576</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>559</v>
+        <v>245</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I74" s="13">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K74" s="9"/>
-      <c r="L74" s="22">
-        <v>1307803</v>
+      <c r="L74" s="19">
+        <v>64317</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>61</v>
+        <v>577</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>7</v>
+        <v>578</v>
       </c>
       <c r="P74" s="8">
-        <v>2011</v>
-      </c>
-      <c r="Q74" s="8" t="s">
-        <v>7</v>
+        <v>1970</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>8</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>7</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="11" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>7</v>
+        <v>580</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>245</v>
@@ -6434,35 +6422,35 @@
         <v>7</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H75" s="9"/>
+        <v>229</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="I75" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L75" s="22">
-        <v>673515</v>
+        <v>247</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="19">
+        <v>1691889</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>7</v>
+        <v>581</v>
       </c>
       <c r="P75" s="8">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="Q75" s="8" t="s">
         <v>7</v>
@@ -6473,50 +6461,50 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="11" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>7</v>
+        <v>582</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>498</v>
+        <v>245</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>198</v>
+        <v>583</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="I76" s="13">
         <v>0</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K76" s="9"/>
-      <c r="L76" s="22">
-        <v>1281454</v>
+      <c r="L76" s="19">
+        <v>1708654</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>7</v>
+        <v>584</v>
       </c>
       <c r="P76" s="8">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="Q76" s="8" t="s">
         <v>7</v>
@@ -6526,51 +6514,51 @@
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="11" t="s">
-        <v>357</v>
+      <c r="A77" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>7</v>
+        <v>585</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>559</v>
+        <v>245</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>200</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="H77" s="8"/>
       <c r="I77" s="13">
         <v>0</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="22">
-        <v>1321391</v>
+        <v>125</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L77" s="19">
+        <v>1708574</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>7</v>
+        <v>586</v>
       </c>
       <c r="P77" s="8">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="Q77" s="8" t="s">
         <v>7</v>
@@ -6581,50 +6569,50 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="11" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>7</v>
+        <v>588</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="I78" s="13">
         <v>0</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="K78" s="9"/>
-      <c r="L78" s="22">
-        <v>412969</v>
+      <c r="L78" s="19">
+        <v>1566298</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P78" s="8" t="s">
-        <v>7</v>
+        <v>589</v>
+      </c>
+      <c r="P78" s="8">
+        <v>2012</v>
       </c>
       <c r="Q78" s="8" t="s">
         <v>7</v>
@@ -6635,13 +6623,13 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="11" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>245</v>
@@ -6650,210 +6638,204 @@
         <v>7</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H79" s="9"/>
+        <v>591</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I79" s="13">
         <v>1</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="L79" s="22">
-        <v>40004</v>
+        <v>125</v>
+      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="19">
+        <v>64318</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>288</v>
+        <v>593</v>
       </c>
       <c r="P79" s="8">
+        <v>1955</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>2</v>
+      </c>
+      <c r="R79" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="17">
+        <v>64296</v>
+      </c>
+      <c r="M80" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="P80" s="8">
         <v>1969</v>
       </c>
-      <c r="Q79" s="8">
-        <v>18</v>
-      </c>
-      <c r="R79" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="A80" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="13">
+      <c r="Q80" s="8">
+        <v>29</v>
+      </c>
+      <c r="R80" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I81" s="13">
         <v>1</v>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L80" s="22">
-        <v>1456752</v>
-      </c>
-      <c r="M80" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N80" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P80" s="8">
-        <v>1989</v>
-      </c>
-      <c r="Q80" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R80" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I81" s="8"/>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K81" s="9"/>
-      <c r="L81" s="20">
-        <v>1485186</v>
+      <c r="L81" s="19">
+        <v>44024</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P81" s="8">
-        <v>2010</v>
-      </c>
-      <c r="Q81" s="8">
-        <v>17</v>
+        <v>1998</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>208</v>
+      <c r="A82" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>600</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>441</v>
+        <v>245</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>271</v>
-      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="8" t="s">
-        <v>209</v>
+        <v>602</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I82" s="13">
-        <v>0</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>259</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="7"/>
       <c r="K82" s="9"/>
-      <c r="L82" s="22">
-        <v>188938</v>
+      <c r="L82" s="17">
+        <v>64295</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>7</v>
+        <v>603</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P82" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q82" s="8" t="s">
-        <v>7</v>
+        <v>604</v>
+      </c>
+      <c r="P82" s="8">
+        <v>1967</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>2</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>7</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="6" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>245</v>
@@ -6863,99 +6845,93 @@
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H83" s="9"/>
+        <v>416</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I83" s="8"/>
       <c r="J83" s="7"/>
-      <c r="K83" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L83" s="20">
-        <v>1286143</v>
+      <c r="K83" s="9"/>
+      <c r="L83" s="17">
+        <v>64284</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>69</v>
+        <v>607</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>421</v>
+        <v>608</v>
       </c>
       <c r="P83" s="8">
-        <v>2004</v>
-      </c>
-      <c r="Q83" s="8" t="s">
-        <v>7</v>
+        <v>1968</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>22</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>212</v>
+      <c r="A84" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>7</v>
+        <v>609</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>559</v>
+        <v>245</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="8" t="s">
-        <v>213</v>
+        <v>610</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I84" s="13">
-        <v>0</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>259</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I84" s="8"/>
+      <c r="J84" s="7"/>
       <c r="K84" s="9"/>
-      <c r="L84" s="22">
-        <v>1454041</v>
+      <c r="L84" s="17">
+        <v>64297</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>292</v>
+        <v>611</v>
       </c>
       <c r="P84" s="8">
-        <v>2010</v>
+        <v>1947</v>
       </c>
       <c r="Q84" s="8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>567</v>
+        <v>612</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>245</v>
@@ -6965,43 +6941,45 @@
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H85" s="8"/>
+        <v>613</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I85" s="8"/>
       <c r="J85" s="7"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="20">
-        <v>1445557</v>
+      <c r="L85" s="17">
+        <v>64309</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>73</v>
+        <v>614</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>7</v>
+        <v>615</v>
       </c>
       <c r="P85" s="8">
-        <v>2007</v>
-      </c>
-      <c r="Q85" s="8" t="s">
-        <v>7</v>
+        <v>1968</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>11</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>40</v>
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="6" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>568</v>
+        <v>616</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>245</v>
@@ -7011,202 +6989,186 @@
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H86" s="8"/>
+        <v>617</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I86" s="8"/>
       <c r="J86" s="7"/>
       <c r="K86" s="9"/>
-      <c r="L86" s="20">
-        <v>649187</v>
+      <c r="L86" s="17">
+        <v>35279</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>75</v>
+        <v>618</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>7</v>
+        <v>619</v>
       </c>
       <c r="P86" s="8">
-        <v>2007</v>
-      </c>
-      <c r="Q86" s="8" t="s">
-        <v>7</v>
+        <v>1981</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>3</v>
       </c>
       <c r="R86" s="10" t="s">
-        <v>40</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>215</v>
+        <v>103</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>7</v>
+        <v>620</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>498</v>
+        <v>245</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>270</v>
-      </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I87" s="13">
-        <v>0</v>
-      </c>
-      <c r="J87" s="12" t="s">
-        <v>259</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="9"/>
-      <c r="L87" s="22">
-        <v>1416349</v>
+      <c r="L87" s="17">
+        <v>64307</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>7</v>
+        <v>621</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="P87" s="8">
-        <v>2013</v>
-      </c>
-      <c r="Q87" s="8" t="s">
-        <v>7</v>
+        <v>1976</v>
+      </c>
+      <c r="Q87" s="8">
+        <v>20</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>217</v>
+        <v>104</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>7</v>
+        <v>622</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>498</v>
+        <v>245</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>261</v>
-      </c>
+      <c r="F88" s="7"/>
       <c r="G88" s="8" t="s">
-        <v>218</v>
+        <v>623</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I88" s="13">
-        <v>0</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>259</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I88" s="8"/>
+      <c r="J88" s="7"/>
       <c r="K88" s="9"/>
-      <c r="L88" s="22">
-        <v>1562038</v>
+      <c r="L88" s="17">
+        <v>64310</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>77</v>
+        <v>624</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>296</v>
+        <v>625</v>
       </c>
       <c r="P88" s="8">
-        <v>2013</v>
+        <v>1967</v>
       </c>
       <c r="Q88" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>78</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I89" s="13">
-        <v>0</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>259</v>
-      </c>
+      <c r="A89" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="22"/>
+      <c r="G89" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="22"/>
       <c r="K89" s="9"/>
-      <c r="L89" s="22">
-        <v>1562039</v>
-      </c>
-      <c r="M89" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N89" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="P89" s="8">
-        <v>2012</v>
-      </c>
-      <c r="Q89" s="8">
-        <v>20</v>
-      </c>
-      <c r="R89" s="10" t="s">
-        <v>80</v>
+      <c r="L89" s="26">
+        <v>40012</v>
+      </c>
+      <c r="M89" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="P89" s="9">
+        <v>1974</v>
+      </c>
+      <c r="Q89" s="9">
+        <v>26</v>
+      </c>
+      <c r="R89" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="11" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>7</v>
@@ -7221,10 +7183,10 @@
         <v>261</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="I90" s="13">
         <v>0</v>
@@ -7233,34 +7195,34 @@
         <v>259</v>
       </c>
       <c r="K90" s="9"/>
-      <c r="L90" s="22">
-        <v>1562066</v>
+      <c r="L90" s="19">
+        <v>1281454</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="N90" s="8" t="s">
         <v>46</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>296</v>
+        <v>7</v>
       </c>
       <c r="P90" s="8">
-        <v>2013</v>
-      </c>
-      <c r="Q90" s="8">
-        <v>30</v>
+        <v>2008</v>
+      </c>
+      <c r="Q90" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>7</v>
@@ -7272,13 +7234,13 @@
         <v>7</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I91" s="13">
         <v>0</v>
@@ -7287,40 +7249,40 @@
         <v>259</v>
       </c>
       <c r="K91" s="9"/>
-      <c r="L91" s="22">
-        <v>1562065</v>
+      <c r="L91" s="19">
+        <v>1416349</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>296</v>
+        <v>7</v>
       </c>
       <c r="P91" s="8">
-        <v>2012</v>
-      </c>
-      <c r="Q91" s="8">
-        <v>2</v>
+        <v>2013</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R91" s="10" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>569</v>
+        <v>7</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>245</v>
+        <v>498</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>7</v>
@@ -7329,10 +7291,10 @@
         <v>261</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I92" s="13">
         <v>0</v>
@@ -7341,142 +7303,142 @@
         <v>259</v>
       </c>
       <c r="K92" s="9"/>
-      <c r="L92" s="22">
-        <v>64299</v>
+      <c r="L92" s="19">
+        <v>1562038</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>570</v>
+        <v>77</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>571</v>
+        <v>296</v>
       </c>
       <c r="P92" s="8">
-        <v>1969</v>
+        <v>2013</v>
       </c>
       <c r="Q92" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>572</v>
+        <v>7</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>245</v>
+        <v>498</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I93" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K93" s="9"/>
-      <c r="L93" s="22">
-        <v>64305</v>
+      <c r="L93" s="19">
+        <v>1562039</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>574</v>
+        <v>296</v>
       </c>
       <c r="P93" s="8">
-        <v>1977</v>
+        <v>2012</v>
       </c>
       <c r="Q93" s="8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>414</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>575</v>
+        <v>220</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>576</v>
+        <v>7</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>245</v>
+        <v>498</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>254</v>
+        <v>218</v>
+      </c>
+      <c r="I94" s="13">
+        <v>0</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K94" s="9"/>
-      <c r="L94" s="22">
-        <v>64317</v>
+      <c r="L94" s="19">
+        <v>1562066</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>578</v>
+        <v>296</v>
       </c>
       <c r="P94" s="8">
-        <v>1970</v>
+        <v>2013</v>
       </c>
       <c r="Q94" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="R94" s="10" t="s">
-        <v>579</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>7</v>
@@ -7488,13 +7450,13 @@
         <v>7</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="I95" s="13">
         <v>0</v>
@@ -7503,71 +7465,71 @@
         <v>259</v>
       </c>
       <c r="K95" s="9"/>
-      <c r="L95" s="22">
-        <v>1633878</v>
+      <c r="L95" s="19">
+        <v>1562065</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="P95" s="8">
-        <v>2011</v>
-      </c>
-      <c r="Q95" s="8" t="s">
-        <v>7</v>
+        <v>2012</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>2</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>580</v>
+        <v>7</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>245</v>
+        <v>498</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="I96" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="K96" s="9"/>
-      <c r="L96" s="22">
-        <v>1691889</v>
+      <c r="L96" s="19">
+        <v>1633878</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>581</v>
+        <v>7</v>
       </c>
       <c r="P96" s="8">
         <v>2011</v>
@@ -7581,25 +7543,25 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="11" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>582</v>
+        <v>303</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>245</v>
+        <v>498</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>583</v>
+        <v>7</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>7</v>
@@ -7608,23 +7570,23 @@
         <v>0</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K97" s="9"/>
-      <c r="L97" s="22">
-        <v>1708654</v>
+      <c r="L97" s="19">
+        <v>11103</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="P97" s="8">
-        <v>2007</v>
+        <v>7</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q97" s="8" t="s">
         <v>7</v>
@@ -7634,48 +7596,48 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="23" t="s">
-        <v>373</v>
+      <c r="A98" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>585</v>
+        <v>7</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>245</v>
+        <v>559</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H98" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="I98" s="13">
         <v>0</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K98" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L98" s="22">
-        <v>1708574</v>
+        <v>259</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="19">
+        <v>1307803</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>586</v>
+        <v>7</v>
       </c>
       <c r="P98" s="8">
         <v>2011</v>
@@ -7689,13 +7651,13 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="11" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>587</v>
+        <v>7</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>559</v>
@@ -7704,13 +7666,13 @@
         <v>7</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="I99" s="13">
         <v>0</v>
@@ -7719,11 +7681,11 @@
         <v>259</v>
       </c>
       <c r="K99" s="9"/>
-      <c r="L99" s="22">
-        <v>1729141</v>
+      <c r="L99" s="19">
+        <v>1321391</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="N99" s="8" t="s">
         <v>46</v>
@@ -7734,217 +7696,221 @@
       <c r="P99" s="8">
         <v>2008</v>
       </c>
-      <c r="Q99" s="8">
-        <v>28</v>
+      <c r="Q99" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R99" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="11" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>588</v>
+        <v>7</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>245</v>
+        <v>559</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K100" s="9"/>
-      <c r="L100" s="22">
-        <v>1566298</v>
+      <c r="L100" s="19">
+        <v>1454041</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>589</v>
+        <v>292</v>
       </c>
       <c r="P100" s="8">
-        <v>2012</v>
-      </c>
-      <c r="Q100" s="8" t="s">
-        <v>7</v>
+        <v>2010</v>
+      </c>
+      <c r="Q100" s="8">
+        <v>15</v>
       </c>
       <c r="R100" s="10" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="11" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>245</v>
+        <v>559</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>591</v>
+        <v>165</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="I101" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K101" s="9"/>
-      <c r="L101" s="22">
-        <v>64318</v>
+      <c r="L101" s="19">
+        <v>1729141</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>592</v>
+        <v>92</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>593</v>
+        <v>7</v>
       </c>
       <c r="P101" s="8">
-        <v>1955</v>
+        <v>2008</v>
       </c>
       <c r="Q101" s="8">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="R101" s="10" t="s">
-        <v>579</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>236</v>
+      <c r="A102" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>594</v>
+        <v>7</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="7"/>
+      <c r="F102" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="G102" s="8" t="s">
-        <v>435</v>
+        <v>133</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I102" s="8"/>
-      <c r="J102" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="K102" s="9"/>
-      <c r="L102" s="20">
-        <v>64296</v>
+      <c r="L102" s="19">
+        <v>1594788</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>595</v>
+        <v>36</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>596</v>
+        <v>7</v>
       </c>
       <c r="P102" s="8">
-        <v>1969</v>
-      </c>
-      <c r="Q102" s="8">
-        <v>29</v>
+        <v>2005</v>
+      </c>
+      <c r="Q102" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R102" s="10" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="11" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>597</v>
+        <v>140</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>598</v>
+        <v>453</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>448</v>
+        <v>7</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="I103" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K103" s="9"/>
-      <c r="L103" s="22">
-        <v>44024</v>
+      <c r="L103" s="19">
+        <v>11099</v>
       </c>
       <c r="M103" s="14" t="s">
-        <v>599</v>
+        <v>7</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="P103" s="8">
-        <v>1998</v>
+        <v>7</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q103" s="8" t="s">
         <v>7</v>
@@ -7954,390 +7920,442 @@
       </c>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>600</v>
+      <c r="A104" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>601</v>
+        <v>472</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F104" s="7"/>
+      <c r="F104" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="G104" s="8" t="s">
-        <v>602</v>
+        <v>7</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I104" s="8"/>
-      <c r="J104" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I104" s="13">
+        <v>0</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K104" s="9"/>
-      <c r="L104" s="20">
-        <v>64295</v>
+      <c r="L104" s="19">
+        <v>54315</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>603</v>
+        <v>473</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="P104" s="8">
-        <v>1967</v>
-      </c>
-      <c r="Q104" s="8">
-        <v>2</v>
+        <v>474</v>
+      </c>
+      <c r="P104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q104" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R104" s="10" t="s">
-        <v>605</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>237</v>
+      <c r="A105" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>606</v>
+        <v>475</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F105" s="7"/>
+      <c r="F105" s="12" t="s">
+        <v>262</v>
+      </c>
       <c r="G105" s="8" t="s">
-        <v>416</v>
+        <v>7</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="8"/>
-      <c r="J105" s="7"/>
+      <c r="I105" s="13">
+        <v>0</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K105" s="9"/>
-      <c r="L105" s="20">
-        <v>64284</v>
+      <c r="L105" s="19">
+        <v>11096</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>607</v>
+        <v>476</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="P105" s="8">
-        <v>1968</v>
-      </c>
-      <c r="Q105" s="8">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q105" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R105" s="10" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>238</v>
+      <c r="A106" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>609</v>
+        <v>7</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="7"/>
+      <c r="F106" s="12" t="s">
+        <v>265</v>
+      </c>
       <c r="G106" s="8" t="s">
-        <v>610</v>
+        <v>157</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I106" s="8"/>
-      <c r="J106" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="I106" s="13">
+        <v>0</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K106" s="9"/>
-      <c r="L106" s="20">
-        <v>64297</v>
+      <c r="L106" s="19">
+        <v>155905</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="P106" s="8">
-        <v>1947</v>
-      </c>
-      <c r="Q106" s="8">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="P106" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q106" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R106" s="10" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>239</v>
+      <c r="A107" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>612</v>
+        <v>7</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="7"/>
+      <c r="F107" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="G107" s="8" t="s">
-        <v>613</v>
+        <v>7</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I107" s="8"/>
-      <c r="J107" s="7"/>
+      <c r="I107" s="13">
+        <v>0</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K107" s="9"/>
-      <c r="L107" s="20">
-        <v>64309</v>
+      <c r="L107" s="19">
+        <v>358764</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>614</v>
+        <v>487</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="P107" s="8">
-        <v>1968</v>
-      </c>
-      <c r="Q107" s="8">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q107" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R107" s="10" t="s">
-        <v>605</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>240</v>
+      <c r="A108" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>616</v>
+        <v>550</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F108" s="7"/>
+      <c r="F108" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="G108" s="8" t="s">
-        <v>617</v>
+        <v>183</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I108" s="8"/>
-      <c r="J108" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="I108" s="13">
+        <v>0</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K108" s="9"/>
-      <c r="L108" s="20">
-        <v>35279</v>
+      <c r="L108" s="19">
+        <v>381707</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>618</v>
+        <v>7</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>619</v>
+        <v>7</v>
       </c>
       <c r="P108" s="8">
-        <v>1981</v>
-      </c>
-      <c r="Q108" s="8">
-        <v>3</v>
+        <v>2004</v>
+      </c>
+      <c r="Q108" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R108" s="10" t="s">
-        <v>414</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>241</v>
+        <v>353</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>620</v>
+        <v>7</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F109" s="7"/>
+      <c r="F109" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="G109" s="8" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I109" s="8"/>
-      <c r="J109" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="I109" s="13">
+        <v>0</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K109" s="9"/>
-      <c r="L109" s="20">
-        <v>64307</v>
+      <c r="L109" s="19">
+        <v>1234809</v>
       </c>
       <c r="M109" s="14" t="s">
-        <v>621</v>
+        <v>7</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>294</v>
+        <v>7</v>
       </c>
       <c r="P109" s="8">
-        <v>1976</v>
-      </c>
-      <c r="Q109" s="8">
-        <v>20</v>
+        <v>2004</v>
+      </c>
+      <c r="Q109" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R109" s="10" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>242</v>
+        <v>358</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>622</v>
+        <v>7</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F110" s="7"/>
+      <c r="F110" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="G110" s="8" t="s">
-        <v>623</v>
+        <v>7</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I110" s="8"/>
-      <c r="J110" s="7"/>
+      <c r="I110" s="13">
+        <v>0</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K110" s="9"/>
-      <c r="L110" s="20">
-        <v>64310</v>
+      <c r="L110" s="19">
+        <v>412969</v>
       </c>
       <c r="M110" s="14" t="s">
-        <v>624</v>
+        <v>65</v>
       </c>
       <c r="N110" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="P110" s="8">
-        <v>1967</v>
-      </c>
-      <c r="Q110" s="8">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="P110" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q110" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R110" s="10" t="s">
-        <v>458</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:18">
-      <c r="A111" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="H111" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="I111" s="17"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="24">
-        <v>40012</v>
-      </c>
-      <c r="M111" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="N111" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O111" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="P111" s="17">
-        <v>1974</v>
-      </c>
-      <c r="Q111" s="17">
-        <v>26</v>
-      </c>
-      <c r="R111" s="18" t="s">
-        <v>40</v>
+      <c r="A111" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H111" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I111" s="25">
+        <v>0</v>
+      </c>
+      <c r="J111" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="K111" s="15"/>
+      <c r="L111" s="27">
+        <v>188938</v>
+      </c>
+      <c r="M111" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N111" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O111" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="P111" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q111" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R111" s="31" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:R111">
+    <sortCondition ref="D2:D111"/>
+    <sortCondition ref="E2:E111"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="2360" windowWidth="36080" windowHeight="22400" tabRatio="500"/>
+    <workbookView xWindow="9960" yWindow="1920" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="637">
   <si>
     <t>isolate</t>
   </si>
@@ -1904,6 +1903,33 @@
   </si>
   <si>
     <t>CSIRO4</t>
+  </si>
+  <si>
+    <t>cISF</t>
+  </si>
+  <si>
+    <t>NKV</t>
+  </si>
+  <si>
+    <t>NKV1</t>
+  </si>
+  <si>
+    <t>NKV2</t>
+  </si>
+  <si>
+    <t>NKV3</t>
+  </si>
+  <si>
+    <t>TickVert</t>
+  </si>
+  <si>
+    <t>dISF1</t>
+  </si>
+  <si>
+    <t>MosqVert</t>
+  </si>
+  <si>
+    <t>dISF2</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1981,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1972,6 +1998,84 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2064,7 +2168,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2086,8 +2190,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2158,8 +2326,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2170,6 +2354,38 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2180,6 +2396,38 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2511,13 +2759,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" activeCellId="1" sqref="G4 F25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="36.5" customWidth="1"/>
@@ -2587,13 +2835,13 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>245</v>
@@ -2602,34 +2850,34 @@
         <v>7</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="16" t="s">
-        <v>390</v>
+      <c r="G2" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="7" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="17">
-        <v>64308</v>
+        <v>44017</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P2" s="8">
-        <v>1979</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>7</v>
+        <v>1966</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>4</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>393</v>
@@ -2637,13 +2885,13 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>394</v>
+        <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>245</v>
@@ -2653,47 +2901,47 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="8"/>
       <c r="J3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="L3" s="17">
-        <v>64315</v>
+        <v>1534467</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="P3" s="18">
-        <v>1975</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>8</v>
+        <v>438</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1966</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>245</v>
@@ -2703,47 +2951,47 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K4" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="L4" s="17">
-        <v>44017</v>
+        <v>478577</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>398</v>
+        <v>29</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>399</v>
+        <v>7</v>
       </c>
       <c r="P4" s="8">
-        <v>1966</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>4</v>
+        <v>2011</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="11" t="s">
-        <v>312</v>
+      <c r="A5" s="20" t="s">
+        <v>383</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>113</v>
+        <v>528</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>245</v>
@@ -2752,50 +3000,52 @@
         <v>7</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="H5" s="13"/>
+        <v>261</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I5" s="13">
         <v>1</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K5" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="19">
-        <v>64288</v>
+        <v>64303</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>402</v>
+        <v>52</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>403</v>
+        <v>7</v>
       </c>
       <c r="P5" s="8">
-        <v>1968</v>
+        <v>1956</v>
       </c>
       <c r="Q5" s="8">
         <v>2</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>245</v>
@@ -2805,28 +3055,30 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="8"/>
       <c r="L6" s="17">
-        <v>47300</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>405</v>
+        <v>1244563</v>
+      </c>
+      <c r="M6" s="14">
+        <v>178</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>7</v>
+        <v>298</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2011</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>7</v>
@@ -2836,14 +3088,14 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>114</v>
+      <c r="A7" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>245</v>
@@ -2851,47 +3103,53 @@
       <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K7" s="9"/>
-      <c r="L7" s="17">
-        <v>38837</v>
+      <c r="L7" s="19">
+        <v>54290</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>407</v>
+        <v>7</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="P7" s="8">
-        <v>1956</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>245</v>
@@ -2900,35 +3158,37 @@
         <v>7</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
-        <v>411</v>
+      <c r="G8" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="17">
-        <v>64319</v>
+        <v>64308</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="P8" s="8">
-        <v>1968</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>25</v>
+        <v>1979</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2980,14 +3240,14 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>117</v>
+      <c r="A10" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>245</v>
@@ -2995,49 +3255,53 @@
       <c r="E10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="17">
-        <v>486494</v>
+      <c r="L10" s="19">
+        <v>33743</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>420</v>
+        <v>7</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P10" s="8">
-        <v>2004</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>7</v>
+        <v>1957</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>27</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>245</v>
@@ -3047,49 +3311,47 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>423</v>
+        <v>136</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="I11" s="8"/>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="17">
-        <v>667516</v>
+        <v>2045187</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>424</v>
+        <v>39</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
       <c r="P11" s="8">
-        <v>2008</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>7</v>
+        <v>1996</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>22</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>245</v>
@@ -3099,47 +3361,47 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K12" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="K12" s="9"/>
       <c r="L12" s="17">
-        <v>1244563</v>
-      </c>
-      <c r="M12" s="14">
-        <v>178</v>
+        <v>2045185</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>443</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="P12" s="8">
-        <v>2011</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>7</v>
+        <v>2013</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>13</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>122</v>
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>245</v>
@@ -3147,53 +3409,49 @@
       <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
-        <v>123</v>
+        <v>446</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="13">
+        <v>446</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="17">
+        <v>1105173</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="8">
+        <v>2007</v>
+      </c>
+      <c r="Q13" s="8">
         <v>1</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="19">
-        <v>33743</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="P13" s="8">
-        <v>1957</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>27</v>
-      </c>
       <c r="R13" s="10" t="s">
-        <v>409</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>428</v>
+        <v>566</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>245</v>
@@ -3202,81 +3460,83 @@
         <v>7</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="9" t="s">
-        <v>429</v>
+      <c r="G14" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="8" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="L14" s="17">
-        <v>1125677</v>
+        <v>1286143</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="P14" s="8">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>126</v>
+      <c r="A15" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>245</v>
+        <v>471</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>559</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" s="17">
-        <v>478577</v>
+        <v>7</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="19">
+        <v>1307800</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="8">
-        <v>2011</v>
+      <c r="P15" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>7</v>
@@ -3287,13 +3547,13 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="6" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>245</v>
@@ -3303,10 +3563,10 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="7" t="s">
@@ -3314,36 +3574,36 @@
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="17">
-        <v>1302179</v>
-      </c>
-      <c r="M16" s="14">
-        <v>56</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="P16" s="8">
-        <v>2010</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>7</v>
+        <v>64315</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="P16" s="18">
+        <v>1975</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>8</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>130</v>
+      <c r="A17" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>245</v>
@@ -3351,49 +3611,51 @@
       <c r="E17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7" t="s">
-        <v>125</v>
+      <c r="F17" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="K17" s="9"/>
-      <c r="L17" s="17">
-        <v>44027</v>
+      <c r="L17" s="19">
+        <v>64288</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="P17" s="8">
-        <v>1961</v>
+        <v>1968</v>
       </c>
       <c r="Q17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>7</v>
+        <v>434</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>245</v>
@@ -3403,36 +3665,36 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="9"/>
+        <v>435</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="17">
-        <v>1534467</v>
+        <v>44027</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>7</v>
+        <v>437</v>
       </c>
       <c r="P18" s="8">
-        <v>1966</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>7</v>
+        <v>1961</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3485,259 +3747,259 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>7</v>
+      <c r="E20" s="39" t="s">
+        <v>633</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="9"/>
       <c r="L20" s="17">
-        <v>2045185</v>
+        <v>47300</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="P20" s="8">
-        <v>2013</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>256</v>
+      <c r="A21" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>444</v>
+        <v>551</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="E21" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="G21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="17">
-        <v>2045187</v>
+      <c r="K21" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" s="19">
+        <v>390845</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>39</v>
+        <v>552</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P21" s="8">
-        <v>1996</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>22</v>
+        <v>2003</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>137</v>
+      <c r="A22" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="E22" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="G22" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="17">
-        <v>1105173</v>
+      <c r="K22" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="L22" s="19">
+        <v>31658</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>42</v>
+        <v>464</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="P22" s="8">
-        <v>2007</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>1</v>
+        <v>2012</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>447</v>
+        <v>518</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>7</v>
+      <c r="E23" s="32" t="s">
+        <v>628</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>165</v>
+        <v>519</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>448</v>
-      </c>
+      <c r="K23" s="9"/>
       <c r="L23" s="19">
-        <v>11079</v>
+        <v>390844</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>450</v>
+        <v>286</v>
       </c>
       <c r="P23" s="8">
-        <v>1951</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>9</v>
+        <v>2003</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>139</v>
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="13">
-        <v>1</v>
-      </c>
-      <c r="J24" s="12" t="s">
+      <c r="E24" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="L24" s="19">
-        <v>11072</v>
-      </c>
-      <c r="M24" s="14"/>
+      <c r="K24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="17">
+        <v>1125677</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="N24" s="8" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="P24" s="8">
-        <v>1935</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>21</v>
+        <v>2005</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>40</v>
@@ -3745,50 +4007,50 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="11" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>454</v>
+        <v>305</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>7</v>
+      <c r="E25" s="32" t="s">
+        <v>628</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>165</v>
+        <v>507</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="19">
-        <v>11060</v>
-      </c>
-      <c r="M25" s="14">
-        <v>16681</v>
+        <v>218849</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>44</v>
+        <v>486</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="P25" s="8">
-        <v>1964</v>
+        <v>1999</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>7</v>
@@ -3798,105 +4060,105 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="11" t="s">
-        <v>378</v>
+      <c r="A26" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>456</v>
+        <v>585</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>7</v>
+      <c r="E26" s="33" t="s">
+        <v>628</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="H26" s="8"/>
       <c r="I26" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="L26" s="19">
-        <v>11069</v>
+        <v>1708574</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>457</v>
+        <v>90</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>7</v>
+        <v>586</v>
       </c>
       <c r="P26" s="8">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>458</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="11" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>459</v>
+        <v>195</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>7</v>
+      <c r="E27" s="33" t="s">
+        <v>628</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="L27" s="19">
-        <v>11053</v>
+        <v>673515</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>460</v>
+        <v>62</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="8" t="s">
-        <v>7</v>
+      <c r="P27" s="8">
+        <v>2009</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>7</v>
@@ -3906,105 +4168,99 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>144</v>
+      <c r="A28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>299</v>
+        <v>422</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="E28" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="8" t="s">
-        <v>165</v>
+        <v>423</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="13">
-        <v>1</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="K28" s="9"/>
-      <c r="L28" s="19">
-        <v>11082</v>
+      <c r="L28" s="17">
+        <v>667516</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>462</v>
+        <v>7</v>
       </c>
       <c r="P28" s="8">
-        <v>1937</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>12</v>
+        <v>2008</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>393</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>145</v>
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E29" s="33" t="s">
+        <v>628</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="L29" s="19">
-        <v>31658</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>464</v>
+      <c r="K29" s="9"/>
+      <c r="L29" s="17">
+        <v>1302179</v>
+      </c>
+      <c r="M29" s="14">
+        <v>56</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="P29" s="8">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>7</v>
@@ -4015,50 +4271,50 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>465</v>
+        <v>582</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>7</v>
+      <c r="E30" s="33" t="s">
+        <v>628</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>7</v>
+        <v>583</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I30" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="19">
-        <v>11084</v>
+        <v>1708654</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>466</v>
+        <v>89</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>7</v>
+        <v>584</v>
+      </c>
+      <c r="P30" s="8">
+        <v>2007</v>
       </c>
       <c r="Q30" s="8" t="s">
         <v>7</v>
@@ -4069,158 +4325,156 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>7</v>
+      <c r="E31" s="33" t="s">
+        <v>628</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="19">
-        <v>54290</v>
+        <v>643132</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P31" s="8" t="s">
-        <v>7</v>
+      <c r="P31" s="8">
+        <v>2002</v>
       </c>
       <c r="Q31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="11" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>7</v>
+      <c r="E32" s="41" t="s">
+        <v>634</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>468</v>
+        <v>234</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="I32" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="19">
-        <v>11086</v>
+        <v>1566298</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>469</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>470</v>
+        <v>589</v>
       </c>
       <c r="P32" s="8">
-        <v>1929</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>1</v>
+        <v>2012</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>7</v>
+      <c r="E33" s="44" t="s">
+        <v>636</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H33" s="8"/>
       <c r="I33" s="13">
         <v>0</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="19">
-        <v>1307800</v>
+        <v>631267</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P33" s="8" t="s">
-        <v>7</v>
+      <c r="P33" s="8">
+        <v>2010</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>7</v>
@@ -4230,51 +4484,45 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>150</v>
+      <c r="A34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>301</v>
+        <v>556</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="E34" s="44" t="s">
+        <v>636</v>
+      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="13">
-        <v>1</v>
-      </c>
-      <c r="J34" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="19">
-        <v>11089</v>
+      <c r="L34" s="17">
+        <v>985683</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P34" s="8" t="s">
-        <v>7</v>
+      <c r="P34" s="8">
+        <v>2009</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>7</v>
@@ -4284,432 +4532,394 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>152</v>
+      <c r="A35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>302</v>
+        <v>567</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="E35" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="13">
-        <v>1</v>
-      </c>
-      <c r="J35" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="19">
-        <v>12637</v>
+      <c r="L35" s="17">
+        <v>1445557</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="8" t="s">
-        <v>7</v>
+      <c r="P35" s="8">
+        <v>2007</v>
       </c>
       <c r="Q35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>154</v>
+      <c r="A36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>477</v>
+        <v>568</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>261</v>
-      </c>
+      <c r="E36" s="44" t="s">
+        <v>636</v>
+      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="13">
-        <v>0</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>259</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="19">
-        <v>64300</v>
+      <c r="L36" s="17">
+        <v>649187</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>478</v>
+        <v>75</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>309</v>
+        <v>7</v>
       </c>
       <c r="P36" s="8">
-        <v>1958</v>
-      </c>
-      <c r="Q36" s="8">
+        <v>2007</v>
+      </c>
+      <c r="Q36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>414</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>155</v>
+      <c r="A37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>263</v>
-      </c>
+      <c r="E37" s="44" t="s">
+        <v>636</v>
+      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="8" t="s">
-        <v>480</v>
+        <v>207</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="13">
-        <v>0</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>259</v>
+        <v>207</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="19">
-        <v>64285</v>
+      <c r="L37" s="17">
+        <v>1485186</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>481</v>
+        <v>564</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>482</v>
+        <v>291</v>
       </c>
       <c r="P37" s="8">
-        <v>1954</v>
+        <v>2010</v>
       </c>
       <c r="Q37" s="8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>156</v>
+      <c r="A38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>261</v>
-      </c>
+      <c r="E38" s="44" t="s">
+        <v>636</v>
+      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="8" t="s">
-        <v>484</v>
+        <v>118</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="13">
-        <v>0</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>259</v>
+        <v>118</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="K38" s="9"/>
-      <c r="L38" s="19">
-        <v>64280</v>
+      <c r="L38" s="17">
+        <v>486494</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>7</v>
+        <v>420</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="P38" s="8">
-        <v>1954</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>9</v>
+        <v>2004</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>7</v>
+      <c r="E39" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="H39" s="8"/>
       <c r="I39" s="13">
         <v>1</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="19">
-        <v>11083</v>
+        <v>64290</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>490</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="P39" s="8">
-        <v>1958</v>
+        <v>1966</v>
       </c>
       <c r="Q39" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>40</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>160</v>
+      <c r="A40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="E40" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="8" t="s">
-        <v>493</v>
+        <v>165</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="13">
-        <v>1</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="19">
-        <v>11085</v>
+      <c r="L40" s="17">
+        <v>38837</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="P40" s="8">
         <v>1956</v>
       </c>
       <c r="Q40" s="8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>78</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>161</v>
+      <c r="A41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>600</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>496</v>
+        <v>601</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>263</v>
-      </c>
+      <c r="E41" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="8" t="s">
-        <v>162</v>
+        <v>602</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I41" s="13">
-        <v>0</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>259</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="19">
-        <v>161675</v>
+      <c r="L41" s="17">
+        <v>64295</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>283</v>
+        <v>604</v>
       </c>
       <c r="P41" s="8">
-        <v>1974</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>7</v>
+        <v>1967</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>2</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>80</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>7</v>
+      <c r="E42" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="I42" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="19">
-        <v>64312</v>
+        <v>64305</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>7</v>
+        <v>573</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>285</v>
+        <v>574</v>
       </c>
       <c r="P42" s="8">
-        <v>1958</v>
+        <v>1977</v>
       </c>
       <c r="Q42" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>414</v>
@@ -4717,28 +4927,28 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>501</v>
+        <v>143</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>459</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>7</v>
+      <c r="E43" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="I43" s="13">
         <v>1</v>
@@ -4748,19 +4958,19 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="19">
-        <v>172148</v>
-      </c>
-      <c r="M43" s="14">
-        <v>1176</v>
+        <v>11053</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>460</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P43" s="8">
-        <v>1995</v>
+      <c r="P43" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>7</v>
@@ -4771,50 +4981,50 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>7</v>
+      <c r="E44" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>254</v>
+      <c r="I44" s="13">
+        <v>1</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="19">
-        <v>64294</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>503</v>
+        <v>11060</v>
+      </c>
+      <c r="M44" s="14">
+        <v>16681</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>7</v>
+        <v>455</v>
       </c>
       <c r="P44" s="8">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="Q44" s="8" t="s">
         <v>7</v>
@@ -4825,25 +5035,25 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>504</v>
+        <v>456</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>7</v>
+      <c r="E45" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>7</v>
@@ -4852,77 +5062,77 @@
         <v>1</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="19">
-        <v>12542</v>
+        <v>11069</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>506</v>
+        <v>7</v>
       </c>
       <c r="P45" s="8">
-        <v>1947</v>
-      </c>
-      <c r="Q45" s="8">
-        <v>14</v>
+        <v>2000</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>38</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="11" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>7</v>
+      <c r="E46" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>507</v>
+        <v>7</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="19">
-        <v>218849</v>
+        <v>12637</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>486</v>
+        <v>7</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="P46" s="8">
-        <v>1999</v>
+        <v>7</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>7</v>
@@ -4932,80 +5142,76 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>169</v>
+      <c r="A47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>509</v>
+        <v>594</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="E47" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="8" t="s">
-        <v>510</v>
+        <v>435</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="13">
-        <v>1</v>
-      </c>
-      <c r="J47" s="12" t="s">
+      <c r="I47" s="8"/>
+      <c r="J47" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="19">
-        <v>64286</v>
+      <c r="L47" s="17">
+        <v>64296</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>408</v>
+        <v>596</v>
       </c>
       <c r="P47" s="8">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="Q47" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="11" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>7</v>
+      <c r="E48" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>7</v>
@@ -5014,46 +5220,46 @@
         <v>1</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="19">
-        <v>64287</v>
+        <v>59563</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>514</v>
+        <v>7</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="P48" s="8">
-        <v>1972</v>
-      </c>
-      <c r="Q48" s="8">
-        <v>9</v>
+        <v>1944</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="11" t="s">
-        <v>381</v>
+        <v>316</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>7</v>
+      <c r="E49" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>258</v>
@@ -5070,161 +5276,153 @@
       <c r="J49" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="9"/>
+      <c r="K49" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="L49" s="19">
-        <v>11080</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>7</v>
-      </c>
+        <v>11072</v>
+      </c>
+      <c r="M49" s="14"/>
       <c r="N49" s="8" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q49" s="8" t="s">
-        <v>7</v>
+        <v>452</v>
+      </c>
+      <c r="P49" s="8">
+        <v>1935</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>21</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>171</v>
+      <c r="A50" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>518</v>
+        <v>612</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E50" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="8" t="s">
-        <v>519</v>
+        <v>613</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="13">
-        <v>0</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="19">
-        <v>390844</v>
+      <c r="L50" s="17">
+        <v>64309</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>452</v>
+        <v>614</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>286</v>
+        <v>615</v>
       </c>
       <c r="P50" s="8">
-        <v>2003</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>7</v>
+        <v>1968</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>11</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>7</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>7</v>
+      <c r="E51" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>254</v>
+        <v>538</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="13">
+        <v>1</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="19">
-        <v>64283</v>
+        <v>64311</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="P51" s="8">
-        <v>1957</v>
+        <v>1972</v>
       </c>
       <c r="Q51" s="8">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>414</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="20" t="s">
-        <v>344</v>
+      <c r="A52" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>524</v>
+        <v>447</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>7</v>
+      <c r="E52" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>525</v>
+        <v>165</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="I52" s="13">
         <v>1</v>
@@ -5232,53 +5430,55 @@
       <c r="J52" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K52" s="8"/>
+      <c r="K52" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="L52" s="19">
-        <v>44026</v>
+        <v>11079</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>526</v>
+        <v>449</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>527</v>
+        <v>450</v>
       </c>
       <c r="P52" s="8">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="Q52" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="20" t="s">
-        <v>383</v>
+      <c r="A53" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>7</v>
+      <c r="E53" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>530</v>
+        <v>448</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I53" s="13">
         <v>1</v>
@@ -5286,50 +5486,50 @@
       <c r="J53" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K53" s="8"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="19">
-        <v>64303</v>
+        <v>44024</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>52</v>
+        <v>599</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="P53" s="8">
-        <v>1956</v>
-      </c>
-      <c r="Q53" s="8">
-        <v>2</v>
+        <v>1998</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>7</v>
+      <c r="E54" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>532</v>
+        <v>7</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>7</v>
@@ -5342,19 +5542,17 @@
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="19">
-        <v>59563</v>
+        <v>64292</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>533</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="O54" s="8"/>
       <c r="P54" s="8">
-        <v>1944</v>
+        <v>1966</v>
       </c>
       <c r="Q54" s="8" t="s">
         <v>7</v>
@@ -5364,106 +5562,102 @@
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>176</v>
+      <c r="A55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>534</v>
+        <v>606</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="E55" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="F55" s="7"/>
       <c r="G55" s="8" t="s">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I55" s="13">
-        <v>1</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>125</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="19">
-        <v>64320</v>
+      <c r="L55" s="17">
+        <v>64284</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>535</v>
+        <v>607</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>536</v>
+        <v>608</v>
       </c>
       <c r="P55" s="8">
-        <v>1947</v>
+        <v>1968</v>
       </c>
       <c r="Q55" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="11" t="s">
-        <v>346</v>
+      <c r="A56" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>7</v>
+      <c r="E56" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="H56" s="8"/>
+        <v>525</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="I56" s="13">
         <v>1</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K56" s="9"/>
+      <c r="K56" s="8"/>
       <c r="L56" s="19">
-        <v>64311</v>
+        <v>44026</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="P56" s="8">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="Q56" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="R56" s="10" t="s">
         <v>38</v>
@@ -5471,27 +5665,29 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="11" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>7</v>
+      <c r="E57" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="H57" s="8"/>
+        <v>591</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I57" s="13">
         <v>1</v>
       </c>
@@ -5500,105 +5696,105 @@
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="19">
-        <v>64290</v>
+        <v>64318</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>543</v>
+        <v>592</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="P57" s="8">
-        <v>1966</v>
+        <v>1955</v>
       </c>
       <c r="Q57" s="8">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>409</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="11" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>7</v>
+      <c r="E58" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="I58" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="19">
-        <v>643132</v>
+        <v>11080</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P58" s="8">
-        <v>2002</v>
+        <v>517</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="11" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>7</v>
+      <c r="E59" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>547</v>
+        <v>187</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="I59" s="13">
         <v>1</v>
@@ -5606,107 +5802,103 @@
       <c r="J59" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K59" s="9"/>
+      <c r="K59" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="L59" s="19">
-        <v>164416</v>
+        <v>64293</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="P59" s="8">
-        <v>1955</v>
-      </c>
-      <c r="Q59" s="8">
-        <v>3</v>
+        <v>2010</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>184</v>
+      <c r="A60" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E60" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="13">
-        <v>0</v>
-      </c>
-      <c r="J60" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="H60" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K60" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L60" s="19">
-        <v>390845</v>
+      <c r="I60" s="8"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="17">
+        <v>64297</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>552</v>
+        <v>7</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>287</v>
+        <v>611</v>
       </c>
       <c r="P60" s="8">
-        <v>2003</v>
-      </c>
-      <c r="Q60" s="8" t="s">
-        <v>7</v>
+        <v>1947</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>27</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="11" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>7</v>
+      <c r="E61" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>187</v>
+        <v>510</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="I61" s="13">
         <v>1</v>
@@ -5714,229 +5906,231 @@
       <c r="J61" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K61" s="8" t="s">
-        <v>131</v>
-      </c>
+      <c r="K61" s="9"/>
       <c r="L61" s="19">
-        <v>64293</v>
+        <v>64286</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>555</v>
+        <v>408</v>
       </c>
       <c r="P61" s="8">
-        <v>2010</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>7</v>
+        <v>1959</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>30</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>188</v>
+      <c r="A62" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="7"/>
+      <c r="E62" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="G62" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="13">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K62" s="9"/>
-      <c r="L62" s="17">
-        <v>985683</v>
+      <c r="L62" s="19">
+        <v>164416</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>58</v>
+        <v>548</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>7</v>
+        <v>549</v>
       </c>
       <c r="P62" s="8">
-        <v>2009</v>
-      </c>
-      <c r="Q62" s="8" t="s">
-        <v>7</v>
+        <v>1955</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>3</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="11" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>557</v>
+        <v>299</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>7</v>
+      <c r="E63" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H63" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I63" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="19">
-        <v>631267</v>
+        <v>11082</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>59</v>
+        <v>461</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>7</v>
+        <v>462</v>
       </c>
       <c r="P63" s="8">
-        <v>2010</v>
-      </c>
-      <c r="Q63" s="8" t="s">
-        <v>7</v>
+        <v>1937</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>12</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>190</v>
+      <c r="A64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>558</v>
+        <v>410</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="E64" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="8" t="s">
-        <v>7</v>
+        <v>411</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="13">
-        <v>1</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="19">
-        <v>64292</v>
+      <c r="L64" s="17">
+        <v>64319</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>60</v>
+        <v>412</v>
       </c>
       <c r="N64" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O64" s="8"/>
+      <c r="O64" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="P64" s="8">
-        <v>1966</v>
-      </c>
-      <c r="Q64" s="8" t="s">
-        <v>7</v>
+        <v>1968</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>25</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="11" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>7</v>
+      <c r="E65" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H65" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I65" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="K65" s="9"/>
       <c r="L65" s="19">
-        <v>673515</v>
+        <v>11089</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P65" s="8">
-        <v>2009</v>
+      <c r="P65" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q65" s="8" t="s">
         <v>7</v>
@@ -5947,434 +6141,460 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="11" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>7</v>
+      <c r="E66" s="43" t="s">
+        <v>635</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H66" s="9"/>
+        <v>177</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="I66" s="13">
         <v>1</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="K66" s="9"/>
       <c r="L66" s="19">
-        <v>40004</v>
+        <v>64320</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>288</v>
+        <v>536</v>
       </c>
       <c r="P66" s="8">
-        <v>1969</v>
+        <v>1947</v>
       </c>
       <c r="Q66" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="11" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>562</v>
+        <v>483</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>7</v>
+      <c r="E67" s="34" t="s">
+        <v>629</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H67" s="9"/>
+        <v>484</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I67" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>205</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="K67" s="9"/>
       <c r="L67" s="19">
-        <v>1456752</v>
+        <v>64280</v>
       </c>
       <c r="M67" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>290</v>
+        <v>485</v>
       </c>
       <c r="P67" s="8">
-        <v>1989</v>
-      </c>
-      <c r="Q67" s="8" t="s">
-        <v>7</v>
+        <v>1954</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>9</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>206</v>
+      <c r="A68" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="7"/>
+      <c r="E68" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="G68" s="8" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="7" t="s">
-        <v>125</v>
+        <v>223</v>
+      </c>
+      <c r="I68" s="13">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="K68" s="9"/>
-      <c r="L68" s="17">
-        <v>1485186</v>
+      <c r="L68" s="19">
+        <v>64299</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>291</v>
+        <v>571</v>
       </c>
       <c r="P68" s="8">
-        <v>2010</v>
+        <v>1969</v>
       </c>
       <c r="Q68" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>210</v>
+      <c r="A69" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>566</v>
+        <v>477</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="7"/>
+      <c r="E69" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="G69" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L69" s="17">
-        <v>1286143</v>
+        <v>198</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="13">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="19">
+        <v>64300</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>69</v>
+        <v>478</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>421</v>
+        <v>309</v>
       </c>
       <c r="P69" s="8">
-        <v>2004</v>
-      </c>
-      <c r="Q69" s="8" t="s">
+        <v>1958</v>
+      </c>
+      <c r="Q69" s="8">
         <v>7</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>272</v>
+      <c r="A70" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="7"/>
+      <c r="E70" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>263</v>
+      </c>
       <c r="G70" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="7"/>
+        <v>500</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="13">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K70" s="9"/>
-      <c r="L70" s="17">
-        <v>1445557</v>
+      <c r="L70" s="19">
+        <v>64312</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
       <c r="P70" s="8">
-        <v>2007</v>
-      </c>
-      <c r="Q70" s="8" t="s">
-        <v>7</v>
+        <v>1958</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>29</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>40</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>214</v>
+      <c r="A71" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>568</v>
+        <v>479</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="7"/>
+      <c r="E71" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>263</v>
+      </c>
       <c r="G71" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="7"/>
+        <v>480</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="13">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K71" s="9"/>
-      <c r="L71" s="17">
-        <v>649187</v>
+      <c r="L71" s="19">
+        <v>64285</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>75</v>
+        <v>481</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>7</v>
+        <v>482</v>
       </c>
       <c r="P71" s="8">
-        <v>2007</v>
-      </c>
-      <c r="Q71" s="8" t="s">
-        <v>7</v>
+        <v>1954</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>10</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>40</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="11" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>7</v>
+      <c r="E72" s="36" t="s">
+        <v>631</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>223</v>
+        <v>521</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="I72" s="13">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="19">
-        <v>64299</v>
+        <v>64283</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>571</v>
+        <v>523</v>
       </c>
       <c r="P72" s="8">
-        <v>1969</v>
+        <v>1957</v>
       </c>
       <c r="Q72" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>40</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>224</v>
+        <v>575</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>7</v>
+      <c r="E73" s="36" t="s">
+        <v>631</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="I73" s="13">
-        <v>1</v>
+        <v>226</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="19">
-        <v>64305</v>
+        <v>64317</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="P73" s="8">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="Q73" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="11" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>575</v>
+        <v>166</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>576</v>
+        <v>502</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>7</v>
+      <c r="E74" s="36" t="s">
+        <v>631</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>263</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>254</v>
@@ -6384,127 +6604,127 @@
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="19">
-        <v>64317</v>
+        <v>64294</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>577</v>
+        <v>503</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>578</v>
+        <v>7</v>
       </c>
       <c r="P74" s="8">
-        <v>1970</v>
-      </c>
-      <c r="Q74" s="8">
-        <v>8</v>
+        <v>1971</v>
+      </c>
+      <c r="Q74" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>579</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="11" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>580</v>
+        <v>496</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>7</v>
+      <c r="E75" s="37" t="s">
+        <v>632</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="I75" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="19">
-        <v>1691889</v>
+        <v>161675</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>88</v>
+        <v>497</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>581</v>
+        <v>283</v>
       </c>
       <c r="P75" s="8">
-        <v>2011</v>
+        <v>1974</v>
       </c>
       <c r="Q75" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="11" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>582</v>
+        <v>501</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>7</v>
+      <c r="E76" s="39" t="s">
+        <v>633</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>583</v>
+        <v>165</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="I76" s="13">
-        <v>0</v>
-      </c>
-      <c r="J76" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" s="40" t="s">
         <v>125</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="19">
-        <v>1708654</v>
-      </c>
-      <c r="M76" s="14" t="s">
-        <v>89</v>
+        <v>172148</v>
+      </c>
+      <c r="M76" s="14">
+        <v>1176</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>584</v>
+        <v>7</v>
       </c>
       <c r="P76" s="8">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="Q76" s="8" t="s">
         <v>7</v>
@@ -6514,661 +6734,691 @@
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>231</v>
+      <c r="A77" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E77" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="13">
-        <v>0</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L77" s="19">
-        <v>1708574</v>
+        <v>203</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="8"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="17">
+        <v>64307</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>90</v>
+        <v>621</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>586</v>
+        <v>294</v>
       </c>
       <c r="P77" s="8">
-        <v>2011</v>
-      </c>
-      <c r="Q77" s="8" t="s">
-        <v>7</v>
+        <v>1976</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>20</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>233</v>
+        <v>104</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E78" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="8" t="s">
-        <v>234</v>
+        <v>623</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="I78" s="13">
-        <v>0</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>273</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="7"/>
       <c r="K78" s="9"/>
-      <c r="L78" s="19">
-        <v>1566298</v>
+      <c r="L78" s="17">
+        <v>64310</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>93</v>
+        <v>624</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="P78" s="8">
-        <v>2012</v>
-      </c>
-      <c r="Q78" s="8" t="s">
-        <v>7</v>
+        <v>1967</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>8</v>
       </c>
       <c r="R78" s="10" t="s">
-        <v>7</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="11" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>7</v>
+      <c r="E79" s="38" t="s">
+        <v>633</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="H79" s="9"/>
       <c r="I79" s="13">
         <v>1</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K79" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="L79" s="19">
-        <v>64318</v>
+        <v>1456752</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>592</v>
+        <v>7</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>593</v>
+        <v>290</v>
       </c>
       <c r="P79" s="8">
-        <v>1955</v>
-      </c>
-      <c r="Q79" s="8">
-        <v>2</v>
+        <v>1989</v>
+      </c>
+      <c r="Q79" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>579</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>236</v>
+      <c r="A80" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>594</v>
+        <v>512</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="7"/>
+      <c r="E80" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="G80" s="8" t="s">
-        <v>435</v>
+        <v>513</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="8"/>
-      <c r="J80" s="7" t="s">
-        <v>125</v>
+      <c r="I80" s="13">
+        <v>1</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="K80" s="9"/>
-      <c r="L80" s="17">
-        <v>64296</v>
+      <c r="L80" s="19">
+        <v>64287</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>595</v>
+        <v>514</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>596</v>
+        <v>515</v>
       </c>
       <c r="P80" s="8">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="Q80" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>409</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="11" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>597</v>
+        <v>160</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>598</v>
+        <v>492</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>7</v>
+      <c r="E81" s="39" t="s">
+        <v>633</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="I81" s="13">
         <v>1</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="19">
-        <v>44024</v>
+        <v>11085</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>599</v>
+        <v>494</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>295</v>
+        <v>495</v>
       </c>
       <c r="P81" s="8">
-        <v>1998</v>
-      </c>
-      <c r="Q81" s="8" t="s">
-        <v>7</v>
+        <v>1956</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>17</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>600</v>
+      <c r="A82" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>601</v>
+        <v>300</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E82" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="7"/>
+      <c r="E82" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="G82" s="8" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I82" s="8"/>
-      <c r="J82" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I82" s="13">
+        <v>1</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="K82" s="9"/>
-      <c r="L82" s="17">
-        <v>64295</v>
+      <c r="L82" s="19">
+        <v>11086</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>603</v>
+        <v>7</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>53</v>
+        <v>469</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>604</v>
+        <v>470</v>
       </c>
       <c r="P82" s="8">
-        <v>1967</v>
+        <v>1929</v>
       </c>
       <c r="Q82" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>605</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>7</v>
+      <c r="E83" s="38" t="s">
+        <v>633</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="8" t="s">
-        <v>416</v>
+        <v>617</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I83" s="8"/>
-      <c r="J83" s="7"/>
+      <c r="J83" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="K83" s="9"/>
       <c r="L83" s="17">
-        <v>64284</v>
+        <v>35279</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="P83" s="8">
-        <v>1968</v>
+        <v>1981</v>
       </c>
       <c r="Q83" s="8">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>71</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>238</v>
+      <c r="A84" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>609</v>
+        <v>504</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E84" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="7"/>
+      <c r="E84" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="G84" s="8" t="s">
-        <v>610</v>
+        <v>165</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I84" s="8"/>
-      <c r="J84" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I84" s="13">
+        <v>1</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="K84" s="9"/>
-      <c r="L84" s="17">
-        <v>64297</v>
+      <c r="L84" s="19">
+        <v>12542</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>611</v>
+        <v>506</v>
       </c>
       <c r="P84" s="8">
         <v>1947</v>
       </c>
       <c r="Q84" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>239</v>
+      <c r="A85" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>612</v>
+        <v>488</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="7"/>
+      <c r="E85" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="G85" s="8" t="s">
-        <v>613</v>
+        <v>165</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="7"/>
+      <c r="I85" s="13">
+        <v>1</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="K85" s="9"/>
-      <c r="L85" s="17">
-        <v>64309</v>
+      <c r="L85" s="19">
+        <v>11083</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>614</v>
+        <v>489</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>100</v>
+        <v>490</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>615</v>
+        <v>491</v>
       </c>
       <c r="P85" s="8">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="Q85" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>605</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="D86" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I86" s="8"/>
-      <c r="J86" s="7"/>
+      <c r="E86" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="F86" s="22"/>
+      <c r="G86" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="22"/>
       <c r="K86" s="9"/>
-      <c r="L86" s="17">
-        <v>35279</v>
-      </c>
-      <c r="M86" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="N86" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O86" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="P86" s="8">
-        <v>1981</v>
-      </c>
-      <c r="Q86" s="8">
-        <v>3</v>
-      </c>
-      <c r="R86" s="10" t="s">
-        <v>414</v>
+      <c r="L86" s="26">
+        <v>40012</v>
+      </c>
+      <c r="M86" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O86" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="P86" s="9">
+        <v>1974</v>
+      </c>
+      <c r="Q86" s="9">
+        <v>26</v>
+      </c>
+      <c r="R86" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>241</v>
+        <v>371</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E87" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" s="7"/>
+      <c r="E87" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="G87" s="8" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I87" s="8"/>
-      <c r="J87" s="7"/>
+        <v>229</v>
+      </c>
+      <c r="I87" s="13">
+        <v>1</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="K87" s="9"/>
-      <c r="L87" s="17">
-        <v>64307</v>
+      <c r="L87" s="19">
+        <v>1691889</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>621</v>
+        <v>88</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>294</v>
+        <v>581</v>
       </c>
       <c r="P87" s="8">
-        <v>1976</v>
-      </c>
-      <c r="Q87" s="8">
-        <v>20</v>
+        <v>2011</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>242</v>
+        <v>319</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>622</v>
+        <v>465</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="7"/>
+      <c r="E88" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="G88" s="8" t="s">
-        <v>623</v>
+        <v>7</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I88" s="8"/>
-      <c r="J88" s="7"/>
+      <c r="I88" s="13">
+        <v>1</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="K88" s="9"/>
-      <c r="L88" s="17">
-        <v>64310</v>
+      <c r="L88" s="19">
+        <v>11084</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>624</v>
+        <v>466</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="P88" s="8">
-        <v>1967</v>
-      </c>
-      <c r="Q88" s="8">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="P88" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q88" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R88" s="10" t="s">
-        <v>458</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="D89" s="9" t="s">
+      <c r="A89" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="I89" s="9"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="26">
-        <v>40012</v>
-      </c>
-      <c r="M89" s="28" t="s">
-        <v>627</v>
-      </c>
-      <c r="N89" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="P89" s="9">
-        <v>1974</v>
-      </c>
-      <c r="Q89" s="9">
-        <v>26</v>
-      </c>
-      <c r="R89" s="30" t="s">
+      <c r="E89" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="13">
+        <v>1</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L89" s="19">
+        <v>40004</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="O89" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="P89" s="8">
+        <v>1969</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>18</v>
+      </c>
+      <c r="R89" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="11" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>7</v>
@@ -7180,13 +7430,13 @@
         <v>7</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I90" s="13">
         <v>0</v>
@@ -7196,19 +7446,19 @@
       </c>
       <c r="K90" s="9"/>
       <c r="L90" s="19">
-        <v>1281454</v>
+        <v>1633878</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="O90" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P90" s="8">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="Q90" s="8" t="s">
         <v>7</v>
@@ -7381,10 +7631,10 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>7</v>
@@ -7412,10 +7662,10 @@
       </c>
       <c r="K94" s="9"/>
       <c r="L94" s="19">
-        <v>1562066</v>
+        <v>1562065</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N94" s="8" t="s">
         <v>46</v>
@@ -7424,21 +7674,21 @@
         <v>296</v>
       </c>
       <c r="P94" s="8">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="Q94" s="8">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="R94" s="10" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>7</v>
@@ -7466,10 +7716,10 @@
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="19">
-        <v>1562065</v>
+        <v>1562066</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N95" s="8" t="s">
         <v>46</v>
@@ -7478,21 +7728,21 @@
         <v>296</v>
       </c>
       <c r="P95" s="8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="Q95" s="8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="11" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>7</v>
@@ -7504,13 +7754,13 @@
         <v>7</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="I96" s="13">
         <v>0</v>
@@ -7520,19 +7770,19 @@
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="19">
-        <v>1633878</v>
+        <v>1281454</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O96" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P96" s="8">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="Q96" s="8" t="s">
         <v>7</v>
@@ -7651,13 +7901,13 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="11" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>7</v>
+        <v>587</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>559</v>
@@ -7666,13 +7916,13 @@
         <v>7</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="I99" s="13">
         <v>0</v>
@@ -7682,10 +7932,10 @@
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="19">
-        <v>1321391</v>
+        <v>1729141</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="N99" s="8" t="s">
         <v>46</v>
@@ -7696,19 +7946,19 @@
       <c r="P99" s="8">
         <v>2008</v>
       </c>
-      <c r="Q99" s="8" t="s">
-        <v>7</v>
+      <c r="Q99" s="8">
+        <v>28</v>
       </c>
       <c r="R99" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>7</v>
@@ -7720,13 +7970,13 @@
         <v>7</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I100" s="13">
         <v>0</v>
@@ -7736,36 +7986,36 @@
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="19">
-        <v>1454041</v>
+        <v>1321391</v>
       </c>
       <c r="M100" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="P100" s="8">
-        <v>2010</v>
-      </c>
-      <c r="Q100" s="8">
-        <v>15</v>
+        <v>2008</v>
+      </c>
+      <c r="Q100" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R100" s="10" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="11" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>587</v>
+        <v>7</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>559</v>
@@ -7777,10 +8027,10 @@
         <v>250</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="I101" s="13">
         <v>0</v>
@@ -7790,33 +8040,33 @@
       </c>
       <c r="K101" s="9"/>
       <c r="L101" s="19">
-        <v>1729141</v>
+        <v>1454041</v>
       </c>
       <c r="M101" s="14" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>7</v>
+        <v>292</v>
       </c>
       <c r="P101" s="8">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="Q101" s="8">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="R101" s="10" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="11" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>7</v>
@@ -7831,32 +8081,32 @@
         <v>253</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>254</v>
+        <v>7</v>
+      </c>
+      <c r="I102" s="13">
+        <v>0</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="19">
-        <v>1594788</v>
+        <v>358764</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>36</v>
+        <v>487</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O102" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P102" s="8">
-        <v>2005</v>
+      <c r="P102" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q102" s="8" t="s">
         <v>7</v>
@@ -7975,13 +8225,13 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="11" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>441</v>
@@ -7990,13 +8240,13 @@
         <v>7</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="I105" s="13">
         <v>0</v>
@@ -8006,19 +8256,19 @@
       </c>
       <c r="K105" s="9"/>
       <c r="L105" s="19">
-        <v>11096</v>
+        <v>381707</v>
       </c>
       <c r="M105" s="14" t="s">
-        <v>476</v>
+        <v>7</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="O105" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P105" s="8" t="s">
-        <v>7</v>
+      <c r="P105" s="8">
+        <v>2004</v>
       </c>
       <c r="Q105" s="8" t="s">
         <v>7</v>
@@ -8029,13 +8279,13 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>441</v>
@@ -8044,13 +8294,13 @@
         <v>7</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="I106" s="13">
         <v>0</v>
@@ -8060,13 +8310,13 @@
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="19">
-        <v>155905</v>
+        <v>11096</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>47</v>
+        <v>476</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>486</v>
+        <v>7</v>
       </c>
       <c r="O106" s="8" t="s">
         <v>7</v>
@@ -8083,10 +8333,10 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="11" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>158</v>
+        <v>252</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>7</v>
@@ -8101,32 +8351,32 @@
         <v>253</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I107" s="13">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="19">
-        <v>358764</v>
+        <v>1594788</v>
       </c>
       <c r="M107" s="14" t="s">
-        <v>487</v>
+        <v>36</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O107" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P107" s="8" t="s">
-        <v>7</v>
+      <c r="P107" s="8">
+        <v>2005</v>
       </c>
       <c r="Q107" s="8" t="s">
         <v>7</v>
@@ -8137,13 +8387,13 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="11" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>550</v>
+        <v>7</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>441</v>
@@ -8152,13 +8402,13 @@
         <v>7</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="I108" s="13">
         <v>0</v>
@@ -8168,19 +8418,19 @@
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="19">
-        <v>381707</v>
+        <v>155905</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>44</v>
+        <v>486</v>
       </c>
       <c r="O108" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P108" s="8">
-        <v>2004</v>
+      <c r="P108" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q108" s="8" t="s">
         <v>7</v>
@@ -8355,6 +8605,7 @@
   <sortState ref="A2:R111">
     <sortCondition ref="D2:D111"/>
     <sortCondition ref="E2:E111"/>
+    <sortCondition ref="B2:B111"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8364,24 +8615,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C30A759-51C2-D14C-B207-4664834C5393}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1920" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3600" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="638">
   <si>
     <t>isolate</t>
   </si>
@@ -1374,9 +1380,6 @@
     <t>Mooroopna, Victoria,</t>
   </si>
   <si>
-    <t>JEBV</t>
-  </si>
-  <si>
     <t>Tokyo</t>
   </si>
   <si>
@@ -1930,13 +1933,19 @@
   </si>
   <si>
     <t>dISF2</t>
+  </si>
+  <si>
+    <t>dISF</t>
+  </si>
+  <si>
+    <t>JEV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2432,6 +2441,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2756,14 +2773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
@@ -2846,8 +2863,8 @@
       <c r="D2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
+      <c r="E2" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
@@ -2896,8 +2913,8 @@
       <c r="D3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
+      <c r="E3" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8" t="s">
@@ -2946,8 +2963,8 @@
       <c r="D4" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
+      <c r="E4" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
@@ -2988,22 +3005,22 @@
         <v>383</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>529</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
+      <c r="E5" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>261</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>7</v>
@@ -3050,8 +3067,8 @@
       <c r="D6" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
+      <c r="E6" s="32" t="s">
+        <v>627</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
@@ -3095,10 +3112,10 @@
         <v>147</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>245</v>
+        <v>466</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>558</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>7</v>
@@ -3154,8 +3171,8 @@
       <c r="D8" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
+      <c r="E8" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="16" t="s">
@@ -3204,8 +3221,8 @@
       <c r="D9" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>7</v>
+      <c r="E9" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
@@ -3252,8 +3269,8 @@
       <c r="D10" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
+      <c r="E10" s="39" t="s">
+        <v>632</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>250</v>
@@ -3306,8 +3323,8 @@
       <c r="D11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
+      <c r="E11" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
@@ -3356,8 +3373,8 @@
       <c r="D12" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
+      <c r="E12" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
@@ -3407,7 +3424,7 @@
         <v>245</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>7</v>
+        <v>636</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
@@ -3451,13 +3468,13 @@
         <v>210</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>7</v>
+      <c r="E14" s="32" t="s">
+        <v>627</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
@@ -3499,10 +3516,10 @@
         <v>149</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>7</v>
@@ -3558,8 +3575,8 @@
       <c r="D16" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>7</v>
+      <c r="E16" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
@@ -3608,8 +3625,8 @@
       <c r="D17" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>7</v>
+      <c r="E17" s="39" t="s">
+        <v>632</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>246</v>
@@ -3660,8 +3677,8 @@
       <c r="D18" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>7</v>
+      <c r="E18" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
@@ -3710,8 +3727,8 @@
       <c r="D19" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>7</v>
+      <c r="E19" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
@@ -3759,7 +3776,7 @@
         <v>245</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
@@ -3801,13 +3818,13 @@
         <v>184</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>260</v>
@@ -3829,7 +3846,7 @@
         <v>390845</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>76</v>
@@ -3855,13 +3872,13 @@
         <v>145</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>260</v>
@@ -3883,13 +3900,13 @@
         <v>31658</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>46</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P22" s="8">
         <v>2012</v>
@@ -3909,19 +3926,19 @@
         <v>171</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>260</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>7</v>
@@ -3937,7 +3954,7 @@
         <v>390844</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>76</v>
@@ -3969,7 +3986,7 @@
         <v>245</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="9" t="s">
@@ -4019,13 +4036,13 @@
         <v>245</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>260</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>7</v>
@@ -4044,10 +4061,10 @@
         <v>50</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P25" s="8">
         <v>1999</v>
@@ -4067,13 +4084,13 @@
         <v>231</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>260</v>
@@ -4101,7 +4118,7 @@
         <v>91</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P26" s="8">
         <v>2011</v>
@@ -4127,7 +4144,7 @@
         <v>245</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>260</v>
@@ -4181,7 +4198,7 @@
         <v>245</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8" t="s">
@@ -4233,7 +4250,7 @@
         <v>245</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
@@ -4277,19 +4294,19 @@
         <v>230</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>260</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>7</v>
@@ -4311,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P30" s="8">
         <v>2007</v>
@@ -4331,13 +4348,13 @@
         <v>180</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>260</v>
@@ -4385,13 +4402,13 @@
         <v>233</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>260</v>
@@ -4419,7 +4436,7 @@
         <v>94</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P32" s="8">
         <v>2012</v>
@@ -4439,13 +4456,13 @@
         <v>189</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>260</v>
@@ -4491,13 +4508,13 @@
         <v>188</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="8" t="s">
@@ -4539,13 +4556,13 @@
         <v>272</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="8" t="s">
@@ -4585,13 +4602,13 @@
         <v>214</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="8" t="s">
@@ -4631,13 +4648,13 @@
         <v>206</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="8" t="s">
@@ -4655,7 +4672,7 @@
         <v>1485186</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N37" s="8" t="s">
         <v>84</v>
@@ -4687,7 +4704,7 @@
         <v>245</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="8" t="s">
@@ -4731,19 +4748,19 @@
         <v>179</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>268</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="13">
@@ -4757,13 +4774,13 @@
         <v>64290</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>53</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P39" s="8">
         <v>1966</v>
@@ -4789,7 +4806,7 @@
         <v>245</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="8" t="s">
@@ -4828,20 +4845,20 @@
         <v>96</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>600</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>601</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>125</v>
@@ -4853,13 +4870,13 @@
         <v>64295</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>53</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P41" s="8">
         <v>1967</v>
@@ -4868,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4879,13 +4896,13 @@
         <v>224</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>246</v>
@@ -4907,13 +4924,13 @@
         <v>64305</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N42" s="8" t="s">
         <v>84</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P42" s="8">
         <v>1977</v>
@@ -4933,13 +4950,13 @@
         <v>143</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>250</v>
@@ -4961,7 +4978,7 @@
         <v>11053</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>7</v>
@@ -4987,13 +5004,13 @@
         <v>141</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>250</v>
@@ -5021,7 +5038,7 @@
         <v>44</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P44" s="8">
         <v>1964</v>
@@ -5041,13 +5058,13 @@
         <v>142</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>250</v>
@@ -5069,7 +5086,7 @@
         <v>11069</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N45" s="8" t="s">
         <v>45</v>
@@ -5084,7 +5101,7 @@
         <v>7</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -5101,7 +5118,7 @@
         <v>245</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>250</v>
@@ -5149,13 +5166,13 @@
         <v>236</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="8" t="s">
@@ -5173,13 +5190,13 @@
         <v>64296</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P47" s="8">
         <v>1969</v>
@@ -5199,19 +5216,19 @@
         <v>175</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>258</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>7</v>
@@ -5233,7 +5250,7 @@
         <v>84</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P48" s="8">
         <v>1944</v>
@@ -5253,13 +5270,13 @@
         <v>139</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>451</v>
+        <v>637</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>258</v>
@@ -5287,7 +5304,7 @@
         <v>76</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P49" s="8">
         <v>1935</v>
@@ -5307,17 +5324,17 @@
         <v>239</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>7</v>
@@ -5329,13 +5346,13 @@
         <v>64309</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>100</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P50" s="8">
         <v>1968</v>
@@ -5344,7 +5361,7 @@
         <v>11</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5355,19 +5372,19 @@
         <v>178</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="13">
@@ -5381,13 +5398,13 @@
         <v>64311</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N51" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P51" s="8">
         <v>1972</v>
@@ -5413,7 +5430,7 @@
         <v>245</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>258</v>
@@ -5460,16 +5477,16 @@
         <v>376</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>597</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>598</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>274</v>
@@ -5491,7 +5508,7 @@
         <v>44024</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N53" s="8" t="s">
         <v>10</v>
@@ -5517,13 +5534,13 @@
         <v>190</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>246</v>
@@ -5569,13 +5586,13 @@
         <v>237</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8" t="s">
@@ -5591,13 +5608,13 @@
         <v>64284</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N55" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P55" s="8">
         <v>1968</v>
@@ -5617,19 +5634,19 @@
         <v>174</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>253</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>125</v>
@@ -5645,13 +5662,13 @@
         <v>44026</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N56" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P56" s="8">
         <v>1966</v>
@@ -5671,19 +5688,19 @@
         <v>235</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>7</v>
@@ -5699,13 +5716,13 @@
         <v>64318</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P57" s="8">
         <v>1955</v>
@@ -5714,7 +5731,7 @@
         <v>2</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5725,13 +5742,13 @@
         <v>267</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>258</v>
@@ -5759,7 +5776,7 @@
         <v>46</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P58" s="8" t="s">
         <v>7</v>
@@ -5779,13 +5796,13 @@
         <v>186</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>246</v>
@@ -5809,13 +5826,13 @@
         <v>64293</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N59" s="8" t="s">
         <v>56</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P59" s="8">
         <v>2010</v>
@@ -5824,7 +5841,7 @@
         <v>7</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5835,17 +5852,17 @@
         <v>238</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>125</v>
@@ -5863,7 +5880,7 @@
         <v>23</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P60" s="8">
         <v>1947</v>
@@ -5883,19 +5900,19 @@
         <v>169</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>258</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>7</v>
@@ -5911,7 +5928,7 @@
         <v>64286</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N61" s="8" t="s">
         <v>15</v>
@@ -5937,19 +5954,19 @@
         <v>182</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>7</v>
@@ -5965,13 +5982,13 @@
         <v>164416</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N62" s="8" t="s">
         <v>15</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P62" s="8">
         <v>1955</v>
@@ -5997,7 +6014,7 @@
         <v>245</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>258</v>
@@ -6019,13 +6036,13 @@
         <v>11082</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N63" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P63" s="8">
         <v>1937</v>
@@ -6051,7 +6068,7 @@
         <v>245</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="8" t="s">
@@ -6099,7 +6116,7 @@
         <v>245</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>250</v>
@@ -6147,13 +6164,13 @@
         <v>176</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>246</v>
@@ -6175,13 +6192,13 @@
         <v>64320</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N66" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P66" s="8">
         <v>1947</v>
@@ -6201,19 +6218,19 @@
         <v>156</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>261</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>7</v>
@@ -6235,7 +6252,7 @@
         <v>76</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P67" s="8">
         <v>1954</v>
@@ -6255,13 +6272,13 @@
         <v>222</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>261</v>
@@ -6283,13 +6300,13 @@
         <v>64299</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N68" s="8" t="s">
         <v>83</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P68" s="8">
         <v>1969</v>
@@ -6309,13 +6326,13 @@
         <v>154</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>261</v>
@@ -6337,7 +6354,7 @@
         <v>64300</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N69" s="8" t="s">
         <v>46</v>
@@ -6363,19 +6380,19 @@
         <v>163</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>263</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>7</v>
@@ -6417,19 +6434,19 @@
         <v>155</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>263</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>7</v>
@@ -6445,13 +6462,13 @@
         <v>64285</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N71" s="8" t="s">
         <v>46</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P71" s="8">
         <v>1954</v>
@@ -6471,19 +6488,19 @@
         <v>172</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>263</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>173</v>
@@ -6499,13 +6516,13 @@
         <v>64283</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N72" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P72" s="8">
         <v>1957</v>
@@ -6522,16 +6539,16 @@
         <v>369</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>576</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>263</v>
@@ -6553,13 +6570,13 @@
         <v>64317</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N73" s="8" t="s">
         <v>85</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P73" s="8">
         <v>1970</v>
@@ -6568,7 +6585,7 @@
         <v>8</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -6579,13 +6596,13 @@
         <v>166</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>263</v>
@@ -6607,7 +6624,7 @@
         <v>64294</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N74" s="8" t="s">
         <v>76</v>
@@ -6633,13 +6650,13 @@
         <v>161</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>263</v>
@@ -6661,7 +6678,7 @@
         <v>161675</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N75" s="8" t="s">
         <v>284</v>
@@ -6687,13 +6704,13 @@
         <v>164</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>246</v>
@@ -6741,13 +6758,13 @@
         <v>241</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="8" t="s">
@@ -6763,7 +6780,7 @@
         <v>64307</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N77" s="8" t="s">
         <v>10</v>
@@ -6789,17 +6806,17 @@
         <v>242</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>7</v>
@@ -6811,13 +6828,13 @@
         <v>64310</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N78" s="8" t="s">
         <v>23</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P78" s="8">
         <v>1967</v>
@@ -6826,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="R78" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -6837,13 +6854,13 @@
         <v>204</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>258</v>
@@ -6891,19 +6908,19 @@
         <v>170</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>7</v>
@@ -6919,13 +6936,13 @@
         <v>64287</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N80" s="8" t="s">
         <v>51</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P80" s="8">
         <v>1972</v>
@@ -6945,19 +6962,19 @@
         <v>160</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>7</v>
@@ -6973,13 +6990,13 @@
         <v>11085</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N81" s="8" t="s">
         <v>100</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P81" s="8">
         <v>1956</v>
@@ -7005,13 +7022,13 @@
         <v>245</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>253</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>7</v>
@@ -7030,10 +7047,10 @@
         <v>7</v>
       </c>
       <c r="N82" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="O82" s="8" t="s">
         <v>469</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>470</v>
       </c>
       <c r="P82" s="8">
         <v>1929</v>
@@ -7053,17 +7070,17 @@
         <v>240</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>7</v>
@@ -7077,13 +7094,13 @@
         <v>35279</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N83" s="8" t="s">
         <v>102</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P83" s="8">
         <v>1981</v>
@@ -7103,13 +7120,13 @@
         <v>167</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>261</v>
@@ -7131,13 +7148,13 @@
         <v>12542</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>289</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P84" s="8">
         <v>1947</v>
@@ -7157,13 +7174,13 @@
         <v>159</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>261</v>
@@ -7185,13 +7202,13 @@
         <v>11083</v>
       </c>
       <c r="M85" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="N85" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="N85" s="8" t="s">
+      <c r="O85" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>491</v>
       </c>
       <c r="P85" s="8">
         <v>1958</v>
@@ -7211,13 +7228,13 @@
         <v>275</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>245</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F86" s="22"/>
       <c r="G86" s="9" t="s">
@@ -7233,7 +7250,7 @@
         <v>40012</v>
       </c>
       <c r="M86" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N86" s="9" t="s">
         <v>10</v>
@@ -7259,13 +7276,13 @@
         <v>228</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>246</v>
@@ -7293,7 +7310,7 @@
         <v>43</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P87" s="8">
         <v>2011</v>
@@ -7313,13 +7330,13 @@
         <v>146</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>261</v>
@@ -7341,7 +7358,7 @@
         <v>11084</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N88" s="8" t="s">
         <v>7</v>
@@ -7367,13 +7384,13 @@
         <v>202</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>258</v>
@@ -7395,7 +7412,7 @@
         <v>40004</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N89" s="8" t="s">
         <v>289</v>
@@ -7424,7 +7441,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>7</v>
@@ -7478,7 +7495,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>7</v>
@@ -7532,7 +7549,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>7</v>
@@ -7586,7 +7603,7 @@
         <v>7</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>7</v>
@@ -7640,7 +7657,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>7</v>
@@ -7694,7 +7711,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>7</v>
@@ -7748,7 +7765,7 @@
         <v>7</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>7</v>
@@ -7802,7 +7819,7 @@
         <v>303</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>304</v>
@@ -7856,7 +7873,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>7</v>
@@ -7907,10 +7924,10 @@
         <v>232</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>7</v>
@@ -7964,7 +7981,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>7</v>
@@ -8018,7 +8035,7 @@
         <v>7</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>7</v>
@@ -8097,7 +8114,7 @@
         <v>358764</v>
       </c>
       <c r="M102" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N102" s="8" t="s">
         <v>7</v>
@@ -8123,7 +8140,7 @@
         <v>140</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>441</v>
@@ -8177,7 +8194,7 @@
         <v>151</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>441</v>
@@ -8205,13 +8222,13 @@
         <v>54315</v>
       </c>
       <c r="M104" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N104" s="8" t="s">
         <v>46</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P104" s="8" t="s">
         <v>7</v>
@@ -8231,7 +8248,7 @@
         <v>269</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>441</v>
@@ -8285,7 +8302,7 @@
         <v>153</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>441</v>
@@ -8313,7 +8330,7 @@
         <v>11096</v>
       </c>
       <c r="M106" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N106" s="8" t="s">
         <v>7</v>
@@ -8424,7 +8441,7 @@
         <v>47</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O108" s="8" t="s">
         <v>7</v>
@@ -8555,7 +8572,7 @@
         <v>208</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D111" s="24" t="s">
         <v>441</v>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C30A759-51C2-D14C-B207-4664834C5393}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="0" windowWidth="32880" windowHeight="24940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1944,8 +1938,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2773,14 +2767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
@@ -2851,97 +2845,105 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>112</v>
+      <c r="A2" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>396</v>
+        <v>550</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="E2" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="G2" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="17">
-        <v>44017</v>
+        <v>185</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="19">
+        <v>390845</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>398</v>
+        <v>551</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>399</v>
+        <v>287</v>
       </c>
       <c r="P2" s="8">
-        <v>1966</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>4</v>
+        <v>2003</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>251</v>
+      <c r="A3" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>462</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="F3" s="7"/>
+      <c r="E3" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="G3" s="8" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="17">
-        <v>1534467</v>
+        <v>308</v>
+      </c>
+      <c r="L3" s="19">
+        <v>31658</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="P3" s="8">
-        <v>1966</v>
+        <v>2012</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>7</v>
@@ -2951,47 +2953,51 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>126</v>
+      <c r="A4" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>431</v>
+        <v>517</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="F4" s="7"/>
+      <c r="E4" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="G4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="17">
-        <v>478577</v>
+      <c r="K4" s="9"/>
+      <c r="L4" s="19">
+        <v>390844</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="P4" s="8">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>7</v>
@@ -3001,68 +3007,64 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>527</v>
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>528</v>
+        <v>425</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>261</v>
-      </c>
+      <c r="E5" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="19">
-        <v>64303</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>52</v>
+      <c r="L5" s="17">
+        <v>1244563</v>
+      </c>
+      <c r="M5" s="14">
+        <v>178</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>84</v>
+        <v>297</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
       <c r="P5" s="8">
-        <v>1956</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>2</v>
+        <v>2011</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>245</v>
@@ -3071,60 +3073,60 @@
         <v>627</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
-        <v>121</v>
+      <c r="G6" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="L6" s="17">
-        <v>1244563</v>
-      </c>
-      <c r="M6" s="14">
-        <v>178</v>
+        <v>1125677</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>297</v>
+        <v>27</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>298</v>
+        <v>430</v>
       </c>
       <c r="P6" s="8">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="11" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
+        <v>305</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>627</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>7</v>
+        <v>506</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>7</v>
@@ -3133,23 +3135,23 @@
         <v>0</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="19">
-        <v>54290</v>
+        <v>218849</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>7</v>
+        <v>485</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>7</v>
+        <v>507</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1999</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>7</v>
@@ -3159,229 +3161,235 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>110</v>
+      <c r="A8" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7" t="s">
+      <c r="E8" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="17">
-        <v>64308</v>
+      <c r="K8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1708574</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>391</v>
+        <v>90</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>392</v>
+        <v>585</v>
       </c>
       <c r="P8" s="8">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>116</v>
+      <c r="A9" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>415</v>
+        <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="E9" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="17">
-        <v>44025</v>
+        <v>196</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="19">
+        <v>673515</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>417</v>
+        <v>62</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>418</v>
+        <v>7</v>
       </c>
       <c r="P9" s="8">
-        <v>1968</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>24</v>
+        <v>2009</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>122</v>
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>632</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="E10" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>123</v>
+        <v>423</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>247</v>
+        <v>120</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="19">
-        <v>33743</v>
+      <c r="L10" s="17">
+        <v>667516</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>7</v>
+        <v>424</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>427</v>
+        <v>7</v>
       </c>
       <c r="P10" s="8">
-        <v>1957</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>27</v>
+        <v>2008</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>409</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="6" t="s">
-        <v>257</v>
+        <v>68</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>444</v>
+        <v>565</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>634</v>
+      <c r="E11" s="32" t="s">
+        <v>627</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>136</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="L11" s="17">
-        <v>2045187</v>
+        <v>1286143</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>281</v>
+        <v>421</v>
       </c>
       <c r="P11" s="8">
-        <v>1996</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>22</v>
+        <v>2004</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>634</v>
+      <c r="E12" s="33" t="s">
+        <v>627</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="7" t="s">
@@ -3389,346 +3397,354 @@
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="17">
-        <v>2045185</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>443</v>
+        <v>1302179</v>
+      </c>
+      <c r="M12" s="14">
+        <v>56</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>280</v>
+        <v>433</v>
       </c>
       <c r="P12" s="8">
-        <v>2013</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>13</v>
+        <v>2010</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>137</v>
+      <c r="A13" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>445</v>
+        <v>581</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="F13" s="7"/>
+      <c r="E13" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="G13" s="8" t="s">
-        <v>446</v>
+        <v>582</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="17">
-        <v>1105173</v>
+      <c r="L13" s="19">
+        <v>1708654</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>7</v>
+        <v>583</v>
       </c>
       <c r="P13" s="8">
         <v>2007</v>
       </c>
-      <c r="Q13" s="8">
-        <v>1</v>
+      <c r="Q13" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>210</v>
+      <c r="A14" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="17">
-        <v>1286143</v>
+        <v>181</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="19">
+        <v>643132</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>421</v>
+        <v>7</v>
       </c>
       <c r="P14" s="8">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>149</v>
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>558</v>
+        <v>445</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>250</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
-        <v>7</v>
+        <v>446</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>259</v>
+        <v>446</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="K15" s="9"/>
-      <c r="L15" s="19">
-        <v>1307800</v>
+      <c r="L15" s="17">
+        <v>1105173</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>7</v>
+      <c r="P15" s="8">
+        <v>2007</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>1</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>111</v>
+      <c r="A16" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>394</v>
+        <v>587</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="F16" s="7"/>
+      <c r="E16" s="41" t="s">
+        <v>633</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="G16" s="8" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7" t="s">
-        <v>125</v>
+        <v>234</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="17">
-        <v>64315</v>
+      <c r="L16" s="19">
+        <v>1566298</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="P16" s="18">
-        <v>1975</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>8</v>
+        <v>93</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="P16" s="8">
+        <v>2012</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="11" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="39" t="s">
-        <v>632</v>
+      <c r="E17" s="44" t="s">
+        <v>635</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="H17" s="13"/>
+        <v>260</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="19">
-        <v>64288</v>
+        <v>631267</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>402</v>
+        <v>59</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>403</v>
+        <v>7</v>
       </c>
       <c r="P17" s="8">
-        <v>1968</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>2</v>
+        <v>2010</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>434</v>
+        <v>555</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>634</v>
+      <c r="E18" s="44" t="s">
+        <v>635</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="8"/>
       <c r="J18" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="17">
-        <v>44027</v>
+        <v>985683</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>436</v>
+        <v>58</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>437</v>
+        <v>7</v>
       </c>
       <c r="P18" s="8">
-        <v>1961</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>1</v>
+        <v>2009</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>7</v>
+        <v>566</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="43" t="s">
-        <v>634</v>
+      <c r="E19" s="45" t="s">
+        <v>635</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
@@ -3736,180 +3752,168 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="9"/>
       <c r="L19" s="17">
-        <v>1534468</v>
+        <v>1445557</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>439</v>
+        <v>73</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>440</v>
+        <v>7</v>
       </c>
       <c r="P19" s="8">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="6" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>404</v>
+        <v>567</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="39" t="s">
-        <v>632</v>
+      <c r="E20" s="44" t="s">
+        <v>635</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="7"/>
       <c r="K20" s="9"/>
       <c r="L20" s="17">
-        <v>47300</v>
+        <v>649187</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>405</v>
+        <v>75</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>7</v>
+      <c r="P20" s="8">
+        <v>2007</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>184</v>
+      <c r="A21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E21" s="44" t="s">
+        <v>635</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L21" s="19">
-        <v>390845</v>
+      <c r="K21" s="9"/>
+      <c r="L21" s="17">
+        <v>1485186</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P21" s="8">
-        <v>2003</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>7</v>
+        <v>2010</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>17</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>145</v>
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E22" s="44" t="s">
+        <v>635</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="13">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="L22" s="19">
-        <v>31658</v>
+      <c r="K22" s="9"/>
+      <c r="L22" s="17">
+        <v>486494</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="P22" s="8">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>7</v>
@@ -3919,155 +3923,149 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>171</v>
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>517</v>
+        <v>396</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E23" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="8" t="s">
-        <v>518</v>
+        <v>397</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>125</v>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="19">
-        <v>390844</v>
+      <c r="L23" s="17">
+        <v>44017</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>286</v>
+        <v>399</v>
       </c>
       <c r="P23" s="8">
-        <v>2003</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>7</v>
+        <v>1966</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>4</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>124</v>
+      <c r="A24" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>428</v>
+        <v>540</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E24" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8" t="s">
+      <c r="E24" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" s="17">
-        <v>1125677</v>
+      <c r="K24" s="9"/>
+      <c r="L24" s="19">
+        <v>64290</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>7</v>
+        <v>542</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>430</v>
+        <v>543</v>
       </c>
       <c r="P24" s="8">
-        <v>2005</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>7</v>
+        <v>1966</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>31</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>40</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>168</v>
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>305</v>
+        <v>7</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E25" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="19">
-        <v>218849</v>
+      <c r="K25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="17">
+        <v>1534467</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>50</v>
+        <v>438</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>485</v>
+        <v>34</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>507</v>
+        <v>7</v>
       </c>
       <c r="P25" s="8">
-        <v>1999</v>
+        <v>1966</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>7</v>
@@ -4077,105 +4075,95 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>231</v>
+      <c r="A26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>584</v>
+        <v>406</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E26" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L26" s="19">
-        <v>1708574</v>
+        <v>165</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="17">
+        <v>38837</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>90</v>
+        <v>407</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>585</v>
+        <v>408</v>
       </c>
       <c r="P26" s="8">
-        <v>2011</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>7</v>
+        <v>1956</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>28</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>195</v>
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>7</v>
+        <v>431</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>260</v>
-      </c>
+      <c r="E27" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="8" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="H27" s="9"/>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="12" t="s">
+      <c r="I27" s="8"/>
+      <c r="J27" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="L27" s="19">
-        <v>673515</v>
+        <v>127</v>
+      </c>
+      <c r="L27" s="17">
+        <v>478577</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P27" s="8">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>7</v>
@@ -4186,260 +4174,260 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>119</v>
+        <v>599</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>422</v>
+        <v>600</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>627</v>
+      <c r="E28" s="42" t="s">
+        <v>634</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8" t="s">
-        <v>423</v>
+        <v>601</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" s="14">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>259</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="9"/>
       <c r="L28" s="17">
-        <v>667516</v>
+        <v>64295</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>424</v>
+        <v>602</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>7</v>
+        <v>603</v>
       </c>
       <c r="P28" s="8">
-        <v>2008</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>7</v>
+        <v>1967</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>2</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>71</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>128</v>
+      <c r="A29" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>527</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>432</v>
+        <v>528</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="F29" s="7"/>
+      <c r="E29" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="G29" s="8" t="s">
-        <v>129</v>
+        <v>529</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="17">
-        <v>1302179</v>
-      </c>
-      <c r="M29" s="14">
-        <v>56</v>
+      <c r="K29" s="8"/>
+      <c r="L29" s="19">
+        <v>64303</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>433</v>
+        <v>7</v>
       </c>
       <c r="P29" s="8">
-        <v>2010</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>7</v>
+        <v>1956</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>2</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>627</v>
+      <c r="E30" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>582</v>
+        <v>225</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="I30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="19">
-        <v>1708654</v>
+        <v>64305</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>89</v>
+        <v>572</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="P30" s="8">
-        <v>2007</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>7</v>
+        <v>1977</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>28</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="11" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>544</v>
+        <v>143</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>458</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>627</v>
+      <c r="E31" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="I31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="19">
-        <v>643132</v>
+        <v>11053</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>54</v>
+        <v>459</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P31" s="8">
-        <v>2002</v>
+      <c r="P31" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="11" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>587</v>
+        <v>453</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E32" s="41" t="s">
-        <v>633</v>
+      <c r="E32" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="I32" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="19">
-        <v>1566298</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>93</v>
+        <v>11060</v>
+      </c>
+      <c r="M32" s="14">
+        <v>16681</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>588</v>
+        <v>454</v>
       </c>
       <c r="P32" s="8">
-        <v>2012</v>
+        <v>1964</v>
       </c>
       <c r="Q32" s="8" t="s">
         <v>7</v>
@@ -4450,96 +4438,104 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>556</v>
+        <v>455</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E33" s="44" t="s">
-        <v>635</v>
+      <c r="E33" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I33" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="19">
-        <v>631267</v>
+        <v>11069</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>59</v>
+        <v>456</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>7</v>
       </c>
       <c r="P33" s="8">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>188</v>
+      <c r="A34" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>555</v>
+        <v>302</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E34" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="F34" s="7"/>
+      <c r="E34" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="G34" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="17">
-        <v>985683</v>
+      <c r="L34" s="19">
+        <v>12637</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P34" s="8">
-        <v>2009</v>
+      <c r="P34" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>7</v>
@@ -4550,257 +4546,269 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="6" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="45" t="s">
-        <v>635</v>
+      <c r="E35" s="42" t="s">
+        <v>634</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7"/>
       <c r="K35" s="9"/>
       <c r="L35" s="17">
-        <v>1445557</v>
+        <v>64296</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>73</v>
+        <v>594</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>7</v>
+        <v>595</v>
       </c>
       <c r="P35" s="8">
-        <v>2007</v>
-      </c>
-      <c r="Q35" s="8" t="s">
-        <v>7</v>
+        <v>1969</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>29</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>40</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="6" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>567</v>
+        <v>389</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="44" t="s">
-        <v>635</v>
+      <c r="E36" s="43" t="s">
+        <v>634</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="7"/>
       <c r="K36" s="9"/>
       <c r="L36" s="17">
-        <v>649187</v>
+        <v>64308</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>75</v>
+        <v>391</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>7</v>
+        <v>392</v>
       </c>
       <c r="P36" s="8">
-        <v>2007</v>
+        <v>1979</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>40</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>206</v>
+      <c r="A37" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E37" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="F37" s="7"/>
+      <c r="E37" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="G37" s="8" t="s">
-        <v>207</v>
+        <v>531</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="13">
+        <v>1</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="17">
-        <v>1485186</v>
+      <c r="L37" s="19">
+        <v>59563</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>563</v>
+        <v>7</v>
       </c>
       <c r="N37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>291</v>
+        <v>532</v>
       </c>
       <c r="P37" s="8">
-        <v>2010</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>17</v>
+        <v>1944</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>117</v>
+      <c r="A38" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>419</v>
+        <v>637</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="F38" s="7"/>
+      <c r="E38" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="G38" s="8" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="17">
-        <v>486494</v>
-      </c>
-      <c r="M38" s="14" t="s">
-        <v>420</v>
-      </c>
+      <c r="K38" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L38" s="19">
+        <v>11072</v>
+      </c>
+      <c r="M38" s="14"/>
       <c r="N38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="P38" s="8">
+        <v>1935</v>
+      </c>
+      <c r="Q38" s="8">
         <v>21</v>
       </c>
-      <c r="O38" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="P38" s="8">
-        <v>2004</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="R38" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>179</v>
+      <c r="A39" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="42" t="s">
         <v>634</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>268</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="13">
-        <v>1</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>125</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="19">
-        <v>64290</v>
+      <c r="L39" s="17">
+        <v>64309</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="P39" s="8">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="Q39" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>409</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>114</v>
+      <c r="A40" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>406</v>
+        <v>536</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>245</v>
@@ -4808,95 +4816,99 @@
       <c r="E40" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="G40" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="7"/>
+        <v>537</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="13">
+        <v>1</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="K40" s="9"/>
-      <c r="L40" s="17">
-        <v>38837</v>
+      <c r="L40" s="19">
+        <v>64311</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>407</v>
+        <v>538</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>408</v>
+        <v>539</v>
       </c>
       <c r="P40" s="8">
-        <v>1956</v>
+        <v>1972</v>
       </c>
       <c r="Q40" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R40" s="10" t="s">
-        <v>409</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="6" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>599</v>
+        <v>116</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>600</v>
+        <v>415</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="43" t="s">
         <v>634</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="8" t="s">
-        <v>601</v>
+        <v>416</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
       <c r="K41" s="9"/>
       <c r="L41" s="17">
-        <v>64295</v>
+        <v>44025</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>602</v>
+        <v>417</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>603</v>
+        <v>418</v>
       </c>
       <c r="P41" s="8">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="Q41" s="8">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>604</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>224</v>
+      <c r="A42" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>245</v>
@@ -4904,53 +4916,49 @@
       <c r="E42" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="8" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="I42" s="13">
-        <v>1</v>
-      </c>
-      <c r="J42" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K42" s="9"/>
-      <c r="L42" s="19">
-        <v>64305</v>
+      <c r="L42" s="17">
+        <v>2045187</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>572</v>
+        <v>39</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>573</v>
+        <v>281</v>
       </c>
       <c r="P42" s="8">
-        <v>1977</v>
+        <v>1996</v>
       </c>
       <c r="Q42" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>414</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>458</v>
+      <c r="A43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>245</v>
@@ -4958,53 +4966,49 @@
       <c r="E43" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>250</v>
-      </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="8" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="13">
-        <v>1</v>
-      </c>
-      <c r="J43" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="7" t="s">
         <v>125</v>
       </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="19">
-        <v>11053</v>
+      <c r="L43" s="17">
+        <v>2045185</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>7</v>
+        <v>280</v>
+      </c>
+      <c r="P43" s="8">
+        <v>2013</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>13</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>245</v>
@@ -5013,7 +5017,7 @@
         <v>634</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>165</v>
@@ -5027,38 +5031,40 @@
       <c r="J44" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="L44" s="19">
-        <v>11060</v>
-      </c>
-      <c r="M44" s="14">
-        <v>16681</v>
+        <v>11079</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>449</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P44" s="8">
-        <v>1964</v>
-      </c>
-      <c r="Q44" s="8" t="s">
-        <v>7</v>
+        <v>1951</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>9</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>142</v>
+        <v>596</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>455</v>
+        <v>597</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>245</v>
@@ -5067,13 +5073,13 @@
         <v>634</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>7</v>
+        <v>448</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I45" s="13">
         <v>1</v>
@@ -5083,36 +5089,36 @@
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="19">
-        <v>11069</v>
+        <v>44024</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>456</v>
+        <v>598</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="P45" s="8">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="Q45" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>457</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="11" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>302</v>
+        <v>557</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>245</v>
@@ -5121,7 +5127,7 @@
         <v>634</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>7</v>
@@ -5137,19 +5143,17 @@
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="19">
-        <v>12637</v>
+        <v>64292</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8">
+        <v>1966</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>7</v>
@@ -5160,23 +5164,23 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="6" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>593</v>
+        <v>394</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="43" t="s">
         <v>634</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="8" t="s">
-        <v>435</v>
+        <v>165</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>7</v>
@@ -5187,90 +5191,84 @@
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="17">
-        <v>64296</v>
+        <v>64315</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="P47" s="8">
-        <v>1969</v>
+        <v>395</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="P47" s="18">
+        <v>1975</v>
       </c>
       <c r="Q47" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>409</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>175</v>
+      <c r="A48" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>530</v>
+        <v>605</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="42" t="s">
         <v>634</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="8" t="s">
-        <v>531</v>
+        <v>416</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="13">
-        <v>1</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="19">
-        <v>59563</v>
+      <c r="L48" s="17">
+        <v>64284</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>7</v>
+        <v>606</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
       <c r="P48" s="8">
-        <v>1944</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>7</v>
+        <v>1968</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>22</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="11" t="s">
-        <v>316</v>
+      <c r="A49" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>637</v>
+        <v>523</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>245</v>
@@ -5279,13 +5277,13 @@
         <v>634</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>165</v>
+        <v>524</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I49" s="13">
         <v>1</v>
@@ -5293,86 +5291,92 @@
       <c r="J49" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="K49" s="8"/>
       <c r="L49" s="19">
-        <v>11072</v>
-      </c>
-      <c r="M49" s="14"/>
+        <v>44026</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>525</v>
+      </c>
       <c r="N49" s="8" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="P49" s="8">
-        <v>1935</v>
+        <v>1966</v>
       </c>
       <c r="Q49" s="8">
         <v>21</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>239</v>
+      <c r="A50" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="G50" s="8" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="7"/>
+      <c r="I50" s="13">
+        <v>1</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="17">
-        <v>64309</v>
+      <c r="L50" s="19">
+        <v>64318</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="P50" s="8">
-        <v>1968</v>
+        <v>1955</v>
       </c>
       <c r="Q50" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="11" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>245</v>
@@ -5381,12 +5385,14 @@
         <v>634</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="H51" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="I51" s="13">
         <v>1</v>
       </c>
@@ -5395,36 +5401,36 @@
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="19">
-        <v>64311</v>
+        <v>11080</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>538</v>
+        <v>7</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="P51" s="8">
-        <v>1972</v>
-      </c>
-      <c r="Q51" s="8">
-        <v>26</v>
+        <v>516</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>138</v>
+      <c r="A52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>245</v>
@@ -5432,55 +5438,49 @@
       <c r="E52" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="8" t="s">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="13">
-        <v>1</v>
-      </c>
-      <c r="J52" s="12" t="s">
+      <c r="I52" s="8"/>
+      <c r="J52" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="L52" s="19">
-        <v>11079</v>
+      <c r="K52" s="9"/>
+      <c r="L52" s="17">
+        <v>44027</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="P52" s="8">
-        <v>1951</v>
+        <v>1961</v>
       </c>
       <c r="Q52" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="11" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>596</v>
+        <v>186</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>597</v>
+        <v>552</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>245</v>
@@ -5489,13 +5489,13 @@
         <v>634</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>448</v>
+        <v>187</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="I53" s="13">
         <v>1</v>
@@ -5503,38 +5503,40 @@
       <c r="J53" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K53" s="9"/>
+      <c r="K53" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="L53" s="19">
-        <v>44024</v>
+        <v>64293</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>598</v>
+        <v>553</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>295</v>
+        <v>554</v>
       </c>
       <c r="P53" s="8">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="Q53" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>190</v>
+      <c r="A54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>557</v>
+        <v>7</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>245</v>
@@ -5542,34 +5544,30 @@
       <c r="E54" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="F54" s="7"/>
       <c r="G54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="13">
-        <v>1</v>
-      </c>
-      <c r="J54" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K54" s="9"/>
-      <c r="L54" s="19">
-        <v>64292</v>
+      <c r="L54" s="17">
+        <v>1534468</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>60</v>
+        <v>439</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O54" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>440</v>
+      </c>
       <c r="P54" s="8">
-        <v>1966</v>
+        <v>2000</v>
       </c>
       <c r="Q54" s="8" t="s">
         <v>7</v>
@@ -5580,61 +5578,61 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="43" t="s">
         <v>634</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8" t="s">
-        <v>416</v>
+        <v>609</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="7"/>
       <c r="K55" s="9"/>
       <c r="L55" s="17">
-        <v>64284</v>
+        <v>64297</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>606</v>
+        <v>7</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="P55" s="8">
-        <v>1968</v>
+        <v>1947</v>
       </c>
       <c r="Q55" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R55" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="20" t="s">
-        <v>344</v>
+      <c r="A56" s="11" t="s">
+        <v>341</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>245</v>
@@ -5643,13 +5641,13 @@
         <v>634</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="I56" s="13">
         <v>1</v>
@@ -5657,38 +5655,38 @@
       <c r="J56" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K56" s="8"/>
+      <c r="K56" s="9"/>
       <c r="L56" s="19">
-        <v>44026</v>
+        <v>64286</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>526</v>
+        <v>408</v>
       </c>
       <c r="P56" s="8">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="Q56" s="8">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R56" s="10" t="s">
-        <v>38</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="11" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>245</v>
@@ -5700,7 +5698,7 @@
         <v>246</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>7</v>
@@ -5713,36 +5711,36 @@
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="19">
-        <v>64318</v>
+        <v>164416</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="N57" s="8" t="s">
         <v>15</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="P57" s="8">
         <v>1955</v>
       </c>
       <c r="Q57" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R57" s="10" t="s">
-        <v>578</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>515</v>
+        <v>299</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>245</v>
@@ -5767,36 +5765,36 @@
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="19">
-        <v>11080</v>
+        <v>11082</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>7</v>
+        <v>461</v>
+      </c>
+      <c r="P58" s="8">
+        <v>1937</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>12</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>186</v>
+      <c r="A59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>552</v>
+        <v>410</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>245</v>
@@ -5804,55 +5802,47 @@
       <c r="E59" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>246</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="8" t="s">
-        <v>187</v>
+        <v>411</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="I59" s="13">
-        <v>1</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L59" s="19">
-        <v>64293</v>
+        <v>7</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="17">
+        <v>64319</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>553</v>
+        <v>412</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>554</v>
+        <v>413</v>
       </c>
       <c r="P59" s="8">
-        <v>2010</v>
-      </c>
-      <c r="Q59" s="8" t="s">
-        <v>7</v>
+        <v>1968</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>25</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>238</v>
+      <c r="A60" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>608</v>
+        <v>301</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>245</v>
@@ -5860,47 +5850,53 @@
       <c r="E60" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="F60" s="7"/>
+      <c r="F60" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="G60" s="8" t="s">
-        <v>609</v>
+        <v>7</v>
       </c>
       <c r="H60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="13">
+        <v>1</v>
+      </c>
+      <c r="J60" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="7"/>
       <c r="K60" s="9"/>
-      <c r="L60" s="17">
-        <v>64297</v>
+      <c r="L60" s="19">
+        <v>11089</v>
       </c>
       <c r="M60" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="P60" s="8">
-        <v>1947</v>
-      </c>
-      <c r="Q60" s="8">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>245</v>
@@ -5909,13 +5905,13 @@
         <v>634</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>509</v>
+        <v>177</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="I61" s="13">
         <v>1</v>
@@ -5925,178 +5921,184 @@
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="19">
-        <v>64286</v>
+        <v>64320</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>408</v>
+        <v>535</v>
       </c>
       <c r="P61" s="8">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="Q61" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>393</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="11" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>545</v>
+        <v>482</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="43" t="s">
-        <v>634</v>
+      <c r="E62" s="34" t="s">
+        <v>628</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>546</v>
+        <v>483</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="19">
-        <v>164416</v>
+        <v>64280</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>547</v>
+        <v>7</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>548</v>
+        <v>484</v>
       </c>
       <c r="P62" s="8">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="Q62" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="11" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>299</v>
+        <v>568</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E63" s="43" t="s">
-        <v>634</v>
+      <c r="E63" s="34" t="s">
+        <v>629</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="I63" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="19">
-        <v>11082</v>
+        <v>64299</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>460</v>
+        <v>569</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>461</v>
+        <v>570</v>
       </c>
       <c r="P63" s="8">
-        <v>1937</v>
+        <v>1969</v>
       </c>
       <c r="Q63" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>393</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>115</v>
+      <c r="A64" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E64" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="F64" s="7"/>
+      <c r="E64" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>261</v>
+      </c>
       <c r="G64" s="8" t="s">
-        <v>411</v>
+        <v>198</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="7"/>
+      <c r="I64" s="13">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="K64" s="9"/>
-      <c r="L64" s="17">
-        <v>64319</v>
+      <c r="L64" s="19">
+        <v>64300</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>413</v>
+        <v>309</v>
       </c>
       <c r="P64" s="8">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="Q64" s="8">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="R64" s="10" t="s">
         <v>414</v>
@@ -6104,298 +6106,298 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="11" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>301</v>
+        <v>498</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E65" s="43" t="s">
-        <v>634</v>
+      <c r="E65" s="34" t="s">
+        <v>629</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>7</v>
+        <v>499</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I65" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="19">
-        <v>11089</v>
+        <v>64312</v>
       </c>
       <c r="M65" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P65" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q65" s="8" t="s">
-        <v>7</v>
+        <v>285</v>
+      </c>
+      <c r="P65" s="8">
+        <v>1958</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>29</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="11" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E66" s="43" t="s">
-        <v>634</v>
+      <c r="E66" s="35" t="s">
+        <v>629</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>177</v>
+        <v>479</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="I66" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="19">
-        <v>64320</v>
+        <v>64285</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>534</v>
+        <v>480</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>535</v>
+        <v>481</v>
       </c>
       <c r="P66" s="8">
-        <v>1947</v>
+        <v>1954</v>
       </c>
       <c r="Q66" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>78</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="11" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="34" t="s">
-        <v>628</v>
+      <c r="E67" s="36" t="s">
+        <v>630</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="13">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="19">
-        <v>64280</v>
+        <v>64283</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>7</v>
+        <v>521</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="P67" s="8">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="Q67" s="8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>67</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>222</v>
+        <v>574</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E68" s="34" t="s">
-        <v>629</v>
+      <c r="E68" s="36" t="s">
+        <v>630</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="I68" s="13">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="19">
-        <v>64299</v>
+        <v>64317</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="P68" s="8">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="Q68" s="8">
         <v>8</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>40</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="11" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E69" s="34" t="s">
-        <v>629</v>
+      <c r="E69" s="36" t="s">
+        <v>630</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I69" s="13">
-        <v>0</v>
+      <c r="I69" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="19">
-        <v>64300</v>
+        <v>64294</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>309</v>
+        <v>7</v>
       </c>
       <c r="P69" s="8">
-        <v>1958</v>
-      </c>
-      <c r="Q69" s="8">
+        <v>1971</v>
+      </c>
+      <c r="Q69" s="8" t="s">
         <v>7</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>414</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="34" t="s">
-        <v>629</v>
+      <c r="E70" s="37" t="s">
+        <v>631</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>263</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>499</v>
+        <v>162</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="I70" s="13">
         <v>0</v>
@@ -6405,235 +6407,223 @@
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="19">
-        <v>64312</v>
+        <v>161675</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>7</v>
+        <v>496</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P70" s="8">
-        <v>1958</v>
-      </c>
-      <c r="Q70" s="8">
-        <v>29</v>
+        <v>1974</v>
+      </c>
+      <c r="Q70" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>414</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="11" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="35" t="s">
-        <v>629</v>
+      <c r="E71" s="39" t="s">
+        <v>632</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>479</v>
+        <v>165</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="I71" s="13">
-        <v>0</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>259</v>
+        <v>1</v>
+      </c>
+      <c r="J71" s="40" t="s">
+        <v>125</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="19">
-        <v>64285</v>
-      </c>
-      <c r="M71" s="14" t="s">
-        <v>480</v>
+        <v>172148</v>
+      </c>
+      <c r="M71" s="14">
+        <v>1176</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>481</v>
+        <v>7</v>
       </c>
       <c r="P71" s="8">
-        <v>1954</v>
-      </c>
-      <c r="Q71" s="8">
-        <v>10</v>
+        <v>1995</v>
+      </c>
+      <c r="Q71" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>172</v>
+        <v>103</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E72" s="36" t="s">
-        <v>630</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>263</v>
-      </c>
+      <c r="E72" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="F72" s="7"/>
       <c r="G72" s="8" t="s">
-        <v>520</v>
+        <v>203</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>255</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="7"/>
       <c r="K72" s="9"/>
-      <c r="L72" s="19">
-        <v>64283</v>
+      <c r="L72" s="17">
+        <v>64307</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>521</v>
+        <v>620</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>522</v>
+        <v>294</v>
       </c>
       <c r="P72" s="8">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="Q72" s="8">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>414</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>574</v>
+        <v>104</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E73" s="36" t="s">
-        <v>630</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>263</v>
-      </c>
+      <c r="E73" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="8" t="s">
-        <v>226</v>
+        <v>622</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>255</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="7"/>
       <c r="K73" s="9"/>
-      <c r="L73" s="19">
-        <v>64317</v>
+      <c r="L73" s="17">
+        <v>64310</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>577</v>
+        <v>624</v>
       </c>
       <c r="P73" s="8">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="Q73" s="8">
         <v>8</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>578</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="11" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E74" s="36" t="s">
-        <v>630</v>
+      <c r="E74" s="38" t="s">
+        <v>632</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>254</v>
+        <v>205</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="13">
+        <v>1</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K74" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="L74" s="19">
-        <v>64294</v>
+        <v>1456752</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>502</v>
+        <v>7</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>7</v>
+        <v>290</v>
       </c>
       <c r="P74" s="8">
-        <v>1971</v>
+        <v>1989</v>
       </c>
       <c r="Q74" s="8" t="s">
         <v>7</v>
@@ -6644,67 +6634,67 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="11" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E75" s="37" t="s">
-        <v>631</v>
+      <c r="E75" s="39" t="s">
+        <v>632</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>162</v>
+        <v>512</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="I75" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="19">
-        <v>161675</v>
+        <v>64287</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>284</v>
+        <v>51</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>283</v>
+        <v>514</v>
       </c>
       <c r="P75" s="8">
-        <v>1974</v>
-      </c>
-      <c r="Q75" s="8" t="s">
-        <v>7</v>
+        <v>1972</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>9</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="11" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>245</v>
@@ -6713,52 +6703,52 @@
         <v>632</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="I76" s="13">
         <v>1</v>
       </c>
-      <c r="J76" s="40" t="s">
-        <v>125</v>
+      <c r="J76" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="19">
-        <v>172148</v>
-      </c>
-      <c r="M76" s="14">
-        <v>1176</v>
+        <v>33743</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>7</v>
+        <v>427</v>
       </c>
       <c r="P76" s="8">
-        <v>1995</v>
-      </c>
-      <c r="Q76" s="8" t="s">
-        <v>7</v>
+        <v>1957</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>27</v>
       </c>
       <c r="R76" s="10" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>241</v>
+        <v>333</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>619</v>
+        <v>491</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>245</v>
@@ -6766,95 +6756,107 @@
       <c r="E77" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="F77" s="7"/>
+      <c r="F77" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="G77" s="8" t="s">
-        <v>203</v>
+        <v>492</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="7"/>
+      <c r="I77" s="13">
+        <v>1</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="K77" s="9"/>
-      <c r="L77" s="17">
-        <v>64307</v>
+      <c r="L77" s="19">
+        <v>11085</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>620</v>
+        <v>493</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>294</v>
+        <v>494</v>
       </c>
       <c r="P77" s="8">
-        <v>1976</v>
+        <v>1956</v>
       </c>
       <c r="Q77" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>242</v>
+        <v>321</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>621</v>
+        <v>300</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="G78" s="8" t="s">
-        <v>622</v>
+        <v>467</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="8"/>
-      <c r="J78" s="7"/>
+      <c r="I78" s="13">
+        <v>1</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="K78" s="9"/>
-      <c r="L78" s="17">
-        <v>64310</v>
+      <c r="L78" s="19">
+        <v>11086</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>623</v>
+        <v>7</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>23</v>
+        <v>468</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>624</v>
+        <v>469</v>
       </c>
       <c r="P78" s="8">
-        <v>1967</v>
+        <v>1929</v>
       </c>
       <c r="Q78" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R78" s="10" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>204</v>
+      <c r="A79" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>561</v>
+        <v>615</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>245</v>
@@ -6862,53 +6864,49 @@
       <c r="E79" s="38" t="s">
         <v>632</v>
       </c>
-      <c r="F79" s="12" t="s">
-        <v>258</v>
-      </c>
+      <c r="F79" s="7"/>
       <c r="G79" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="13">
-        <v>1</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="8"/>
       <c r="J79" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="K79" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L79" s="19">
-        <v>1456752</v>
+      <c r="K79" s="9"/>
+      <c r="L79" s="17">
+        <v>35279</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>7</v>
+        <v>617</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>290</v>
+        <v>618</v>
       </c>
       <c r="P79" s="8">
-        <v>1989</v>
-      </c>
-      <c r="Q79" s="8" t="s">
-        <v>7</v>
+        <v>1981</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>3</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>245</v>
@@ -6917,10 +6915,10 @@
         <v>632</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>512</v>
+        <v>165</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>7</v>
@@ -6933,22 +6931,22 @@
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="19">
-        <v>64287</v>
+        <v>12542</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="P80" s="8">
-        <v>1972</v>
+        <v>1947</v>
       </c>
       <c r="Q80" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R80" s="10" t="s">
         <v>38</v>
@@ -6956,13 +6954,13 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>245</v>
@@ -6971,10 +6969,10 @@
         <v>632</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>492</v>
+        <v>165</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>7</v>
@@ -6987,36 +6985,36 @@
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="19">
-        <v>11085</v>
+        <v>11083</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>100</v>
+        <v>489</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P81" s="8">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="Q81" s="8">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="11" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>245</v>
@@ -7025,14 +7023,12 @@
         <v>632</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>7</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="H82" s="13"/>
       <c r="I82" s="13">
         <v>1</v>
       </c>
@@ -7041,86 +7037,84 @@
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="19">
-        <v>11086</v>
+        <v>64288</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>7</v>
+        <v>402</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>468</v>
+        <v>11</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="P82" s="8">
-        <v>1929</v>
+        <v>1968</v>
       </c>
       <c r="Q82" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="D83" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>245</v>
       </c>
       <c r="E83" s="38" t="s">
         <v>632</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I83" s="8"/>
-      <c r="J83" s="12" t="s">
-        <v>247</v>
-      </c>
+      <c r="F83" s="22"/>
+      <c r="G83" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="22"/>
       <c r="K83" s="9"/>
-      <c r="L83" s="17">
-        <v>35279</v>
-      </c>
-      <c r="M83" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="N83" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="P83" s="8">
-        <v>1981</v>
-      </c>
-      <c r="Q83" s="8">
-        <v>3</v>
-      </c>
-      <c r="R83" s="10" t="s">
-        <v>414</v>
+      <c r="L83" s="26">
+        <v>40012</v>
+      </c>
+      <c r="M83" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="P83" s="9">
+        <v>1974</v>
+      </c>
+      <c r="Q83" s="9">
+        <v>26</v>
+      </c>
+      <c r="R83" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="11" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>245</v>
@@ -7129,13 +7123,13 @@
         <v>632</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>7</v>
+        <v>229</v>
       </c>
       <c r="I84" s="13">
         <v>1</v>
@@ -7145,36 +7139,36 @@
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="19">
-        <v>12542</v>
+        <v>1691889</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>504</v>
+        <v>88</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
       <c r="P84" s="8">
-        <v>1947</v>
-      </c>
-      <c r="Q84" s="8">
-        <v>14</v>
+        <v>2011</v>
+      </c>
+      <c r="Q84" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="11" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>245</v>
@@ -7186,7 +7180,7 @@
         <v>261</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>7</v>
@@ -7199,175 +7193,175 @@
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="19">
-        <v>11083</v>
+        <v>11084</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>489</v>
+        <v>7</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="P85" s="8">
-        <v>1958</v>
-      </c>
-      <c r="Q85" s="8">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="D86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="38" t="s">
+      <c r="E86" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="22"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="7"/>
       <c r="K86" s="9"/>
-      <c r="L86" s="26">
-        <v>40012</v>
-      </c>
-      <c r="M86" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="N86" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O86" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="P86" s="9">
-        <v>1974</v>
-      </c>
-      <c r="Q86" s="9">
-        <v>26</v>
-      </c>
-      <c r="R86" s="30" t="s">
-        <v>40</v>
+      <c r="L86" s="17">
+        <v>47300</v>
+      </c>
+      <c r="M86" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R86" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="11" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E87" s="39" t="s">
+      <c r="E87" s="38" t="s">
         <v>632</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>229</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H87" s="9"/>
       <c r="I87" s="13">
         <v>1</v>
       </c>
       <c r="J87" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="K87" s="9"/>
+      <c r="K87" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="L87" s="19">
-        <v>1691889</v>
+        <v>40004</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>88</v>
+        <v>560</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>43</v>
+        <v>289</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="P87" s="8">
-        <v>2011</v>
-      </c>
-      <c r="Q87" s="8" t="s">
-        <v>7</v>
+        <v>1969</v>
+      </c>
+      <c r="Q87" s="8">
+        <v>18</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="11" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>464</v>
+        <v>7</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E88" s="39" t="s">
-        <v>632</v>
+        <v>497</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="I88" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="K88" s="9"/>
       <c r="L88" s="19">
-        <v>11084</v>
+        <v>1633878</v>
       </c>
       <c r="M88" s="14" t="s">
-        <v>465</v>
+        <v>86</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="O88" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P88" s="8" t="s">
-        <v>7</v>
+      <c r="P88" s="8">
+        <v>2011</v>
       </c>
       <c r="Q88" s="8" t="s">
         <v>7</v>
@@ -7378,64 +7372,64 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="11" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>559</v>
+        <v>7</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>632</v>
+        <v>497</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H89" s="9"/>
+        <v>216</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="I89" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="K89" s="9"/>
       <c r="L89" s="19">
-        <v>40004</v>
+        <v>1416349</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>560</v>
+        <v>7</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>288</v>
+        <v>7</v>
       </c>
       <c r="P89" s="8">
-        <v>1969</v>
-      </c>
-      <c r="Q89" s="8">
-        <v>18</v>
+        <v>2013</v>
+      </c>
+      <c r="Q89" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="11" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>7</v>
@@ -7447,13 +7441,13 @@
         <v>7</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="I90" s="13">
         <v>0</v>
@@ -7463,33 +7457,33 @@
       </c>
       <c r="K90" s="9"/>
       <c r="L90" s="19">
-        <v>1633878</v>
+        <v>1562038</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="P90" s="8">
-        <v>2011</v>
-      </c>
-      <c r="Q90" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="Q90" s="8">
         <v>7</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>7</v>
@@ -7501,13 +7495,13 @@
         <v>7</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I91" s="13">
         <v>0</v>
@@ -7517,33 +7511,33 @@
       </c>
       <c r="K91" s="9"/>
       <c r="L91" s="19">
-        <v>1416349</v>
+        <v>1562039</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="P91" s="8">
-        <v>2013</v>
-      </c>
-      <c r="Q91" s="8" t="s">
-        <v>7</v>
+        <v>2012</v>
+      </c>
+      <c r="Q91" s="8">
+        <v>20</v>
       </c>
       <c r="R91" s="10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="11" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>7</v>
@@ -7571,10 +7565,10 @@
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="19">
-        <v>1562038</v>
+        <v>1562065</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N92" s="8" t="s">
         <v>46</v>
@@ -7583,21 +7577,21 @@
         <v>296</v>
       </c>
       <c r="P92" s="8">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="Q92" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R92" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>7</v>
@@ -7625,10 +7619,10 @@
       </c>
       <c r="K93" s="9"/>
       <c r="L93" s="19">
-        <v>1562039</v>
+        <v>1562066</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N93" s="8" t="s">
         <v>46</v>
@@ -7637,21 +7631,21 @@
         <v>296</v>
       </c>
       <c r="P93" s="8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="Q93" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>7</v>
@@ -7666,10 +7660,10 @@
         <v>261</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="I94" s="13">
         <v>0</v>
@@ -7679,51 +7673,51 @@
       </c>
       <c r="K94" s="9"/>
       <c r="L94" s="19">
-        <v>1562065</v>
+        <v>1281454</v>
       </c>
       <c r="M94" s="14" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N94" s="8" t="s">
         <v>46</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>296</v>
+        <v>7</v>
       </c>
       <c r="P94" s="8">
-        <v>2012</v>
-      </c>
-      <c r="Q94" s="8">
-        <v>2</v>
+        <v>2008</v>
+      </c>
+      <c r="Q94" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R94" s="10" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="11" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>497</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="I95" s="13">
         <v>0</v>
@@ -7733,51 +7727,51 @@
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="19">
-        <v>1562066</v>
+        <v>11103</v>
       </c>
       <c r="M95" s="14" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="P95" s="8">
-        <v>2013</v>
-      </c>
-      <c r="Q95" s="8">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q95" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I96" s="13">
         <v>0</v>
@@ -7787,10 +7781,10 @@
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="19">
-        <v>1281454</v>
+        <v>1307803</v>
       </c>
       <c r="M96" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N96" s="8" t="s">
         <v>46</v>
@@ -7799,7 +7793,7 @@
         <v>7</v>
       </c>
       <c r="P96" s="8">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="Q96" s="8" t="s">
         <v>7</v>
@@ -7810,19 +7804,19 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="11" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>497</v>
+        <v>466</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>558</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>250</v>
@@ -7841,10 +7835,10 @@
       </c>
       <c r="K97" s="9"/>
       <c r="L97" s="19">
-        <v>11103</v>
+        <v>54290</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="N97" s="8" t="s">
         <v>7</v>
@@ -7864,13 +7858,13 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="11" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>7</v>
+        <v>586</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>558</v>
@@ -7879,13 +7873,13 @@
         <v>7</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="I98" s="13">
         <v>0</v>
@@ -7895,10 +7889,10 @@
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="19">
-        <v>1307803</v>
+        <v>1729141</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="N98" s="8" t="s">
         <v>46</v>
@@ -7907,26 +7901,26 @@
         <v>7</v>
       </c>
       <c r="P98" s="8">
-        <v>2011</v>
-      </c>
-      <c r="Q98" s="8" t="s">
-        <v>7</v>
+        <v>2008</v>
+      </c>
+      <c r="Q98" s="8">
+        <v>28</v>
       </c>
       <c r="R98" s="10" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="11" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="D99" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D99" s="12" t="s">
         <v>558</v>
       </c>
       <c r="E99" s="8" t="s">
@@ -7936,10 +7930,10 @@
         <v>250</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="I99" s="13">
         <v>0</v>
@@ -7949,25 +7943,25 @@
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="19">
-        <v>1729141</v>
+        <v>1307800</v>
       </c>
       <c r="M99" s="14" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="O99" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P99" s="8">
-        <v>2008</v>
-      </c>
-      <c r="Q99" s="8">
-        <v>28</v>
+      <c r="P99" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="R99" s="10" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:18">

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF4836B-D38D-6844-B927-5E1E68307B1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="0" windowWidth="32880" windowHeight="24940" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="656">
   <si>
     <t>isolate</t>
   </si>
@@ -1933,12 +1939,66 @@
   </si>
   <si>
     <t>JEV</t>
+  </si>
+  <si>
+    <t>Africa/Southeast Asia</t>
+  </si>
+  <si>
+    <t>South America/Africa</t>
+  </si>
+  <si>
+    <t>Europe/Asia</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Africa/Asia</t>
+  </si>
+  <si>
+    <t>Africa/Americas</t>
+  </si>
+  <si>
+    <t>NC_020252</t>
+  </si>
+  <si>
+    <t>Pesti-like</t>
+  </si>
+  <si>
+    <t>Soybean cyst nematode virus</t>
+  </si>
+  <si>
+    <t>SbCNV-5</t>
+  </si>
+  <si>
+    <t>GKaV</t>
+  </si>
+  <si>
+    <t>gentian Kobu-sho-associated virus</t>
+  </si>
+  <si>
+    <t>NC_024077</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1951,10 +2011,12 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1981,6 +2043,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2258,7 +2321,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2345,6 +2408,9 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2767,28 +2833,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="15" width="23.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>311</v>
       </c>
@@ -2832,19 +2900,22 @@
         <v>1</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>351</v>
       </c>
@@ -2886,19 +2957,22 @@
         <v>76</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="P2" s="8">
+      <c r="Q2" s="8">
         <v>2003</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="R2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>380</v>
       </c>
@@ -2940,19 +3014,22 @@
         <v>46</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>2012</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="R3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>382</v>
       </c>
@@ -2994,19 +3071,22 @@
         <v>76</v>
       </c>
       <c r="O4" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>2003</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="R4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
@@ -3044,19 +3124,22 @@
         <v>297</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>2011</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="R5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3094,19 +3177,22 @@
         <v>27</v>
       </c>
       <c r="O6" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <v>2005</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>340</v>
       </c>
@@ -3148,19 +3234,22 @@
         <v>485</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>1999</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="R7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>373</v>
       </c>
@@ -3202,19 +3291,22 @@
         <v>91</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <v>2011</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="R8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>355</v>
       </c>
@@ -3256,19 +3348,22 @@
         <v>56</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="8">
+        <v>642</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="8">
         <v>2009</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="R9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -3308,19 +3403,22 @@
         <v>23</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="8">
+        <v>645</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="8">
         <v>2008</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
@@ -3356,19 +3454,22 @@
         <v>21</v>
       </c>
       <c r="O11" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8">
         <v>2004</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="R11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -3406,19 +3507,22 @@
         <v>10</v>
       </c>
       <c r="O12" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="P12" s="8">
+      <c r="Q12" s="8">
         <v>2010</v>
       </c>
-      <c r="Q12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="R12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>372</v>
       </c>
@@ -3460,19 +3564,22 @@
         <v>10</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8">
         <v>2007</v>
       </c>
-      <c r="Q13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="R13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>348</v>
       </c>
@@ -3514,19 +3621,22 @@
         <v>55</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="8">
+        <v>642</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="8">
         <v>2002</v>
       </c>
-      <c r="Q14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
@@ -3564,19 +3674,22 @@
         <v>43</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="8">
+        <v>644</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="8">
         <v>2007</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>1</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>374</v>
       </c>
@@ -3618,19 +3731,22 @@
         <v>94</v>
       </c>
       <c r="O16" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <v>2012</v>
       </c>
-      <c r="Q16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="R16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>352</v>
       </c>
@@ -3670,19 +3786,22 @@
         <v>56</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="8">
+        <v>642</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="8">
         <v>2010</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="R17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
@@ -3718,19 +3837,22 @@
         <v>56</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" s="8">
+        <v>642</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="8">
         <v>2009</v>
       </c>
-      <c r="Q18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="R18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
@@ -3764,19 +3886,22 @@
         <v>27</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="8">
+        <v>644</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="8">
         <v>2007</v>
       </c>
-      <c r="Q19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
@@ -3810,19 +3935,22 @@
         <v>27</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="8">
+        <v>644</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="8">
         <v>2007</v>
       </c>
-      <c r="Q20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
@@ -3860,19 +3988,22 @@
         <v>84</v>
       </c>
       <c r="O21" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P21" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="P21" s="8">
+      <c r="Q21" s="8">
         <v>2010</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="R21" s="8">
         <v>17</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="S21" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -3910,19 +4041,22 @@
         <v>21</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="P22" s="8">
+      <c r="Q22" s="8">
         <v>2004</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="R22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -3960,19 +4094,22 @@
         <v>10</v>
       </c>
       <c r="O23" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P23" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="P23" s="8">
+      <c r="Q23" s="8">
         <v>1966</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="R23" s="8">
         <v>4</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="S23" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>347</v>
       </c>
@@ -4012,19 +4149,22 @@
         <v>53</v>
       </c>
       <c r="O24" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P24" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="P24" s="8">
+      <c r="Q24" s="8">
         <v>1966</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="R24" s="8">
         <v>31</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="S24" s="10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>33</v>
       </c>
@@ -4062,19 +4202,22 @@
         <v>34</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="8">
+        <v>646</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="8">
         <v>1966</v>
       </c>
-      <c r="Q25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="R25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
@@ -4110,19 +4253,22 @@
         <v>15</v>
       </c>
       <c r="O26" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P26" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="P26" s="8">
+      <c r="Q26" s="8">
         <v>1956</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="R26" s="8">
         <v>28</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="S26" s="10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
@@ -4160,19 +4306,22 @@
         <v>30</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P27" s="8">
+        <v>642</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="8">
         <v>2011</v>
       </c>
-      <c r="Q27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="R27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>96</v>
       </c>
@@ -4208,19 +4357,22 @@
         <v>53</v>
       </c>
       <c r="O28" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P28" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="P28" s="8">
+      <c r="Q28" s="8">
         <v>1967</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="R28" s="8">
         <v>2</v>
       </c>
-      <c r="R28" s="10" t="s">
+      <c r="S28" s="10" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>383</v>
       </c>
@@ -4262,19 +4414,22 @@
         <v>84</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P29" s="8">
+        <v>643</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="8">
         <v>1956</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="R29" s="8">
         <v>2</v>
       </c>
-      <c r="R29" s="10" t="s">
+      <c r="S29" s="10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>368</v>
       </c>
@@ -4316,19 +4471,22 @@
         <v>84</v>
       </c>
       <c r="O30" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P30" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="P30" s="8">
+      <c r="Q30" s="8">
         <v>1977</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="R30" s="8">
         <v>28</v>
       </c>
-      <c r="R30" s="10" t="s">
+      <c r="S30" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>318</v>
       </c>
@@ -4367,10 +4525,10 @@
         <v>459</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>7</v>
+        <v>638</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>7</v>
+        <v>647</v>
       </c>
       <c r="P31" s="8" t="s">
         <v>7</v>
@@ -4378,11 +4536,14 @@
       <c r="Q31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R31" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="R31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>377</v>
       </c>
@@ -4424,19 +4585,22 @@
         <v>44</v>
       </c>
       <c r="O32" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P32" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="P32" s="8">
+      <c r="Q32" s="8">
         <v>1964</v>
       </c>
-      <c r="Q32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R32" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="R32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>378</v>
       </c>
@@ -4478,19 +4642,22 @@
         <v>45</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P33" s="8">
+        <v>642</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="8">
         <v>2000</v>
       </c>
-      <c r="Q33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R33" s="10" t="s">
+      <c r="R33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>325</v>
       </c>
@@ -4529,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>7</v>
+        <v>638</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>647</v>
       </c>
       <c r="P34" s="8" t="s">
         <v>7</v>
@@ -4540,11 +4707,14 @@
       <c r="Q34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R34" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="R34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>95</v>
       </c>
@@ -4582,19 +4752,22 @@
         <v>10</v>
       </c>
       <c r="O35" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P35" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="P35" s="8">
+      <c r="Q35" s="8">
         <v>1969</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="R35" s="8">
         <v>29</v>
       </c>
-      <c r="R35" s="10" t="s">
+      <c r="S35" s="10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -4632,19 +4805,22 @@
         <v>84</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P36" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="P36" s="8">
+      <c r="Q36" s="8">
         <v>1979</v>
       </c>
-      <c r="Q36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="10" t="s">
+      <c r="R36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>384</v>
       </c>
@@ -4686,19 +4862,22 @@
         <v>84</v>
       </c>
       <c r="O37" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P37" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="P37" s="8">
+      <c r="Q37" s="8">
         <v>1944</v>
       </c>
-      <c r="Q37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="R37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>316</v>
       </c>
@@ -4740,19 +4919,22 @@
         <v>76</v>
       </c>
       <c r="O38" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P38" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="P38" s="8">
+      <c r="Q38" s="8">
         <v>1935</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="R38" s="8">
         <v>21</v>
       </c>
-      <c r="R38" s="10" t="s">
+      <c r="S38" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>99</v>
       </c>
@@ -4788,19 +4970,22 @@
         <v>100</v>
       </c>
       <c r="O39" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P39" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="P39" s="8">
+      <c r="Q39" s="8">
         <v>1968</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="R39" s="8">
         <v>11</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="S39" s="10" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>346</v>
       </c>
@@ -4840,19 +5025,22 @@
         <v>19</v>
       </c>
       <c r="O40" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P40" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="P40" s="8">
+      <c r="Q40" s="8">
         <v>1972</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="R40" s="8">
         <v>26</v>
       </c>
-      <c r="R40" s="10" t="s">
+      <c r="S40" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>18</v>
       </c>
@@ -4888,19 +5076,22 @@
         <v>19</v>
       </c>
       <c r="O41" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P41" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="P41" s="8">
+      <c r="Q41" s="8">
         <v>1968</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="R41" s="8">
         <v>24</v>
       </c>
-      <c r="R41" s="10" t="s">
+      <c r="S41" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>257</v>
       </c>
@@ -4938,19 +5129,22 @@
         <v>282</v>
       </c>
       <c r="O42" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P42" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="P42" s="8">
+      <c r="Q42" s="8">
         <v>1996</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="R42" s="8">
         <v>22</v>
       </c>
-      <c r="R42" s="10" t="s">
+      <c r="S42" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
@@ -4988,19 +5182,22 @@
         <v>46</v>
       </c>
       <c r="O43" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P43" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="P43" s="8">
+      <c r="Q43" s="8">
         <v>2013</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="R43" s="8">
         <v>13</v>
       </c>
-      <c r="R43" s="10" t="s">
+      <c r="S43" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>315</v>
       </c>
@@ -5044,19 +5241,22 @@
         <v>10</v>
       </c>
       <c r="O44" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P44" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="P44" s="8">
+      <c r="Q44" s="8">
         <v>1951</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="R44" s="8">
         <v>9</v>
       </c>
-      <c r="R44" s="10" t="s">
+      <c r="S44" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>376</v>
       </c>
@@ -5098,19 +5298,22 @@
         <v>10</v>
       </c>
       <c r="O45" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P45" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="P45" s="8">
+      <c r="Q45" s="8">
         <v>1998</v>
       </c>
-      <c r="Q45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="R45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>388</v>
       </c>
@@ -5151,18 +5354,21 @@
       <c r="N46" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8">
+      <c r="O46" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8">
         <v>1966</v>
       </c>
-      <c r="Q46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="R46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>8</v>
       </c>
@@ -5199,20 +5405,23 @@
       <c r="N47" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="O47" s="18" t="s">
+      <c r="O47" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P47" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="P47" s="18">
+      <c r="Q47" s="18">
         <v>1975</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="R47" s="8">
         <v>8</v>
       </c>
-      <c r="R47" s="10" t="s">
+      <c r="S47" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>97</v>
       </c>
@@ -5248,19 +5457,22 @@
         <v>19</v>
       </c>
       <c r="O48" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P48" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="P48" s="8">
+      <c r="Q48" s="8">
         <v>1968</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="R48" s="8">
         <v>22</v>
       </c>
-      <c r="R48" s="10" t="s">
+      <c r="S48" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>344</v>
       </c>
@@ -5302,19 +5514,22 @@
         <v>34</v>
       </c>
       <c r="O49" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P49" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="P49" s="8">
+      <c r="Q49" s="8">
         <v>1966</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="R49" s="8">
         <v>21</v>
       </c>
-      <c r="R49" s="10" t="s">
+      <c r="S49" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>375</v>
       </c>
@@ -5356,19 +5571,22 @@
         <v>15</v>
       </c>
       <c r="O50" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P50" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="P50" s="8">
+      <c r="Q50" s="8">
         <v>1955</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="R50" s="8">
         <v>2</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="S50" s="10" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>381</v>
       </c>
@@ -5410,19 +5628,22 @@
         <v>46</v>
       </c>
       <c r="O51" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P51" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="P51" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="Q51" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="R51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
@@ -5460,19 +5681,22 @@
         <v>10</v>
       </c>
       <c r="O52" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P52" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="P52" s="8">
+      <c r="Q52" s="8">
         <v>1961</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="R52" s="8">
         <v>1</v>
       </c>
-      <c r="R52" s="10" t="s">
+      <c r="S52" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>385</v>
       </c>
@@ -5516,19 +5740,22 @@
         <v>56</v>
       </c>
       <c r="O53" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P53" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="P53" s="8">
+      <c r="Q53" s="8">
         <v>2010</v>
       </c>
-      <c r="Q53" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R53" s="10" t="s">
+      <c r="R53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53" s="10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>35</v>
       </c>
@@ -5564,19 +5791,22 @@
         <v>10</v>
       </c>
       <c r="O54" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P54" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="P54" s="8">
+      <c r="Q54" s="8">
         <v>2000</v>
       </c>
-      <c r="Q54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R54" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="R54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>98</v>
       </c>
@@ -5612,19 +5842,22 @@
         <v>23</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P55" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="P55" s="8">
+      <c r="Q55" s="8">
         <v>1947</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="R55" s="8">
         <v>27</v>
       </c>
-      <c r="R55" s="10" t="s">
+      <c r="S55" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>341</v>
       </c>
@@ -5666,19 +5899,22 @@
         <v>15</v>
       </c>
       <c r="O56" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P56" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="P56" s="8">
+      <c r="Q56" s="8">
         <v>1959</v>
       </c>
-      <c r="Q56" s="8">
+      <c r="R56" s="8">
         <v>30</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="S56" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>349</v>
       </c>
@@ -5720,19 +5956,22 @@
         <v>15</v>
       </c>
       <c r="O57" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P57" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="P57" s="8">
+      <c r="Q57" s="8">
         <v>1955</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="R57" s="8">
         <v>3</v>
       </c>
-      <c r="R57" s="10" t="s">
+      <c r="S57" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>379</v>
       </c>
@@ -5774,19 +6013,22 @@
         <v>23</v>
       </c>
       <c r="O58" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P58" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="P58" s="8">
+      <c r="Q58" s="8">
         <v>1937</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="R58" s="8">
         <v>12</v>
       </c>
-      <c r="R58" s="10" t="s">
+      <c r="S58" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>16</v>
       </c>
@@ -5822,19 +6064,22 @@
         <v>17</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="P59" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="P59" s="8">
+      <c r="Q59" s="8">
         <v>1968</v>
       </c>
-      <c r="Q59" s="8">
+      <c r="R59" s="8">
         <v>25</v>
       </c>
-      <c r="R59" s="10" t="s">
+      <c r="S59" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>323</v>
       </c>
@@ -5873,10 +6118,10 @@
         <v>7</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>7</v>
+        <v>639</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>7</v>
+        <v>648</v>
       </c>
       <c r="P60" s="8" t="s">
         <v>7</v>
@@ -5884,11 +6129,14 @@
       <c r="Q60" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R60" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="R60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>345</v>
       </c>
@@ -5929,20 +6177,23 @@
       <c r="N61" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="O61" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="P61" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="P61" s="8">
+      <c r="Q61" s="8">
         <v>1947</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="R61" s="8">
         <v>20</v>
       </c>
-      <c r="R61" s="10" t="s">
+      <c r="S61" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>329</v>
       </c>
@@ -5984,19 +6235,22 @@
         <v>76</v>
       </c>
       <c r="O62" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P62" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="P62" s="8">
+      <c r="Q62" s="8">
         <v>1954</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="R62" s="8">
         <v>9</v>
       </c>
-      <c r="R62" s="10" t="s">
+      <c r="S62" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>367</v>
       </c>
@@ -6038,19 +6292,22 @@
         <v>83</v>
       </c>
       <c r="O63" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P63" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="P63" s="8">
+      <c r="Q63" s="8">
         <v>1969</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="R63" s="8">
         <v>8</v>
       </c>
-      <c r="R63" s="10" t="s">
+      <c r="S63" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>327</v>
       </c>
@@ -6092,19 +6349,22 @@
         <v>46</v>
       </c>
       <c r="O64" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P64" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="P64" s="8">
+      <c r="Q64" s="8">
         <v>1958</v>
       </c>
-      <c r="Q64" s="8">
-        <v>7</v>
-      </c>
-      <c r="R64" s="10" t="s">
+      <c r="R64" s="8">
+        <v>7</v>
+      </c>
+      <c r="S64" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>336</v>
       </c>
@@ -6146,19 +6406,22 @@
         <v>46</v>
       </c>
       <c r="O65" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P65" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="P65" s="8">
+      <c r="Q65" s="8">
         <v>1958</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="R65" s="8">
         <v>29</v>
       </c>
-      <c r="R65" s="10" t="s">
+      <c r="S65" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>328</v>
       </c>
@@ -6200,19 +6463,22 @@
         <v>46</v>
       </c>
       <c r="O66" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P66" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="P66" s="8">
+      <c r="Q66" s="8">
         <v>1954</v>
       </c>
-      <c r="Q66" s="8">
+      <c r="R66" s="8">
         <v>10</v>
       </c>
-      <c r="R66" s="10" t="s">
+      <c r="S66" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>343</v>
       </c>
@@ -6253,20 +6519,23 @@
       <c r="N67" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O67" s="8" t="s">
+      <c r="O67" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="P67" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="P67" s="8">
+      <c r="Q67" s="8">
         <v>1957</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="R67" s="8">
         <v>4</v>
       </c>
-      <c r="R67" s="10" t="s">
+      <c r="S67" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>369</v>
       </c>
@@ -6308,19 +6577,22 @@
         <v>85</v>
       </c>
       <c r="O68" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P68" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="P68" s="8">
+      <c r="Q68" s="8">
         <v>1970</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="R68" s="8">
         <v>8</v>
       </c>
-      <c r="R68" s="10" t="s">
+      <c r="S68" s="10" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>338</v>
       </c>
@@ -6362,19 +6634,22 @@
         <v>76</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P69" s="8">
+        <v>642</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q69" s="8">
         <v>1971</v>
       </c>
-      <c r="Q69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R69" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="R69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>334</v>
       </c>
@@ -6416,19 +6691,22 @@
         <v>284</v>
       </c>
       <c r="O70" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P70" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="P70" s="8">
+      <c r="Q70" s="8">
         <v>1974</v>
       </c>
-      <c r="Q70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R70" s="10" t="s">
+      <c r="R70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S70" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>337</v>
       </c>
@@ -6470,19 +6748,22 @@
         <v>49</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P71" s="8">
+        <v>642</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q71" s="8">
         <v>1995</v>
       </c>
-      <c r="Q71" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R71" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="R71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S71" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>103</v>
       </c>
@@ -6518,19 +6799,22 @@
         <v>10</v>
       </c>
       <c r="O72" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="P72" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="P72" s="8">
+      <c r="Q72" s="8">
         <v>1976</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="R72" s="8">
         <v>20</v>
       </c>
-      <c r="R72" s="10" t="s">
+      <c r="S72" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>104</v>
       </c>
@@ -6565,20 +6849,23 @@
       <c r="N73" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="O73" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="P73" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="P73" s="8">
+      <c r="Q73" s="8">
         <v>1967</v>
       </c>
-      <c r="Q73" s="8">
+      <c r="R73" s="8">
         <v>8</v>
       </c>
-      <c r="R73" s="10" t="s">
+      <c r="S73" s="10" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>360</v>
       </c>
@@ -6620,19 +6907,22 @@
         <v>289</v>
       </c>
       <c r="O74" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P74" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="P74" s="8">
+      <c r="Q74" s="8">
         <v>1989</v>
       </c>
-      <c r="Q74" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R74" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="R74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S74" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>342</v>
       </c>
@@ -6674,19 +6964,22 @@
         <v>51</v>
       </c>
       <c r="O75" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P75" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="P75" s="8">
+      <c r="Q75" s="8">
         <v>1972</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="R75" s="8">
         <v>9</v>
       </c>
-      <c r="R75" s="10" t="s">
+      <c r="S75" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>313</v>
       </c>
@@ -6728,19 +7021,22 @@
         <v>25</v>
       </c>
       <c r="O76" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P76" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="P76" s="8">
+      <c r="Q76" s="8">
         <v>1957</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="R76" s="8">
         <v>27</v>
       </c>
-      <c r="R76" s="10" t="s">
+      <c r="S76" s="10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>333</v>
       </c>
@@ -6782,19 +7078,22 @@
         <v>100</v>
       </c>
       <c r="O77" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P77" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="P77" s="8">
+      <c r="Q77" s="8">
         <v>1956</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="R77" s="8">
         <v>17</v>
       </c>
-      <c r="R77" s="10" t="s">
+      <c r="S77" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>321</v>
       </c>
@@ -6836,19 +7135,22 @@
         <v>468</v>
       </c>
       <c r="O78" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P78" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="P78" s="8">
+      <c r="Q78" s="8">
         <v>1929</v>
       </c>
-      <c r="Q78" s="8">
+      <c r="R78" s="8">
         <v>1</v>
       </c>
-      <c r="R78" s="10" t="s">
+      <c r="S78" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>101</v>
       </c>
@@ -6886,19 +7188,22 @@
         <v>102</v>
       </c>
       <c r="O79" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P79" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="P79" s="8">
+      <c r="Q79" s="8">
         <v>1981</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="R79" s="8">
         <v>3</v>
       </c>
-      <c r="R79" s="10" t="s">
+      <c r="S79" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>339</v>
       </c>
@@ -6940,19 +7245,22 @@
         <v>289</v>
       </c>
       <c r="O80" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P80" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="P80" s="8">
+      <c r="Q80" s="8">
         <v>1947</v>
       </c>
-      <c r="Q80" s="8">
+      <c r="R80" s="8">
         <v>14</v>
       </c>
-      <c r="R80" s="10" t="s">
+      <c r="S80" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>332</v>
       </c>
@@ -6994,19 +7302,22 @@
         <v>489</v>
       </c>
       <c r="O81" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P81" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="P81" s="8">
+      <c r="Q81" s="8">
         <v>1958</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="R81" s="8">
         <v>23</v>
       </c>
-      <c r="R81" s="10" t="s">
+      <c r="S81" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>312</v>
       </c>
@@ -7046,19 +7357,22 @@
         <v>11</v>
       </c>
       <c r="O82" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P82" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="P82" s="8">
+      <c r="Q82" s="8">
         <v>1968</v>
       </c>
-      <c r="Q82" s="8">
+      <c r="R82" s="8">
         <v>2</v>
       </c>
-      <c r="R82" s="10" t="s">
+      <c r="S82" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -7094,19 +7408,22 @@
         <v>10</v>
       </c>
       <c r="O83" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="P83" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="P83" s="9">
+      <c r="Q83" s="9">
         <v>1974</v>
       </c>
-      <c r="Q83" s="9">
+      <c r="R83" s="9">
         <v>26</v>
       </c>
-      <c r="R83" s="30" t="s">
+      <c r="S83" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>371</v>
       </c>
@@ -7148,19 +7465,22 @@
         <v>43</v>
       </c>
       <c r="O84" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P84" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="P84" s="8">
+      <c r="Q84" s="8">
         <v>2011</v>
       </c>
-      <c r="Q84" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R84" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="R84" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S84" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>319</v>
       </c>
@@ -7199,10 +7519,10 @@
         <v>465</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>7</v>
+        <v>640</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>7</v>
+        <v>644</v>
       </c>
       <c r="P85" s="8" t="s">
         <v>7</v>
@@ -7210,11 +7530,14 @@
       <c r="Q85" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R85" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="R85" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S85" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
@@ -7250,7 +7573,7 @@
         <v>13</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>7</v>
+        <v>642</v>
       </c>
       <c r="P86" s="8" t="s">
         <v>7</v>
@@ -7258,11 +7581,14 @@
       <c r="Q86" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R86" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="R86" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S86" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>359</v>
       </c>
@@ -7304,34 +7630,33 @@
         <v>289</v>
       </c>
       <c r="O87" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P87" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="P87" s="8">
+      <c r="Q87" s="8">
         <v>1969</v>
       </c>
-      <c r="Q87" s="8">
+      <c r="R87" s="8">
         <v>18</v>
       </c>
-      <c r="R87" s="10" t="s">
+      <c r="S87" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>370</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C88" s="8"/>
       <c r="D88" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E88" s="8"/>
       <c r="F88" s="12" t="s">
         <v>253</v>
       </c>
@@ -7357,35 +7682,34 @@
       <c r="N88" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="O88" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P88" s="8">
+      <c r="O88" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="P88" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q88" s="8">
         <v>2011</v>
       </c>
-      <c r="Q88" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R88" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="R88" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S88" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>362</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C89" s="8"/>
       <c r="D89" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E89" s="8"/>
       <c r="F89" s="12" t="s">
         <v>270</v>
       </c>
@@ -7412,34 +7736,33 @@
         <v>76</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P89" s="8">
+        <v>642</v>
+      </c>
+      <c r="P89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q89" s="8">
         <v>2013</v>
       </c>
-      <c r="Q89" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R89" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="R89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S89" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>363</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C90" s="8"/>
       <c r="D90" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E90" s="8"/>
       <c r="F90" s="12" t="s">
         <v>261</v>
       </c>
@@ -7466,34 +7789,33 @@
         <v>46</v>
       </c>
       <c r="O90" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P90" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="P90" s="8">
+      <c r="Q90" s="8">
         <v>2013</v>
       </c>
-      <c r="Q90" s="8">
-        <v>7</v>
-      </c>
-      <c r="R90" s="10" t="s">
+      <c r="R90" s="8">
+        <v>7</v>
+      </c>
+      <c r="S90" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>364</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C91" s="8"/>
       <c r="D91" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E91" s="8"/>
       <c r="F91" s="12" t="s">
         <v>261</v>
       </c>
@@ -7520,34 +7842,33 @@
         <v>46</v>
       </c>
       <c r="O91" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P91" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="P91" s="8">
+      <c r="Q91" s="8">
         <v>2012</v>
       </c>
-      <c r="Q91" s="8">
+      <c r="R91" s="8">
         <v>20</v>
       </c>
-      <c r="R91" s="10" t="s">
+      <c r="S91" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>366</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C92" s="8"/>
       <c r="D92" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E92" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E92" s="8"/>
       <c r="F92" s="12" t="s">
         <v>261</v>
       </c>
@@ -7574,34 +7895,33 @@
         <v>46</v>
       </c>
       <c r="O92" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P92" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="P92" s="8">
+      <c r="Q92" s="8">
         <v>2012</v>
       </c>
-      <c r="Q92" s="8">
+      <c r="R92" s="8">
         <v>2</v>
       </c>
-      <c r="R92" s="10" t="s">
+      <c r="S92" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>365</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C93" s="8"/>
       <c r="D93" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E93" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E93" s="8"/>
       <c r="F93" s="12" t="s">
         <v>261</v>
       </c>
@@ -7628,34 +7948,33 @@
         <v>46</v>
       </c>
       <c r="O93" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P93" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="P93" s="8">
+      <c r="Q93" s="8">
         <v>2013</v>
       </c>
-      <c r="Q93" s="8">
+      <c r="R93" s="8">
         <v>30</v>
       </c>
-      <c r="R93" s="10" t="s">
+      <c r="S93" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>356</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C94" s="8"/>
       <c r="D94" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="E94" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E94" s="8"/>
       <c r="F94" s="12" t="s">
         <v>261</v>
       </c>
@@ -7682,19 +8001,22 @@
         <v>46</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P94" s="8">
+        <v>643</v>
+      </c>
+      <c r="P94" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q94" s="8">
         <v>2008</v>
       </c>
-      <c r="Q94" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R94" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="R94" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S94" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>335</v>
       </c>
@@ -7735,35 +8057,32 @@
       <c r="N95" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O95" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="O95" s="8"/>
       <c r="P95" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q95" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R95" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="R95" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S95" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>354</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C96" s="8"/>
       <c r="D96" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E96" s="8"/>
       <c r="F96" s="12" t="s">
         <v>270</v>
       </c>
@@ -7790,19 +8109,22 @@
         <v>46</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P96" s="8">
+        <v>643</v>
+      </c>
+      <c r="P96" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q96" s="8">
         <v>2011</v>
       </c>
-      <c r="Q96" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R96" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="R96" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S96" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>320</v>
       </c>
@@ -7815,9 +8137,7 @@
       <c r="D97" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E97" s="8"/>
       <c r="F97" s="12" t="s">
         <v>250</v>
       </c>
@@ -7843,20 +8163,21 @@
       <c r="N97" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O97" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="O97" s="8"/>
       <c r="P97" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q97" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R97" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="R97" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S97" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>387</v>
       </c>
@@ -7869,9 +8190,7 @@
       <c r="D98" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="E98" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E98" s="8"/>
       <c r="F98" s="12" t="s">
         <v>250</v>
       </c>
@@ -7898,19 +8217,22 @@
         <v>46</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P98" s="8">
+        <v>643</v>
+      </c>
+      <c r="P98" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q98" s="8">
         <v>2008</v>
       </c>
-      <c r="Q98" s="8">
+      <c r="R98" s="8">
         <v>28</v>
       </c>
-      <c r="R98" s="10" t="s">
+      <c r="S98" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>322</v>
       </c>
@@ -7923,9 +8245,7 @@
       <c r="D99" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E99" s="8"/>
       <c r="F99" s="12" t="s">
         <v>250</v>
       </c>
@@ -7951,35 +8271,32 @@
       <c r="N99" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O99" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="O99" s="8"/>
       <c r="P99" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q99" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R99" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="R99" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S99" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>357</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C100" s="8"/>
       <c r="D100" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E100" s="8"/>
       <c r="F100" s="12" t="s">
         <v>261</v>
       </c>
@@ -8006,34 +8323,33 @@
         <v>46</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P100" s="8">
+        <v>643</v>
+      </c>
+      <c r="P100" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q100" s="8">
         <v>2008</v>
       </c>
-      <c r="Q100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R100" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="R100" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S100" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>361</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C101" s="8"/>
       <c r="D101" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E101" s="8"/>
       <c r="F101" s="12" t="s">
         <v>250</v>
       </c>
@@ -8059,35 +8375,34 @@
       <c r="N101" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O101" s="8" t="s">
+      <c r="O101" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="P101" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="P101" s="8">
+      <c r="Q101" s="8">
         <v>2010</v>
       </c>
-      <c r="Q101" s="8">
+      <c r="R101" s="8">
         <v>15</v>
       </c>
-      <c r="R101" s="10" t="s">
+      <c r="S101" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>331</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E102" s="8"/>
       <c r="F102" s="12" t="s">
         <v>253</v>
       </c>
@@ -8113,20 +8428,21 @@
       <c r="N102" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O102" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="O102" s="8"/>
       <c r="P102" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q102" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R102" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="R102" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S102" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>317</v>
       </c>
@@ -8139,9 +8455,7 @@
       <c r="D103" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E103" s="8"/>
       <c r="F103" s="12" t="s">
         <v>253</v>
       </c>
@@ -8167,20 +8481,21 @@
       <c r="N103" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O103" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="O103" s="8"/>
       <c r="P103" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q103" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R103" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="R103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S103" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>324</v>
       </c>
@@ -8193,9 +8508,7 @@
       <c r="D104" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E104" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E104" s="8"/>
       <c r="F104" s="12" t="s">
         <v>253</v>
       </c>
@@ -8222,19 +8535,22 @@
         <v>46</v>
       </c>
       <c r="O104" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="P104" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="P104" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="Q104" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R104" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="R104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S104" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>350</v>
       </c>
@@ -8247,9 +8563,7 @@
       <c r="D105" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E105" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E105" s="8"/>
       <c r="F105" s="12" t="s">
         <v>253</v>
       </c>
@@ -8276,19 +8590,22 @@
         <v>44</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P105" s="8">
+        <v>642</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q105" s="8">
         <v>2004</v>
       </c>
-      <c r="Q105" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R105" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="R105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S105" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>326</v>
       </c>
@@ -8301,9 +8618,7 @@
       <c r="D106" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E106" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E106" s="8"/>
       <c r="F106" s="12" t="s">
         <v>262</v>
       </c>
@@ -8329,35 +8644,32 @@
       <c r="N106" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O106" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="O106" s="8"/>
       <c r="P106" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q106" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R106" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="R106" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S106" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>314</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C107" s="8"/>
       <c r="D107" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E107" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E107" s="8"/>
       <c r="F107" s="12" t="s">
         <v>253</v>
       </c>
@@ -8384,34 +8696,33 @@
         <v>13</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P107" s="8">
+        <v>642</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q107" s="8">
         <v>2005</v>
       </c>
-      <c r="Q107" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R107" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="R107" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S107" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>330</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C108" s="8"/>
       <c r="D108" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E108" s="8"/>
       <c r="F108" s="12" t="s">
         <v>265</v>
       </c>
@@ -8437,8 +8748,8 @@
       <c r="N108" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="O108" s="8" t="s">
-        <v>7</v>
+      <c r="O108" s="18" t="s">
+        <v>645</v>
       </c>
       <c r="P108" s="8" t="s">
         <v>7</v>
@@ -8446,26 +8757,25 @@
       <c r="Q108" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R108" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="R108" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S108" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>353</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C109" s="8"/>
       <c r="D109" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E109" s="8"/>
       <c r="F109" s="12" t="s">
         <v>253</v>
       </c>
@@ -8492,34 +8802,33 @@
         <v>13</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P109" s="8">
+        <v>642</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q109" s="8">
         <v>2004</v>
       </c>
-      <c r="Q109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R109" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="R109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S109" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>358</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C110" s="8"/>
       <c r="D110" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E110" s="8"/>
       <c r="F110" s="12" t="s">
         <v>246</v>
       </c>
@@ -8546,7 +8855,7 @@
         <v>10</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>7</v>
+        <v>646</v>
       </c>
       <c r="P110" s="8" t="s">
         <v>7</v>
@@ -8554,11 +8863,14 @@
       <c r="Q110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R110" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="R110" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S110" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
         <v>386</v>
       </c>
@@ -8571,9 +8883,7 @@
       <c r="D111" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="E111" s="24" t="s">
-        <v>7</v>
-      </c>
+      <c r="E111" s="24"/>
       <c r="F111" s="23" t="s">
         <v>271</v>
       </c>
@@ -8599,8 +8909,8 @@
       <c r="N111" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="O111" s="24" t="s">
-        <v>7</v>
+      <c r="O111" s="8" t="s">
+        <v>643</v>
       </c>
       <c r="P111" s="24" t="s">
         <v>7</v>
@@ -8608,12 +8918,43 @@
       <c r="Q111" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="R111" s="31" t="s">
-        <v>7</v>
+      <c r="R111" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S111" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C112" t="s">
+        <v>652</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C113" t="s">
+        <v>653</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R111">
+  <sortState ref="A2:S111">
     <sortCondition ref="D2:D111"/>
     <sortCondition ref="E2:E111"/>
     <sortCondition ref="B2:B111"/>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="1000" windowWidth="34460" windowHeight="23400" tabRatio="500"/>
+    <workbookView xWindow="27700" yWindow="0" windowWidth="20920" windowHeight="24580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="665">
   <si>
     <t>isolate</t>
   </si>
@@ -1909,9 +1909,6 @@
   </si>
   <si>
     <t>NKV2</t>
-  </si>
-  <si>
-    <t>NKV3</t>
   </si>
   <si>
     <t>TickVert</t>
@@ -2112,12 +2109,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF66FFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2164,6 +2155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2174,7 +2171,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2314,14 +2311,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2345,26 +2346,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2374,21 +2371,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2402,29 +2412,16 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2440,8 +2437,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2511,6 +2512,8 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2580,6 +2583,8 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2921,7 +2926,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="E36" sqref="A31:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2962,7 +2967,7 @@
         <v>306</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>244</v>
@@ -2983,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>2</v>
@@ -2999,17 +3004,17 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="5" t="s">
         <v>253</v>
       </c>
@@ -3050,19 +3055,19 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="18">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="5" t="s">
         <v>253</v>
       </c>
@@ -3103,19 +3108,19 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="18">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="5" t="s">
         <v>253</v>
       </c>
@@ -3142,7 +3147,7 @@
         <v>46</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>472</v>
@@ -3158,19 +3163,19 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="18">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="5" t="s">
         <v>253</v>
       </c>
@@ -3197,7 +3202,7 @@
         <v>44</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>7</v>
@@ -3213,24 +3218,24 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="18">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="5" t="s">
         <v>262</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>7</v>
@@ -3266,22 +3271,22 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="18">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="5" t="s">
         <v>253</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>133</v>
@@ -3303,7 +3308,7 @@
         <v>13</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>7</v>
@@ -3319,17 +3324,17 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="18">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="5" t="s">
         <v>265</v>
       </c>
@@ -3356,7 +3361,7 @@
         <v>484</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>7</v>
@@ -3372,17 +3377,17 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="18">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="5" t="s">
         <v>253</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>7</v>
@@ -3425,22 +3430,22 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="18">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="5" t="s">
         <v>246</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>7</v>
@@ -3462,7 +3467,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>7</v>
@@ -3478,24 +3483,24 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="18">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="5" t="s">
         <v>271</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>209</v>
@@ -3517,7 +3522,7 @@
         <v>46</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>7</v>
@@ -3533,21 +3538,21 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="18">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="11" t="s">
         <v>653</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>650</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>651</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>649</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="11" t="s">
-        <v>654</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -3566,21 +3571,21 @@
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="18">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>658</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>649</v>
-      </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -3599,22 +3604,22 @@
       <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" ht="18">
-      <c r="A14" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34" t="s">
-        <v>649</v>
-      </c>
-      <c r="E14" s="33"/>
+      <c r="A14" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="E14" s="31"/>
       <c r="F14" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="7">
@@ -3632,41 +3637,41 @@
       <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" ht="18">
-      <c r="A15" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>659</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34" t="s">
-        <v>649</v>
-      </c>
-      <c r="E15" s="33"/>
+      <c r="A15" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="E15" s="31"/>
       <c r="F15" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>626</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -3695,7 +3700,7 @@
         <v>76</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>286</v>
@@ -3711,19 +3716,19 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="18">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="35" t="s">
         <v>626</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -3752,7 +3757,7 @@
         <v>46</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>462</v>
@@ -3768,19 +3773,19 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="18">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="35" t="s">
         <v>626</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -3809,7 +3814,7 @@
         <v>76</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>285</v>
@@ -3825,22 +3830,22 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="18">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="6" t="s">
         <v>121</v>
       </c>
@@ -3848,11 +3853,11 @@
       <c r="I19" s="10">
         <v>0</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>259</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="15">
+      <c r="L19" s="14">
         <v>1244563</v>
       </c>
       <c r="M19" s="10">
@@ -3862,7 +3867,7 @@
         <v>296</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>297</v>
@@ -3878,22 +3883,22 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="18">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="8" t="s">
         <v>428</v>
       </c>
@@ -3905,7 +3910,7 @@
       <c r="K20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <v>1125677</v>
       </c>
       <c r="M20" s="10" t="s">
@@ -3915,7 +3920,7 @@
         <v>27</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>429</v>
@@ -3931,19 +3936,19 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="18">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="35" t="s">
         <v>626</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -3972,7 +3977,7 @@
         <v>484</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>506</v>
@@ -3988,19 +3993,19 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="18">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="35" t="s">
         <v>626</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -4029,7 +4034,7 @@
         <v>91</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>584</v>
@@ -4045,19 +4050,19 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="18">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="35" t="s">
         <v>626</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -4086,7 +4091,7 @@
         <v>56</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>7</v>
@@ -4102,22 +4107,22 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="18">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="6" t="s">
         <v>422</v>
       </c>
@@ -4127,11 +4132,11 @@
       <c r="I24" s="10">
         <v>0</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="13" t="s">
         <v>259</v>
       </c>
       <c r="K24" s="8"/>
-      <c r="L24" s="15">
+      <c r="L24" s="14">
         <v>667516</v>
       </c>
       <c r="M24" s="10" t="s">
@@ -4141,7 +4146,7 @@
         <v>23</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>7</v>
@@ -4157,32 +4162,32 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="18">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="6" t="s">
         <v>211</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <v>1286143</v>
       </c>
       <c r="M25" s="10" t="s">
@@ -4192,7 +4197,7 @@
         <v>21</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>420</v>
@@ -4208,22 +4213,22 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="18">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="6" t="s">
         <v>129</v>
       </c>
@@ -4231,11 +4236,11 @@
         <v>129</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K26" s="8"/>
-      <c r="L26" s="15">
+      <c r="L26" s="14">
         <v>1302179</v>
       </c>
       <c r="M26" s="10">
@@ -4245,7 +4250,7 @@
         <v>10</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>432</v>
@@ -4261,19 +4266,19 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="35" t="s">
         <v>626</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -4302,7 +4307,7 @@
         <v>10</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>582</v>
@@ -4318,19 +4323,19 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="18">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="35" t="s">
         <v>626</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -4359,7 +4364,7 @@
         <v>55</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>7</v>
@@ -4375,22 +4380,22 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="18">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="F29" s="14"/>
+      <c r="E29" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="F29" s="13"/>
       <c r="G29" s="6" t="s">
         <v>445</v>
       </c>
@@ -4398,11 +4403,11 @@
         <v>445</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K29" s="8"/>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <v>1105173</v>
       </c>
       <c r="M29" s="10" t="s">
@@ -4412,7 +4417,7 @@
         <v>43</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>7</v>
@@ -4428,20 +4433,20 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="18">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>632</v>
+      <c r="E30" s="15" t="s">
+        <v>631</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>260</v>
@@ -4469,7 +4474,7 @@
         <v>94</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>587</v>
@@ -4485,20 +4490,20 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="18">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="40" t="s">
         <v>555</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="42" t="s">
-        <v>634</v>
+      <c r="E31" s="40" t="s">
+        <v>633</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>260</v>
@@ -4524,7 +4529,7 @@
         <v>56</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>7</v>
@@ -4540,32 +4545,32 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="18">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="40" t="s">
         <v>554</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="E32" s="42" t="s">
-        <v>634</v>
-      </c>
-      <c r="F32" s="14"/>
+      <c r="E32" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="F32" s="13"/>
       <c r="G32" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K32" s="8"/>
-      <c r="L32" s="15">
+      <c r="L32" s="14">
         <v>985683</v>
       </c>
       <c r="M32" s="10" t="s">
@@ -4575,7 +4580,7 @@
         <v>56</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>7</v>
@@ -4591,30 +4596,30 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="E33" s="42" t="s">
-        <v>634</v>
-      </c>
-      <c r="F33" s="14"/>
+      <c r="E33" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="F33" s="13"/>
       <c r="G33" s="6" t="s">
         <v>125</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="14"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="15">
+      <c r="L33" s="14">
         <v>1445557</v>
       </c>
       <c r="M33" s="10" t="s">
@@ -4624,7 +4629,7 @@
         <v>27</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>7</v>
@@ -4640,30 +4645,30 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="E34" s="42" t="s">
-        <v>634</v>
-      </c>
-      <c r="F34" s="14"/>
+      <c r="E34" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="F34" s="13"/>
       <c r="G34" s="6" t="s">
         <v>125</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="15">
+      <c r="L34" s="14">
         <v>649187</v>
       </c>
       <c r="M34" s="10" t="s">
@@ -4673,7 +4678,7 @@
         <v>27</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>7</v>
@@ -4689,22 +4694,22 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="18">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="40" t="s">
         <v>561</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="42" t="s">
-        <v>634</v>
-      </c>
-      <c r="F35" s="14"/>
+      <c r="E35" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="F35" s="13"/>
       <c r="G35" s="6" t="s">
         <v>207</v>
       </c>
@@ -4712,11 +4717,11 @@
         <v>207</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K35" s="8"/>
-      <c r="L35" s="15">
+      <c r="L35" s="14">
         <v>1485186</v>
       </c>
       <c r="M35" s="10" t="s">
@@ -4726,7 +4731,7 @@
         <v>84</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>290</v>
@@ -4742,22 +4747,22 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="18">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="42" t="s">
-        <v>634</v>
-      </c>
-      <c r="F36" s="14"/>
+      <c r="E36" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="F36" s="13"/>
       <c r="G36" s="6" t="s">
         <v>118</v>
       </c>
@@ -4765,11 +4770,11 @@
         <v>118</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K36" s="8"/>
-      <c r="L36" s="15">
+      <c r="L36" s="14">
         <v>486494</v>
       </c>
       <c r="M36" s="10" t="s">
@@ -4779,7 +4784,7 @@
         <v>21</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>420</v>
@@ -4795,22 +4800,22 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="18">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E37" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F37" s="14"/>
+      <c r="E37" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F37" s="13"/>
       <c r="G37" s="6" t="s">
         <v>396</v>
       </c>
@@ -4818,11 +4823,11 @@
         <v>7</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K37" s="8"/>
-      <c r="L37" s="15">
+      <c r="L37" s="14">
         <v>44017</v>
       </c>
       <c r="M37" s="10" t="s">
@@ -4832,7 +4837,7 @@
         <v>10</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>398</v>
@@ -4848,20 +4853,20 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="18">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="49" t="s">
         <v>539</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="51" t="s">
-        <v>633</v>
+      <c r="E38" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>268</v>
@@ -4887,7 +4892,7 @@
         <v>53</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>542</v>
@@ -4903,34 +4908,34 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="18">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C39" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="51" t="s">
+      <c r="C39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E39" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F39" s="14"/>
+      <c r="E39" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F39" s="13"/>
       <c r="G39" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="14">
         <v>1534467</v>
       </c>
       <c r="M39" s="10" t="s">
@@ -4940,7 +4945,7 @@
         <v>34</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>7</v>
@@ -4956,22 +4961,22 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="18">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E40" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F40" s="14"/>
+      <c r="E40" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F40" s="13"/>
       <c r="G40" s="6" t="s">
         <v>165</v>
       </c>
@@ -4979,9 +4984,9 @@
         <v>7</v>
       </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="14"/>
+      <c r="J40" s="13"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="15">
+      <c r="L40" s="14">
         <v>38837</v>
       </c>
       <c r="M40" s="10" t="s">
@@ -4991,7 +4996,7 @@
         <v>15</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>407</v>
@@ -5007,34 +5012,34 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="18">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F41" s="14"/>
+      <c r="E41" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F41" s="13"/>
       <c r="G41" s="6" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="14">
         <v>478577</v>
       </c>
       <c r="M41" s="10" t="s">
@@ -5044,7 +5049,7 @@
         <v>30</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>7</v>
@@ -5060,22 +5065,22 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="18">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="48" t="s">
         <v>598</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F42" s="14"/>
+      <c r="E42" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F42" s="13"/>
       <c r="G42" s="6" t="s">
         <v>600</v>
       </c>
@@ -5083,9 +5088,9 @@
         <v>125</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="14"/>
+      <c r="J42" s="13"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="15">
+      <c r="L42" s="14">
         <v>64295</v>
       </c>
       <c r="M42" s="10" t="s">
@@ -5095,7 +5100,7 @@
         <v>53</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>602</v>
@@ -5111,20 +5116,20 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="18">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E43" s="51" t="s">
-        <v>633</v>
+      <c r="E43" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>261</v>
@@ -5152,7 +5157,7 @@
         <v>84</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>7</v>
@@ -5168,20 +5173,20 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="18">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="49" t="s">
         <v>570</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E44" s="51" t="s">
-        <v>633</v>
+      <c r="E44" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>246</v>
@@ -5209,7 +5214,7 @@
         <v>84</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>572</v>
@@ -5225,20 +5230,20 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="18">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E45" s="51" t="s">
-        <v>633</v>
+      <c r="E45" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>250</v>
@@ -5263,10 +5268,10 @@
         <v>458</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>7</v>
@@ -5282,20 +5287,20 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="18">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E46" s="51" t="s">
-        <v>633</v>
+      <c r="E46" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>250</v>
@@ -5323,7 +5328,7 @@
         <v>44</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>453</v>
@@ -5339,20 +5344,20 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="18">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E47" s="51" t="s">
-        <v>633</v>
+      <c r="E47" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>250</v>
@@ -5380,7 +5385,7 @@
         <v>45</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>7</v>
@@ -5396,20 +5401,20 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="18">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="51" t="s">
-        <v>633</v>
+      <c r="E48" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>250</v>
@@ -5434,10 +5439,10 @@
         <v>7</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>7</v>
@@ -5453,22 +5458,22 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="18">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F49" s="14"/>
+      <c r="E49" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F49" s="13"/>
       <c r="G49" s="6" t="s">
         <v>434</v>
       </c>
@@ -5476,11 +5481,11 @@
         <v>7</v>
       </c>
       <c r="I49" s="6"/>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K49" s="8"/>
-      <c r="L49" s="15">
+      <c r="L49" s="14">
         <v>64296</v>
       </c>
       <c r="M49" s="10" t="s">
@@ -5490,7 +5495,7 @@
         <v>10</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>594</v>
@@ -5506,34 +5511,34 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="18">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="17" t="s">
+      <c r="E50" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="16" t="s">
         <v>389</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I50" s="6"/>
-      <c r="J50" s="14" t="s">
+      <c r="J50" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K50" s="8"/>
-      <c r="L50" s="15">
+      <c r="L50" s="14">
         <v>64308</v>
       </c>
       <c r="M50" s="10" t="s">
@@ -5543,7 +5548,7 @@
         <v>84</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P50" s="6" t="s">
         <v>391</v>
@@ -5559,20 +5564,20 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="18">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="49" t="s">
         <v>529</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E51" s="51" t="s">
-        <v>633</v>
+      <c r="E51" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>258</v>
@@ -5600,7 +5605,7 @@
         <v>84</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>531</v>
@@ -5616,20 +5621,20 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="18">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="D52" s="51" t="s">
+      <c r="C52" s="49" t="s">
+        <v>635</v>
+      </c>
+      <c r="D52" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E52" s="51" t="s">
-        <v>633</v>
+      <c r="E52" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>258</v>
@@ -5657,7 +5662,7 @@
         <v>76</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>450</v>
@@ -5673,22 +5678,22 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="18">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="49" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E53" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F53" s="14"/>
+      <c r="E53" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F53" s="13"/>
       <c r="G53" s="6" t="s">
         <v>611</v>
       </c>
@@ -5696,9 +5701,9 @@
         <v>7</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="14"/>
+      <c r="J53" s="13"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="15">
+      <c r="L53" s="14">
         <v>64309</v>
       </c>
       <c r="M53" s="10" t="s">
@@ -5708,7 +5713,7 @@
         <v>100</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>613</v>
@@ -5724,20 +5729,20 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="18">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="49" t="s">
         <v>535</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="51" t="s">
-        <v>633</v>
+      <c r="E54" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>246</v>
@@ -5763,7 +5768,7 @@
         <v>19</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>538</v>
@@ -5779,22 +5784,22 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="18">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="49" t="s">
         <v>414</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E55" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F55" s="14"/>
+      <c r="E55" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F55" s="13"/>
       <c r="G55" s="6" t="s">
         <v>415</v>
       </c>
@@ -5802,9 +5807,9 @@
         <v>7</v>
       </c>
       <c r="I55" s="6"/>
-      <c r="J55" s="14"/>
+      <c r="J55" s="13"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="15">
+      <c r="L55" s="14">
         <v>44025</v>
       </c>
       <c r="M55" s="10" t="s">
@@ -5814,7 +5819,7 @@
         <v>19</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P55" s="6" t="s">
         <v>417</v>
@@ -5830,22 +5835,22 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="18">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E56" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F56" s="14"/>
+      <c r="E56" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F56" s="13"/>
       <c r="G56" s="6" t="s">
         <v>136</v>
       </c>
@@ -5853,11 +5858,11 @@
         <v>136</v>
       </c>
       <c r="I56" s="6"/>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K56" s="8"/>
-      <c r="L56" s="15">
+      <c r="L56" s="14">
         <v>2045187</v>
       </c>
       <c r="M56" s="10" t="s">
@@ -5867,7 +5872,7 @@
         <v>281</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>280</v>
@@ -5883,22 +5888,22 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="18">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E57" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F57" s="14"/>
+      <c r="E57" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F57" s="13"/>
       <c r="G57" s="6" t="s">
         <v>135</v>
       </c>
@@ -5906,11 +5911,11 @@
         <v>135</v>
       </c>
       <c r="I57" s="6"/>
-      <c r="J57" s="14" t="s">
+      <c r="J57" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K57" s="8"/>
-      <c r="L57" s="15">
+      <c r="L57" s="14">
         <v>2045185</v>
       </c>
       <c r="M57" s="10" t="s">
@@ -5920,7 +5925,7 @@
         <v>46</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>279</v>
@@ -5936,20 +5941,20 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="18">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E58" s="51" t="s">
-        <v>633</v>
+      <c r="E58" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>258</v>
@@ -5979,7 +5984,7 @@
         <v>10</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>449</v>
@@ -5995,20 +6000,20 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="18">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="49" t="s">
         <v>596</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="51" t="s">
-        <v>633</v>
+      <c r="E59" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>274</v>
@@ -6036,7 +6041,7 @@
         <v>10</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P59" s="6" t="s">
         <v>294</v>
@@ -6052,20 +6057,20 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="18">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="49" t="s">
         <v>556</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E60" s="51" t="s">
-        <v>633</v>
+      <c r="E60" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>246</v>
@@ -6093,7 +6098,7 @@
         <v>17</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6">
@@ -6107,22 +6112,22 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="18">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F61" s="14"/>
+      <c r="E61" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F61" s="13"/>
       <c r="G61" s="6" t="s">
         <v>165</v>
       </c>
@@ -6130,11 +6135,11 @@
         <v>7</v>
       </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="14" t="s">
+      <c r="J61" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K61" s="8"/>
-      <c r="L61" s="15">
+      <c r="L61" s="14">
         <v>64315</v>
       </c>
       <c r="M61" s="10" t="s">
@@ -6144,7 +6149,7 @@
         <v>84</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P61" s="8" t="s">
         <v>391</v>
@@ -6160,22 +6165,22 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="18">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="49" t="s">
         <v>604</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F62" s="14"/>
+      <c r="E62" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F62" s="13"/>
       <c r="G62" s="6" t="s">
         <v>415</v>
       </c>
@@ -6183,9 +6188,9 @@
         <v>7</v>
       </c>
       <c r="I62" s="6"/>
-      <c r="J62" s="14"/>
+      <c r="J62" s="13"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="15">
+      <c r="L62" s="14">
         <v>64284</v>
       </c>
       <c r="M62" s="10" t="s">
@@ -6195,7 +6200,7 @@
         <v>19</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P62" s="6" t="s">
         <v>606</v>
@@ -6211,20 +6216,20 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="18">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E63" s="51" t="s">
-        <v>633</v>
+      <c r="E63" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>253</v>
@@ -6252,7 +6257,7 @@
         <v>34</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>525</v>
@@ -6268,20 +6273,20 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="18">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="49" t="s">
         <v>588</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E64" s="51" t="s">
-        <v>633</v>
+      <c r="E64" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>246</v>
@@ -6309,7 +6314,7 @@
         <v>15</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>591</v>
@@ -6325,20 +6330,20 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="18">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E65" s="51" t="s">
-        <v>633</v>
+      <c r="E65" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>258</v>
@@ -6366,7 +6371,7 @@
         <v>46</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>515</v>
@@ -6382,22 +6387,22 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="18">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E66" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F66" s="14"/>
+      <c r="E66" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F66" s="13"/>
       <c r="G66" s="6" t="s">
         <v>434</v>
       </c>
@@ -6405,11 +6410,11 @@
         <v>7</v>
       </c>
       <c r="I66" s="6"/>
-      <c r="J66" s="14" t="s">
+      <c r="J66" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K66" s="8"/>
-      <c r="L66" s="15">
+      <c r="L66" s="14">
         <v>44027</v>
       </c>
       <c r="M66" s="10" t="s">
@@ -6419,7 +6424,7 @@
         <v>10</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P66" s="6" t="s">
         <v>436</v>
@@ -6435,20 +6440,20 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="18">
-      <c r="A67" s="52" t="s">
+      <c r="A67" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="49" t="s">
         <v>551</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="51" t="s">
-        <v>633</v>
+      <c r="E67" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>246</v>
@@ -6478,7 +6483,7 @@
         <v>56</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P67" s="6" t="s">
         <v>553</v>
@@ -6494,32 +6499,32 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="18">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="51" t="s">
+      <c r="C68" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E68" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F68" s="14"/>
+      <c r="E68" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F68" s="13"/>
       <c r="G68" s="6" t="s">
         <v>125</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="14" t="s">
+      <c r="J68" s="13" t="s">
         <v>125</v>
       </c>
       <c r="K68" s="8"/>
-      <c r="L68" s="15">
+      <c r="L68" s="14">
         <v>1534468</v>
       </c>
       <c r="M68" s="10" t="s">
@@ -6529,7 +6534,7 @@
         <v>10</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P68" s="6" t="s">
         <v>439</v>
@@ -6545,22 +6550,22 @@
       </c>
     </row>
     <row r="69" spans="1:19" ht="18">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="49" t="s">
         <v>607</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E69" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F69" s="14"/>
+      <c r="E69" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F69" s="13"/>
       <c r="G69" s="6" t="s">
         <v>608</v>
       </c>
@@ -6568,9 +6573,9 @@
         <v>125</v>
       </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="14"/>
+      <c r="J69" s="13"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="15">
+      <c r="L69" s="14">
         <v>64297</v>
       </c>
       <c r="M69" s="10" t="s">
@@ -6580,7 +6585,7 @@
         <v>23</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P69" s="6" t="s">
         <v>609</v>
@@ -6596,20 +6601,20 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="18">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="51" t="s">
-        <v>633</v>
+      <c r="E70" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>258</v>
@@ -6637,7 +6642,7 @@
         <v>15</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>407</v>
@@ -6653,20 +6658,20 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="18">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="51" t="s">
-        <v>633</v>
+      <c r="E71" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>246</v>
@@ -6694,7 +6699,7 @@
         <v>15</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>547</v>
@@ -6710,20 +6715,20 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="18">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E72" s="51" t="s">
-        <v>633</v>
+      <c r="E72" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>258</v>
@@ -6751,7 +6756,7 @@
         <v>23</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P72" s="6" t="s">
         <v>460</v>
@@ -6767,22 +6772,22 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="18">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E73" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="F73" s="14"/>
+      <c r="E73" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F73" s="13"/>
       <c r="G73" s="6" t="s">
         <v>410</v>
       </c>
@@ -6790,9 +6795,9 @@
         <v>7</v>
       </c>
       <c r="I73" s="6"/>
-      <c r="J73" s="14"/>
+      <c r="J73" s="13"/>
       <c r="K73" s="8"/>
-      <c r="L73" s="15">
+      <c r="L73" s="14">
         <v>64319</v>
       </c>
       <c r="M73" s="10" t="s">
@@ -6802,7 +6807,7 @@
         <v>17</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P73" s="6" t="s">
         <v>412</v>
@@ -6818,20 +6823,20 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="18">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="D74" s="51" t="s">
+      <c r="D74" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E74" s="51" t="s">
-        <v>633</v>
+      <c r="E74" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>250</v>
@@ -6856,10 +6861,10 @@
         <v>7</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P74" s="6" t="s">
         <v>7</v>
@@ -6875,20 +6880,20 @@
       </c>
     </row>
     <row r="75" spans="1:19" ht="18">
-      <c r="A75" s="52" t="s">
+      <c r="A75" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="49" t="s">
         <v>532</v>
       </c>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="E75" s="51" t="s">
-        <v>633</v>
+      <c r="E75" s="49" t="s">
+        <v>632</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>246</v>
@@ -6916,7 +6921,7 @@
         <v>23</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P75" s="6" t="s">
         <v>534</v>
@@ -6932,19 +6937,19 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="18">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="17" t="s">
         <v>627</v>
       </c>
       <c r="F76" s="5" t="s">
@@ -6973,7 +6978,7 @@
         <v>76</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P76" s="6" t="s">
         <v>483</v>
@@ -6989,19 +6994,19 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="18">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="17" t="s">
         <v>628</v>
       </c>
       <c r="F77" s="5" t="s">
@@ -7030,7 +7035,7 @@
         <v>83</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P77" s="6" t="s">
         <v>569</v>
@@ -7046,19 +7051,19 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="18">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="17" t="s">
         <v>628</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -7087,7 +7092,7 @@
         <v>46</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P78" s="6" t="s">
         <v>308</v>
@@ -7103,19 +7108,19 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="18">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="17" t="s">
         <v>628</v>
       </c>
       <c r="F79" s="5" t="s">
@@ -7144,7 +7149,7 @@
         <v>46</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P79" s="6" t="s">
         <v>284</v>
@@ -7160,19 +7165,19 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="18">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="18" t="s">
         <v>628</v>
       </c>
       <c r="F80" s="5" t="s">
@@ -7201,7 +7206,7 @@
         <v>46</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>480</v>
@@ -7217,19 +7222,19 @@
       </c>
     </row>
     <row r="81" spans="1:19" ht="18">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="19" t="s">
         <v>629</v>
       </c>
       <c r="F81" s="5" t="s">
@@ -7258,7 +7263,7 @@
         <v>23</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>521</v>
@@ -7274,19 +7279,19 @@
       </c>
     </row>
     <row r="82" spans="1:19" ht="18">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="19" t="s">
         <v>629</v>
       </c>
       <c r="F82" s="5" t="s">
@@ -7315,7 +7320,7 @@
         <v>85</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P82" s="6" t="s">
         <v>576</v>
@@ -7331,19 +7336,19 @@
       </c>
     </row>
     <row r="83" spans="1:19" ht="18">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="19" t="s">
         <v>629</v>
       </c>
       <c r="F83" s="5" t="s">
@@ -7372,7 +7377,7 @@
         <v>76</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>7</v>
@@ -7388,20 +7393,20 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="18">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>630</v>
+      <c r="D84" s="52" t="s">
+        <v>494</v>
+      </c>
+      <c r="E84" s="52" t="s">
+        <v>494</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>263</v>
@@ -7429,7 +7434,7 @@
         <v>283</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P84" s="6" t="s">
         <v>282</v>
@@ -7445,20 +7450,20 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="18">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="22" t="s">
-        <v>631</v>
+      <c r="E85" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>246</v>
@@ -7472,7 +7477,7 @@
       <c r="I85" s="7">
         <v>1</v>
       </c>
-      <c r="J85" s="23" t="s">
+      <c r="J85" s="21" t="s">
         <v>125</v>
       </c>
       <c r="K85" s="8"/>
@@ -7486,7 +7491,7 @@
         <v>49</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>7</v>
@@ -7502,22 +7507,22 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="18">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="F86" s="14"/>
+      <c r="E86" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="F86" s="13"/>
       <c r="G86" s="6" t="s">
         <v>203</v>
       </c>
@@ -7525,9 +7530,9 @@
         <v>7</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="14"/>
+      <c r="J86" s="13"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="15">
+      <c r="L86" s="14">
         <v>64307</v>
       </c>
       <c r="M86" s="10" t="s">
@@ -7537,7 +7542,7 @@
         <v>10</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P86" s="6" t="s">
         <v>293</v>
@@ -7553,22 +7558,22 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="18">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="20" t="s">
         <v>620</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E87" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="F87" s="14"/>
+      <c r="E87" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="F87" s="13"/>
       <c r="G87" s="6" t="s">
         <v>621</v>
       </c>
@@ -7576,9 +7581,9 @@
         <v>7</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="14"/>
+      <c r="J87" s="13"/>
       <c r="K87" s="8"/>
-      <c r="L87" s="15">
+      <c r="L87" s="14">
         <v>64310</v>
       </c>
       <c r="M87" s="10" t="s">
@@ -7588,7 +7593,7 @@
         <v>23</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P87" s="6" t="s">
         <v>623</v>
@@ -7604,20 +7609,20 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="18">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="24" t="s">
-        <v>631</v>
+      <c r="E88" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>258</v>
@@ -7645,7 +7650,7 @@
         <v>288</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P88" s="6" t="s">
         <v>289</v>
@@ -7661,20 +7666,20 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="18">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E89" s="22" t="s">
-        <v>631</v>
+      <c r="E89" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>246</v>
@@ -7702,7 +7707,7 @@
         <v>51</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P89" s="6" t="s">
         <v>513</v>
@@ -7718,20 +7723,20 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="18">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E90" s="22" t="s">
-        <v>631</v>
+      <c r="E90" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>250</v>
@@ -7759,7 +7764,7 @@
         <v>25</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>426</v>
@@ -7775,20 +7780,20 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="18">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E91" s="22" t="s">
-        <v>631</v>
+      <c r="E91" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>246</v>
@@ -7816,7 +7821,7 @@
         <v>100</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P91" s="6" t="s">
         <v>493</v>
@@ -7832,20 +7837,20 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="18">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E92" s="22" t="s">
-        <v>631</v>
+      <c r="E92" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>253</v>
@@ -7873,7 +7878,7 @@
         <v>467</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P92" s="6" t="s">
         <v>468</v>
@@ -7889,22 +7894,22 @@
       </c>
     </row>
     <row r="93" spans="1:19" ht="18">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E93" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="F93" s="14"/>
+      <c r="E93" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="F93" s="13"/>
       <c r="G93" s="6" t="s">
         <v>615</v>
       </c>
@@ -7916,7 +7921,7 @@
         <v>247</v>
       </c>
       <c r="K93" s="8"/>
-      <c r="L93" s="15">
+      <c r="L93" s="14">
         <v>35279</v>
       </c>
       <c r="M93" s="10" t="s">
@@ -7926,7 +7931,7 @@
         <v>102</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P93" s="6" t="s">
         <v>617</v>
@@ -7942,20 +7947,20 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="18">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E94" s="22" t="s">
-        <v>631</v>
+      <c r="E94" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>261</v>
@@ -7983,7 +7988,7 @@
         <v>288</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P94" s="6" t="s">
         <v>504</v>
@@ -7999,20 +8004,20 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="18">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E95" s="22" t="s">
-        <v>631</v>
+      <c r="E95" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>261</v>
@@ -8040,7 +8045,7 @@
         <v>488</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P95" s="6" t="s">
         <v>489</v>
@@ -8056,20 +8061,20 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="18">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E96" s="22" t="s">
-        <v>631</v>
+      <c r="E96" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>246</v>
@@ -8095,7 +8100,7 @@
         <v>11</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P96" s="6" t="s">
         <v>402</v>
@@ -8111,22 +8116,22 @@
       </c>
     </row>
     <row r="97" spans="1:19" ht="18">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E97" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="F97" s="25"/>
+      <c r="E97" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="F97" s="23"/>
       <c r="G97" s="8" t="s">
         <v>305</v>
       </c>
@@ -8134,19 +8139,19 @@
         <v>305</v>
       </c>
       <c r="I97" s="8"/>
-      <c r="J97" s="25"/>
+      <c r="J97" s="23"/>
       <c r="K97" s="8"/>
-      <c r="L97" s="26">
+      <c r="L97" s="24">
         <v>40012</v>
       </c>
-      <c r="M97" s="27" t="s">
+      <c r="M97" s="25" t="s">
         <v>625</v>
       </c>
       <c r="N97" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P97" s="8" t="s">
         <v>292</v>
@@ -8162,20 +8167,20 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="18">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E98" s="22" t="s">
-        <v>631</v>
+      <c r="E98" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>246</v>
@@ -8203,7 +8208,7 @@
         <v>43</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P98" s="6" t="s">
         <v>579</v>
@@ -8219,20 +8224,20 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="18">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E99" s="22" t="s">
-        <v>631</v>
+      <c r="E99" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>261</v>
@@ -8257,10 +8262,10 @@
         <v>464</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P99" s="6" t="s">
         <v>7</v>
@@ -8276,22 +8281,22 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="18">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="F100" s="14"/>
+      <c r="E100" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="F100" s="13"/>
       <c r="G100" s="6" t="s">
         <v>7</v>
       </c>
@@ -8299,9 +8304,9 @@
         <v>7</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="14"/>
+      <c r="J100" s="13"/>
       <c r="K100" s="8"/>
-      <c r="L100" s="15">
+      <c r="L100" s="14">
         <v>47300</v>
       </c>
       <c r="M100" s="10" t="s">
@@ -8311,7 +8316,7 @@
         <v>13</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P100" s="6" t="s">
         <v>7</v>
@@ -8327,20 +8332,20 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="18">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E101" s="24" t="s">
-        <v>631</v>
+      <c r="E101" s="22" t="s">
+        <v>630</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>258</v>
@@ -8368,7 +8373,7 @@
         <v>288</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="P101" s="6" t="s">
         <v>287</v>
@@ -8421,7 +8426,7 @@
         <v>87</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P102" s="6" t="s">
         <v>7</v>
@@ -8474,7 +8479,7 @@
         <v>76</v>
       </c>
       <c r="O103" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P103" s="6" t="s">
         <v>7</v>
@@ -8527,7 +8532,7 @@
         <v>46</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P104" s="6" t="s">
         <v>295</v>
@@ -8580,7 +8585,7 @@
         <v>46</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P105" s="6" t="s">
         <v>295</v>
@@ -8633,7 +8638,7 @@
         <v>46</v>
       </c>
       <c r="O106" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P106" s="6" t="s">
         <v>295</v>
@@ -8686,7 +8691,7 @@
         <v>46</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P107" s="6" t="s">
         <v>295</v>
@@ -8739,7 +8744,7 @@
         <v>46</v>
       </c>
       <c r="O108" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P108" s="6" t="s">
         <v>7</v>
@@ -8847,7 +8852,7 @@
         <v>46</v>
       </c>
       <c r="O110" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P110" s="6" t="s">
         <v>7</v>
@@ -8955,7 +8960,7 @@
         <v>46</v>
       </c>
       <c r="O112" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P112" s="6" t="s">
         <v>7</v>
@@ -9061,7 +9066,7 @@
         <v>46</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P114" s="6" t="s">
         <v>7</v>
@@ -9114,7 +9119,7 @@
         <v>23</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="P115" s="6" t="s">
         <v>291</v>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27700" yWindow="0" windowWidth="20920" windowHeight="24580" tabRatio="500"/>
+    <workbookView xWindow="18400" yWindow="0" windowWidth="28320" windowHeight="24480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -2171,7 +2171,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2315,8 +2315,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2337,9 +2339,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2348,9 +2347,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2364,12 +2360,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2442,7 +2432,7 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2514,6 +2504,7 @@
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2585,6 +2576,7 @@
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2924,23 +2916,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E36" sqref="A31:E36"/>
+      <selection pane="topRight" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" customWidth="1"/>
     <col min="8" max="8" width="32.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="24.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" style="1" customWidth="1"/>
     <col min="14" max="15" width="23.6640625" customWidth="1"/>
+    <col min="16" max="16" width="28.5" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1"/>
     <col min="19" max="19" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2978,10 +2975,10 @@
       <c r="K1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -3004,17 +3001,17 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="5" t="s">
         <v>253</v>
       </c>
@@ -3031,10 +3028,10 @@
         <v>259</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="9">
+      <c r="L2" s="5">
         <v>358764</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>485</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -3055,19 +3052,19 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="18">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="5" t="s">
         <v>253</v>
       </c>
@@ -3084,10 +3081,10 @@
         <v>259</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="9">
+      <c r="L3" s="5">
         <v>11099</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -3108,19 +3105,19 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="18">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="5" t="s">
         <v>253</v>
       </c>
@@ -3137,10 +3134,10 @@
         <v>259</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="9">
+      <c r="L4" s="5">
         <v>54315</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="12" t="s">
         <v>471</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -3163,19 +3160,19 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="18">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="5" t="s">
         <v>253</v>
       </c>
@@ -3192,10 +3189,10 @@
         <v>259</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="9">
+      <c r="L5" s="5">
         <v>381707</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -3218,19 +3215,19 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="18">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="5" t="s">
         <v>262</v>
       </c>
@@ -3247,10 +3244,10 @@
         <v>259</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="9">
+      <c r="L6" s="5">
         <v>11096</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="12" t="s">
         <v>474</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -3271,17 +3268,17 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="18">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="5" t="s">
         <v>253</v>
       </c>
@@ -3298,10 +3295,10 @@
         <v>255</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="9">
+      <c r="L7" s="5">
         <v>1594788</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -3324,17 +3321,17 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="18">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="5" t="s">
         <v>265</v>
       </c>
@@ -3351,10 +3348,10 @@
         <v>259</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="9">
+      <c r="L8" s="5">
         <v>155905</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -3377,17 +3374,17 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="18">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="5" t="s">
         <v>253</v>
       </c>
@@ -3404,10 +3401,10 @@
         <v>259</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="9">
+      <c r="L9" s="5">
         <v>1234809</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -3430,17 +3427,17 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="18">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="5" t="s">
         <v>246</v>
       </c>
@@ -3457,10 +3454,10 @@
         <v>259</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="9">
+      <c r="L10" s="5">
         <v>412969</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -3483,19 +3480,19 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="18">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="5" t="s">
         <v>271</v>
       </c>
@@ -3512,10 +3509,10 @@
         <v>259</v>
       </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="9">
+      <c r="L11" s="5">
         <v>188938</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -3538,120 +3535,120 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="18">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19" ht="18">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="27" t="s">
         <v>651</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
     </row>
     <row r="14" spans="1:19" ht="18">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
     </row>
     <row r="15" spans="1:19" ht="18">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>660</v>
       </c>
       <c r="I15" s="7">
@@ -3659,19 +3656,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="18">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="31" t="s">
         <v>549</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="31" t="s">
         <v>626</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -3690,10 +3687,10 @@
       <c r="K16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="5">
         <v>390845</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="12" t="s">
         <v>550</v>
       </c>
       <c r="N16" s="6" t="s">
@@ -3716,19 +3713,19 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="18">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="31" t="s">
         <v>626</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -3747,10 +3744,10 @@
       <c r="K17" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="5">
         <v>31658</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="12" t="s">
         <v>462</v>
       </c>
       <c r="N17" s="6" t="s">
@@ -3773,19 +3770,19 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="18">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="31" t="s">
         <v>626</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -3804,10 +3801,10 @@
         <v>125</v>
       </c>
       <c r="K18" s="8"/>
-      <c r="L18" s="9">
+      <c r="L18" s="5">
         <v>390844</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="12" t="s">
         <v>450</v>
       </c>
       <c r="N18" s="6" t="s">
@@ -3830,37 +3827,37 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="18">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="31" t="s">
         <v>626</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>0</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="12" t="s">
         <v>259</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="14">
+      <c r="L19" s="12">
         <v>1244563</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="12">
         <v>178</v>
       </c>
       <c r="N19" s="6" t="s">
@@ -3883,22 +3880,22 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="18">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="31" t="s">
         <v>626</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="8" t="s">
         <v>428</v>
       </c>
@@ -3910,10 +3907,10 @@
       <c r="K20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="12">
         <v>1125677</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N20" s="6" t="s">
@@ -3936,19 +3933,19 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="18">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="31" t="s">
         <v>626</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -3967,10 +3964,10 @@
         <v>125</v>
       </c>
       <c r="K21" s="8"/>
-      <c r="L21" s="9">
+      <c r="L21" s="5">
         <v>218849</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="12" t="s">
         <v>50</v>
       </c>
       <c r="N21" s="6" t="s">
@@ -3993,19 +3990,19 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="18">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="31" t="s">
         <v>626</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -4024,10 +4021,10 @@
       <c r="K22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="5">
         <v>1708574</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="12" t="s">
         <v>90</v>
       </c>
       <c r="N22" s="6" t="s">
@@ -4050,19 +4047,19 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="18">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="C23" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="31" t="s">
         <v>626</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -4081,10 +4078,10 @@
       <c r="K23" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="5">
         <v>673515</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="12" t="s">
         <v>62</v>
       </c>
       <c r="N23" s="6" t="s">
@@ -4107,39 +4104,39 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="18">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="31" t="s">
         <v>626</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="6" t="s">
         <v>422</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>0</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>259</v>
       </c>
       <c r="K24" s="8"/>
-      <c r="L24" s="14">
+      <c r="L24" s="12">
         <v>667516</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="12" t="s">
         <v>423</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -4162,35 +4159,35 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="18">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="31" t="s">
         <v>564</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="31" t="s">
         <v>626</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="6" t="s">
         <v>211</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="12">
         <v>1286143</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="12" t="s">
         <v>69</v>
       </c>
       <c r="N25" s="6" t="s">
@@ -4213,22 +4210,22 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="18">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="31" t="s">
         <v>626</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="6" t="s">
         <v>129</v>
       </c>
@@ -4236,14 +4233,14 @@
         <v>129</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K26" s="8"/>
-      <c r="L26" s="14">
+      <c r="L26" s="12">
         <v>1302179</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="12">
         <v>56</v>
       </c>
       <c r="N26" s="6" t="s">
@@ -4266,19 +4263,19 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="31" t="s">
         <v>580</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="31" t="s">
         <v>626</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -4297,10 +4294,10 @@
         <v>125</v>
       </c>
       <c r="K27" s="8"/>
-      <c r="L27" s="9">
+      <c r="L27" s="5">
         <v>1708654</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="12" t="s">
         <v>89</v>
       </c>
       <c r="N27" s="6" t="s">
@@ -4323,19 +4320,19 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="18">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="31" t="s">
         <v>626</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -4354,10 +4351,10 @@
         <v>125</v>
       </c>
       <c r="K28" s="8"/>
-      <c r="L28" s="9">
+      <c r="L28" s="5">
         <v>643132</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N28" s="6" t="s">
@@ -4380,22 +4377,22 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="18">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="6" t="s">
         <v>445</v>
       </c>
@@ -4403,14 +4400,14 @@
         <v>445</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K29" s="8"/>
-      <c r="L29" s="14">
+      <c r="L29" s="12">
         <v>1105173</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="12" t="s">
         <v>42</v>
       </c>
       <c r="N29" s="6" t="s">
@@ -4433,19 +4430,19 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="18">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="13" t="s">
         <v>631</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -4464,10 +4461,10 @@
         <v>273</v>
       </c>
       <c r="K30" s="8"/>
-      <c r="L30" s="9">
+      <c r="L30" s="5">
         <v>1566298</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="12" t="s">
         <v>93</v>
       </c>
       <c r="N30" s="6" t="s">
@@ -4490,19 +4487,19 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="18">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="36" t="s">
         <v>633</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -4519,10 +4516,10 @@
         <v>125</v>
       </c>
       <c r="K31" s="8"/>
-      <c r="L31" s="9">
+      <c r="L31" s="5">
         <v>631267</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="12" t="s">
         <v>59</v>
       </c>
       <c r="N31" s="6" t="s">
@@ -4545,35 +4542,35 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="18">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K32" s="8"/>
-      <c r="L32" s="14">
+      <c r="L32" s="12">
         <v>985683</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N32" s="6" t="s">
@@ -4596,33 +4593,33 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="6" t="s">
         <v>125</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="13"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="14">
+      <c r="L33" s="12">
         <v>1445557</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="12" t="s">
         <v>73</v>
       </c>
       <c r="N33" s="6" t="s">
@@ -4645,33 +4642,33 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="6" t="s">
         <v>125</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="13"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="14">
+      <c r="L34" s="12">
         <v>649187</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="12" t="s">
         <v>75</v>
       </c>
       <c r="N34" s="6" t="s">
@@ -4694,22 +4691,22 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="18">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="36" t="s">
         <v>561</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="6" t="s">
         <v>207</v>
       </c>
@@ -4717,14 +4714,14 @@
         <v>207</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K35" s="8"/>
-      <c r="L35" s="14">
+      <c r="L35" s="12">
         <v>1485186</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M35" s="12" t="s">
         <v>562</v>
       </c>
       <c r="N35" s="6" t="s">
@@ -4747,22 +4744,22 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="18">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="6" t="s">
         <v>118</v>
       </c>
@@ -4770,14 +4767,14 @@
         <v>118</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K36" s="8"/>
-      <c r="L36" s="14">
+      <c r="L36" s="12">
         <v>486494</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="12" t="s">
         <v>419</v>
       </c>
       <c r="N36" s="6" t="s">
@@ -4800,22 +4797,22 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="18">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="6" t="s">
         <v>396</v>
       </c>
@@ -4823,14 +4820,14 @@
         <v>7</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K37" s="8"/>
-      <c r="L37" s="14">
+      <c r="L37" s="12">
         <v>44017</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M37" s="12" t="s">
         <v>397</v>
       </c>
       <c r="N37" s="6" t="s">
@@ -4853,19 +4850,19 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="18">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -4882,10 +4879,10 @@
         <v>125</v>
       </c>
       <c r="K38" s="8"/>
-      <c r="L38" s="9">
+      <c r="L38" s="5">
         <v>64290</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="12" t="s">
         <v>541</v>
       </c>
       <c r="N38" s="6" t="s">
@@ -4908,37 +4905,37 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="18">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="C39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="49" t="s">
+      <c r="C39" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="12">
         <v>1534467</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M39" s="12" t="s">
         <v>437</v>
       </c>
       <c r="N39" s="6" t="s">
@@ -4961,22 +4958,22 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="18">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="6" t="s">
         <v>165</v>
       </c>
@@ -4984,12 +4981,12 @@
         <v>7</v>
       </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="13"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="14">
+      <c r="L40" s="12">
         <v>38837</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="12" t="s">
         <v>406</v>
       </c>
       <c r="N40" s="6" t="s">
@@ -5012,37 +5009,37 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="18">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="6" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="12">
         <v>478577</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="12" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="6" t="s">
@@ -5065,22 +5062,22 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="18">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="45" t="s">
         <v>599</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F42" s="13"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="6" t="s">
         <v>600</v>
       </c>
@@ -5088,12 +5085,12 @@
         <v>125</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="13"/>
+      <c r="J42" s="12"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="14">
+      <c r="L42" s="12">
         <v>64295</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="12" t="s">
         <v>601</v>
       </c>
       <c r="N42" s="6" t="s">
@@ -5116,19 +5113,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="18">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="47" t="s">
         <v>526</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -5147,10 +5144,10 @@
         <v>125</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="9">
+      <c r="L43" s="5">
         <v>64303</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="M43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="N43" s="6" t="s">
@@ -5173,19 +5170,19 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="18">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -5204,10 +5201,10 @@
         <v>125</v>
       </c>
       <c r="K44" s="8"/>
-      <c r="L44" s="9">
+      <c r="L44" s="5">
         <v>64305</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="12" t="s">
         <v>571</v>
       </c>
       <c r="N44" s="6" t="s">
@@ -5230,19 +5227,19 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="18">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="45" t="s">
         <v>457</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -5261,10 +5258,10 @@
         <v>125</v>
       </c>
       <c r="K45" s="8"/>
-      <c r="L45" s="9">
+      <c r="L45" s="5">
         <v>11053</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="M45" s="12" t="s">
         <v>458</v>
       </c>
       <c r="N45" s="6" t="s">
@@ -5287,19 +5284,19 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="18">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="45" t="s">
         <v>452</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -5318,10 +5315,10 @@
         <v>125</v>
       </c>
       <c r="K46" s="8"/>
-      <c r="L46" s="9">
+      <c r="L46" s="5">
         <v>11060</v>
       </c>
-      <c r="M46" s="10">
+      <c r="M46" s="12">
         <v>16681</v>
       </c>
       <c r="N46" s="6" t="s">
@@ -5344,19 +5341,19 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="18">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="45" t="s">
         <v>454</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F47" s="5" t="s">
@@ -5375,10 +5372,10 @@
         <v>125</v>
       </c>
       <c r="K47" s="8"/>
-      <c r="L47" s="9">
+      <c r="L47" s="5">
         <v>11069</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M47" s="12" t="s">
         <v>455</v>
       </c>
       <c r="N47" s="6" t="s">
@@ -5401,19 +5398,19 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="18">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -5432,10 +5429,10 @@
         <v>125</v>
       </c>
       <c r="K48" s="8"/>
-      <c r="L48" s="9">
+      <c r="L48" s="5">
         <v>12637</v>
       </c>
-      <c r="M48" s="10" t="s">
+      <c r="M48" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N48" s="6" t="s">
@@ -5458,22 +5455,22 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="18">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="45" t="s">
         <v>592</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="6" t="s">
         <v>434</v>
       </c>
@@ -5481,14 +5478,14 @@
         <v>7</v>
       </c>
       <c r="I49" s="6"/>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K49" s="8"/>
-      <c r="L49" s="14">
+      <c r="L49" s="12">
         <v>64296</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="M49" s="12" t="s">
         <v>593</v>
       </c>
       <c r="N49" s="6" t="s">
@@ -5511,37 +5508,37 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="18">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="16" t="s">
+      <c r="F50" s="12"/>
+      <c r="G50" s="14" t="s">
         <v>389</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I50" s="6"/>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K50" s="8"/>
-      <c r="L50" s="14">
+      <c r="L50" s="12">
         <v>64308</v>
       </c>
-      <c r="M50" s="10" t="s">
+      <c r="M50" s="12" t="s">
         <v>390</v>
       </c>
       <c r="N50" s="6" t="s">
@@ -5564,19 +5561,19 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="18">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -5595,10 +5592,10 @@
         <v>125</v>
       </c>
       <c r="K51" s="8"/>
-      <c r="L51" s="9">
+      <c r="L51" s="5">
         <v>59563</v>
       </c>
-      <c r="M51" s="10" t="s">
+      <c r="M51" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N51" s="6" t="s">
@@ -5621,19 +5618,19 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="18">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="45" t="s">
         <v>635</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -5654,10 +5651,10 @@
       <c r="K52" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="5">
         <v>11072</v>
       </c>
-      <c r="M52" s="10"/>
+      <c r="M52" s="12"/>
       <c r="N52" s="6" t="s">
         <v>76</v>
       </c>
@@ -5678,22 +5675,22 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="18">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="45" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="6" t="s">
         <v>611</v>
       </c>
@@ -5701,12 +5698,12 @@
         <v>7</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="13"/>
+      <c r="J53" s="12"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="14">
+      <c r="L53" s="12">
         <v>64309</v>
       </c>
-      <c r="M53" s="10" t="s">
+      <c r="M53" s="12" t="s">
         <v>612</v>
       </c>
       <c r="N53" s="6" t="s">
@@ -5729,19 +5726,19 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="18">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F54" s="5" t="s">
@@ -5758,10 +5755,10 @@
         <v>125</v>
       </c>
       <c r="K54" s="8"/>
-      <c r="L54" s="9">
+      <c r="L54" s="5">
         <v>64311</v>
       </c>
-      <c r="M54" s="10" t="s">
+      <c r="M54" s="12" t="s">
         <v>537</v>
       </c>
       <c r="N54" s="6" t="s">
@@ -5784,22 +5781,22 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="18">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="6" t="s">
         <v>415</v>
       </c>
@@ -5807,12 +5804,12 @@
         <v>7</v>
       </c>
       <c r="I55" s="6"/>
-      <c r="J55" s="13"/>
+      <c r="J55" s="12"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="14">
+      <c r="L55" s="12">
         <v>44025</v>
       </c>
-      <c r="M55" s="10" t="s">
+      <c r="M55" s="12" t="s">
         <v>416</v>
       </c>
       <c r="N55" s="6" t="s">
@@ -5835,22 +5832,22 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="18">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="6" t="s">
         <v>136</v>
       </c>
@@ -5858,14 +5855,14 @@
         <v>136</v>
       </c>
       <c r="I56" s="6"/>
-      <c r="J56" s="13" t="s">
+      <c r="J56" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K56" s="8"/>
-      <c r="L56" s="14">
+      <c r="L56" s="12">
         <v>2045187</v>
       </c>
-      <c r="M56" s="10" t="s">
+      <c r="M56" s="12" t="s">
         <v>39</v>
       </c>
       <c r="N56" s="6" t="s">
@@ -5888,22 +5885,22 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="18">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="45" t="s">
         <v>441</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="6" t="s">
         <v>135</v>
       </c>
@@ -5911,14 +5908,14 @@
         <v>135</v>
       </c>
       <c r="I57" s="6"/>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K57" s="8"/>
-      <c r="L57" s="14">
+      <c r="L57" s="12">
         <v>2045185</v>
       </c>
-      <c r="M57" s="10" t="s">
+      <c r="M57" s="12" t="s">
         <v>442</v>
       </c>
       <c r="N57" s="6" t="s">
@@ -5941,19 +5938,19 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="18">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F58" s="5" t="s">
@@ -5974,10 +5971,10 @@
       <c r="K58" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="5">
         <v>11079</v>
       </c>
-      <c r="M58" s="10" t="s">
+      <c r="M58" s="12" t="s">
         <v>448</v>
       </c>
       <c r="N58" s="6" t="s">
@@ -6000,19 +5997,19 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="18">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="47" t="s">
         <v>595</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F59" s="5" t="s">
@@ -6031,10 +6028,10 @@
         <v>125</v>
       </c>
       <c r="K59" s="8"/>
-      <c r="L59" s="9">
+      <c r="L59" s="5">
         <v>44024</v>
       </c>
-      <c r="M59" s="10" t="s">
+      <c r="M59" s="12" t="s">
         <v>597</v>
       </c>
       <c r="N59" s="6" t="s">
@@ -6057,19 +6054,19 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="18">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="45" t="s">
         <v>556</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -6088,10 +6085,10 @@
         <v>125</v>
       </c>
       <c r="K60" s="8"/>
-      <c r="L60" s="9">
+      <c r="L60" s="5">
         <v>64292</v>
       </c>
-      <c r="M60" s="10" t="s">
+      <c r="M60" s="12" t="s">
         <v>60</v>
       </c>
       <c r="N60" s="6" t="s">
@@ -6112,22 +6109,22 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="18">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E61" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="6" t="s">
         <v>165</v>
       </c>
@@ -6135,14 +6132,14 @@
         <v>7</v>
       </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K61" s="8"/>
-      <c r="L61" s="14">
+      <c r="L61" s="12">
         <v>64315</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="M61" s="12" t="s">
         <v>394</v>
       </c>
       <c r="N61" s="8" t="s">
@@ -6165,22 +6162,22 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="18">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="45" t="s">
         <v>604</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F62" s="13"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="6" t="s">
         <v>415</v>
       </c>
@@ -6188,12 +6185,12 @@
         <v>7</v>
       </c>
       <c r="I62" s="6"/>
-      <c r="J62" s="13"/>
+      <c r="J62" s="12"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="14">
+      <c r="L62" s="12">
         <v>64284</v>
       </c>
-      <c r="M62" s="10" t="s">
+      <c r="M62" s="12" t="s">
         <v>605</v>
       </c>
       <c r="N62" s="6" t="s">
@@ -6216,19 +6213,19 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="18">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F63" s="5" t="s">
@@ -6247,10 +6244,10 @@
         <v>125</v>
       </c>
       <c r="K63" s="6"/>
-      <c r="L63" s="9">
+      <c r="L63" s="5">
         <v>44026</v>
       </c>
-      <c r="M63" s="10" t="s">
+      <c r="M63" s="12" t="s">
         <v>524</v>
       </c>
       <c r="N63" s="6" t="s">
@@ -6273,19 +6270,19 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="18">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="45" t="s">
         <v>588</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F64" s="5" t="s">
@@ -6304,10 +6301,10 @@
         <v>125</v>
       </c>
       <c r="K64" s="8"/>
-      <c r="L64" s="9">
+      <c r="L64" s="5">
         <v>64318</v>
       </c>
-      <c r="M64" s="10" t="s">
+      <c r="M64" s="12" t="s">
         <v>590</v>
       </c>
       <c r="N64" s="6" t="s">
@@ -6330,19 +6327,19 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="18">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="45" t="s">
         <v>514</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="E65" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F65" s="5" t="s">
@@ -6361,10 +6358,10 @@
         <v>125</v>
       </c>
       <c r="K65" s="8"/>
-      <c r="L65" s="9">
+      <c r="L65" s="5">
         <v>11080</v>
       </c>
-      <c r="M65" s="10" t="s">
+      <c r="M65" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N65" s="6" t="s">
@@ -6387,22 +6384,22 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="18">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="D66" s="49" t="s">
+      <c r="D66" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E66" s="49" t="s">
+      <c r="E66" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F66" s="13"/>
+      <c r="F66" s="12"/>
       <c r="G66" s="6" t="s">
         <v>434</v>
       </c>
@@ -6410,14 +6407,14 @@
         <v>7</v>
       </c>
       <c r="I66" s="6"/>
-      <c r="J66" s="13" t="s">
+      <c r="J66" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K66" s="8"/>
-      <c r="L66" s="14">
+      <c r="L66" s="12">
         <v>44027</v>
       </c>
-      <c r="M66" s="10" t="s">
+      <c r="M66" s="12" t="s">
         <v>435</v>
       </c>
       <c r="N66" s="6" t="s">
@@ -6440,19 +6437,19 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="18">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="45" t="s">
         <v>551</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -6473,10 +6470,10 @@
       <c r="K67" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L67" s="5">
         <v>64293</v>
       </c>
-      <c r="M67" s="10" t="s">
+      <c r="M67" s="12" t="s">
         <v>552</v>
       </c>
       <c r="N67" s="6" t="s">
@@ -6499,35 +6496,35 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="18">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="49" t="s">
+      <c r="C68" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F68" s="13"/>
+      <c r="F68" s="12"/>
       <c r="G68" s="6" t="s">
         <v>125</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="12" t="s">
         <v>125</v>
       </c>
       <c r="K68" s="8"/>
-      <c r="L68" s="14">
+      <c r="L68" s="12">
         <v>1534468</v>
       </c>
-      <c r="M68" s="10" t="s">
+      <c r="M68" s="12" t="s">
         <v>438</v>
       </c>
       <c r="N68" s="6" t="s">
@@ -6550,22 +6547,22 @@
       </c>
     </row>
     <row r="69" spans="1:19" ht="18">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="45" t="s">
         <v>607</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D69" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E69" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F69" s="13"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="6" t="s">
         <v>608</v>
       </c>
@@ -6573,12 +6570,12 @@
         <v>125</v>
       </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="13"/>
+      <c r="J69" s="12"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="14">
+      <c r="L69" s="12">
         <v>64297</v>
       </c>
-      <c r="M69" s="10" t="s">
+      <c r="M69" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N69" s="6" t="s">
@@ -6601,19 +6598,19 @@
       </c>
     </row>
     <row r="70" spans="1:19" ht="18">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E70" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F70" s="5" t="s">
@@ -6632,10 +6629,10 @@
         <v>125</v>
       </c>
       <c r="K70" s="8"/>
-      <c r="L70" s="9">
+      <c r="L70" s="5">
         <v>64286</v>
       </c>
-      <c r="M70" s="10" t="s">
+      <c r="M70" s="12" t="s">
         <v>509</v>
       </c>
       <c r="N70" s="6" t="s">
@@ -6658,19 +6655,19 @@
       </c>
     </row>
     <row r="71" spans="1:19" ht="18">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="45" t="s">
         <v>544</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -6689,10 +6686,10 @@
         <v>125</v>
       </c>
       <c r="K71" s="8"/>
-      <c r="L71" s="9">
+      <c r="L71" s="5">
         <v>164416</v>
       </c>
-      <c r="M71" s="10" t="s">
+      <c r="M71" s="12" t="s">
         <v>546</v>
       </c>
       <c r="N71" s="6" t="s">
@@ -6715,19 +6712,19 @@
       </c>
     </row>
     <row r="72" spans="1:19" ht="18">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E72" s="49" t="s">
+      <c r="E72" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -6746,10 +6743,10 @@
         <v>125</v>
       </c>
       <c r="K72" s="8"/>
-      <c r="L72" s="9">
+      <c r="L72" s="5">
         <v>11082</v>
       </c>
-      <c r="M72" s="10" t="s">
+      <c r="M72" s="12" t="s">
         <v>459</v>
       </c>
       <c r="N72" s="6" t="s">
@@ -6772,22 +6769,22 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="18">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E73" s="49" t="s">
+      <c r="E73" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="F73" s="13"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="6" t="s">
         <v>410</v>
       </c>
@@ -6795,12 +6792,12 @@
         <v>7</v>
       </c>
       <c r="I73" s="6"/>
-      <c r="J73" s="13"/>
+      <c r="J73" s="12"/>
       <c r="K73" s="8"/>
-      <c r="L73" s="14">
+      <c r="L73" s="12">
         <v>64319</v>
       </c>
-      <c r="M73" s="10" t="s">
+      <c r="M73" s="12" t="s">
         <v>411</v>
       </c>
       <c r="N73" s="6" t="s">
@@ -6823,19 +6820,19 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="18">
-      <c r="A74" s="50" t="s">
+      <c r="A74" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F74" s="5" t="s">
@@ -6854,10 +6851,10 @@
         <v>125</v>
       </c>
       <c r="K74" s="8"/>
-      <c r="L74" s="9">
+      <c r="L74" s="5">
         <v>11089</v>
       </c>
-      <c r="M74" s="10" t="s">
+      <c r="M74" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N74" s="6" t="s">
@@ -6880,19 +6877,19 @@
       </c>
     </row>
     <row r="75" spans="1:19" ht="18">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="E75" s="49" t="s">
+      <c r="E75" s="45" t="s">
         <v>632</v>
       </c>
       <c r="F75" s="5" t="s">
@@ -6911,10 +6908,10 @@
         <v>125</v>
       </c>
       <c r="K75" s="8"/>
-      <c r="L75" s="9">
+      <c r="L75" s="5">
         <v>64320</v>
       </c>
-      <c r="M75" s="10" t="s">
+      <c r="M75" s="12" t="s">
         <v>533</v>
       </c>
       <c r="N75" s="6" t="s">
@@ -6937,19 +6934,19 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="18">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="15" t="s">
         <v>627</v>
       </c>
       <c r="F76" s="5" t="s">
@@ -6968,10 +6965,10 @@
         <v>259</v>
       </c>
       <c r="K76" s="8"/>
-      <c r="L76" s="9">
+      <c r="L76" s="5">
         <v>64280</v>
       </c>
-      <c r="M76" s="10" t="s">
+      <c r="M76" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N76" s="6" t="s">
@@ -6994,19 +6991,19 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="18">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="15" t="s">
         <v>628</v>
       </c>
       <c r="F77" s="5" t="s">
@@ -7025,10 +7022,10 @@
         <v>259</v>
       </c>
       <c r="K77" s="8"/>
-      <c r="L77" s="9">
+      <c r="L77" s="5">
         <v>64299</v>
       </c>
-      <c r="M77" s="10" t="s">
+      <c r="M77" s="12" t="s">
         <v>568</v>
       </c>
       <c r="N77" s="6" t="s">
@@ -7051,19 +7048,19 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="18">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="15" t="s">
         <v>628</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -7082,10 +7079,10 @@
         <v>259</v>
       </c>
       <c r="K78" s="8"/>
-      <c r="L78" s="9">
+      <c r="L78" s="5">
         <v>64300</v>
       </c>
-      <c r="M78" s="10" t="s">
+      <c r="M78" s="12" t="s">
         <v>476</v>
       </c>
       <c r="N78" s="6" t="s">
@@ -7108,19 +7105,19 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="18">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="15" t="s">
         <v>628</v>
       </c>
       <c r="F79" s="5" t="s">
@@ -7139,10 +7136,10 @@
         <v>259</v>
       </c>
       <c r="K79" s="8"/>
-      <c r="L79" s="9">
+      <c r="L79" s="5">
         <v>64312</v>
       </c>
-      <c r="M79" s="10" t="s">
+      <c r="M79" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N79" s="6" t="s">
@@ -7165,19 +7162,19 @@
       </c>
     </row>
     <row r="80" spans="1:19" ht="18">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="16" t="s">
         <v>628</v>
       </c>
       <c r="F80" s="5" t="s">
@@ -7196,10 +7193,10 @@
         <v>259</v>
       </c>
       <c r="K80" s="8"/>
-      <c r="L80" s="9">
+      <c r="L80" s="5">
         <v>64285</v>
       </c>
-      <c r="M80" s="10" t="s">
+      <c r="M80" s="12" t="s">
         <v>479</v>
       </c>
       <c r="N80" s="6" t="s">
@@ -7222,19 +7219,19 @@
       </c>
     </row>
     <row r="81" spans="1:19" ht="18">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="17" t="s">
         <v>629</v>
       </c>
       <c r="F81" s="5" t="s">
@@ -7253,10 +7250,10 @@
         <v>255</v>
       </c>
       <c r="K81" s="8"/>
-      <c r="L81" s="9">
+      <c r="L81" s="5">
         <v>64283</v>
       </c>
-      <c r="M81" s="10" t="s">
+      <c r="M81" s="12" t="s">
         <v>520</v>
       </c>
       <c r="N81" s="6" t="s">
@@ -7279,19 +7276,19 @@
       </c>
     </row>
     <row r="82" spans="1:19" ht="18">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="17" t="s">
         <v>629</v>
       </c>
       <c r="F82" s="5" t="s">
@@ -7310,10 +7307,10 @@
         <v>255</v>
       </c>
       <c r="K82" s="8"/>
-      <c r="L82" s="9">
+      <c r="L82" s="5">
         <v>64317</v>
       </c>
-      <c r="M82" s="10" t="s">
+      <c r="M82" s="12" t="s">
         <v>575</v>
       </c>
       <c r="N82" s="6" t="s">
@@ -7336,19 +7333,19 @@
       </c>
     </row>
     <row r="83" spans="1:19" ht="18">
-      <c r="A83" s="53" t="s">
+      <c r="A83" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="17" t="s">
         <v>629</v>
       </c>
       <c r="F83" s="5" t="s">
@@ -7367,10 +7364,10 @@
         <v>255</v>
       </c>
       <c r="K83" s="8"/>
-      <c r="L83" s="9">
+      <c r="L83" s="5">
         <v>64294</v>
       </c>
-      <c r="M83" s="10" t="s">
+      <c r="M83" s="12" t="s">
         <v>501</v>
       </c>
       <c r="N83" s="6" t="s">
@@ -7393,19 +7390,19 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="18">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="52" t="s">
+      <c r="C84" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D84" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="E84" s="52" t="s">
+      <c r="E84" s="48" t="s">
         <v>494</v>
       </c>
       <c r="F84" s="5" t="s">
@@ -7424,10 +7421,10 @@
         <v>259</v>
       </c>
       <c r="K84" s="8"/>
-      <c r="L84" s="9">
+      <c r="L84" s="5">
         <v>161675</v>
       </c>
-      <c r="M84" s="10" t="s">
+      <c r="M84" s="12" t="s">
         <v>495</v>
       </c>
       <c r="N84" s="6" t="s">
@@ -7450,19 +7447,19 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="18">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F85" s="5" t="s">
@@ -7477,14 +7474,14 @@
       <c r="I85" s="7">
         <v>1</v>
       </c>
-      <c r="J85" s="21" t="s">
+      <c r="J85" s="19" t="s">
         <v>125</v>
       </c>
       <c r="K85" s="8"/>
-      <c r="L85" s="9">
+      <c r="L85" s="5">
         <v>172148</v>
       </c>
-      <c r="M85" s="10">
+      <c r="M85" s="12">
         <v>1176</v>
       </c>
       <c r="N85" s="6" t="s">
@@ -7507,22 +7504,22 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="18">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="F86" s="13"/>
+      <c r="F86" s="12"/>
       <c r="G86" s="6" t="s">
         <v>203</v>
       </c>
@@ -7530,12 +7527,12 @@
         <v>7</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="13"/>
+      <c r="J86" s="12"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="14">
+      <c r="L86" s="12">
         <v>64307</v>
       </c>
-      <c r="M86" s="10" t="s">
+      <c r="M86" s="12" t="s">
         <v>619</v>
       </c>
       <c r="N86" s="6" t="s">
@@ -7558,22 +7555,22 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="18">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="F87" s="13"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="6" t="s">
         <v>621</v>
       </c>
@@ -7581,12 +7578,12 @@
         <v>7</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="13"/>
+      <c r="J87" s="12"/>
       <c r="K87" s="8"/>
-      <c r="L87" s="14">
+      <c r="L87" s="12">
         <v>64310</v>
       </c>
-      <c r="M87" s="10" t="s">
+      <c r="M87" s="12" t="s">
         <v>622</v>
       </c>
       <c r="N87" s="6" t="s">
@@ -7609,19 +7606,19 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="18">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="20" t="s">
         <v>630</v>
       </c>
       <c r="F88" s="5" t="s">
@@ -7640,10 +7637,10 @@
       <c r="K88" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="L88" s="9">
+      <c r="L88" s="5">
         <v>1456752</v>
       </c>
-      <c r="M88" s="10" t="s">
+      <c r="M88" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N88" s="6" t="s">
@@ -7666,19 +7663,19 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="18">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F89" s="5" t="s">
@@ -7697,10 +7694,10 @@
         <v>247</v>
       </c>
       <c r="K89" s="8"/>
-      <c r="L89" s="9">
+      <c r="L89" s="5">
         <v>64287</v>
       </c>
-      <c r="M89" s="10" t="s">
+      <c r="M89" s="12" t="s">
         <v>512</v>
       </c>
       <c r="N89" s="6" t="s">
@@ -7723,19 +7720,19 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="18">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F90" s="5" t="s">
@@ -7754,10 +7751,10 @@
         <v>247</v>
       </c>
       <c r="K90" s="8"/>
-      <c r="L90" s="9">
+      <c r="L90" s="5">
         <v>33743</v>
       </c>
-      <c r="M90" s="10" t="s">
+      <c r="M90" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N90" s="6" t="s">
@@ -7780,19 +7777,19 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="18">
-      <c r="A91" s="55" t="s">
+      <c r="A91" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F91" s="5" t="s">
@@ -7811,10 +7808,10 @@
         <v>247</v>
       </c>
       <c r="K91" s="8"/>
-      <c r="L91" s="9">
+      <c r="L91" s="5">
         <v>11085</v>
       </c>
-      <c r="M91" s="10" t="s">
+      <c r="M91" s="12" t="s">
         <v>492</v>
       </c>
       <c r="N91" s="6" t="s">
@@ -7837,19 +7834,19 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="18">
-      <c r="A92" s="55" t="s">
+      <c r="A92" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D92" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E92" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F92" s="5" t="s">
@@ -7868,10 +7865,10 @@
         <v>247</v>
       </c>
       <c r="K92" s="8"/>
-      <c r="L92" s="9">
+      <c r="L92" s="5">
         <v>11086</v>
       </c>
-      <c r="M92" s="10" t="s">
+      <c r="M92" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N92" s="6" t="s">
@@ -7894,22 +7891,22 @@
       </c>
     </row>
     <row r="93" spans="1:19" ht="18">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="F93" s="13"/>
+      <c r="F93" s="12"/>
       <c r="G93" s="6" t="s">
         <v>615</v>
       </c>
@@ -7921,10 +7918,10 @@
         <v>247</v>
       </c>
       <c r="K93" s="8"/>
-      <c r="L93" s="14">
+      <c r="L93" s="12">
         <v>35279</v>
       </c>
-      <c r="M93" s="10" t="s">
+      <c r="M93" s="12" t="s">
         <v>616</v>
       </c>
       <c r="N93" s="6" t="s">
@@ -7947,19 +7944,19 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="18">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="D94" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F94" s="5" t="s">
@@ -7978,10 +7975,10 @@
         <v>247</v>
       </c>
       <c r="K94" s="8"/>
-      <c r="L94" s="9">
+      <c r="L94" s="5">
         <v>12542</v>
       </c>
-      <c r="M94" s="10" t="s">
+      <c r="M94" s="12" t="s">
         <v>503</v>
       </c>
       <c r="N94" s="6" t="s">
@@ -8004,19 +8001,19 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="18">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D95" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F95" s="5" t="s">
@@ -8035,10 +8032,10 @@
         <v>247</v>
       </c>
       <c r="K95" s="8"/>
-      <c r="L95" s="9">
+      <c r="L95" s="5">
         <v>11083</v>
       </c>
-      <c r="M95" s="10" t="s">
+      <c r="M95" s="12" t="s">
         <v>487</v>
       </c>
       <c r="N95" s="6" t="s">
@@ -8061,19 +8058,19 @@
       </c>
     </row>
     <row r="96" spans="1:19" ht="18">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F96" s="5" t="s">
@@ -8090,10 +8087,10 @@
         <v>247</v>
       </c>
       <c r="K96" s="8"/>
-      <c r="L96" s="9">
+      <c r="L96" s="5">
         <v>64288</v>
       </c>
-      <c r="M96" s="10" t="s">
+      <c r="M96" s="12" t="s">
         <v>401</v>
       </c>
       <c r="N96" s="6" t="s">
@@ -8116,22 +8113,22 @@
       </c>
     </row>
     <row r="97" spans="1:19" ht="18">
-      <c r="A97" s="55" t="s">
+      <c r="A97" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="F97" s="23"/>
+      <c r="F97" s="21"/>
       <c r="G97" s="8" t="s">
         <v>305</v>
       </c>
@@ -8139,12 +8136,12 @@
         <v>305</v>
       </c>
       <c r="I97" s="8"/>
-      <c r="J97" s="23"/>
+      <c r="J97" s="21"/>
       <c r="K97" s="8"/>
-      <c r="L97" s="24">
+      <c r="L97" s="21">
         <v>40012</v>
       </c>
-      <c r="M97" s="25" t="s">
+      <c r="M97" s="21" t="s">
         <v>625</v>
       </c>
       <c r="N97" s="8" t="s">
@@ -8167,19 +8164,19 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="18">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F98" s="5" t="s">
@@ -8198,10 +8195,10 @@
         <v>247</v>
       </c>
       <c r="K98" s="8"/>
-      <c r="L98" s="9">
+      <c r="L98" s="5">
         <v>1691889</v>
       </c>
-      <c r="M98" s="10" t="s">
+      <c r="M98" s="12" t="s">
         <v>88</v>
       </c>
       <c r="N98" s="6" t="s">
@@ -8224,19 +8221,19 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="18">
-      <c r="A99" s="55" t="s">
+      <c r="A99" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="18" t="s">
         <v>630</v>
       </c>
       <c r="F99" s="5" t="s">
@@ -8255,10 +8252,10 @@
         <v>247</v>
       </c>
       <c r="K99" s="8"/>
-      <c r="L99" s="9">
+      <c r="L99" s="5">
         <v>11084</v>
       </c>
-      <c r="M99" s="10" t="s">
+      <c r="M99" s="12" t="s">
         <v>464</v>
       </c>
       <c r="N99" s="6" t="s">
@@ -8281,22 +8278,22 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="18">
-      <c r="A100" s="55" t="s">
+      <c r="A100" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="20" t="s">
+      <c r="B100" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="F100" s="13"/>
+      <c r="F100" s="12"/>
       <c r="G100" s="6" t="s">
         <v>7</v>
       </c>
@@ -8304,12 +8301,12 @@
         <v>7</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="13"/>
+      <c r="J100" s="12"/>
       <c r="K100" s="8"/>
-      <c r="L100" s="14">
+      <c r="L100" s="12">
         <v>47300</v>
       </c>
-      <c r="M100" s="10" t="s">
+      <c r="M100" s="12" t="s">
         <v>404</v>
       </c>
       <c r="N100" s="6" t="s">
@@ -8332,19 +8329,19 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="18">
-      <c r="A101" s="55" t="s">
+      <c r="A101" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="20" t="s">
         <v>630</v>
       </c>
       <c r="F101" s="5" t="s">
@@ -8363,10 +8360,10 @@
       <c r="K101" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="L101" s="9">
+      <c r="L101" s="5">
         <v>40004</v>
       </c>
-      <c r="M101" s="10" t="s">
+      <c r="M101" s="12" t="s">
         <v>559</v>
       </c>
       <c r="N101" s="6" t="s">
@@ -8416,10 +8413,10 @@
         <v>259</v>
       </c>
       <c r="K102" s="8"/>
-      <c r="L102" s="9">
+      <c r="L102" s="5">
         <v>1633878</v>
       </c>
-      <c r="M102" s="10" t="s">
+      <c r="M102" s="12" t="s">
         <v>86</v>
       </c>
       <c r="N102" s="6" t="s">
@@ -8469,10 +8466,10 @@
         <v>259</v>
       </c>
       <c r="K103" s="8"/>
-      <c r="L103" s="9">
+      <c r="L103" s="5">
         <v>1416349</v>
       </c>
-      <c r="M103" s="10" t="s">
+      <c r="M103" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N103" s="6" t="s">
@@ -8522,10 +8519,10 @@
         <v>259</v>
       </c>
       <c r="K104" s="8"/>
-      <c r="L104" s="9">
+      <c r="L104" s="5">
         <v>1562038</v>
       </c>
-      <c r="M104" s="10" t="s">
+      <c r="M104" s="12" t="s">
         <v>77</v>
       </c>
       <c r="N104" s="6" t="s">
@@ -8575,10 +8572,10 @@
         <v>259</v>
       </c>
       <c r="K105" s="8"/>
-      <c r="L105" s="9">
+      <c r="L105" s="5">
         <v>1562039</v>
       </c>
-      <c r="M105" s="10" t="s">
+      <c r="M105" s="12" t="s">
         <v>79</v>
       </c>
       <c r="N105" s="6" t="s">
@@ -8628,10 +8625,10 @@
         <v>259</v>
       </c>
       <c r="K106" s="8"/>
-      <c r="L106" s="9">
+      <c r="L106" s="5">
         <v>1562065</v>
       </c>
-      <c r="M106" s="10" t="s">
+      <c r="M106" s="12" t="s">
         <v>82</v>
       </c>
       <c r="N106" s="6" t="s">
@@ -8681,10 +8678,10 @@
         <v>259</v>
       </c>
       <c r="K107" s="8"/>
-      <c r="L107" s="9">
+      <c r="L107" s="5">
         <v>1562066</v>
       </c>
-      <c r="M107" s="10" t="s">
+      <c r="M107" s="12" t="s">
         <v>81</v>
       </c>
       <c r="N107" s="6" t="s">
@@ -8734,10 +8731,10 @@
         <v>259</v>
       </c>
       <c r="K108" s="8"/>
-      <c r="L108" s="9">
+      <c r="L108" s="5">
         <v>1281454</v>
       </c>
-      <c r="M108" s="10" t="s">
+      <c r="M108" s="12" t="s">
         <v>63</v>
       </c>
       <c r="N108" s="6" t="s">
@@ -8791,10 +8788,10 @@
         <v>259</v>
       </c>
       <c r="K109" s="8"/>
-      <c r="L109" s="9">
+      <c r="L109" s="5">
         <v>11103</v>
       </c>
-      <c r="M109" s="10" t="s">
+      <c r="M109" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N109" s="6" t="s">
@@ -8842,10 +8839,10 @@
         <v>259</v>
       </c>
       <c r="K110" s="8"/>
-      <c r="L110" s="9">
+      <c r="L110" s="5">
         <v>1307803</v>
       </c>
-      <c r="M110" s="10" t="s">
+      <c r="M110" s="12" t="s">
         <v>61</v>
       </c>
       <c r="N110" s="6" t="s">
@@ -8897,10 +8894,10 @@
         <v>259</v>
       </c>
       <c r="K111" s="8"/>
-      <c r="L111" s="9">
+      <c r="L111" s="5">
         <v>54290</v>
       </c>
-      <c r="M111" s="10" t="s">
+      <c r="M111" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N111" s="6" t="s">
@@ -8950,10 +8947,10 @@
         <v>259</v>
       </c>
       <c r="K112" s="8"/>
-      <c r="L112" s="9">
+      <c r="L112" s="5">
         <v>1729141</v>
       </c>
-      <c r="M112" s="10" t="s">
+      <c r="M112" s="12" t="s">
         <v>92</v>
       </c>
       <c r="N112" s="6" t="s">
@@ -9005,10 +9002,10 @@
         <v>259</v>
       </c>
       <c r="K113" s="8"/>
-      <c r="L113" s="9">
+      <c r="L113" s="5">
         <v>1307800</v>
       </c>
-      <c r="M113" s="10" t="s">
+      <c r="M113" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N113" s="6" t="s">
@@ -9056,10 +9053,10 @@
         <v>259</v>
       </c>
       <c r="K114" s="8"/>
-      <c r="L114" s="9">
+      <c r="L114" s="5">
         <v>1321391</v>
       </c>
-      <c r="M114" s="10" t="s">
+      <c r="M114" s="12" t="s">
         <v>64</v>
       </c>
       <c r="N114" s="6" t="s">
@@ -9109,10 +9106,10 @@
         <v>259</v>
       </c>
       <c r="K115" s="8"/>
-      <c r="L115" s="9">
+      <c r="L115" s="5">
         <v>1454041</v>
       </c>
-      <c r="M115" s="10" t="s">
+      <c r="M115" s="12" t="s">
         <v>70</v>
       </c>
       <c r="N115" s="6" t="s">

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CBA2A1-3C52-044A-874E-58238ABF65F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27700" yWindow="0" windowWidth="20920" windowHeight="24580" tabRatio="500"/>
+    <workbookView xWindow="1720" yWindow="460" windowWidth="20920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="674">
   <si>
     <t>isolate</t>
   </si>
@@ -2014,12 +2020,39 @@
   </si>
   <si>
     <t>Sus scrofa</t>
+  </si>
+  <si>
+    <t>MH716818</t>
+  </si>
+  <si>
+    <t>MG599986</t>
+  </si>
+  <si>
+    <t>MF776369</t>
+  </si>
+  <si>
+    <t>Eastern red scorpionfish flavivirus</t>
+  </si>
+  <si>
+    <t>Wenzhou shark flavivirus</t>
+  </si>
+  <si>
+    <t>Scoliodon macrorhynchos</t>
+  </si>
+  <si>
+    <t>Scorpaena jacksoniensis</t>
+  </si>
+  <si>
+    <t>Cyclopterus lumpus virus</t>
+  </si>
+  <si>
+    <t>Cyclopterus lumpus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2049,25 +2082,30 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2921,15 +2959,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E36" sqref="A31:E36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
@@ -2944,7 +2982,7 @@
     <col min="19" max="19" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18">
+    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>310</v>
       </c>
@@ -3003,7 +3041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18">
+    <row r="2" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>330</v>
       </c>
@@ -3054,7 +3092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18">
+    <row r="3" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>316</v>
       </c>
@@ -3107,7 +3145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18">
+    <row r="4" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>323</v>
       </c>
@@ -3162,7 +3200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18">
+    <row r="5" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>349</v>
       </c>
@@ -3217,7 +3255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18">
+    <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>325</v>
       </c>
@@ -3270,7 +3308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18">
+    <row r="7" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>313</v>
       </c>
@@ -3323,7 +3361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18">
+    <row r="8" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>329</v>
       </c>
@@ -3376,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18">
+    <row r="9" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>352</v>
       </c>
@@ -3429,7 +3467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18">
+    <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>357</v>
       </c>
@@ -3482,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18">
+    <row r="11" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>385</v>
       </c>
@@ -3537,7 +3575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18">
+    <row r="12" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>652</v>
       </c>
@@ -3570,7 +3608,7 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" ht="18">
+    <row r="13" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>647</v>
       </c>
@@ -3603,7 +3641,7 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" ht="18">
+    <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>654</v>
       </c>
@@ -3636,7 +3674,7 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" ht="18">
+    <row r="15" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>655</v>
       </c>
@@ -3658,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18">
+    <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>350</v>
       </c>
@@ -3715,7 +3753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18">
+    <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>379</v>
       </c>
@@ -3772,7 +3810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18">
+    <row r="18" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>381</v>
       </c>
@@ -3829,7 +3867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18">
+    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>24</v>
       </c>
@@ -3882,7 +3920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18">
+    <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
@@ -3935,7 +3973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18">
+    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>339</v>
       </c>
@@ -3992,7 +4030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="18">
+    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>372</v>
       </c>
@@ -4049,7 +4087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="18">
+    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>354</v>
       </c>
@@ -4106,7 +4144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="18">
+    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>22</v>
       </c>
@@ -4161,7 +4199,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18">
+    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>68</v>
       </c>
@@ -4212,7 +4250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18">
+    <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>31</v>
       </c>
@@ -4265,7 +4303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18">
+    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>371</v>
       </c>
@@ -4322,7 +4360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="18">
+    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>347</v>
       </c>
@@ -4379,7 +4417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18">
+    <row r="29" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>41</v>
       </c>
@@ -4432,7 +4470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18">
+    <row r="30" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>373</v>
       </c>
@@ -4489,7 +4527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18">
+    <row r="31" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>351</v>
       </c>
@@ -4544,7 +4582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18">
+    <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>57</v>
       </c>
@@ -4595,7 +4633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="18">
+    <row r="33" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>72</v>
       </c>
@@ -4644,7 +4682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="18">
+    <row r="34" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>74</v>
       </c>
@@ -4693,7 +4731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="18">
+    <row r="35" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>66</v>
       </c>
@@ -4746,7 +4784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="18">
+    <row r="36" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>20</v>
       </c>
@@ -4799,7 +4837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="18">
+    <row r="37" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>9</v>
       </c>
@@ -4852,7 +4890,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="18">
+    <row r="38" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>346</v>
       </c>
@@ -4907,7 +4945,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="18">
+    <row r="39" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>33</v>
       </c>
@@ -4960,7 +4998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="18">
+    <row r="40" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>14</v>
       </c>
@@ -5011,7 +5049,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="18">
+    <row r="41" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>28</v>
       </c>
@@ -5064,7 +5102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="18">
+    <row r="42" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>96</v>
       </c>
@@ -5115,7 +5153,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="18">
+    <row r="43" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>382</v>
       </c>
@@ -5172,7 +5210,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="18">
+    <row r="44" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
         <v>367</v>
       </c>
@@ -5229,7 +5267,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="18">
+    <row r="45" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>317</v>
       </c>
@@ -5286,7 +5324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="18">
+    <row r="46" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>376</v>
       </c>
@@ -5343,7 +5381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="18">
+    <row r="47" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>377</v>
       </c>
@@ -5400,7 +5438,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="18">
+    <row r="48" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
         <v>324</v>
       </c>
@@ -5457,7 +5495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18">
+    <row r="49" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>95</v>
       </c>
@@ -5510,7 +5548,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18">
+    <row r="50" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>6</v>
       </c>
@@ -5563,7 +5601,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18">
+    <row r="51" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>383</v>
       </c>
@@ -5620,7 +5658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18">
+    <row r="52" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
         <v>315</v>
       </c>
@@ -5677,7 +5715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18">
+    <row r="53" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>99</v>
       </c>
@@ -5728,7 +5766,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18">
+    <row r="54" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
         <v>345</v>
       </c>
@@ -5783,7 +5821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18">
+    <row r="55" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>18</v>
       </c>
@@ -5834,7 +5872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18">
+    <row r="56" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>257</v>
       </c>
@@ -5887,7 +5925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18">
+    <row r="57" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>37</v>
       </c>
@@ -5940,7 +5978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18">
+    <row r="58" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
         <v>314</v>
       </c>
@@ -5999,7 +6037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="18">
+    <row r="59" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
         <v>375</v>
       </c>
@@ -6056,7 +6094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18">
+    <row r="60" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
         <v>387</v>
       </c>
@@ -6111,7 +6149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="18">
+    <row r="61" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
         <v>8</v>
       </c>
@@ -6164,7 +6202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="18">
+    <row r="62" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>97</v>
       </c>
@@ -6215,7 +6253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="18">
+    <row r="63" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
         <v>343</v>
       </c>
@@ -6272,7 +6310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18">
+    <row r="64" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
         <v>374</v>
       </c>
@@ -6329,7 +6367,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="18">
+    <row r="65" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
         <v>380</v>
       </c>
@@ -6386,7 +6424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="18">
+    <row r="66" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
         <v>32</v>
       </c>
@@ -6439,7 +6477,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="18">
+    <row r="67" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="50" t="s">
         <v>384</v>
       </c>
@@ -6498,7 +6536,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="18">
+    <row r="68" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
         <v>35</v>
       </c>
@@ -6549,7 +6587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="18">
+    <row r="69" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>98</v>
       </c>
@@ -6600,7 +6638,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="18">
+    <row r="70" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
         <v>340</v>
       </c>
@@ -6657,7 +6695,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="18">
+    <row r="71" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
         <v>348</v>
       </c>
@@ -6714,7 +6752,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18">
+    <row r="72" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
         <v>378</v>
       </c>
@@ -6771,7 +6809,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18">
+    <row r="73" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
         <v>16</v>
       </c>
@@ -6822,7 +6860,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18">
+    <row r="74" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
         <v>322</v>
       </c>
@@ -6879,7 +6917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18">
+    <row r="75" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
         <v>344</v>
       </c>
@@ -6936,7 +6974,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18">
+    <row r="76" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>328</v>
       </c>
@@ -6993,7 +7031,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="18">
+    <row r="77" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>366</v>
       </c>
@@ -7050,7 +7088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18">
+    <row r="78" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>326</v>
       </c>
@@ -7107,7 +7145,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18">
+    <row r="79" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>335</v>
       </c>
@@ -7164,7 +7202,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18">
+    <row r="80" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>327</v>
       </c>
@@ -7221,7 +7259,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18">
+    <row r="81" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
         <v>342</v>
       </c>
@@ -7278,7 +7316,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="18">
+    <row r="82" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="53" t="s">
         <v>368</v>
       </c>
@@ -7335,7 +7373,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="18">
+    <row r="83" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
         <v>337</v>
       </c>
@@ -7392,7 +7430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="18">
+    <row r="84" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="54" t="s">
         <v>333</v>
       </c>
@@ -7449,214 +7487,136 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="18">
-      <c r="A85" s="55" t="s">
+    <row r="85" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="B85" s="52" t="s">
+        <v>668</v>
+      </c>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="H85" s="6"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+    </row>
+    <row r="86" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
+        <v>666</v>
+      </c>
+      <c r="B86" s="52" t="s">
+        <v>669</v>
+      </c>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+    </row>
+    <row r="87" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="B87" s="52" t="s">
+        <v>672</v>
+      </c>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+    </row>
+    <row r="88" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B88" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C88" s="20" t="s">
         <v>499</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I85" s="7">
-        <v>1</v>
-      </c>
-      <c r="J85" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9">
-        <v>172148</v>
-      </c>
-      <c r="M85" s="10">
-        <v>1176</v>
-      </c>
-      <c r="N85" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O85" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="P85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q85" s="6">
-        <v>1995</v>
-      </c>
-      <c r="R85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S85" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="18">
-      <c r="A86" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I86" s="6"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="14">
-        <v>64307</v>
-      </c>
-      <c r="M86" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="P86" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q86" s="6">
-        <v>1976</v>
-      </c>
-      <c r="R86" s="6">
-        <v>20</v>
-      </c>
-      <c r="S86" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="18">
-      <c r="A87" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I87" s="6"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="14">
-        <v>64310</v>
-      </c>
-      <c r="M87" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="N87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="P87" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q87" s="6">
-        <v>1967</v>
-      </c>
-      <c r="R87" s="6">
-        <v>8</v>
-      </c>
-      <c r="S87" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="18">
-      <c r="A88" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>560</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="20" t="s">
         <v>630</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H88" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="I88" s="7">
         <v>1</v>
       </c>
-      <c r="J88" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="J88" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>1456752</v>
-      </c>
-      <c r="M88" s="10" t="s">
-        <v>7</v>
+        <v>172148</v>
+      </c>
+      <c r="M88" s="10">
+        <v>1176</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>289</v>
+        <v>7</v>
       </c>
       <c r="Q88" s="6">
-        <v>1989</v>
+        <v>1995</v>
       </c>
       <c r="R88" s="6" t="s">
         <v>7</v>
@@ -7665,15 +7625,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18">
+    <row r="89" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="55" t="s">
-        <v>341</v>
+        <v>103</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>510</v>
+        <v>618</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>245</v>
@@ -7681,170 +7641,158 @@
       <c r="E89" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>246</v>
-      </c>
+      <c r="F89" s="13"/>
       <c r="G89" s="6" t="s">
-        <v>511</v>
+        <v>203</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="7">
-        <v>1</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>247</v>
-      </c>
+      <c r="I89" s="6"/>
+      <c r="J89" s="13"/>
       <c r="K89" s="8"/>
-      <c r="L89" s="9">
-        <v>64287</v>
+      <c r="L89" s="14">
+        <v>64307</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>512</v>
+        <v>619</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>513</v>
+        <v>293</v>
       </c>
       <c r="Q89" s="6">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="R89" s="6">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="S89" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="55" t="s">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>425</v>
+        <v>620</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>250</v>
-      </c>
+      <c r="F90" s="13"/>
       <c r="G90" s="6" t="s">
-        <v>123</v>
+        <v>621</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I90" s="7">
-        <v>1</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>247</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I90" s="6"/>
+      <c r="J90" s="13"/>
       <c r="K90" s="8"/>
-      <c r="L90" s="9">
-        <v>33743</v>
+      <c r="L90" s="14">
+        <v>64310</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>7</v>
+        <v>622</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O90" s="6" t="s">
-        <v>640</v>
+        <v>23</v>
+      </c>
+      <c r="O90" s="8" t="s">
+        <v>643</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>426</v>
+        <v>623</v>
       </c>
       <c r="Q90" s="6">
-        <v>1957</v>
+        <v>1967</v>
       </c>
       <c r="R90" s="6">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="18">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="55" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="22" t="s">
         <v>630</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="H91" s="8"/>
       <c r="I91" s="7">
         <v>1</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="K91" s="8"/>
+      <c r="K91" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="L91" s="9">
-        <v>11085</v>
+        <v>1456752</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>492</v>
+        <v>7</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>493</v>
+        <v>289</v>
       </c>
       <c r="Q91" s="6">
-        <v>1956</v>
-      </c>
-      <c r="R91" s="6">
-        <v>17</v>
+        <v>1989</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="S91" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="55" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>299</v>
+        <v>510</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>245</v>
@@ -7853,10 +7801,10 @@
         <v>630</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>7</v>
@@ -7869,92 +7817,96 @@
       </c>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>11086</v>
+        <v>64287</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>467</v>
+        <v>51</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="Q92" s="6">
-        <v>1929</v>
+        <v>1972</v>
       </c>
       <c r="R92" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="55" t="s">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>614</v>
+        <v>425</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="F93" s="13"/>
+      <c r="F93" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="G93" s="6" t="s">
-        <v>615</v>
+        <v>123</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I93" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="I93" s="7">
+        <v>1</v>
+      </c>
       <c r="J93" s="5" t="s">
         <v>247</v>
       </c>
       <c r="K93" s="8"/>
-      <c r="L93" s="14">
-        <v>35279</v>
+      <c r="L93" s="9">
+        <v>33743</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>616</v>
+        <v>7</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>617</v>
+        <v>426</v>
       </c>
       <c r="Q93" s="6">
-        <v>1981</v>
+        <v>1957</v>
       </c>
       <c r="R93" s="6">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="18">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="55" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>245</v>
@@ -7963,10 +7915,10 @@
         <v>630</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>165</v>
+        <v>491</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>7</v>
@@ -7979,39 +7931,39 @@
       </c>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>12542</v>
+        <v>11085</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="Q94" s="6">
-        <v>1947</v>
+        <v>1956</v>
       </c>
       <c r="R94" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="55" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>486</v>
+        <v>299</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>245</v>
@@ -8020,10 +7972,10 @@
         <v>630</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>165</v>
+        <v>466</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>7</v>
@@ -8036,145 +7988,149 @@
       </c>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>11083</v>
+        <v>11086</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>487</v>
+        <v>7</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="Q95" s="6">
-        <v>1958</v>
+        <v>1929</v>
       </c>
       <c r="R95" s="6">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="S95" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="18">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="55" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>399</v>
+        <v>614</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7">
-        <v>1</v>
-      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="6"/>
       <c r="J96" s="5" t="s">
         <v>247</v>
       </c>
       <c r="K96" s="8"/>
-      <c r="L96" s="9">
-        <v>64288</v>
+      <c r="L96" s="14">
+        <v>35279</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>401</v>
+        <v>616</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>402</v>
+        <v>617</v>
       </c>
       <c r="Q96" s="6">
-        <v>1968</v>
+        <v>1981</v>
       </c>
       <c r="R96" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S96" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="18">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>624</v>
+        <v>502</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="I97" s="8"/>
-      <c r="J97" s="23"/>
+      <c r="F97" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="7">
+        <v>1</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="K97" s="8"/>
-      <c r="L97" s="24">
-        <v>40012</v>
-      </c>
-      <c r="M97" s="25" t="s">
-        <v>625</v>
-      </c>
-      <c r="N97" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="P97" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q97" s="8">
-        <v>1974</v>
-      </c>
-      <c r="R97" s="8">
-        <v>26</v>
-      </c>
-      <c r="S97" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="18">
+      <c r="L97" s="9">
+        <v>12542</v>
+      </c>
+      <c r="M97" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q97" s="6">
+        <v>1947</v>
+      </c>
+      <c r="R97" s="6">
+        <v>14</v>
+      </c>
+      <c r="S97" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="55" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>578</v>
+        <v>486</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>245</v>
@@ -8183,13 +8139,13 @@
         <v>630</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="I98" s="7">
         <v>1</v>
@@ -8199,39 +8155,39 @@
       </c>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>1691889</v>
+        <v>11083</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>88</v>
+        <v>487</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>43</v>
+        <v>488</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="Q98" s="6">
-        <v>2011</v>
-      </c>
-      <c r="R98" s="6" t="s">
-        <v>7</v>
+        <v>1958</v>
+      </c>
+      <c r="R98" s="6">
+        <v>23</v>
       </c>
       <c r="S98" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="55" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>245</v>
@@ -8240,14 +8196,12 @@
         <v>630</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H99" s="7"/>
       <c r="I99" s="7">
         <v>1</v>
       </c>
@@ -8256,183 +8210,187 @@
       </c>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>11084</v>
+        <v>64288</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>464</v>
+        <v>401</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>638</v>
+        <v>11</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R99" s="6" t="s">
-        <v>7</v>
+        <v>402</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>1968</v>
+      </c>
+      <c r="R99" s="6">
+        <v>2</v>
       </c>
       <c r="S99" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="55" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>403</v>
+        <v>624</v>
       </c>
       <c r="D100" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I100" s="6"/>
-      <c r="J100" s="13"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="23"/>
       <c r="K100" s="8"/>
-      <c r="L100" s="14">
-        <v>47300</v>
-      </c>
-      <c r="M100" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="N100" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O100" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="P100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S100" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="18">
+      <c r="L100" s="24">
+        <v>40012</v>
+      </c>
+      <c r="M100" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O100" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="P100" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q100" s="8">
+        <v>1974</v>
+      </c>
+      <c r="R100" s="8">
+        <v>26</v>
+      </c>
+      <c r="S100" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="55" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="20" t="s">
         <v>630</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H101" s="8"/>
+        <v>229</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="I101" s="7">
         <v>1</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="K101" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>40004</v>
+        <v>1691889</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>559</v>
+        <v>88</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>642</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>287</v>
+        <v>579</v>
       </c>
       <c r="Q101" s="6">
-        <v>1969</v>
-      </c>
-      <c r="R101" s="6">
-        <v>18</v>
+        <v>2011</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="S101" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="18">
-      <c r="A102" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E102" s="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>630</v>
+      </c>
       <c r="F102" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="I102" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>1633878</v>
+        <v>11084</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>86</v>
+        <v>464</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O102" s="8" t="s">
-        <v>643</v>
+        <v>638</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>642</v>
       </c>
       <c r="P102" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q102" s="6">
-        <v>2011</v>
+      <c r="Q102" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="R102" s="6" t="s">
         <v>7</v>
@@ -8441,42 +8399,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="18">
-      <c r="A103" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="5" t="s">
-        <v>270</v>
-      </c>
+    <row r="103" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="F103" s="13"/>
       <c r="G103" s="6" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I103" s="7">
-        <v>0</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>259</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I103" s="6"/>
+      <c r="J103" s="13"/>
       <c r="K103" s="8"/>
-      <c r="L103" s="9">
-        <v>1416349</v>
+      <c r="L103" s="14">
+        <v>47300</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>7</v>
+        <v>404</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="O103" s="6" t="s">
         <v>640</v>
@@ -8484,8 +8440,8 @@
       <c r="P103" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q103" s="6">
-        <v>2013</v>
+      <c r="Q103" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="R103" s="6" t="s">
         <v>7</v>
@@ -8494,65 +8450,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="18">
-      <c r="A104" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E104" s="6"/>
+    <row r="104" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>630</v>
+      </c>
       <c r="F104" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>218</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H104" s="8"/>
       <c r="I104" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="K104" s="8"/>
+        <v>247</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="L104" s="9">
-        <v>1562038</v>
+        <v>40004</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>77</v>
+        <v>559</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q104" s="6">
-        <v>2013</v>
+        <v>1969</v>
       </c>
       <c r="R104" s="6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="S104" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
@@ -8560,13 +8520,13 @@
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="I105" s="7">
         <v>0</v>
@@ -8576,36 +8536,36 @@
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>1562039</v>
+        <v>1633878</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O105" s="6" t="s">
-        <v>641</v>
+        <v>87</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>643</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="Q105" s="6">
-        <v>2012</v>
-      </c>
-      <c r="R105" s="6">
-        <v>20</v>
+        <v>2011</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="S105" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6" t="s">
@@ -8613,13 +8573,13 @@
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I106" s="7">
         <v>0</v>
@@ -8629,36 +8589,36 @@
       </c>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>1562065</v>
+        <v>1416349</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="O106" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="Q106" s="6">
-        <v>2012</v>
-      </c>
-      <c r="R106" s="6">
-        <v>2</v>
+        <v>2013</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="S106" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6" t="s">
@@ -8682,10 +8642,10 @@
       </c>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>1562066</v>
+        <v>1562038</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N107" s="6" t="s">
         <v>46</v>
@@ -8700,18 +8660,18 @@
         <v>2013</v>
       </c>
       <c r="R107" s="6">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="S107" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
@@ -8722,10 +8682,10 @@
         <v>261</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="I108" s="7">
         <v>0</v>
@@ -8735,10 +8695,10 @@
       </c>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>1281454</v>
+        <v>1562039</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="N108" s="6" t="s">
         <v>46</v>
@@ -8747,42 +8707,38 @@
         <v>641</v>
       </c>
       <c r="P108" s="6" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="Q108" s="6">
-        <v>2008</v>
-      </c>
-      <c r="R108" s="6" t="s">
-        <v>7</v>
+        <v>2012</v>
+      </c>
+      <c r="R108" s="6">
+        <v>20</v>
       </c>
       <c r="S108" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>302</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>303</v>
-      </c>
+      <c r="E109" s="6"/>
       <c r="F109" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="I109" s="7">
         <v>0</v>
@@ -8792,48 +8748,50 @@
       </c>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>11103</v>
+        <v>1562065</v>
       </c>
       <c r="M109" s="10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O109" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>641</v>
+      </c>
       <c r="P109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R109" s="6" t="s">
-        <v>7</v>
+        <v>295</v>
+      </c>
+      <c r="Q109" s="6">
+        <v>2012</v>
+      </c>
+      <c r="R109" s="6">
+        <v>2</v>
       </c>
       <c r="S109" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" ht="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>557</v>
+        <v>496</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="I110" s="7">
         <v>0</v>
@@ -8843,10 +8801,10 @@
       </c>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>1307803</v>
+        <v>1562066</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="N110" s="6" t="s">
         <v>46</v>
@@ -8855,40 +8813,38 @@
         <v>641</v>
       </c>
       <c r="P110" s="6" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="Q110" s="6">
-        <v>2011</v>
-      </c>
-      <c r="R110" s="6" t="s">
-        <v>7</v>
+        <v>2013</v>
+      </c>
+      <c r="R110" s="6">
+        <v>30</v>
       </c>
       <c r="S110" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>557</v>
+        <v>197</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6" t="s">
+        <v>496</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="I111" s="7">
         <v>0</v>
@@ -8898,20 +8854,22 @@
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>54290</v>
+        <v>1281454</v>
       </c>
       <c r="M111" s="10" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O111" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="O111" s="6" t="s">
+        <v>641</v>
+      </c>
       <c r="P111" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q111" s="6" t="s">
-        <v>7</v>
+      <c r="Q111" s="6">
+        <v>2008</v>
       </c>
       <c r="R111" s="6" t="s">
         <v>7</v>
@@ -8920,28 +8878,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="18">
+    <row r="112" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>585</v>
+        <v>302</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E112" s="6"/>
+        <v>496</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="F112" s="5" t="s">
         <v>250</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="I112" s="7">
         <v>0</v>
@@ -8951,52 +8911,48 @@
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>1729141</v>
+        <v>11103</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O112" s="6" t="s">
-        <v>641</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O112" s="6"/>
       <c r="P112" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q112" s="6">
-        <v>2008</v>
-      </c>
-      <c r="R112" s="6">
-        <v>28</v>
+      <c r="Q112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="S112" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" ht="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D113" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6" t="s">
         <v>557</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="5" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="I113" s="7">
         <v>0</v>
@@ -9006,20 +8962,22 @@
       </c>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>1307800</v>
+        <v>1307803</v>
       </c>
       <c r="M113" s="10" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O113" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>641</v>
+      </c>
       <c r="P113" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q113" s="6" t="s">
-        <v>7</v>
+      <c r="Q113" s="6">
+        <v>2011</v>
       </c>
       <c r="R113" s="6" t="s">
         <v>7</v>
@@ -9028,26 +8986,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="18">
+    <row r="114" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>557</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="5" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="I114" s="7">
         <v>0</v>
@@ -9057,22 +9017,20 @@
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>1321391</v>
+        <v>54290</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O114" s="6" t="s">
-        <v>641</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O114" s="6"/>
       <c r="P114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q114" s="6">
-        <v>2008</v>
+      <c r="Q114" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="R114" s="6" t="s">
         <v>7</v>
@@ -9081,14 +9039,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="18">
+    <row r="115" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C115" s="6"/>
+        <v>232</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="D115" s="6" t="s">
         <v>557</v>
       </c>
@@ -9097,10 +9057,10 @@
         <v>250</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="I115" s="7">
         <v>0</v>
@@ -9110,35 +9070,194 @@
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
+        <v>1729141</v>
+      </c>
+      <c r="M115" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O115" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="P115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q115" s="6">
+        <v>2008</v>
+      </c>
+      <c r="R115" s="6">
+        <v>28</v>
+      </c>
+      <c r="S115" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K116" s="8"/>
+      <c r="L116" s="9">
+        <v>1307800</v>
+      </c>
+      <c r="M116" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S116" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K117" s="8"/>
+      <c r="L117" s="9">
+        <v>1321391</v>
+      </c>
+      <c r="M117" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O117" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="P117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q117" s="6">
+        <v>2008</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S117" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I118" s="7">
+        <v>0</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K118" s="8"/>
+      <c r="L118" s="9">
         <v>1454041</v>
       </c>
-      <c r="M115" s="10" t="s">
+      <c r="M118" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N115" s="6" t="s">
+      <c r="N118" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O115" s="8" t="s">
+      <c r="O118" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="P115" s="6" t="s">
+      <c r="P118" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="Q115" s="6">
+      <c r="Q118" s="6">
         <v>2010</v>
       </c>
-      <c r="R115" s="6">
+      <c r="R118" s="6">
         <v>15</v>
       </c>
-      <c r="S115" s="6" t="s">
+      <c r="S118" s="6" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:S111">
-    <sortCondition ref="D2:D111"/>
-    <sortCondition ref="E2:E111"/>
-    <sortCondition ref="B2:B111"/>
+  <sortState ref="A2:S114">
+    <sortCondition ref="D2:D114"/>
+    <sortCondition ref="E2:E114"/>
+    <sortCondition ref="B2:B114"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66A300D-25FB-AC40-A72A-74B6062F6D57}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14C0E6-0F0E-1C4D-B893-57CA73FA2D8A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="460" windowWidth="19820" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$K$121</definedName>
+  </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="620">
   <si>
     <t>AY632538</t>
   </si>
@@ -771,9 +774,6 @@
     <t>NC_004119</t>
   </si>
   <si>
-    <t>NC_004355</t>
-  </si>
-  <si>
     <t>NC_005039</t>
   </si>
   <si>
@@ -1473,9 +1473,6 @@
     <t>cISF</t>
   </si>
   <si>
-    <t>NKV</t>
-  </si>
-  <si>
     <t>NKV1</t>
   </si>
   <si>
@@ -1488,15 +1485,9 @@
     <t>dISF1</t>
   </si>
   <si>
-    <t>MosqVert</t>
-  </si>
-  <si>
     <t>dISF2</t>
   </si>
   <si>
-    <t>dISF</t>
-  </si>
-  <si>
     <t>JEV</t>
   </si>
   <si>
@@ -1771,13 +1762,162 @@
   </si>
   <si>
     <t>Gentiana</t>
+  </si>
+  <si>
+    <t>Mosq1</t>
+  </si>
+  <si>
+    <t>Mosq2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Nematode</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>NC_028370</t>
+  </si>
+  <si>
+    <t>NC_028367</t>
+  </si>
+  <si>
+    <t>NC_028375</t>
+  </si>
+  <si>
+    <t>Shayang fly virus 4</t>
+  </si>
+  <si>
+    <t>Tacheng tick virus 8</t>
+  </si>
+  <si>
+    <t>Xingshan cricket virus</t>
+  </si>
+  <si>
+    <t>Velarifictorus micado</t>
+  </si>
+  <si>
+    <t>Velarifictorus</t>
+  </si>
+  <si>
+    <t>Dermacentor marginatus</t>
+  </si>
+  <si>
+    <t>Dermacentor</t>
+  </si>
+  <si>
+    <t>Musca domestica</t>
+  </si>
+  <si>
+    <t>Musca</t>
+  </si>
+  <si>
+    <t>Culex?</t>
+  </si>
+  <si>
+    <t>Culex nigripalpus</t>
+  </si>
+  <si>
+    <t>Aedes sp</t>
+  </si>
+  <si>
+    <t>Aedes, Anopheles, Mansonia</t>
+  </si>
+  <si>
+    <t>Aedes, Anopheles, and Mansonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aedes </t>
+  </si>
+  <si>
+    <t>Aedes aegypti, Aedes albopictus</t>
+  </si>
+  <si>
+    <t>Ornithodoros savignyi</t>
+  </si>
+  <si>
+    <t>NC_004355*</t>
+  </si>
+  <si>
+    <t>* removed from NCBI</t>
+  </si>
+  <si>
+    <r>
+      <t>Dermacentor reticulates,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ixodes spp</t>
+    </r>
+  </si>
+  <si>
+    <t>Dermacentor, Ixodes</t>
+  </si>
+  <si>
+    <t>Ixodes scapularis, Ixodes cookei, Hemaphysalis longicornis</t>
+  </si>
+  <si>
+    <t>Ixodes, Hemaphysalis</t>
+  </si>
+  <si>
+    <t>Ixodes ricinus</t>
+  </si>
+  <si>
+    <t>Ixodes ricinus, Ixodes persulcatus,  Ixodes ovatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1831,8 +1971,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1923,6 +2078,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2078,7 +2239,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2185,6 +2346,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2666,18 +2832,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" customWidth="1"/>
@@ -2702,10 +2869,10 @@
         <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>211</v>
@@ -2714,1444 +2881,1522 @@
         <v>210</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
-        <v>554</v>
+      <c r="A2" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>523</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I5" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="J5" s="10">
+        <v>178</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
-        <v>563</v>
+      <c r="A7" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>523</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>513</v>
+        <v>387</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="10">
+        <v>56</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
-        <v>565</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="10" t="s">
-        <v>346</v>
+        <v>30</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>415</v>
+      <c r="A19" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>523</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" s="10">
-        <v>178</v>
+        <v>82</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="A20" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="10" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>527</v>
+      <c r="A21" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>524</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="H21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>82</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F22" s="29" t="s">
+      <c r="A22" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="K26" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="6" t="s">
+      <c r="I27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="10">
-        <v>56</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
     <row r="28" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>415</v>
+      <c r="A28" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>531</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>136</v>
+        <v>405</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>527</v>
+      <c r="A29" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>532</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H29" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="10" t="s">
-        <v>22</v>
+        <v>441</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>531</v>
+      <c r="A30" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>523</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="10" t="s">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>569</v>
+      <c r="A31" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>523</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>568</v>
+        <v>121</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="10" t="s">
-        <v>30</v>
+      <c r="I31" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="J31" s="10">
+        <v>16681</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="34" t="s">
+      <c r="A32" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="F32" s="34" t="s">
-        <v>527</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="10" t="s">
+    </row>
+    <row r="33" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>606</v>
+      </c>
       <c r="J33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>494</v>
+        <v>1</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>527</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>573</v>
+      <c r="A34" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>573</v>
-      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="10" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>415</v>
+      <c r="A35" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>533</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="10" t="s">
-        <v>434</v>
+        <v>1</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="34" t="s">
+      <c r="A36" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>533</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="10" t="s">
-        <v>307</v>
+        <v>412</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>134</v>
+      <c r="A38" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>415</v>
+        <v>534</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="H38" s="10"/>
       <c r="I38" s="7"/>
       <c r="J38" s="10" t="s">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>198</v>
+      <c r="A39" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>1</v>
+        <v>342</v>
       </c>
       <c r="D39" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>527</v>
+        <v>414</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>88</v>
+      <c r="I39" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>72</v>
+      <c r="A40" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>456</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>313</v>
+        <v>457</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F40" s="43"/>
+        <v>578</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>414</v>
+      </c>
       <c r="G40" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="10"/>
+        <v>343</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="10" t="s">
-        <v>314</v>
+        <v>458</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>415</v>
+        <v>75</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>528</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="10" t="s">
-        <v>13</v>
+        <v>321</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>460</v>
+      <c r="A42" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>144</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="D42" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="H42" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="10" t="s">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>404</v>
+      <c r="A43" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>69</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>405</v>
+        <v>302</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="H43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="6"/>
+      <c r="I43" s="7" t="s">
+        <v>606</v>
+      </c>
       <c r="J43" s="10" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>176</v>
+        <v>452</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="10" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="D45" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F45" s="43"/>
+        <v>578</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>414</v>
+      </c>
       <c r="G45" s="6" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="7" t="s">
+        <v>605</v>
+      </c>
       <c r="J45" s="10" t="s">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>97</v>
+      <c r="A46" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F46" s="43"/>
+        <v>578</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>523</v>
+      </c>
       <c r="G46" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>82</v>
       </c>
       <c r="I46" s="7"/>
-      <c r="J46" s="10">
-        <v>16681</v>
+      <c r="J46" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>492</v>
@@ -4159,1991 +4404,2000 @@
     </row>
     <row r="47" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F47" s="43"/>
+        <v>578</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>571</v>
+      </c>
       <c r="G47" s="6" t="s">
-        <v>1</v>
+        <v>570</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="7"/>
+      <c r="I47" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="J47" s="10" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="K47" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
     <row r="49" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>187</v>
+      <c r="A49" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>527</v>
+        <v>414</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H49" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="10" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>68</v>
+      <c r="A50" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="D50" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="H50" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="7"/>
+      <c r="I50" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="J50" s="10" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>130</v>
+      <c r="A51" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>407</v>
+        <v>314</v>
       </c>
       <c r="D51" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>537</v>
+        <v>414</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="H51" s="10"/>
       <c r="I51" s="7"/>
       <c r="J51" s="10" t="s">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>490</v>
+        <v>408</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F52" s="43"/>
+        <v>578</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>607</v>
+      </c>
       <c r="G52" s="6" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="6" t="s">
-        <v>492</v>
+        <v>608</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>468</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>527</v>
+      <c r="A53" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>414</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>469</v>
+        <v>121</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="7"/>
       <c r="J53" s="10" t="s">
-        <v>470</v>
+        <v>313</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>527</v>
+      <c r="A54" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>530</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="H54" s="10"/>
       <c r="I54" s="7"/>
       <c r="J54" s="10" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="D55" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>538</v>
+      <c r="A55" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>523</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H55" s="10"/>
+        <v>332</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="I55" s="7"/>
       <c r="J55" s="10" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>528</v>
+      <c r="A56" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>540</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>82</v>
+        <v>398</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>493</v>
+        <v>399</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>528</v>
+      <c r="A57" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>523</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="H57" s="10"/>
       <c r="I57" s="7"/>
       <c r="J57" s="10" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F58" s="43"/>
+      <c r="A58" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>534</v>
+      </c>
       <c r="G58" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>344</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="7"/>
       <c r="J58" s="10" t="s">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>457</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>415</v>
+      <c r="A59" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>526</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I59" s="7"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="10" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>428</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F60" s="43"/>
+      <c r="A60" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>523</v>
+      </c>
       <c r="G60" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="H60" s="10"/>
       <c r="I60" s="7"/>
       <c r="J60" s="10" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F61" s="43"/>
+      <c r="A61" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>535</v>
+      </c>
       <c r="G61" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="10" t="s">
-        <v>304</v>
+        <v>419</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F62" s="43" t="s">
+      <c r="A62" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H62" s="10"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>530</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A64" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>452</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>530</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A65" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F65" s="43"/>
-      <c r="G65" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="10" t="s">
+      <c r="G66" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J67" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K65" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>527</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="B67" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>424</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>575</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>425</v>
-      </c>
       <c r="K67" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F68" s="43"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>540</v>
+      </c>
       <c r="G68" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I68" s="7"/>
+        <v>367</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="J68" s="10" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>466</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>527</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="F69" s="52" t="s">
+        <v>541</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="H69" s="10"/>
+        <v>177</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="I69" s="7"/>
       <c r="J69" s="10" t="s">
-        <v>1</v>
+        <v>444</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A70" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="D70" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E70" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>415</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="49" t="s">
+        <v>612</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>548</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="H70" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H70" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="10" t="s">
-        <v>391</v>
+      <c r="I70" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="J70" s="10">
+        <v>1176</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A71" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="B71" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>539</v>
+        <v>488</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="H71" s="10"/>
       <c r="I71" s="7"/>
       <c r="J71" s="10" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="B72" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F72" s="43"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>547</v>
+      </c>
       <c r="G72" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="H72" s="10"/>
       <c r="I72" s="7"/>
       <c r="J72" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="D73" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>415</v>
+        <v>477</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>546</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H73" s="10"/>
-      <c r="I73" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="J73" s="10" t="s">
-        <v>317</v>
+        <v>1</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A74" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="B74" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F74" s="43"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>548</v>
+      </c>
       <c r="G74" s="6" t="s">
-        <v>1</v>
+        <v>392</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="10" t="s">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="B75" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="D75" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E75" s="43" t="s">
-        <v>487</v>
-      </c>
-      <c r="F75" s="43"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>549</v>
+      </c>
       <c r="G75" s="6" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>540</v>
+        <v>1</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>203</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I76" s="7"/>
       <c r="J76" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K76" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E77" s="13" t="s">
+      <c r="K77" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E78" s="13" t="s">
+      <c r="F78" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E79" s="13" t="s">
+      <c r="F79" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E80" s="14" t="s">
+      <c r="F80" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="F80" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>399</v>
+      <c r="F81" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>495</v>
+        <v>309</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A82" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="A82" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H82" s="19"/>
       <c r="I82" s="7"/>
-      <c r="J82" s="10" t="s">
+      <c r="J82" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="K82" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>577</v>
+      <c r="D83" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>552</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>576</v>
+        <v>180</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="10" t="s">
-        <v>385</v>
+        <v>50</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="B84" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="E84" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="F84" s="46" t="s">
+      <c r="A84" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F84" s="16" t="s">
         <v>546</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="H84" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I87" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J84" s="10" t="s">
+      <c r="J87" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="K84" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A85" s="48" t="s">
-        <v>515</v>
-      </c>
-      <c r="B85" s="46" t="s">
-        <v>518</v>
-      </c>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46" t="s">
-        <v>547</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
-        <v>516</v>
-      </c>
-      <c r="B86" s="46" t="s">
-        <v>519</v>
-      </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="H86" s="5"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A87" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="B87" s="46" t="s">
-        <v>522</v>
-      </c>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46" t="s">
-        <v>549</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="H87" s="5"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A88" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F88" s="16"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6" t="s">
+        <v>553</v>
+      </c>
       <c r="G88" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H88" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I88" s="7"/>
-      <c r="J88" s="10">
-        <v>1176</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>492</v>
+        <v>138</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A89" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>550</v>
+      <c r="A89" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H89" s="10"/>
-      <c r="I89" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="J89" s="10" t="s">
-        <v>475</v>
+        <v>1</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A90" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>551</v>
+      <c r="A90" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6" t="s">
+        <v>555</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="H90" s="10"/>
-      <c r="I90" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="J90" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>495</v>
+        <v>45</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A91" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>550</v>
+      <c r="A91" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6" t="s">
+        <v>555</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>157</v>
+        <v>203</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="J91" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K91" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A92" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I92" s="7"/>
-      <c r="J92" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="7"/>
-      <c r="J93" s="10" t="s">
+      <c r="H96" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J96" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K93" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A94" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I94" s="7"/>
-      <c r="J94" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I95" s="7"/>
-      <c r="J95" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A96" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I96" s="7"/>
-      <c r="J96" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>494</v>
-      </c>
+      <c r="K96" s="6"/>
     </row>
     <row r="97" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F97" s="16"/>
+      <c r="A97" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
       <c r="G97" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I97" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="J97" s="10" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A98" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F98" s="16"/>
+      <c r="A98" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
       <c r="G98" s="6" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I98" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="J98" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>493</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K98" s="6"/>
     </row>
     <row r="99" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A99" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>309</v>
+      <c r="A99" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I99" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="J99" s="10" t="s">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="19" t="s">
-        <v>480</v>
+      <c r="A100" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="K100" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C101" s="25"/>
+      <c r="D101" s="26" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="D101" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F101" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I101" s="7"/>
-      <c r="J101" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>494</v>
-      </c>
+      <c r="E101" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F101" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="9"/>
     </row>
     <row r="102" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A102" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F102" s="16"/>
+      <c r="A102" s="50" t="s">
+        <v>594</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>603</v>
+      </c>
       <c r="G102" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I102" s="7"/>
-      <c r="J102" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>494</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="6"/>
     </row>
     <row r="103" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A103" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="F103" s="16"/>
-      <c r="G103" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H103" s="10"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>492</v>
+      <c r="A103" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C103" s="25"/>
+      <c r="D103" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>550</v>
+      <c r="A104" s="50" t="s">
+        <v>593</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>601</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J104" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>494</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="6"/>
     </row>
     <row r="105" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6" t="s">
-        <v>557</v>
+      <c r="A105" s="50" t="s">
+        <v>592</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>599</v>
       </c>
       <c r="G105" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="9"/>
+    </row>
+    <row r="107" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H107" s="8"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="9"/>
+    </row>
+    <row r="108" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I108" s="7"/>
+      <c r="J108" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="G109" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J105" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J106" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J107" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J108" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>203</v>
@@ -6152,29 +6406,31 @@
         <v>203</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>493</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K109" s="6"/>
     </row>
     <row r="110" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6" t="s">
-        <v>559</v>
+      <c r="A110" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>553</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>203</v>
@@ -6183,29 +6439,33 @@
         <v>203</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>47</v>
+        <v>361</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6" t="s">
-        <v>542</v>
+      <c r="A111" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>558</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>203</v>
@@ -6214,31 +6474,29 @@
         <v>203</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>493</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="K111" s="6"/>
     </row>
     <row r="112" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F112" s="6"/>
+      <c r="A112" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>550</v>
+      </c>
       <c r="G112" s="6" t="s">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>203</v>
@@ -6247,27 +6505,31 @@
         <v>203</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>24</v>
+        <v>371</v>
       </c>
       <c r="K112" s="6"/>
     </row>
     <row r="113" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6" t="s">
-        <v>558</v>
+      <c r="A113" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>561</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>167</v>
+        <v>508</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>203</v>
@@ -6276,29 +6538,31 @@
         <v>203</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
+      <c r="A114" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>558</v>
+      </c>
       <c r="G114" s="6" t="s">
-        <v>1</v>
+        <v>510</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>203</v>
@@ -6307,27 +6571,31 @@
         <v>203</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K114" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
+      <c r="A115" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>560</v>
+      </c>
       <c r="G115" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>203</v>
@@ -6336,29 +6604,33 @@
         <v>203</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>493</v>
+        <v>23</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
+      <c r="A116" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>553</v>
+      </c>
       <c r="G116" s="6" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>203</v>
@@ -6369,25 +6641,29 @@
       <c r="J116" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K116" s="6"/>
+      <c r="K116" s="6" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6" t="s">
-        <v>560</v>
+      <c r="A117" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>550</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>203</v>
@@ -6396,48 +6672,115 @@
         <v>203</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6" t="s">
-        <v>561</v>
+      <c r="A118" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="E118" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="F118" s="46" t="s">
+        <v>542</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I118" s="5" t="s">
+      <c r="I118" s="7" t="s">
         <v>203</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>495</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="B119" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="C119" s="46"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="46"/>
+      <c r="F119" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="B120" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="H120" s="5"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="B121" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="H121" s="5"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K114">
-    <sortCondition ref="D2:D114"/>
-    <sortCondition ref="E2:E114"/>
-    <sortCondition ref="B2:B114"/>
+  <sortState ref="A2:K121">
+    <sortCondition ref="D2:D121"/>
+    <sortCondition ref="E2:E121"/>
+    <sortCondition ref="B2:B121"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14C0E6-0F0E-1C4D-B893-57CA73FA2D8A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6DCE50-C813-024E-A3C6-211C8306F1D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="460" windowWidth="19820" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2835,8 +2835,8 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3344,7 +3344,7 @@
         <v>194</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>523</v>
@@ -3377,7 +3377,7 @@
         <v>194</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>527</v>
@@ -3410,7 +3410,7 @@
         <v>194</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>414</v>
@@ -3445,7 +3445,7 @@
         <v>194</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>565</v>
@@ -3477,8 +3477,8 @@
       <c r="D19" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>485</v>
+      <c r="E19" s="36" t="s">
+        <v>484</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>523</v>
@@ -3511,7 +3511,7 @@
         <v>194</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>568</v>
@@ -3544,7 +3544,7 @@
         <v>194</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>524</v>
@@ -3577,7 +3577,7 @@
         <v>194</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>523</v>
@@ -3612,7 +3612,7 @@
         <v>194</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>524</v>
@@ -3645,7 +3645,7 @@
         <v>194</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>414</v>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6DCE50-C813-024E-A3C6-211C8306F1D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B94082-28F5-A547-B5A6-00C5370B4FB7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="460" windowWidth="19820" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="638">
   <si>
     <t>AY632538</t>
   </si>
@@ -1911,6 +1911,60 @@
   </si>
   <si>
     <t>Ixodes ricinus, Ixodes persulcatus,  Ixodes ovatus</t>
+  </si>
+  <si>
+    <t>KM521552</t>
+  </si>
+  <si>
+    <t>KX883002</t>
+  </si>
+  <si>
+    <t>KR902721</t>
+  </si>
+  <si>
+    <t>MH158415</t>
+  </si>
+  <si>
+    <t>KJ001579</t>
+  </si>
+  <si>
+    <t>Jingmen tick virus</t>
+  </si>
+  <si>
+    <t>JMTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guaico Culex virus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changjiang Jingmen-like virus </t>
+  </si>
+  <si>
+    <t>Wuhan Aphid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alongshan virus </t>
+  </si>
+  <si>
+    <t>Culex interrogator</t>
+  </si>
+  <si>
+    <t>Procambarus</t>
+  </si>
+  <si>
+    <t>Hyalopterus pruni</t>
+  </si>
+  <si>
+    <t>Hyalopterus</t>
+  </si>
+  <si>
+    <t>Rhipicephalus microplus</t>
+  </si>
+  <si>
+    <t>Procambarus clarkii</t>
+  </si>
+  <si>
+    <t>Ixodes persulcatus</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +2041,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2084,6 +2138,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2239,7 +2299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2351,6 +2411,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2832,11 +2894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6721,8 +6783,12 @@
         <v>518</v>
       </c>
       <c r="C119" s="46"/>
-      <c r="D119" s="46"/>
-      <c r="E119" s="46"/>
+      <c r="D119" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="E119" s="46" t="s">
+        <v>377</v>
+      </c>
       <c r="F119" s="46" t="s">
         <v>545</v>
       </c>
@@ -6742,8 +6808,12 @@
         <v>514</v>
       </c>
       <c r="C120" s="46"/>
-      <c r="D120" s="46"/>
-      <c r="E120" s="46"/>
+      <c r="D120" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="E120" s="46" t="s">
+        <v>377</v>
+      </c>
       <c r="F120" s="46" t="s">
         <v>543</v>
       </c>
@@ -6763,8 +6833,12 @@
         <v>515</v>
       </c>
       <c r="C121" s="46"/>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
+      <c r="D121" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="E121" s="46" t="s">
+        <v>377</v>
+      </c>
       <c r="F121" s="46" t="s">
         <v>544</v>
       </c>
@@ -6775,6 +6849,113 @@
       <c r="I121" s="7"/>
       <c r="J121" s="10"/>
       <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A122" s="53" t="s">
+        <v>620</v>
+      </c>
+      <c r="B122" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="E122" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="F122" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>628</v>
+      </c>
+      <c r="C123" s="54"/>
+      <c r="D123" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="E123" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="F123" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A124" s="53" t="s">
+        <v>622</v>
+      </c>
+      <c r="B124" s="54" t="s">
+        <v>629</v>
+      </c>
+      <c r="C124" s="54"/>
+      <c r="D124" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="E124" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="F124" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A125" s="53" t="s">
+        <v>623</v>
+      </c>
+      <c r="B125" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="C125" s="54"/>
+      <c r="D125" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="E125" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="F125" s="54" t="s">
+        <v>546</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A126" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="B126" s="54" t="s">
+        <v>625</v>
+      </c>
+      <c r="C126" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="D126" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="E126" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="F126" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>635</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:K121">

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B94082-28F5-A547-B5A6-00C5370B4FB7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C6838B-1D19-4D49-89D2-BD96A7F42164}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="460" windowWidth="19820" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1477,9 +1477,6 @@
   </si>
   <si>
     <t>NKV2</t>
-  </si>
-  <si>
-    <t>TickVert</t>
   </si>
   <si>
     <t>dISF1</t>
@@ -1965,6 +1962,9 @@
   </si>
   <si>
     <t>Ixodes persulcatus</t>
+  </si>
+  <si>
+    <t>Tick</t>
   </si>
 </sst>
 </file>
@@ -2897,14 +2897,15 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" customWidth="1"/>
@@ -2931,10 +2932,10 @@
         <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>211</v>
@@ -2943,10 +2944,10 @@
         <v>210</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -2966,7 +2967,7 @@
         <v>480</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>140</v>
@@ -2981,7 +2982,7 @@
         <v>422</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3001,7 +3002,7 @@
         <v>480</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>220</v>
@@ -3016,7 +3017,7 @@
         <v>354</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3049,7 +3050,7 @@
         <v>345</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3084,7 +3085,7 @@
         <v>178</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3104,7 +3105,7 @@
         <v>480</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>328</v>
@@ -3119,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3139,7 +3140,7 @@
         <v>480</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>387</v>
@@ -3152,7 +3153,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3187,7 +3188,7 @@
         <v>52</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3222,7 +3223,7 @@
         <v>33</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3242,7 +3243,7 @@
         <v>480</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>323</v>
@@ -3257,7 +3258,7 @@
         <v>324</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3290,7 +3291,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3310,7 +3311,7 @@
         <v>480</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>86</v>
@@ -3323,7 +3324,7 @@
         <v>56</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3343,7 +3344,7 @@
         <v>480</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>447</v>
@@ -3356,7 +3357,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3389,7 +3390,7 @@
         <v>27</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3406,10 +3407,10 @@
         <v>194</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>341</v>
@@ -3422,7 +3423,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3439,10 +3440,10 @@
         <v>194</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>185</v>
@@ -3455,7 +3456,7 @@
         <v>54</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3472,7 +3473,7 @@
         <v>194</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>414</v>
@@ -3490,7 +3491,7 @@
         <v>13</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3507,13 +3508,13 @@
         <v>194</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>82</v>
@@ -3523,7 +3524,7 @@
         <v>30</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3540,10 +3541,10 @@
         <v>194</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>88</v>
@@ -3556,7 +3557,7 @@
         <v>29</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3564,7 +3565,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>436</v>
@@ -3573,13 +3574,13 @@
         <v>194</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>82</v>
@@ -3589,7 +3590,7 @@
         <v>42</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3606,10 +3607,10 @@
         <v>194</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>92</v>
@@ -3622,7 +3623,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3639,25 +3640,25 @@
         <v>194</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>82</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3674,10 +3675,10 @@
         <v>194</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>91</v>
@@ -3690,7 +3691,7 @@
         <v>338</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3707,7 +3708,7 @@
         <v>194</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>414</v>
@@ -3723,7 +3724,7 @@
         <v>433</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3740,10 +3741,10 @@
         <v>194</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>305</v>
@@ -3756,7 +3757,7 @@
         <v>306</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3773,7 +3774,7 @@
         <v>194</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F26" s="43" t="s">
         <v>414</v>
@@ -3789,7 +3790,7 @@
         <v>415</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3806,10 +3807,10 @@
         <v>194</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>88</v>
@@ -3824,7 +3825,7 @@
         <v>334</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3841,10 +3842,10 @@
         <v>194</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>405</v>
@@ -3857,7 +3858,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3874,10 +3875,10 @@
         <v>194</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>176</v>
@@ -3890,7 +3891,7 @@
         <v>441</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3907,10 +3908,10 @@
         <v>194</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>1</v>
@@ -3923,7 +3924,7 @@
         <v>351</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3940,10 +3941,10 @@
         <v>194</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>121</v>
@@ -3952,13 +3953,13 @@
         <v>82</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J31" s="10">
         <v>16681</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -3975,10 +3976,10 @@
         <v>194</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>1</v>
@@ -3987,13 +3988,13 @@
         <v>82</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>349</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4010,10 +4011,10 @@
         <v>194</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>1</v>
@@ -4022,13 +4023,13 @@
         <v>82</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4045,7 +4046,7 @@
         <v>194</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>200</v>
@@ -4061,7 +4062,7 @@
         <v>301</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4078,10 +4079,10 @@
         <v>194</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>407</v>
@@ -4094,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4105,13 +4106,13 @@
         <v>95</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D36" s="43" t="s">
         <v>194</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F36" s="43" t="s">
         <v>414</v>
@@ -4127,7 +4128,7 @@
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4144,10 +4145,10 @@
         <v>194</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>411</v>
@@ -4160,7 +4161,7 @@
         <v>412</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4177,10 +4178,10 @@
         <v>194</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>318</v>
@@ -4191,7 +4192,7 @@
         <v>319</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4208,7 +4209,7 @@
         <v>194</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>414</v>
@@ -4226,7 +4227,7 @@
         <v>344</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4243,7 +4244,7 @@
         <v>194</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F40" s="43" t="s">
         <v>414</v>
@@ -4259,7 +4260,7 @@
         <v>458</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4276,10 +4277,10 @@
         <v>194</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>76</v>
@@ -4292,7 +4293,7 @@
         <v>321</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4309,10 +4310,10 @@
         <v>194</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>1</v>
@@ -4325,7 +4326,7 @@
         <v>31</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4342,10 +4343,10 @@
         <v>194</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>121</v>
@@ -4354,13 +4355,13 @@
         <v>82</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>303</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4377,10 +4378,10 @@
         <v>194</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>452</v>
@@ -4393,7 +4394,7 @@
         <v>453</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4410,7 +4411,7 @@
         <v>194</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F45" s="43" t="s">
         <v>414</v>
@@ -4422,13 +4423,13 @@
         <v>82</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4445,10 +4446,10 @@
         <v>194</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>332</v>
@@ -4461,7 +4462,7 @@
         <v>333</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4478,13 +4479,13 @@
         <v>194</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>82</v>
@@ -4496,7 +4497,7 @@
         <v>424</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4513,10 +4514,10 @@
         <v>194</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>140</v>
@@ -4531,7 +4532,7 @@
         <v>335</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4548,7 +4549,7 @@
         <v>194</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F49" s="43" t="s">
         <v>414</v>
@@ -4564,7 +4565,7 @@
         <v>390</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4581,7 +4582,7 @@
         <v>194</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F50" s="43" t="s">
         <v>414</v>
@@ -4599,7 +4600,7 @@
         <v>352</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4616,7 +4617,7 @@
         <v>194</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F51" s="43" t="s">
         <v>414</v>
@@ -4630,7 +4631,7 @@
         <v>316</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4647,10 +4648,10 @@
         <v>194</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>132</v>
@@ -4659,13 +4660,13 @@
         <v>82</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>409</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4682,7 +4683,7 @@
         <v>194</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>414</v>
@@ -4696,7 +4697,7 @@
         <v>313</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4713,10 +4714,10 @@
         <v>194</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>461</v>
@@ -4727,7 +4728,7 @@
         <v>462</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4744,10 +4745,10 @@
         <v>194</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>332</v>
@@ -4760,7 +4761,7 @@
         <v>455</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4777,10 +4778,10 @@
         <v>194</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>398</v>
@@ -4793,7 +4794,7 @@
         <v>399</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4810,10 +4811,10 @@
         <v>194</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>468</v>
@@ -4824,7 +4825,7 @@
         <v>469</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4841,10 +4842,10 @@
         <v>194</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>318</v>
@@ -4855,7 +4856,7 @@
         <v>464</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4872,10 +4873,10 @@
         <v>194</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>401</v>
@@ -4888,7 +4889,7 @@
         <v>402</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4905,10 +4906,10 @@
         <v>194</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>466</v>
@@ -4919,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4936,10 +4937,10 @@
         <v>194</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>418</v>
@@ -4952,7 +4953,7 @@
         <v>419</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4969,25 +4970,25 @@
         <v>194</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5004,13 +5005,13 @@
         <v>194</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>200</v>
@@ -5020,7 +5021,7 @@
         <v>384</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5040,7 +5041,7 @@
         <v>481</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>370</v>
@@ -5055,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5075,7 +5076,7 @@
         <v>481</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>174</v>
@@ -5090,7 +5091,7 @@
         <v>439</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5110,7 +5111,7 @@
         <v>481</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>150</v>
@@ -5125,7 +5126,7 @@
         <v>365</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5145,7 +5146,7 @@
         <v>481</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>381</v>
@@ -5160,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5180,7 +5181,7 @@
         <v>481</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>367</v>
@@ -5195,7 +5196,7 @@
         <v>368</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5215,7 +5216,7 @@
         <v>482</v>
       </c>
       <c r="F69" s="52" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>177</v>
@@ -5228,12 +5229,12 @@
         <v>444</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>120</v>
@@ -5245,10 +5246,10 @@
         <v>194</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>121</v>
@@ -5257,16 +5258,16 @@
         <v>82</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J70" s="10">
         <v>1176</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5283,10 +5284,10 @@
         <v>194</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>155</v>
@@ -5297,7 +5298,7 @@
         <v>474</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5314,10 +5315,10 @@
         <v>194</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>476</v>
@@ -5328,7 +5329,7 @@
         <v>477</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5345,10 +5346,10 @@
         <v>194</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>157</v>
@@ -5363,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5380,10 +5381,10 @@
         <v>194</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>392</v>
@@ -5396,7 +5397,7 @@
         <v>393</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5413,10 +5414,10 @@
         <v>194</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>80</v>
@@ -5429,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5446,10 +5447,10 @@
         <v>194</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>375</v>
@@ -5462,7 +5463,7 @@
         <v>376</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5479,10 +5480,10 @@
         <v>194</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>358</v>
@@ -5495,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5512,10 +5513,10 @@
         <v>194</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>471</v>
@@ -5528,7 +5529,7 @@
         <v>472</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5545,10 +5546,10 @@
         <v>194</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>121</v>
@@ -5557,13 +5558,13 @@
         <v>195</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J79" s="10" t="s">
         <v>386</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5580,10 +5581,10 @@
         <v>194</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>121</v>
@@ -5592,13 +5593,13 @@
         <v>195</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J80" s="10" t="s">
         <v>373</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5615,10 +5616,10 @@
         <v>194</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>308</v>
@@ -5631,7 +5632,7 @@
         <v>309</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5648,10 +5649,10 @@
         <v>194</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>219</v>
@@ -5662,7 +5663,7 @@
         <v>479</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5679,10 +5680,10 @@
         <v>194</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>180</v>
@@ -5695,7 +5696,7 @@
         <v>50</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5712,10 +5713,10 @@
         <v>194</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>1</v>
@@ -5724,13 +5725,13 @@
         <v>195</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J84" s="10" t="s">
         <v>356</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5747,10 +5748,10 @@
         <v>194</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>1</v>
@@ -5759,13 +5760,13 @@
         <v>195</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J85" s="10" t="s">
         <v>311</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5782,10 +5783,10 @@
         <v>194</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>155</v>
@@ -5800,7 +5801,7 @@
         <v>430</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5847,7 +5848,7 @@
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>138</v>
@@ -5862,7 +5863,7 @@
         <v>49</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5878,7 +5879,7 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>167</v>
@@ -5893,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5909,7 +5910,7 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>169</v>
@@ -5924,7 +5925,7 @@
         <v>45</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5940,7 +5941,7 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>169</v>
@@ -5955,7 +5956,7 @@
         <v>46</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -5971,7 +5972,7 @@
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>169</v>
@@ -5986,7 +5987,7 @@
         <v>48</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6002,7 +6003,7 @@
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>169</v>
@@ -6017,7 +6018,7 @@
         <v>47</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6033,7 +6034,7 @@
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>150</v>
@@ -6048,7 +6049,7 @@
         <v>34</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6064,7 +6065,7 @@
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>167</v>
@@ -6079,7 +6080,7 @@
         <v>32</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6139,7 +6140,7 @@
         <v>53</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6184,7 +6185,7 @@
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>152</v>
@@ -6199,7 +6200,7 @@
         <v>35</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6215,7 +6216,7 @@
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>164</v>
@@ -6230,28 +6231,28 @@
         <v>40</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C101" s="25"/>
       <c r="D101" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
@@ -6260,23 +6261,23 @@
     </row>
     <row r="102" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="50" t="s">
+        <v>593</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>594</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>595</v>
       </c>
       <c r="C102" s="24"/>
       <c r="D102" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -6285,44 +6286,44 @@
     </row>
     <row r="103" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C103" s="25"/>
       <c r="D103" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="50" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C104" s="24"/>
       <c r="D104" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -6331,23 +6332,23 @@
     </row>
     <row r="105" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="50" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -6356,25 +6357,25 @@
     </row>
     <row r="106" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="D106" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="B106" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>496</v>
-      </c>
       <c r="E106" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="9"/>
@@ -6383,25 +6384,25 @@
     </row>
     <row r="107" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B107" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="C107" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="C107" s="25" t="s">
-        <v>498</v>
-      </c>
       <c r="D107" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -6420,13 +6421,13 @@
         <v>336</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>200</v>
@@ -6436,7 +6437,7 @@
         <v>18</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6453,10 +6454,10 @@
         <v>336</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>138</v>
@@ -6486,10 +6487,10 @@
         <v>336</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>138</v>
@@ -6504,7 +6505,7 @@
         <v>361</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6521,13 +6522,13 @@
         <v>336</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>203</v>
@@ -6552,10 +6553,10 @@
         <v>336</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>221</v>
@@ -6585,13 +6586,13 @@
         <v>336</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>203</v>
@@ -6603,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6618,13 +6619,13 @@
         <v>336</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>203</v>
@@ -6636,7 +6637,7 @@
         <v>36</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6651,10 +6652,10 @@
         <v>336</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>113</v>
@@ -6669,7 +6670,7 @@
         <v>23</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6686,10 +6687,10 @@
         <v>336</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>138</v>
@@ -6704,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6719,10 +6720,10 @@
         <v>336</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>221</v>
@@ -6737,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -6757,7 +6758,7 @@
         <v>377</v>
       </c>
       <c r="F118" s="46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>118</v>
@@ -6772,15 +6773,15 @@
         <v>378</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B119" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C119" s="46"/>
       <c r="D119" s="46" t="s">
@@ -6790,10 +6791,10 @@
         <v>377</v>
       </c>
       <c r="F119" s="46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="7"/>
@@ -6802,10 +6803,10 @@
     </row>
     <row r="120" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C120" s="46"/>
       <c r="D120" s="46" t="s">
@@ -6815,10 +6816,10 @@
         <v>377</v>
       </c>
       <c r="F120" s="46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="7"/>
@@ -6827,10 +6828,10 @@
     </row>
     <row r="121" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B121" s="46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C121" s="46"/>
       <c r="D121" s="46" t="s">
@@ -6840,10 +6841,10 @@
         <v>377</v>
       </c>
       <c r="F121" s="46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="7"/>
@@ -6852,109 +6853,109 @@
     </row>
     <row r="122" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="53" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B122" s="54" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C122" s="54"/>
       <c r="D122" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E122" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F122" s="54" t="s">
         <v>414</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="53" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B123" s="54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C123" s="54"/>
       <c r="D123" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E123" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F123" s="54" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="53" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B124" s="54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C124" s="54"/>
       <c r="D124" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E124" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F124" s="54" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C125" s="54"/>
       <c r="D125" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E125" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F125" s="54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="53" t="s">
+        <v>623</v>
+      </c>
+      <c r="B126" s="54" t="s">
         <v>624</v>
       </c>
-      <c r="B126" s="54" t="s">
+      <c r="C126" s="54" t="s">
         <v>625</v>
       </c>
-      <c r="C126" s="54" t="s">
-        <v>626</v>
-      </c>
       <c r="D126" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E126" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F126" s="54" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA0DA80-FB9E-354E-83AF-7D826CF299C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="660" windowWidth="32040" windowHeight="23720" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$B$1:$K$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$B$1:$K$111</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="678">
   <si>
     <t>AY632538</t>
   </si>
@@ -52,9 +58,6 @@
     <t>EU159426</t>
   </si>
   <si>
-    <t>GQ165809</t>
-  </si>
-  <si>
     <t>HE574574</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>KM225265</t>
   </si>
   <si>
-    <t>Burdur/05-TR</t>
-  </si>
-  <si>
     <t>KY290249</t>
   </si>
   <si>
@@ -616,9 +616,6 @@
     <t>Culex theileri flavivirus</t>
   </si>
   <si>
-    <t>Pestivirus Burdur</t>
-  </si>
-  <si>
     <t>La Tina</t>
   </si>
   <si>
@@ -682,9 +679,6 @@
     <t>JF416960</t>
   </si>
   <si>
-    <t>KM408491</t>
-  </si>
-  <si>
     <t>NC_000943</t>
   </si>
   <si>
@@ -1525,9 +1519,6 @@
     <t>Antilocapra americana</t>
   </si>
   <si>
-    <t>Capra hircus</t>
-  </si>
-  <si>
     <t>Sus scrofa</t>
   </si>
   <si>
@@ -1591,9 +1582,6 @@
     <t>Tadarida</t>
   </si>
   <si>
-    <t>Vespertillo</t>
-  </si>
-  <si>
     <t>Pteronotus</t>
   </si>
   <si>
@@ -1633,9 +1621,6 @@
     <t>Sus</t>
   </si>
   <si>
-    <t>Capra</t>
-  </si>
-  <si>
     <t>Giraffa</t>
   </si>
   <si>
@@ -1672,9 +1657,6 @@
     <t>Miniopterus fuliginosus</t>
   </si>
   <si>
-    <t>Miniopterus</t>
-  </si>
-  <si>
     <t>Heterodera glycines</t>
   </si>
   <si>
@@ -1708,9 +1690,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -1864,9 +1843,6 @@
     <t>Aydin</t>
   </si>
   <si>
-    <t>Burdur</t>
-  </si>
-  <si>
     <t>NrPeV</t>
   </si>
   <si>
@@ -1942,9 +1918,6 @@
     <t>NC_004355</t>
   </si>
   <si>
-    <t>NK</t>
-  </si>
-  <si>
     <t>Tamanavirus</t>
   </si>
   <si>
@@ -1972,9 +1945,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>rodents?</t>
-  </si>
-  <si>
     <t>Ornithodoros</t>
   </si>
   <si>
@@ -1985,12 +1955,120 @@
   </si>
   <si>
     <t>Argas</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>mammals</t>
+  </si>
+  <si>
+    <t>NC_035071</t>
+  </si>
+  <si>
+    <t>Apis flavivirus</t>
+  </si>
+  <si>
+    <t>Apis</t>
+  </si>
+  <si>
+    <t>ApisV</t>
+  </si>
+  <si>
+    <t>Nanhai dogfish shark pestivirus</t>
+  </si>
+  <si>
+    <t>KP757924</t>
+  </si>
+  <si>
+    <t>Drosophila-associated Flavivirus-like 2</t>
+  </si>
+  <si>
+    <t>Shuangao insect virus 7</t>
+  </si>
+  <si>
+    <t>NC_028396</t>
+  </si>
+  <si>
+    <t>Culicidae</t>
+  </si>
+  <si>
+    <t>NC_030400</t>
+  </si>
+  <si>
+    <t>NC_031327</t>
+  </si>
+  <si>
+    <t>Anopheles flavivirus</t>
+  </si>
+  <si>
+    <t>bird/mammal</t>
+  </si>
+  <si>
+    <t>Batu Cave virus</t>
+  </si>
+  <si>
+    <t>KJ469370</t>
+  </si>
+  <si>
+    <t>Aedes?</t>
+  </si>
+  <si>
+    <t>marsupials</t>
+  </si>
+  <si>
+    <t>Uranotaenia?</t>
+  </si>
+  <si>
+    <t>BCV</t>
+  </si>
+  <si>
+    <t>ticks</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>Hemaphysalis</t>
+  </si>
+  <si>
+    <t>even-toad ungulates</t>
+  </si>
+  <si>
+    <t>Drosophila</t>
+  </si>
+  <si>
+    <t>Daflv</t>
+  </si>
+  <si>
+    <t>Siv7</t>
+  </si>
+  <si>
+    <t>Chrysopidae sp., Psychoda alternata, Dipterasp.</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>NC_038964</t>
+  </si>
+  <si>
+    <t>Atypical porcine pestivirus</t>
+  </si>
+  <si>
+    <t>APPeV</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>NdsPV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2820,9 +2898,6 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2842,6 +2917,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="481">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3660,19 +3736,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="57" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
@@ -3684,2069 +3760,2125 @@
     <col min="12" max="12" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1">
+        <v>477</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56">
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
+        <v>478</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56">
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1">
+        <v>477</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56">
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J5" s="10">
         <v>178</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1">
+        <v>479</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56">
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1">
+        <v>479</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56">
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1">
+        <v>480</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L8" s="60" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1">
+        <v>478</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56">
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1">
+        <v>477</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>9</v>
+        <v>654</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L10" s="60" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1">
+        <v>480</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56">
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L11" s="60" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1">
+        <v>480</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I12" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J12" s="10">
         <v>56</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1">
+        <v>481</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56">
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H13" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1">
+        <v>481</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56">
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
+        <v>14</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L16" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
+        <v>15</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="C17" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
+        <v>16</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L18" s="59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L21" s="59" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56">
+        <v>20</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L22" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56">
+        <v>21</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L23" s="59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56">
+        <v>22</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="G24" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="56">
+        <v>23</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56">
+        <v>24</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="L26" s="59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56">
+        <v>25</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L27" s="59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56">
+        <v>26</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>595</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="H28" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>643</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="L28" s="59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56">
         <v>27</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L14" s="60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1">
-      <c r="A15" s="56">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L15" s="60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1">
-      <c r="A16" s="56">
-        <v>15</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1">
-      <c r="A17" s="56">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33" t="s">
+      <c r="B29" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L29" s="59" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56">
         <v>28</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="H17" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="B30" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L30" s="59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56">
         <v>29</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L17" s="60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1">
-      <c r="A18" s="56">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>543</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1">
-      <c r="A19" s="56">
-        <v>18</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>513</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L19" s="60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1">
-      <c r="A20" s="56">
-        <v>19</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L20" s="60" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1">
-      <c r="A21" s="56">
-        <v>20</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>513</v>
-      </c>
-      <c r="H21" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L21" s="60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1">
-      <c r="A22" s="56">
-        <v>21</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L22" s="60" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1">
-      <c r="A23" s="56">
-        <v>22</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="H23" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I23" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L23" s="60" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1">
-      <c r="A24" s="56">
-        <v>23</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I24" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L24" s="60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1">
-      <c r="A25" s="56">
-        <v>24</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="59" t="s">
-        <v>639</v>
-      </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1">
-      <c r="A26" s="56">
-        <v>25</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L26" s="60" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1">
-      <c r="A27" s="56">
-        <v>26</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>604</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L27" s="60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1">
-      <c r="A28" s="56">
-        <v>27</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>398</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1">
-      <c r="A29" s="56">
-        <v>28</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L29" s="60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1">
-      <c r="A30" s="56">
-        <v>29</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="64" t="s">
-        <v>643</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="L30" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1">
-      <c r="A31" s="56">
-        <v>30</v>
-      </c>
       <c r="B31" s="42" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>97</v>
       </c>
       <c r="D31" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="J31" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="E31" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="H31" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="64" t="s">
-        <v>643</v>
-      </c>
-      <c r="J31" s="10">
+      <c r="K31" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="L31" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56">
+        <v>30</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="J32" s="10">
         <v>16681</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K32" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L32" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56">
+        <v>31</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G33" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L33" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56">
+        <v>32</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G34" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L34" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56">
+        <v>33</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H35" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="63" t="s">
+        <v>657</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56">
+        <v>34</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>653</v>
+      </c>
+      <c r="H36" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56">
+        <v>35</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="63" t="s">
+        <v>657</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L37" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56">
+        <v>36</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="H38" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="63" t="s">
+        <v>637</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L38" s="59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56">
+        <v>37</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L39" s="59" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56">
+        <v>38</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="L31" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1">
-      <c r="A32" s="56">
-        <v>31</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G32" s="68" t="s">
-        <v>512</v>
-      </c>
-      <c r="H32" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="64" t="s">
-        <v>643</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="K32" s="6" t="s">
+      <c r="L40" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56">
+        <v>39</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H41" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>637</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="L32" s="60" t="s">
+      <c r="L41" s="59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56">
+        <v>40</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>662</v>
+      </c>
+      <c r="H42" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="64" t="s">
+        <v>637</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L42" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56">
+        <v>41</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H43" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="63" t="s">
+        <v>637</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L43" s="59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18" customHeight="1">
-      <c r="A33" s="56">
-        <v>32</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G33" s="68" t="s">
-        <v>512</v>
-      </c>
-      <c r="H33" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="64" t="s">
-        <v>643</v>
-      </c>
-      <c r="J33" s="10" t="s">
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56">
+        <v>42</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="H44" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L44" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56">
+        <v>43</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>653</v>
+      </c>
+      <c r="H45" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="63" t="s">
+        <v>637</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L45" s="59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56">
+        <v>44</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="J46" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="L33" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="18" customHeight="1">
-      <c r="A34" s="56">
-        <v>33</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="65"/>
-      <c r="J34" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L34" s="61" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1">
-      <c r="A35" s="56">
-        <v>34</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" s="64"/>
-      <c r="J35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L35" s="60" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1">
-      <c r="A36" s="56">
-        <v>35</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H36" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="64"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L36" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="18" customHeight="1">
-      <c r="A37" s="56">
-        <v>36</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>404</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="H37" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L37" s="60" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="18" customHeight="1">
-      <c r="A38" s="56">
-        <v>37</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L38" s="60" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1">
-      <c r="A39" s="56">
-        <v>38</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H39" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" s="64"/>
-      <c r="J39" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L39" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1">
-      <c r="A40" s="56">
-        <v>39</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>450</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G40" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H40" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="64"/>
-      <c r="J40" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L40" s="60" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1">
-      <c r="A41" s="56">
-        <v>40</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>554</v>
-      </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" s="65"/>
-      <c r="J41" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L41" s="60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1">
-      <c r="A42" s="56">
-        <v>41</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H42" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="64"/>
-      <c r="J42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L42" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1">
-      <c r="A43" s="56">
-        <v>42</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="H43" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I43" s="65"/>
-      <c r="J43" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L43" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1">
-      <c r="A44" s="56">
-        <v>43</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>515</v>
-      </c>
-      <c r="H44" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" s="64"/>
-      <c r="J44" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L44" s="60" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="18" customHeight="1">
-      <c r="A45" s="56">
-        <v>44</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H45" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I45" s="64"/>
-      <c r="J45" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L45" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="18" customHeight="1">
-      <c r="A46" s="56">
+      <c r="K46" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L46" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56">
         <v>45</v>
       </c>
-      <c r="B46" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G46" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="H46" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46" s="65"/>
-      <c r="J46" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L46" s="60" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1">
-      <c r="A47" s="56">
-        <v>46</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>141</v>
+      <c r="B47" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>417</v>
+        <v>321</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G47" s="41"/>
+        <v>546</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>507</v>
+      </c>
       <c r="H47" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I47" s="64"/>
+        <v>80</v>
+      </c>
+      <c r="I47" s="64" t="s">
+        <v>661</v>
+      </c>
       <c r="J47" s="10" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="L47" s="60" t="s">
+      <c r="L47" s="59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56">
+        <v>46</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H48" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L48" s="59" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56">
+        <v>47</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H49" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="L49" s="59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56">
+        <v>48</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H50" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L50" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56">
+        <v>49</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H51" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L51" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56">
+        <v>50</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H52" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="64" t="s">
+        <v>642</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L52" s="59" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56">
+        <v>51</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="H53" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" s="63" t="s">
+        <v>643</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L53" s="59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56">
+        <v>52</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="18" customHeight="1">
-      <c r="A48" s="56">
-        <v>47</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>605</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G48" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="H48" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="65"/>
-      <c r="J48" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L48" s="60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1">
-      <c r="A49" s="56">
-        <v>48</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G49" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H49" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" s="64"/>
-      <c r="J49" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L49" s="60" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1">
-      <c r="A50" s="56">
-        <v>49</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G50" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H50" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I50" s="64"/>
-      <c r="J50" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L50" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1">
-      <c r="A51" s="56">
-        <v>50</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G51" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H51" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51" s="64"/>
-      <c r="J51" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L51" s="60" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1">
-      <c r="A52" s="56">
-        <v>51</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="G52" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="H52" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="64"/>
-      <c r="J52" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L52" s="60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1">
-      <c r="A53" s="56">
-        <v>52</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="H53" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I53" s="64" t="s">
-        <v>649</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L53" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1">
-      <c r="A54" s="56">
+      <c r="G54" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="H54" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="63" t="s">
+        <v>635</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L54" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56">
         <v>53</v>
       </c>
-      <c r="B54" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="H54" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54" s="64" t="s">
-        <v>648</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L54" s="60" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1">
-      <c r="A55" s="56">
+      <c r="B55" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="44" t="s">
-        <v>55</v>
-      </c>
       <c r="C55" s="14" t="s">
-        <v>186</v>
+        <v>449</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="H55" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I55" s="64" t="s">
-        <v>643</v>
+        <v>634</v>
+      </c>
+      <c r="H55" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" s="63" t="s">
+        <v>637</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L55" s="60" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1">
+        <v>480</v>
+      </c>
+      <c r="L55" s="59" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H56" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I56" s="64"/>
+        <v>80</v>
+      </c>
+      <c r="I56" s="63" t="s">
+        <v>632</v>
+      </c>
       <c r="J56" s="10" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="L56" s="60" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1">
+      <c r="L56" s="59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="44" t="s">
         <v>57</v>
@@ -5758,2473 +5890,2697 @@
         <v>457</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57" s="64" t="s">
-        <v>646</v>
+        <v>547</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="H57" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" s="63" t="s">
+        <v>643</v>
       </c>
       <c r="J57" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L57" s="59" t="s">
         <v>458</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L57" s="60" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1">
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56">
+        <v>56</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="H58" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I58" s="63" t="s">
+        <v>635</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L58" s="59" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56">
         <v>57</v>
       </c>
-      <c r="B58" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="H58" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I58" s="64"/>
-      <c r="J58" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L58" s="60" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1">
-      <c r="A59" s="56">
+      <c r="B59" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="H59" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59" s="63" t="s">
+        <v>637</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="L59" s="59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56">
         <v>58</v>
       </c>
-      <c r="B59" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="H59" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I59" s="64"/>
-      <c r="J59" s="10" t="s">
+      <c r="B60" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="H60" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" s="63" t="s">
+        <v>637</v>
+      </c>
+      <c r="J60" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L59" s="60" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1">
-      <c r="A60" s="56">
+      <c r="K60" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L60" s="59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56">
         <v>59</v>
       </c>
-      <c r="B60" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I60" s="64" t="s">
-        <v>647</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="L60" s="60" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1">
-      <c r="A61" s="56">
+      <c r="B61" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="H61" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="63" t="s">
+        <v>636</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L61" s="59" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="56">
         <v>60</v>
       </c>
-      <c r="B61" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="H61" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I61" s="64" t="s">
-        <v>643</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="L61" s="60" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1">
-      <c r="A62" s="56">
-        <v>61</v>
-      </c>
-      <c r="B62" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="H62" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>517</v>
+      <c r="B62" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="H62" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" s="63" t="s">
+        <v>632</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K62" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="L62" s="59" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56">
+        <v>61</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="H63" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L63" s="59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="56">
+        <v>62</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="H64" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L64" s="59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56">
+        <v>63</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H65" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L65" s="59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56">
+        <v>64</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="H66" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L66" s="59" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="56">
+        <v>65</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="H67" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L67" s="59" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="56">
+        <v>66</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>659</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="H68" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="J68" s="10"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="59"/>
+    </row>
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="56">
+        <v>67</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>637</v>
+      </c>
+      <c r="H69" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="I69" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L69" s="59" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="56">
+        <v>68</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="D70" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F70" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="G70" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="I70" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L70" s="59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56">
+        <v>69</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="G71" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L71" s="59" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="56">
+        <v>70</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="H72" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="65" t="s">
+        <v>642</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="K72" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="L62" s="60" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1">
-      <c r="A63" s="56">
-        <v>62</v>
-      </c>
-      <c r="B63" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="H63" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L63" s="60" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1">
-      <c r="A64" s="56">
-        <v>63</v>
-      </c>
-      <c r="B64" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="H64" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L64" s="60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="18" customHeight="1">
-      <c r="A65" s="56">
-        <v>64</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="H65" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L65" s="60" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="18" customHeight="1">
-      <c r="A66" s="56">
-        <v>65</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="G66" s="13" t="s">
+      <c r="L72" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="56">
+        <v>71</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="H73" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I73" s="65" t="s">
+        <v>643</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L73" s="59" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="56">
+        <v>72</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="G74" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="H66" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L66" s="60" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1">
-      <c r="A67" s="56">
-        <v>66</v>
-      </c>
-      <c r="B67" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="E67" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="G67" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="H67" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="I67" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L67" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="18" customHeight="1">
-      <c r="A68" s="56">
-        <v>67</v>
-      </c>
-      <c r="B68" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="E68" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="G68" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="H68" s="52" t="s">
-        <v>639</v>
-      </c>
-      <c r="I68" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L68" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="18" customHeight="1">
-      <c r="A69" s="56">
-        <v>68</v>
-      </c>
-      <c r="B69" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F69" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="G69" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H69" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69" s="48" t="s">
-        <v>549</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L69" s="60" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="18" customHeight="1">
-      <c r="A70" s="56">
-        <v>69</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="H70" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I70" s="66"/>
-      <c r="J70" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L70" s="60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="18" customHeight="1">
-      <c r="A71" s="56">
-        <v>70</v>
-      </c>
-      <c r="B71" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="15" t="s">
+      <c r="H74" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="D71" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="H71" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I71" s="66"/>
-      <c r="J71" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L71" s="60" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="18" customHeight="1">
-      <c r="A72" s="56">
-        <v>71</v>
-      </c>
-      <c r="B72" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="H72" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I72" s="66"/>
-      <c r="J72" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L72" s="60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="18" customHeight="1">
-      <c r="A73" s="56">
-        <v>72</v>
-      </c>
-      <c r="B73" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="H73" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I73" s="66"/>
-      <c r="J73" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L73" s="60" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="18" customHeight="1">
-      <c r="A74" s="56">
-        <v>73</v>
-      </c>
-      <c r="B74" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I74" s="66"/>
+      <c r="I74" s="65" t="s">
+        <v>642</v>
+      </c>
       <c r="J74" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L74" s="60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="18" customHeight="1">
+        <v>479</v>
+      </c>
+      <c r="L74" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="56">
+        <v>73</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="H75" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I75" s="65" t="s">
+        <v>642</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L75" s="59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="56">
         <v>74</v>
       </c>
-      <c r="B75" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="H75" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I75" s="66" t="s">
-        <v>643</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L75" s="60" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="18" customHeight="1">
-      <c r="A76" s="56">
-        <v>75</v>
-      </c>
       <c r="B76" s="45" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I76" s="66"/>
+        <v>591</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="H76" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I76" s="65" t="s">
+        <v>632</v>
+      </c>
       <c r="J76" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L76" s="60" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="18" customHeight="1">
+        <v>477</v>
+      </c>
+      <c r="L76" s="59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="56">
+        <v>75</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="H77" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" s="65" t="s">
+        <v>632</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L77" s="59" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="56">
         <v>76</v>
       </c>
-      <c r="B77" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="E77" s="15" t="s">
+      <c r="B78" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="H78" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I78" s="65" t="s">
+        <v>667</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L78" s="59" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="56">
+        <v>77</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="H79" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I79" s="65" t="s">
+        <v>642</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L79" s="59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="56">
+        <v>78</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="H80" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I80" s="65" t="s">
+        <v>632</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L80" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="56">
+        <v>79</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="H81" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I81" s="65" t="s">
+        <v>632</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L81" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="56">
+        <v>80</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="H82" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82" s="65" t="s">
+        <v>643</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L82" s="61" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="56">
+        <v>81</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="H83" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I83" s="65" t="s">
+        <v>642</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L83" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="56">
+        <v>82</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="H84" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I84" s="65" t="s">
+        <v>636</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L84" s="59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="56">
+        <v>83</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="H85" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I85" s="65" t="s">
+        <v>635</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L85" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="56">
+        <v>84</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F77" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="H77" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I77" s="66"/>
-      <c r="J77" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L77" s="60" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="18" customHeight="1">
-      <c r="A78" s="56">
-        <v>77</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="H78" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I78" s="66" t="s">
-        <v>643</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L78" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="18" customHeight="1">
-      <c r="A79" s="56">
-        <v>78</v>
-      </c>
-      <c r="B79" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="H79" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I79" s="66" t="s">
-        <v>643</v>
-      </c>
-      <c r="J79" s="10" t="s">
+      <c r="D86" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="H86" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="I86" s="65" t="s">
+        <v>636</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L86" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="56">
+        <v>85</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="H87" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I87" s="65" t="s">
+        <v>642</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L87" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="56">
+        <v>86</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C88" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="D88" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="E88" s="55" t="s">
+        <v>629</v>
+      </c>
+      <c r="F88" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="K79" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L79" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="18">
-      <c r="A80" s="56">
-        <v>79</v>
-      </c>
-      <c r="B80" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="H80" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I80" s="66"/>
-      <c r="J80" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L80" s="62" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="18">
-      <c r="A81" s="56">
-        <v>80</v>
-      </c>
-      <c r="B81" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="H81" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I81" s="66"/>
-      <c r="J81" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L81" s="60" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="18">
-      <c r="A82" s="56">
-        <v>81</v>
-      </c>
-      <c r="B82" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I82" s="66" t="s">
-        <v>647</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L82" s="60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="18">
-      <c r="A83" s="56">
-        <v>82</v>
-      </c>
-      <c r="B83" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="H83" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I83" s="66"/>
-      <c r="J83" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L83" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="18">
-      <c r="A84" s="56">
-        <v>83</v>
-      </c>
-      <c r="B84" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="H84" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="I84" s="66" t="s">
-        <v>647</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L84" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="18">
-      <c r="A85" s="56">
-        <v>84</v>
-      </c>
-      <c r="B85" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="H85" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="I85" s="66"/>
-      <c r="J85" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="L85" s="60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="18" customHeight="1">
-      <c r="A86" s="56">
-        <v>85</v>
-      </c>
-      <c r="B86" s="54" t="s">
-        <v>504</v>
-      </c>
-      <c r="C86" s="55" t="s">
-        <v>509</v>
-      </c>
-      <c r="D86" s="55" t="s">
-        <v>625</v>
-      </c>
-      <c r="E86" s="55" t="s">
-        <v>640</v>
-      </c>
-      <c r="F86" s="55" t="s">
-        <v>371</v>
-      </c>
-      <c r="G86" s="55" t="s">
-        <v>526</v>
-      </c>
-      <c r="H86" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I86" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J86" s="10"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="60" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="18" customHeight="1">
-      <c r="A87" s="56">
-        <v>86</v>
-      </c>
-      <c r="B87" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="C87" s="55" t="s">
+      <c r="G88" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="H88" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I88" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J88" s="10"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="D87" s="55" t="s">
-        <v>626</v>
-      </c>
-      <c r="E87" s="55" t="s">
-        <v>640</v>
-      </c>
-      <c r="F87" s="55" t="s">
-        <v>371</v>
-      </c>
-      <c r="G87" s="55" t="s">
-        <v>524</v>
-      </c>
-      <c r="H87" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I87" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J87" s="10"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="60" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="18" customHeight="1">
-      <c r="A88" s="56">
+    </row>
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="56">
         <v>87</v>
       </c>
-      <c r="B88" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="C88" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D88" s="55" t="s">
-        <v>371</v>
-      </c>
-      <c r="E88" s="55" t="s">
-        <v>640</v>
-      </c>
-      <c r="F88" s="55" t="s">
-        <v>371</v>
-      </c>
-      <c r="G88" s="55" t="s">
-        <v>523</v>
-      </c>
-      <c r="H88" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I88" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L88" s="60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="18" customHeight="1">
-      <c r="A89" s="56">
-        <v>88</v>
-      </c>
       <c r="B89" s="54" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="F89" s="55" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G89" s="55" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H89" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I89" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J89" s="10"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="60" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="18">
+      <c r="L89" s="59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="56">
+        <v>88</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" s="55" t="s">
+        <v>629</v>
+      </c>
+      <c r="F90" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="G90" s="55" t="s">
+        <v>517</v>
+      </c>
+      <c r="H90" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I90" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L90" s="59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="56">
         <v>89</v>
       </c>
-      <c r="B90" s="49" t="s">
+      <c r="B91" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="C91" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="D91" s="55" t="s">
+        <v>616</v>
+      </c>
+      <c r="E91" s="55" t="s">
+        <v>629</v>
+      </c>
+      <c r="F91" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="G91" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="H91" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I91" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="59" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="56">
+        <v>90</v>
+      </c>
+      <c r="B92" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="C92" s="50" t="s">
+        <v>583</v>
+      </c>
+      <c r="D92" s="50" t="s">
+        <v>613</v>
+      </c>
+      <c r="E92" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="F92" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="G92" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="H92" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I92" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="L92" s="59" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="56">
+        <v>91</v>
+      </c>
+      <c r="B93" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>581</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="E93" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="F93" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="G93" s="50" t="s">
         <v>585</v>
       </c>
-      <c r="C90" s="50" t="s">
-        <v>592</v>
-      </c>
-      <c r="D90" s="50" t="s">
-        <v>623</v>
-      </c>
-      <c r="E90" s="50" t="s">
+      <c r="H93" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I93" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="L93" s="59" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="56">
+        <v>92</v>
+      </c>
+      <c r="B94" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>580</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>611</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="F94" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="G94" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="H94" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I94" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="L94" s="59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="56">
+        <v>93</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>578</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="E95" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="F95" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="G95" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="H95" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="L95" s="59" t="s">
         <v>588</v>
       </c>
-      <c r="F90" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="G90" s="50" t="s">
-        <v>527</v>
-      </c>
-      <c r="H90" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I90" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="L90" s="60" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="18">
-      <c r="A91" s="56">
-        <v>90</v>
-      </c>
-      <c r="B91" s="49" t="s">
-        <v>583</v>
-      </c>
-      <c r="C91" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="D91" s="50" t="s">
-        <v>622</v>
-      </c>
-      <c r="E91" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="F91" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="G91" s="50" t="s">
-        <v>594</v>
-      </c>
-      <c r="H91" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I91" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="L91" s="60" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="18">
-      <c r="A92" s="56">
-        <v>91</v>
-      </c>
-      <c r="B92" s="49" t="s">
+    </row>
+    <row r="96" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="56">
+        <v>94</v>
+      </c>
+      <c r="B96" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="C96" s="50" t="s">
         <v>582</v>
       </c>
-      <c r="C92" s="50" t="s">
-        <v>589</v>
-      </c>
-      <c r="D92" s="50" t="s">
+      <c r="D96" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="F96" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="G96" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="H96" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I96" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="L96" s="59" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="56">
+        <v>95</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="D97" s="50" t="s">
+        <v>669</v>
+      </c>
+      <c r="E97" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="F97" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="G97" s="50" t="s">
+        <v>668</v>
+      </c>
+      <c r="H97" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I97" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="L97" s="59"/>
+    </row>
+    <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="56">
+        <v>96</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>670</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="F98" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="G98" s="68" t="s">
+        <v>671</v>
+      </c>
+      <c r="H98" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I98" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="L98" s="59"/>
+    </row>
+    <row r="99" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="56">
+        <v>97</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="H99" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I99" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J99" s="8"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="56">
+        <v>98</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="H100" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I100" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J100" s="10"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="59" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="56">
+        <v>99</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D101" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="E92" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="F92" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="G92" s="50" t="s">
-        <v>408</v>
-      </c>
-      <c r="H92" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="L92" s="60" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="18">
-      <c r="A93" s="56">
-        <v>92</v>
-      </c>
-      <c r="B93" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="C93" s="50" t="s">
-        <v>587</v>
-      </c>
-      <c r="D93" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="F93" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="G93" s="50" t="s">
-        <v>528</v>
-      </c>
-      <c r="H93" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I93" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="L93" s="60" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="18">
-      <c r="A94" s="56">
-        <v>93</v>
-      </c>
-      <c r="B94" s="49" t="s">
-        <v>584</v>
-      </c>
-      <c r="C94" s="50" t="s">
-        <v>591</v>
-      </c>
-      <c r="D94" s="50" t="s">
-        <v>624</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="F94" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="G94" s="50" t="s">
-        <v>596</v>
-      </c>
-      <c r="H94" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I94" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="L94" s="60" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="18">
-      <c r="A95" s="56">
-        <v>94</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>635</v>
-      </c>
-      <c r="C95" s="22" t="s">
+      <c r="E101" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="H101" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I101" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="L101" s="62" t="s">
         <v>494</v>
       </c>
-      <c r="D95" s="23" t="s">
-        <v>629</v>
-      </c>
-      <c r="E95" s="24" t="s">
+    </row>
+    <row r="102" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="56">
+        <v>100</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>560</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="H102" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I102" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J102" s="10"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="59" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="56">
+        <v>101</v>
+      </c>
+      <c r="B103" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="H103" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I103" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J103" s="10"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="59" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="56">
+        <v>102</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="H104" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I104" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J104" s="8"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A105" s="56">
+        <v>103</v>
+      </c>
+      <c r="B105" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="F95" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="H95" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I95" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J95" s="8"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="63" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="18">
-      <c r="A96" s="56">
-        <v>95</v>
-      </c>
-      <c r="B96" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>571</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="H96" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I96" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J96" s="10"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="60" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="18">
-      <c r="A97" s="56">
-        <v>96</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>636</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="H97" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I97" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="L97" s="63" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="18">
-      <c r="A98" s="56">
-        <v>97</v>
-      </c>
-      <c r="B98" s="46" t="s">
-        <v>569</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="F98" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="G98" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="H98" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I98" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J98" s="10"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="60" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="18">
-      <c r="A99" s="56">
-        <v>98</v>
-      </c>
-      <c r="B99" s="46" t="s">
-        <v>568</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>573</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="F99" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="G99" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="H99" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I99" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J99" s="10"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="60" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="18">
-      <c r="A100" s="56">
-        <v>99</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="H100" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I100" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J100" s="8"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="63" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="18">
-      <c r="A101" s="56">
-        <v>100</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="H101" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I101" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J101" s="8"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="63" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="18">
-      <c r="A102" s="56">
-        <v>101</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="F102" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="H102" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I102" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L102" s="60" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="18">
-      <c r="A103" s="56">
-        <v>102</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E103" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="F103" s="20" t="s">
+      <c r="C105" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F105" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="G103" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="H103" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I103" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J103" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K103" s="6"/>
-      <c r="L103" s="60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="18">
-      <c r="A104" s="56">
-        <v>103</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="F104" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="H104" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I104" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J104" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L104" s="60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="18">
-      <c r="A105" s="56">
+      <c r="G105" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="H105" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I105" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J105" s="8"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="62" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="56">
         <v>104</v>
       </c>
-      <c r="B105" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="H105" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="I105" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J105" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="K105" s="6"/>
-      <c r="L105" s="60" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="18">
-      <c r="A106" s="56">
-        <v>105</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="E106" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="F106" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="G106" s="20" t="s">
-        <v>529</v>
+      <c r="B106" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>646</v>
       </c>
       <c r="H106" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I106" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J106" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="K106" s="6"/>
-      <c r="L106" s="60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="18">
+        <v>197</v>
+      </c>
+      <c r="J106" s="8"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="62"/>
+    </row>
+    <row r="107" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="56">
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="H107" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I107" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J107" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K107" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L107" s="60" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="18">
+      <c r="K107" s="6"/>
+      <c r="L107" s="59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="56">
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>611</v>
+        <v>350</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="H108" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I108" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L108" s="60" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="18">
+        <v>478</v>
+      </c>
+      <c r="L108" s="59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="56">
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>615</v>
+        <v>352</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H109" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I109" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L109" s="60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="18">
+        <v>353</v>
+      </c>
+      <c r="K109" s="6"/>
+      <c r="L109" s="59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="56">
         <v>109</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>414</v>
+        <v>601</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H110" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I110" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L110" s="60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="18">
+        <v>361</v>
+      </c>
+      <c r="K110" s="6"/>
+      <c r="L110" s="59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="56">
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>612</v>
+        <v>424</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H111" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I111" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J111" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L111" s="60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="18">
+        <v>478</v>
+      </c>
+      <c r="L111" s="59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="56">
         <v>111</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>170</v>
+        <v>258</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="F112" s="20"/>
+        <v>326</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>555</v>
+      </c>
       <c r="G112" s="20" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H112" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I112" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L112" s="60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="18">
+        <v>481</v>
+      </c>
+      <c r="L112" s="59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="56">
         <v>112</v>
       </c>
-      <c r="B113" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>644</v>
+      <c r="B113" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F113" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="G113" s="20" t="s">
+        <v>530</v>
       </c>
       <c r="H113" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I113" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K113" s="6"/>
-      <c r="L113" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="18">
+        <v>21</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L113" s="59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="56">
         <v>113</v>
       </c>
-      <c r="B114" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="C114" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11" t="s">
-        <v>530</v>
+      <c r="B114" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="E114" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="G114" s="20" t="s">
+        <v>524</v>
       </c>
       <c r="H114" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I114" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K114" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L114" s="60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="18">
+        <v>1</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="L114" s="59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="56">
         <v>114</v>
       </c>
-      <c r="B115" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="C115" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11" t="s">
-        <v>531</v>
+      <c r="B115" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="G115" s="20" t="s">
+        <v>523</v>
       </c>
       <c r="H115" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I115" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J115" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L115" s="60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="18">
+        <v>477</v>
+      </c>
+      <c r="L115" s="59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="56">
         <v>115</v>
       </c>
-      <c r="B116" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="C116" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11" t="s">
-        <v>532</v>
+      <c r="B116" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="G116" s="20" t="s">
+        <v>526</v>
       </c>
       <c r="H116" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I116" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J116" s="10" t="s">
         <v>45</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L116" s="60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="18">
+        <v>478</v>
+      </c>
+      <c r="L116" s="59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="56">
         <v>116</v>
       </c>
-      <c r="B117" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="C117" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11" t="s">
-        <v>532</v>
+      <c r="B117" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20" t="s">
+        <v>637</v>
       </c>
       <c r="H117" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I117" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K117" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L117" s="60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="18">
+        <v>197</v>
+      </c>
+      <c r="J117" s="10"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="59"/>
+    </row>
+    <row r="118" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="56">
         <v>117</v>
       </c>
-      <c r="B118" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="C118" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11" t="s">
-        <v>519</v>
+      <c r="B118" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="E118" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="G118" s="20" t="s">
+        <v>529</v>
       </c>
       <c r="H118" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I118" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K118" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L118" s="60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="18">
+        <v>197</v>
+      </c>
+      <c r="J118" s="10"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="59"/>
+    </row>
+    <row r="119" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="56">
         <v>118</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C119" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D119" s="53" t="s">
-        <v>620</v>
-      </c>
-      <c r="E119" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="F119" s="53"/>
-      <c r="G119" s="53" t="s">
-        <v>531</v>
+      <c r="B119" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>633</v>
       </c>
       <c r="H119" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I119" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K119" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L119" s="60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="18">
+        <v>22</v>
+      </c>
+      <c r="K119" s="6"/>
+      <c r="L119" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="56">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C120" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D120" s="53" t="s">
-        <v>351</v>
-      </c>
-      <c r="E120" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53" t="s">
-        <v>602</v>
+      <c r="B120" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11" t="s">
+        <v>524</v>
       </c>
       <c r="H120" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I120" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K120" s="6"/>
-      <c r="L120" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="18">
+        <v>47</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L120" s="59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="56">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C121" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D121" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="E121" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53" t="s">
-        <v>602</v>
+      <c r="B121" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11" t="s">
+        <v>525</v>
       </c>
       <c r="H121" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I121" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L121" s="60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="18">
+        <v>477</v>
+      </c>
+      <c r="L121" s="59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="56">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C122" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D122" s="53" t="s">
-        <v>619</v>
-      </c>
-      <c r="E122" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53" t="s">
-        <v>532</v>
+      <c r="B122" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11" t="s">
+        <v>526</v>
       </c>
       <c r="H122" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I122" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L122" s="60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="18">
+        <v>478</v>
+      </c>
+      <c r="L122" s="59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="56">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C123" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D123" s="53" t="s">
-        <v>353</v>
-      </c>
-      <c r="E123" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53" t="s">
-        <v>602</v>
+      <c r="B123" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11" t="s">
+        <v>526</v>
       </c>
       <c r="H123" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I123" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K123" s="6"/>
-      <c r="L123" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="18">
+        <v>44</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L123" s="59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="56">
         <v>123</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C124" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D124" s="53" t="s">
-        <v>618</v>
-      </c>
-      <c r="E124" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="53" t="s">
-        <v>533</v>
+      <c r="B124" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11" t="s">
+        <v>514</v>
       </c>
       <c r="H124" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I124" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="L124" s="60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="18">
+        <v>478</v>
+      </c>
+      <c r="L124" s="59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="56">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D125" s="53" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E125" s="53" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F125" s="53"/>
       <c r="G125" s="53" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="H125" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I125" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L125" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L125" s="59" t="s">
         <v>164</v>
       </c>
     </row>
+    <row r="126" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A126" s="56">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="E126" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="H126" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I126" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" s="6"/>
+      <c r="L126" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A127" s="56">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C127" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D127" s="53" t="s">
+        <v>439</v>
+      </c>
+      <c r="E127" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="H127" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I127" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L127" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A128" s="56">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128" s="53" t="s">
+        <v>609</v>
+      </c>
+      <c r="E128" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="H128" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I128" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L128" s="59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A129" s="56">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C129" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="E129" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="H129" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I129" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" s="6"/>
+      <c r="L129" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A130" s="56">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D130" s="53" t="s">
+        <v>608</v>
+      </c>
+      <c r="E130" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="H130" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I130" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L130" s="59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A131" s="56">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D131" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="E131" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="F131" s="53"/>
+      <c r="G131" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="H131" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I131" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L131" s="59" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B2:N126">
-    <sortCondition ref="E2:E126"/>
-    <sortCondition ref="F2:F126"/>
-    <sortCondition ref="C2:C126"/>
+  <sortState ref="B2:N131">
+    <sortCondition ref="E2:E131"/>
+    <sortCondition ref="F2:F131"/>
+    <sortCondition ref="C2:C131"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8237,48 +8593,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15">
         <v>69</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J1" s="10">
         <v>1176</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -2326,8 +2326,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="615">
+  <cellStyleXfs count="619">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3105,7 +3109,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="615">
+  <cellStyles count="619">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3413,6 +3417,8 @@
     <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3720,6 +3726,8 @@
     <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4061,7 +4069,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C61:C62"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="A1:N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1900" windowWidth="25680" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3000" yWindow="1900" windowWidth="25620" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -2326,8 +2326,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="619">
+  <cellStyleXfs count="621">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3109,7 +3111,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="619">
+  <cellStyles count="621">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3419,6 +3421,7 @@
     <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3728,6 +3731,7 @@
     <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4068,8 +4072,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="A1:N132"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6239C82-BA1F-4743-AFE9-E7F923F8ECB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1900" windowWidth="25620" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1920" yWindow="3060" windowWidth="25620" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$B$1:$M$112</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="694">
   <si>
     <t>AY632538</t>
   </si>
@@ -1975,9 +1981,6 @@
     <t>NC_028396</t>
   </si>
   <si>
-    <t>Culicidae</t>
-  </si>
-  <si>
     <t>NC_030400</t>
   </si>
   <si>
@@ -1996,9 +1999,6 @@
     <t>KJ469370</t>
   </si>
   <si>
-    <t>Aedes?</t>
-  </si>
-  <si>
     <t>marsupials</t>
   </si>
   <si>
@@ -2096,12 +2096,27 @@
   </si>
   <si>
     <t>Jingmenvirus</t>
+  </si>
+  <si>
+    <t>Aedes? Culex</t>
+  </si>
+  <si>
+    <t>Aedes/culex</t>
+  </si>
+  <si>
+    <t>aedes/Culicidae</t>
+  </si>
+  <si>
+    <t>Aedes/Culex</t>
+  </si>
+  <si>
+    <t>Aedes/Anopheles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2162,6 +2177,7 @@
       <i/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2169,6 +2185,7 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2190,6 +2207,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3734,7 +3752,38 @@
     <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4068,15 +4117,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -4094,7 +4143,7 @@
     <col min="14" max="14" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
+    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>624</v>
       </c>
@@ -4108,7 +4157,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>64</v>
@@ -4117,7 +4166,7 @@
         <v>65</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>627</v>
@@ -4138,7 +4187,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4152,7 +4201,7 @@
         <v>411</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>191</v>
@@ -4180,21 +4229,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>280</v>
+        <v>651</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>99</v>
+        <v>652</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>343</v>
+        <v>682</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>191</v>
@@ -4204,7 +4253,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>507</v>
+        <v>631</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>197</v>
@@ -4212,31 +4261,25 @@
       <c r="K3" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1">
+      <c r="L3" s="16"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>191</v>
@@ -4246,7 +4289,7 @@
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>197</v>
@@ -4255,30 +4298,30 @@
         <v>197</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>194</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>191</v>
@@ -4296,31 +4339,31 @@
       <c r="K5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L5" s="16">
-        <v>178</v>
+      <c r="L5" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>191</v>
@@ -4330,7 +4373,7 @@
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>508</v>
+        <v>404</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>197</v>
@@ -4338,31 +4381,31 @@
       <c r="K6" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>1</v>
+      <c r="L6" s="16">
+        <v>178</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>479</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>122</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>191</v>
@@ -4372,7 +4415,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>197</v>
@@ -4381,30 +4424,30 @@
         <v>197</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>438</v>
+        <v>209</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>191</v>
@@ -4414,7 +4457,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>197</v>
@@ -4423,30 +4466,30 @@
         <v>197</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>621</v>
+        <v>438</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>191</v>
@@ -4465,30 +4508,30 @@
         <v>197</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>75</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>312</v>
+        <v>621</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>191</v>
@@ -4498,7 +4541,7 @@
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>510</v>
+        <v>404</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>197</v>
@@ -4507,30 +4550,30 @@
         <v>197</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>36</v>
+        <v>650</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>191</v>
@@ -4540,7 +4583,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>404</v>
+        <v>510</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>197</v>
@@ -4549,30 +4592,30 @@
         <v>197</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>480</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>191</v>
@@ -4582,7 +4625,7 @@
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>197</v>
@@ -4590,31 +4633,31 @@
       <c r="K12" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L12" s="16">
-        <v>56</v>
+      <c r="L12" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>178</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>436</v>
+        <v>320</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>191</v>
@@ -4624,7 +4667,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>197</v>
@@ -4632,31 +4675,31 @@
       <c r="K13" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L13" s="16" t="s">
-        <v>49</v>
+      <c r="L13" s="16">
+        <v>56</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>481</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>191</v>
@@ -4666,7 +4709,7 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>197</v>
@@ -4675,30 +4718,30 @@
         <v>197</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>652</v>
+        <v>248</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>653</v>
+        <v>133</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>684</v>
+        <v>406</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>191</v>
@@ -4708,7 +4751,7 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>631</v>
+        <v>404</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>197</v>
@@ -4716,11 +4759,17 @@
       <c r="K15" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1">
+      <c r="L15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -4734,7 +4783,7 @@
         <v>319</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>191</v>
@@ -4762,7 +4811,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -4776,7 +4825,7 @@
         <v>416</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>191</v>
@@ -4804,7 +4853,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -4818,7 +4867,7 @@
         <v>415</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>191</v>
@@ -4846,7 +4895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -4860,7 +4909,7 @@
         <v>426</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>191</v>
@@ -4888,7 +4937,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -4902,7 +4951,7 @@
         <v>329</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>191</v>
@@ -4930,7 +4979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -4944,7 +4993,7 @@
         <v>427</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>191</v>
@@ -4972,7 +5021,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -4986,7 +5035,7 @@
         <v>327</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>191</v>
@@ -5014,7 +5063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -5028,7 +5077,7 @@
         <v>422</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>191</v>
@@ -5056,7 +5105,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>23</v>
       </c>
@@ -5070,7 +5119,7 @@
         <v>330</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>191</v>
@@ -5098,7 +5147,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -5112,7 +5161,7 @@
         <v>440</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>191</v>
@@ -5140,7 +5189,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>25</v>
       </c>
@@ -5154,7 +5203,7 @@
         <v>294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>191</v>
@@ -5182,7 +5231,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>26</v>
       </c>
@@ -5196,7 +5245,7 @@
         <v>403</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>191</v>
@@ -5224,7 +5273,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>27</v>
       </c>
@@ -5238,7 +5287,7 @@
         <v>594</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>191</v>
@@ -5266,7 +5315,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>28</v>
       </c>
@@ -5280,7 +5329,7 @@
         <v>394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>191</v>
@@ -5308,7 +5357,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>29</v>
       </c>
@@ -5322,7 +5371,7 @@
         <v>430</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>191</v>
@@ -5350,7 +5399,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>30</v>
       </c>
@@ -5364,7 +5413,7 @@
         <v>340</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>191</v>
@@ -5392,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>31</v>
       </c>
@@ -5406,7 +5455,7 @@
         <v>337</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>191</v>
@@ -5434,7 +5483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1">
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>32</v>
       </c>
@@ -5448,7 +5497,7 @@
         <v>338</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>191</v>
@@ -5476,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1">
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>33</v>
       </c>
@@ -5490,7 +5539,7 @@
         <v>206</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>191</v>
@@ -5518,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1">
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>34</v>
       </c>
@@ -5532,7 +5581,7 @@
         <v>289</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>191</v>
@@ -5548,7 +5597,7 @@
         <v>80</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>291</v>
@@ -5560,7 +5609,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>35</v>
       </c>
@@ -5574,7 +5623,7 @@
         <v>396</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>191</v>
@@ -5584,7 +5633,7 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>650</v>
+        <v>404</v>
       </c>
       <c r="J36" s="32" t="s">
         <v>80</v>
@@ -5602,7 +5651,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>36</v>
       </c>
@@ -5616,7 +5665,7 @@
         <v>475</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>191</v>
@@ -5632,7 +5681,7 @@
         <v>80</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="14" t="s">
@@ -5642,7 +5691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1">
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>37</v>
       </c>
@@ -5656,7 +5705,7 @@
         <v>400</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>191</v>
@@ -5684,7 +5733,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1">
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>38</v>
       </c>
@@ -5698,7 +5747,7 @@
         <v>307</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>191</v>
@@ -5708,7 +5757,7 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="J39" s="32" t="s">
         <v>80</v>
@@ -5726,7 +5775,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1">
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>39</v>
       </c>
@@ -5740,7 +5789,7 @@
         <v>332</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>191</v>
@@ -5768,7 +5817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1">
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
         <v>40</v>
       </c>
@@ -5782,7 +5831,7 @@
         <v>447</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>191</v>
@@ -5810,7 +5859,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1">
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>41</v>
       </c>
@@ -5824,7 +5873,7 @@
         <v>310</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>191</v>
@@ -5834,7 +5883,7 @@
       </c>
       <c r="H42" s="31"/>
       <c r="I42" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J42" s="35" t="s">
         <v>80</v>
@@ -5852,7 +5901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1">
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <v>42</v>
       </c>
@@ -5866,7 +5915,7 @@
         <v>417</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>191</v>
@@ -5894,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1">
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43</v>
       </c>
@@ -5908,7 +5957,7 @@
         <v>292</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>191</v>
@@ -5918,7 +5967,7 @@
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>507</v>
+        <v>690</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>80</v>
@@ -5936,7 +5985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1">
+    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>44</v>
       </c>
@@ -5950,7 +5999,7 @@
         <v>441</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>191</v>
@@ -5960,7 +6009,7 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7" t="s">
-        <v>650</v>
+        <v>691</v>
       </c>
       <c r="J45" s="32" t="s">
         <v>80</v>
@@ -5978,7 +6027,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="18" customHeight="1">
+    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>45</v>
       </c>
@@ -5992,7 +6041,7 @@
         <v>384</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>191</v>
@@ -6020,7 +6069,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1">
+    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>46</v>
       </c>
@@ -6034,7 +6083,7 @@
         <v>321</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>191</v>
@@ -6044,13 +6093,13 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7" t="s">
-        <v>507</v>
+        <v>690</v>
       </c>
       <c r="J47" s="35" t="s">
         <v>80</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>323</v>
@@ -6062,7 +6111,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1">
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>47</v>
       </c>
@@ -6076,7 +6125,7 @@
         <v>413</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>191</v>
@@ -6104,7 +6153,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1">
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>48</v>
       </c>
@@ -6118,7 +6167,7 @@
         <v>595</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>191</v>
@@ -6146,7 +6195,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1">
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <v>49</v>
       </c>
@@ -6160,7 +6209,7 @@
         <v>378</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>191</v>
@@ -6188,7 +6237,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1">
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <v>50</v>
       </c>
@@ -6202,7 +6251,7 @@
         <v>203</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>191</v>
@@ -6230,7 +6279,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1">
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>51</v>
       </c>
@@ -6244,7 +6293,7 @@
         <v>304</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>191</v>
@@ -6272,7 +6321,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1">
+    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <v>52</v>
       </c>
@@ -6286,7 +6335,7 @@
         <v>398</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>191</v>
@@ -6314,7 +6363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1">
+    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="68">
         <v>53</v>
       </c>
@@ -6328,7 +6377,7 @@
         <v>302</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F54" s="38" t="s">
         <v>191</v>
@@ -6338,7 +6387,7 @@
       </c>
       <c r="H54" s="38"/>
       <c r="I54" s="38" t="s">
-        <v>404</v>
+        <v>692</v>
       </c>
       <c r="J54" s="32" t="s">
         <v>80</v>
@@ -6356,7 +6405,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1">
+    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="68">
         <v>54</v>
       </c>
@@ -6370,7 +6419,7 @@
         <v>450</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F55" s="38" t="s">
         <v>191</v>
@@ -6380,7 +6429,7 @@
       </c>
       <c r="H55" s="38"/>
       <c r="I55" s="38" t="s">
-        <v>631</v>
+        <v>693</v>
       </c>
       <c r="J55" s="32" t="s">
         <v>80</v>
@@ -6398,7 +6447,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1">
+    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="68">
         <v>55</v>
       </c>
@@ -6412,7 +6461,7 @@
         <v>444</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>191</v>
@@ -6440,7 +6489,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1">
+    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="68">
         <v>56</v>
       </c>
@@ -6454,7 +6503,7 @@
         <v>457</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F57" s="38" t="s">
         <v>191</v>
@@ -6482,7 +6531,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1">
+    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="68">
         <v>57</v>
       </c>
@@ -6496,7 +6545,7 @@
         <v>453</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>191</v>
@@ -6524,7 +6573,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1">
+    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="68">
         <v>58</v>
       </c>
@@ -6538,7 +6587,7 @@
         <v>390</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>191</v>
@@ -6566,7 +6615,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1">
+    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="68">
         <v>59</v>
       </c>
@@ -6580,7 +6629,7 @@
         <v>455</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>191</v>
@@ -6608,7 +6657,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1">
+    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="68">
         <v>60</v>
       </c>
@@ -6622,7 +6671,7 @@
         <v>407</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F61" s="38" t="s">
         <v>191</v>
@@ -6650,7 +6699,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1">
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="68">
         <v>61</v>
       </c>
@@ -6664,7 +6713,7 @@
         <v>205</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F62" s="38" t="s">
         <v>191</v>
@@ -6692,7 +6741,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1">
+    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="69">
         <v>62</v>
       </c>
@@ -6706,7 +6755,7 @@
         <v>359</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F63" s="40" t="s">
         <v>191</v>
@@ -6734,21 +6783,21 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1">
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="69">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>267</v>
+        <v>655</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>170</v>
+        <v>654</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>428</v>
+        <v>658</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F64" s="40" t="s">
         <v>191</v>
@@ -6758,39 +6807,33 @@
       </c>
       <c r="H64" s="40"/>
       <c r="I64" s="40" t="s">
-        <v>513</v>
+        <v>634</v>
       </c>
       <c r="J64" s="41" t="s">
         <v>634</v>
       </c>
       <c r="K64" s="40" t="s">
-        <v>632</v>
-      </c>
-      <c r="L64" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="M64" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="N64" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="18" customHeight="1">
+        <v>634</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="17"/>
+    </row>
+    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="69">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F65" s="40" t="s">
         <v>191</v>
@@ -6800,7 +6843,7 @@
       </c>
       <c r="H65" s="40"/>
       <c r="I65" s="40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J65" s="41" t="s">
         <v>634</v>
@@ -6809,30 +6852,30 @@
         <v>632</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="M65" s="14" t="s">
         <v>478</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="18" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="69">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F66" s="40" t="s">
         <v>191</v>
@@ -6842,39 +6885,39 @@
       </c>
       <c r="H66" s="40"/>
       <c r="I66" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J66" s="41" t="s">
         <v>634</v>
       </c>
       <c r="K66" s="40" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="M66" s="14" t="s">
         <v>478</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="18" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="69">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F67" s="40" t="s">
         <v>191</v>
@@ -6884,39 +6927,39 @@
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J67" s="41" t="s">
         <v>634</v>
       </c>
       <c r="K67" s="40" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="M67" s="14" t="s">
         <v>478</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="18" customHeight="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>656</v>
+        <v>229</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>655</v>
+        <v>109</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>660</v>
+        <v>356</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F68" s="40" t="s">
         <v>191</v>
@@ -6926,19 +6969,25 @@
       </c>
       <c r="H68" s="40"/>
       <c r="I68" s="40" t="s">
-        <v>634</v>
+        <v>516</v>
       </c>
       <c r="J68" s="41" t="s">
         <v>634</v>
       </c>
       <c r="K68" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="17"/>
-    </row>
-    <row r="69" spans="1:14" ht="18" customHeight="1">
+        <v>660</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="N68" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
         <v>68</v>
       </c>
@@ -6952,7 +7001,7 @@
         <v>387</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F69" s="43" t="s">
         <v>191</v>
@@ -6968,7 +7017,7 @@
         <v>634</v>
       </c>
       <c r="K69" s="43" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L69" s="16" t="s">
         <v>389</v>
@@ -6980,7 +7029,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18" customHeight="1">
+    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
         <v>69</v>
       </c>
@@ -6994,7 +7043,7 @@
         <v>433</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F70" s="43" t="s">
         <v>191</v>
@@ -7004,13 +7053,13 @@
       </c>
       <c r="H70" s="43"/>
       <c r="I70" s="43" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J70" s="41" t="s">
         <v>634</v>
       </c>
       <c r="K70" s="43" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L70" s="16" t="s">
         <v>434</v>
@@ -7022,7 +7071,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1">
+    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
         <v>70</v>
       </c>
@@ -7036,7 +7085,7 @@
         <v>373</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F71" s="43" t="s">
         <v>191</v>
@@ -7052,7 +7101,7 @@
         <v>80</v>
       </c>
       <c r="K71" s="43" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L71" s="16" t="s">
         <v>374</v>
@@ -7064,7 +7113,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1">
+    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="71">
         <v>71</v>
       </c>
@@ -7078,7 +7127,7 @@
         <v>463</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F72" s="45" t="s">
         <v>191</v>
@@ -7106,7 +7155,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="18" customHeight="1">
+    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="71">
         <v>72</v>
       </c>
@@ -7120,7 +7169,7 @@
         <v>465</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F73" s="45" t="s">
         <v>191</v>
@@ -7148,7 +7197,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1">
+    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="71">
         <v>73</v>
       </c>
@@ -7162,7 +7211,7 @@
         <v>421</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F74" s="45" t="s">
         <v>191</v>
@@ -7190,7 +7239,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1">
+    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="71">
         <v>74</v>
       </c>
@@ -7204,7 +7253,7 @@
         <v>381</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F75" s="45" t="s">
         <v>191</v>
@@ -7232,7 +7281,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1">
+    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="71">
         <v>75</v>
       </c>
@@ -7246,7 +7295,7 @@
         <v>316</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F76" s="45" t="s">
         <v>191</v>
@@ -7256,7 +7305,7 @@
       </c>
       <c r="H76" s="45"/>
       <c r="I76" s="45" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J76" s="46" t="s">
         <v>192</v>
@@ -7274,7 +7323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="18" customHeight="1">
+    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="71">
         <v>76</v>
       </c>
@@ -7288,7 +7337,7 @@
         <v>364</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F77" s="45" t="s">
         <v>191</v>
@@ -7316,7 +7365,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1">
+    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="71">
         <v>77</v>
       </c>
@@ -7330,7 +7379,7 @@
         <v>204</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F78" s="45" t="s">
         <v>191</v>
@@ -7346,7 +7395,7 @@
         <v>192</v>
       </c>
       <c r="K78" s="46" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="14" t="s">
@@ -7356,7 +7405,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="18" customHeight="1">
+    <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="71">
         <v>78</v>
       </c>
@@ -7370,7 +7419,7 @@
         <v>460</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F79" s="45" t="s">
         <v>191</v>
@@ -7398,7 +7447,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="18" customHeight="1">
+    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="71">
         <v>79</v>
       </c>
@@ -7412,7 +7461,7 @@
         <v>375</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F80" s="45" t="s">
         <v>191</v>
@@ -7440,7 +7489,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18" customHeight="1">
+    <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="71">
         <v>80</v>
       </c>
@@ -7454,7 +7503,7 @@
         <v>362</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F81" s="45" t="s">
         <v>191</v>
@@ -7482,7 +7531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18">
+    <row r="82" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="71">
         <v>81</v>
       </c>
@@ -7496,7 +7545,7 @@
         <v>297</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F82" s="45" t="s">
         <v>191</v>
@@ -7524,7 +7573,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18">
+    <row r="83" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="71">
         <v>82</v>
       </c>
@@ -7538,7 +7587,7 @@
         <v>468</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F83" s="45" t="s">
         <v>191</v>
@@ -7566,7 +7615,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18">
+    <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="71">
         <v>83</v>
       </c>
@@ -7580,7 +7629,7 @@
         <v>435</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F84" s="45" t="s">
         <v>191</v>
@@ -7608,7 +7657,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18">
+    <row r="85" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="71">
         <v>84</v>
       </c>
@@ -7622,7 +7671,7 @@
         <v>345</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F85" s="45" t="s">
         <v>191</v>
@@ -7650,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18">
+    <row r="86" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="71">
         <v>85</v>
       </c>
@@ -7664,7 +7713,7 @@
         <v>300</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F86" s="45" t="s">
         <v>191</v>
@@ -7692,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18">
+    <row r="87" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="71">
         <v>86</v>
       </c>
@@ -7706,7 +7755,7 @@
         <v>419</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F87" s="45" t="s">
         <v>191</v>
@@ -7734,31 +7783,31 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18" customHeight="1">
-      <c r="A88" s="72">
-        <v>87</v>
-      </c>
-      <c r="B88" s="49" t="s">
-        <v>499</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>504</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>613</v>
-      </c>
-      <c r="E88" s="50" t="s">
-        <v>685</v>
-      </c>
-      <c r="F88" s="50" t="s">
-        <v>626</v>
-      </c>
-      <c r="G88" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50" t="s">
-        <v>520</v>
+    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="28">
+        <v>119</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27" t="s">
+        <v>630</v>
       </c>
       <c r="J88" s="15" t="s">
         <v>197</v>
@@ -7766,241 +7815,241 @@
       <c r="K88" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L88" s="16"/>
+      <c r="L88" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="M88" s="14"/>
       <c r="N88" s="17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="18" customHeight="1">
-      <c r="A89" s="72">
-        <v>88</v>
-      </c>
-      <c r="B89" s="49" t="s">
-        <v>497</v>
-      </c>
-      <c r="C89" s="50" t="s">
-        <v>500</v>
-      </c>
-      <c r="D89" s="50" t="s">
-        <v>614</v>
-      </c>
-      <c r="E89" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="28">
+        <v>120</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="N89" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="28">
+        <v>121</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K90" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M90" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="N90" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="28">
+        <v>122</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L91" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M91" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="N91" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="28">
+        <v>123</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="J92" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K92" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M92" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="N92" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="28">
+        <v>124</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="27" t="s">
         <v>685</v>
       </c>
-      <c r="F89" s="50" t="s">
-        <v>626</v>
-      </c>
-      <c r="G89" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="J89" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K89" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L89" s="16"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="18" customHeight="1">
-      <c r="A90" s="72">
-        <v>89</v>
-      </c>
-      <c r="B90" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="C90" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D90" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="E90" s="50" t="s">
-        <v>685</v>
-      </c>
-      <c r="F90" s="50" t="s">
-        <v>626</v>
-      </c>
-      <c r="G90" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="J90" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K90" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L90" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="M90" s="14" t="s">
+      <c r="E93" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F93" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="J93" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M93" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="N90" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="18" customHeight="1">
-      <c r="A91" s="72">
-        <v>90</v>
-      </c>
-      <c r="B91" s="49" t="s">
-        <v>498</v>
-      </c>
-      <c r="C91" s="50" t="s">
-        <v>501</v>
-      </c>
-      <c r="D91" s="50" t="s">
-        <v>614</v>
-      </c>
-      <c r="E91" s="50" t="s">
-        <v>685</v>
-      </c>
-      <c r="F91" s="50" t="s">
-        <v>626</v>
-      </c>
-      <c r="G91" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="J91" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K91" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L91" s="16"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="17" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="18">
-      <c r="A92" s="73">
+      <c r="N93" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="73">
         <v>91</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B94" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C94" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="D92" s="52" t="s">
+      <c r="D94" s="52" t="s">
         <v>611</v>
       </c>
-      <c r="E92" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="F92" s="52" t="s">
-        <v>690</v>
-      </c>
-      <c r="G92" s="52" t="s">
+      <c r="E94" s="52" t="s">
+        <v>683</v>
+      </c>
+      <c r="F94" s="52" t="s">
         <v>688</v>
       </c>
-      <c r="H92" s="52">
-        <v>1</v>
-      </c>
-      <c r="I92" s="52" t="s">
-        <v>521</v>
-      </c>
-      <c r="J92" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K92" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L92" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="M92" s="53"/>
-      <c r="N92" s="17" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="18">
-      <c r="A93" s="73">
-        <v>92</v>
-      </c>
-      <c r="B93" s="51" t="s">
-        <v>574</v>
-      </c>
-      <c r="C93" s="52" t="s">
-        <v>580</v>
-      </c>
-      <c r="D93" s="52" t="s">
-        <v>610</v>
-      </c>
-      <c r="E93" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="F93" s="52" t="s">
-        <v>690</v>
-      </c>
-      <c r="G93" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="H93" s="52">
-        <v>1</v>
-      </c>
-      <c r="I93" s="52" t="s">
-        <v>584</v>
-      </c>
-      <c r="J93" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K93" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L93" s="16" t="s">
-        <v>680</v>
-      </c>
-      <c r="M93" s="53"/>
-      <c r="N93" s="17" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="18">
-      <c r="A94" s="73">
-        <v>93</v>
-      </c>
-      <c r="B94" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="C94" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="D94" s="52" t="s">
-        <v>609</v>
-      </c>
-      <c r="E94" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="F94" s="52" t="s">
-        <v>690</v>
-      </c>
       <c r="G94" s="52" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H94" s="52">
         <v>1</v>
       </c>
       <c r="I94" s="52" t="s">
-        <v>404</v>
+        <v>521</v>
       </c>
       <c r="J94" s="15" t="s">
         <v>197</v>
@@ -8013,36 +8062,36 @@
       </c>
       <c r="M94" s="53"/>
       <c r="N94" s="17" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="18">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="73">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>676</v>
+        <v>574</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G95" s="52" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H95" s="52">
         <v>1</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="J95" s="15" t="s">
         <v>197</v>
@@ -8055,36 +8104,36 @@
       </c>
       <c r="M95" s="53"/>
       <c r="N95" s="17" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="18">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="73">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>578</v>
+        <v>664</v>
       </c>
       <c r="E96" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F96" s="52" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G96" s="52" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H96" s="52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96" s="52" t="s">
-        <v>522</v>
+        <v>663</v>
       </c>
       <c r="J96" s="15" t="s">
         <v>197</v>
@@ -8092,39 +8141,37 @@
       <c r="K96" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L96" s="16" t="s">
-        <v>678</v>
-      </c>
+      <c r="L96" s="16"/>
       <c r="M96" s="53"/>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="1:14" ht="18">
+    <row r="97" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="73">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" s="51" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E97" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F97" s="52" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G97" s="52" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H97" s="52">
         <v>1</v>
       </c>
       <c r="I97" s="52" t="s">
-        <v>586</v>
+        <v>404</v>
       </c>
       <c r="J97" s="15" t="s">
         <v>197</v>
@@ -8132,39 +8179,41 @@
       <c r="K97" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L97" s="16"/>
+      <c r="L97" s="16" t="s">
+        <v>677</v>
+      </c>
       <c r="M97" s="53"/>
       <c r="N97" s="17" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="18">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="73">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B98" s="51" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>647</v>
+        <v>577</v>
       </c>
       <c r="D98" s="52" t="s">
-        <v>666</v>
+        <v>578</v>
       </c>
       <c r="E98" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F98" s="52" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G98" s="52" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H98" s="52">
         <v>1</v>
       </c>
       <c r="I98" s="52" t="s">
-        <v>665</v>
+        <v>522</v>
       </c>
       <c r="J98" s="15" t="s">
         <v>197</v>
@@ -8172,11 +8221,15 @@
       <c r="K98" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L98" s="16"/>
+      <c r="L98" s="16" t="s">
+        <v>676</v>
+      </c>
       <c r="M98" s="53"/>
-      <c r="N98" s="17"/>
-    </row>
-    <row r="99" spans="1:14" ht="18">
+      <c r="N98" s="17" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="73">
         <v>98</v>
       </c>
@@ -8187,22 +8240,22 @@
         <v>648</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G99" s="52" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H99" s="52">
         <v>1</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J99" s="15" t="s">
         <v>197</v>
@@ -8214,455 +8267,463 @@
       <c r="M99" s="53"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="1:14" ht="18">
-      <c r="A100" s="55">
+    <row r="100" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="73">
+        <v>96</v>
+      </c>
+      <c r="B100" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="D100" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="E100" s="52" t="s">
+        <v>683</v>
+      </c>
+      <c r="F100" s="52" t="s">
+        <v>688</v>
+      </c>
+      <c r="G100" s="52" t="s">
+        <v>686</v>
+      </c>
+      <c r="H100" s="52">
+        <v>1</v>
+      </c>
+      <c r="I100" s="52" t="s">
+        <v>586</v>
+      </c>
+      <c r="J100" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K100" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L100" s="16"/>
+      <c r="M100" s="53"/>
+      <c r="N100" s="17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="73">
+        <v>95</v>
+      </c>
+      <c r="B101" s="51" t="s">
+        <v>675</v>
+      </c>
+      <c r="C101" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="D101" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="E101" s="52" t="s">
+        <v>683</v>
+      </c>
+      <c r="F101" s="52" t="s">
+        <v>688</v>
+      </c>
+      <c r="G101" s="52" t="s">
+        <v>687</v>
+      </c>
+      <c r="H101" s="52">
+        <v>3</v>
+      </c>
+      <c r="I101" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="J101" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K101" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L101" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="M101" s="53"/>
+      <c r="N101" s="17"/>
+    </row>
+    <row r="102" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="66">
+        <v>125</v>
+      </c>
+      <c r="B102" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="67" t="s">
+        <v>608</v>
+      </c>
+      <c r="E102" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="F102" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="J102" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="K102" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="L102" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="M102" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="N102" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="66">
+        <v>126</v>
+      </c>
+      <c r="B103" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="F103" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67" t="s">
+        <v>592</v>
+      </c>
+      <c r="J103" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="K103" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="L103" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="M103" s="67"/>
+      <c r="N103" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="66">
+        <v>127</v>
+      </c>
+      <c r="B104" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="E104" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="F104" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67" t="s">
+        <v>592</v>
+      </c>
+      <c r="J104" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="K104" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="L104" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="M104" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="N104" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A105" s="66">
+        <v>128</v>
+      </c>
+      <c r="B105" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" s="67" t="s">
+        <v>607</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="F105" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="J105" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="K105" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="L105" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="M105" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="N105" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="66">
+        <v>129</v>
+      </c>
+      <c r="B106" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="E106" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="F106" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67" t="s">
+        <v>592</v>
+      </c>
+      <c r="J106" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="K106" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="L106" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="M106" s="67"/>
+      <c r="N106" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="66">
+        <v>130</v>
+      </c>
+      <c r="B107" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107" s="67" t="s">
+        <v>606</v>
+      </c>
+      <c r="E107" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="F107" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="J107" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="K107" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="L107" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="M107" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="N107" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="66">
+        <v>131</v>
+      </c>
+      <c r="B108" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D108" s="67" t="s">
+        <v>605</v>
+      </c>
+      <c r="E108" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="F108" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="J108" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="K108" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="L108" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="M108" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="N108" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="55">
         <v>99</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B109" s="55" t="s">
         <v>622</v>
       </c>
-      <c r="C100" s="56" t="s">
+      <c r="C109" s="56" t="s">
         <v>490</v>
       </c>
-      <c r="D100" s="57" t="s">
+      <c r="D109" s="57" t="s">
         <v>617</v>
       </c>
-      <c r="E100" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="F100" s="58" t="s">
+      <c r="E109" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="F109" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="G100" s="57" t="s">
+      <c r="G109" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57" t="s">
+      <c r="H109" s="57"/>
+      <c r="I109" s="57" t="s">
         <v>532</v>
       </c>
-      <c r="J100" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K100" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L100" s="16"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="60" t="s">
+      <c r="J109" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K109" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L109" s="16"/>
+      <c r="M109" s="59"/>
+      <c r="N109" s="60" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="18">
-      <c r="A101" s="61">
+    <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="61">
         <v>100</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B110" s="61" t="s">
         <v>561</v>
       </c>
-      <c r="C101" s="56" t="s">
+      <c r="C110" s="56" t="s">
         <v>562</v>
       </c>
-      <c r="D101" s="56" t="s">
+      <c r="D110" s="56" t="s">
         <v>618</v>
       </c>
-      <c r="E101" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="F101" s="58" t="s">
+      <c r="E110" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="F110" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="G101" s="56" t="s">
+      <c r="G110" s="56" t="s">
         <v>558</v>
       </c>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56" t="s">
+      <c r="H110" s="56"/>
+      <c r="I110" s="56" t="s">
         <v>570</v>
       </c>
-      <c r="J101" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K101" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L101" s="16"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="17" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="18">
-      <c r="A102" s="55">
-        <v>101</v>
-      </c>
-      <c r="B102" s="55" t="s">
-        <v>623</v>
-      </c>
-      <c r="C102" s="56" t="s">
-        <v>492</v>
-      </c>
-      <c r="D102" s="56" t="s">
-        <v>686</v>
-      </c>
-      <c r="E102" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="F102" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="G102" s="57" t="s">
-        <v>558</v>
-      </c>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57" t="s">
-        <v>533</v>
-      </c>
-      <c r="J102" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K102" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L102" s="54"/>
-      <c r="M102" s="53"/>
-      <c r="N102" s="60" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="18">
-      <c r="A103" s="61">
-        <v>102</v>
-      </c>
-      <c r="B103" s="61" t="s">
-        <v>560</v>
-      </c>
-      <c r="C103" s="56" t="s">
-        <v>563</v>
-      </c>
-      <c r="D103" s="56" t="s">
-        <v>616</v>
-      </c>
-      <c r="E103" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="F103" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="G103" s="56" t="s">
-        <v>558</v>
-      </c>
-      <c r="H103" s="56"/>
-      <c r="I103" s="56" t="s">
-        <v>568</v>
-      </c>
-      <c r="J103" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K103" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L103" s="16"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="17" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="18">
-      <c r="A104" s="61">
-        <v>103</v>
-      </c>
-      <c r="B104" s="61" t="s">
-        <v>559</v>
-      </c>
-      <c r="C104" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="D104" s="56" t="s">
-        <v>615</v>
-      </c>
-      <c r="E104" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="F104" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="G104" s="56" t="s">
-        <v>558</v>
-      </c>
-      <c r="H104" s="56"/>
-      <c r="I104" s="56" t="s">
-        <v>566</v>
-      </c>
-      <c r="J104" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K104" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L104" s="16"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="17" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="18">
-      <c r="A105" s="55">
-        <v>104</v>
-      </c>
-      <c r="B105" s="55" t="s">
-        <v>484</v>
-      </c>
-      <c r="C105" s="56" t="s">
-        <v>491</v>
-      </c>
-      <c r="D105" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="E105" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="F105" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="G105" s="57" t="s">
-        <v>557</v>
-      </c>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57" t="s">
-        <v>545</v>
-      </c>
-      <c r="J105" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K105" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L105" s="62"/>
-      <c r="M105" s="59"/>
-      <c r="N105" s="60" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="18">
-      <c r="A106" s="55">
-        <v>105</v>
-      </c>
-      <c r="B106" s="55" t="s">
-        <v>489</v>
-      </c>
-      <c r="C106" s="56" t="s">
-        <v>486</v>
-      </c>
-      <c r="D106" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="E106" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="F106" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="G106" s="57" t="s">
-        <v>557</v>
-      </c>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57" t="s">
-        <v>543</v>
-      </c>
-      <c r="J106" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K106" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L106" s="62"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="60" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="18">
-      <c r="A107" s="55">
-        <v>106</v>
-      </c>
-      <c r="B107" s="55" t="s">
-        <v>641</v>
-      </c>
-      <c r="C107" s="56" t="s">
-        <v>642</v>
-      </c>
-      <c r="D107" s="57" t="s">
-        <v>644</v>
-      </c>
-      <c r="E107" s="58" t="s">
-        <v>685</v>
-      </c>
-      <c r="F107" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="G107" s="57" t="s">
-        <v>557</v>
-      </c>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57" t="s">
-        <v>643</v>
-      </c>
-      <c r="J107" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K107" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L107" s="62"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="60"/>
-    </row>
-    <row r="108" spans="1:14" ht="18">
-      <c r="A108" s="63">
-        <v>107</v>
-      </c>
-      <c r="B108" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="E108" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F108" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G108" s="65" t="s">
-        <v>549</v>
-      </c>
-      <c r="H108" s="65"/>
-      <c r="I108" s="65" t="s">
-        <v>524</v>
-      </c>
-      <c r="J108" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L108" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M108" s="14"/>
-      <c r="N108" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="18">
-      <c r="A109" s="63">
-        <v>108</v>
-      </c>
-      <c r="B109" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="C109" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D109" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="E109" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F109" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G109" s="65" t="s">
-        <v>550</v>
-      </c>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65" t="s">
-        <v>524</v>
-      </c>
-      <c r="J109" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L109" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="M109" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="N109" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="18">
-      <c r="A110" s="63">
-        <v>109</v>
-      </c>
-      <c r="B110" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="C110" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="D110" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="E110" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F110" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G110" s="65" t="s">
-        <v>552</v>
-      </c>
-      <c r="H110" s="65"/>
-      <c r="I110" s="65" t="s">
-        <v>529</v>
-      </c>
       <c r="J110" s="15" t="s">
         <v>197</v>
       </c>
       <c r="K110" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L110" s="16" t="s">
-        <v>353</v>
-      </c>
+      <c r="L110" s="16"/>
       <c r="M110" s="14"/>
       <c r="N110" s="17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="18">
-      <c r="A111" s="63">
-        <v>110</v>
-      </c>
-      <c r="B111" s="63" t="s">
-        <v>232</v>
-      </c>
-      <c r="C111" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="65" t="s">
-        <v>600</v>
-      </c>
-      <c r="E111" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F111" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G111" s="65" t="s">
-        <v>548</v>
-      </c>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65" t="s">
-        <v>523</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="55">
+        <v>101</v>
+      </c>
+      <c r="B111" s="55" t="s">
+        <v>623</v>
+      </c>
+      <c r="C111" s="56" t="s">
+        <v>492</v>
+      </c>
+      <c r="D111" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="E111" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="F111" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G111" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57" t="s">
+        <v>533</v>
       </c>
       <c r="J111" s="15" t="s">
         <v>197</v>
@@ -8670,39 +8731,37 @@
       <c r="K111" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L111" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="M111" s="14"/>
-      <c r="N111" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="18">
-      <c r="A112" s="63">
-        <v>111</v>
-      </c>
-      <c r="B112" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="C112" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="D112" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="E112" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F112" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G112" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65" t="s">
-        <v>531</v>
+      <c r="L111" s="54"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="60" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A112" s="61">
+        <v>102</v>
+      </c>
+      <c r="B112" s="61" t="s">
+        <v>560</v>
+      </c>
+      <c r="C112" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="D112" s="56" t="s">
+        <v>616</v>
+      </c>
+      <c r="E112" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="F112" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G112" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="H112" s="56"/>
+      <c r="I112" s="56" t="s">
+        <v>568</v>
       </c>
       <c r="J112" s="15" t="s">
         <v>197</v>
@@ -8710,41 +8769,37 @@
       <c r="K112" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L112" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M112" s="14" t="s">
-        <v>478</v>
-      </c>
+      <c r="L112" s="16"/>
+      <c r="M112" s="14"/>
       <c r="N112" s="17" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="18">
-      <c r="A113" s="63">
-        <v>112</v>
-      </c>
-      <c r="B113" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="C113" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="D113" s="65" t="s">
-        <v>601</v>
-      </c>
-      <c r="E113" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F113" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G113" s="65" t="s">
-        <v>555</v>
-      </c>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65" t="s">
-        <v>529</v>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="61">
+        <v>103</v>
+      </c>
+      <c r="B113" s="61" t="s">
+        <v>559</v>
+      </c>
+      <c r="C113" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="D113" s="56" t="s">
+        <v>615</v>
+      </c>
+      <c r="E113" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="F113" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G113" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="H113" s="56"/>
+      <c r="I113" s="56" t="s">
+        <v>566</v>
       </c>
       <c r="J113" s="15" t="s">
         <v>197</v>
@@ -8752,41 +8807,37 @@
       <c r="K113" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L113" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M113" s="14" t="s">
-        <v>481</v>
-      </c>
+      <c r="L113" s="16"/>
+      <c r="M113" s="14"/>
       <c r="N113" s="17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="18">
-      <c r="A114" s="63">
-        <v>113</v>
-      </c>
-      <c r="B114" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D114" s="65" t="s">
-        <v>604</v>
-      </c>
-      <c r="E114" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F114" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G114" s="65" t="s">
-        <v>553</v>
-      </c>
-      <c r="H114" s="65"/>
-      <c r="I114" s="65" t="s">
-        <v>530</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="55">
+        <v>106</v>
+      </c>
+      <c r="B114" s="55" t="s">
+        <v>641</v>
+      </c>
+      <c r="C114" s="56" t="s">
+        <v>642</v>
+      </c>
+      <c r="D114" s="57" t="s">
+        <v>644</v>
+      </c>
+      <c r="E114" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="F114" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G114" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57" t="s">
+        <v>643</v>
       </c>
       <c r="J114" s="15" t="s">
         <v>197</v>
@@ -8794,41 +8845,35 @@
       <c r="K114" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L114" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M114" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="N114" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="18">
-      <c r="A115" s="63">
-        <v>114</v>
-      </c>
-      <c r="B115" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D115" s="65" t="s">
-        <v>410</v>
-      </c>
-      <c r="E115" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F115" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G115" s="65" t="s">
-        <v>551</v>
-      </c>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65" t="s">
-        <v>524</v>
+      <c r="L114" s="62"/>
+      <c r="M114" s="59"/>
+      <c r="N114" s="60"/>
+    </row>
+    <row r="115" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A115" s="55">
+        <v>104</v>
+      </c>
+      <c r="B115" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="C115" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="D115" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="E115" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="F115" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G115" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="H115" s="57"/>
+      <c r="I115" s="57" t="s">
+        <v>545</v>
       </c>
       <c r="J115" s="15" t="s">
         <v>197</v>
@@ -8836,41 +8881,37 @@
       <c r="K115" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L115" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M115" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="N115" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="18">
-      <c r="A116" s="63">
-        <v>115</v>
-      </c>
-      <c r="B116" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="C116" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D116" s="65" t="s">
-        <v>602</v>
-      </c>
-      <c r="E116" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="F116" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="G116" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65" t="s">
-        <v>523</v>
+      <c r="L115" s="62"/>
+      <c r="M115" s="59"/>
+      <c r="N115" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A116" s="55">
+        <v>105</v>
+      </c>
+      <c r="B116" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="C116" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="D116" s="57" t="s">
+        <v>487</v>
+      </c>
+      <c r="E116" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="F116" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G116" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57" t="s">
+        <v>543</v>
       </c>
       <c r="J116" s="15" t="s">
         <v>197</v>
@@ -8878,41 +8919,37 @@
       <c r="K116" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L116" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M116" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="N116" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="18">
+      <c r="L116" s="62"/>
+      <c r="M116" s="59"/>
+      <c r="N116" s="60" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="63">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B117" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="C117" s="65" t="s">
-        <v>168</v>
+        <v>218</v>
+      </c>
+      <c r="C117" s="64" t="s">
+        <v>94</v>
       </c>
       <c r="D117" s="65" t="s">
-        <v>603</v>
+        <v>336</v>
       </c>
       <c r="E117" s="65" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F117" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G117" s="65" t="s">
-        <v>669</v>
+        <v>549</v>
       </c>
       <c r="H117" s="65"/>
       <c r="I117" s="65" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J117" s="15" t="s">
         <v>197</v>
@@ -8921,40 +8958,38 @@
         <v>197</v>
       </c>
       <c r="L117" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M117" s="14" t="s">
-        <v>478</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M117" s="14"/>
       <c r="N117" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="18">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="63">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B118" s="63" t="s">
-        <v>670</v>
-      </c>
-      <c r="C118" s="65" t="s">
-        <v>671</v>
+        <v>225</v>
+      </c>
+      <c r="C118" s="64" t="s">
+        <v>105</v>
       </c>
       <c r="D118" s="65" t="s">
-        <v>672</v>
+        <v>350</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F118" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G118" s="65" t="s">
-        <v>673</v>
+        <v>550</v>
       </c>
       <c r="H118" s="65"/>
       <c r="I118" s="65" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="J118" s="15" t="s">
         <v>197</v>
@@ -8962,33 +8997,41 @@
       <c r="K118" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L118" s="16"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="17"/>
-    </row>
-    <row r="119" spans="1:14" ht="18">
+      <c r="L118" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="M118" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="N118" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="63">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B119" s="63" t="s">
-        <v>682</v>
-      </c>
-      <c r="C119" s="65" t="s">
-        <v>645</v>
+        <v>227</v>
+      </c>
+      <c r="C119" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="D119" s="65" t="s">
-        <v>674</v>
+        <v>352</v>
       </c>
       <c r="E119" s="65" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F119" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="G119" s="65"/>
+      <c r="G119" s="65" t="s">
+        <v>552</v>
+      </c>
       <c r="H119" s="65"/>
       <c r="I119" s="65" t="s">
-        <v>634</v>
+        <v>529</v>
       </c>
       <c r="J119" s="15" t="s">
         <v>197</v>
@@ -8996,35 +9039,39 @@
       <c r="K119" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L119" s="16"/>
+      <c r="L119" s="16" t="s">
+        <v>353</v>
+      </c>
       <c r="M119" s="14"/>
-      <c r="N119" s="17"/>
-    </row>
-    <row r="120" spans="1:14" ht="18">
-      <c r="A120" s="28">
-        <v>119</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="E120" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="F120" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G120" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27" t="s">
-        <v>630</v>
+      <c r="N119" s="17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="63">
+        <v>110</v>
+      </c>
+      <c r="B120" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" s="65" t="s">
+        <v>600</v>
+      </c>
+      <c r="E120" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F120" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G120" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="H120" s="65"/>
+      <c r="I120" s="65" t="s">
+        <v>523</v>
       </c>
       <c r="J120" s="15" t="s">
         <v>197</v>
@@ -9033,495 +9080,503 @@
         <v>197</v>
       </c>
       <c r="L120" s="16" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="M120" s="14"/>
       <c r="N120" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="63">
+        <v>111</v>
+      </c>
+      <c r="B121" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D121" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="E121" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F121" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G121" s="65" t="s">
+        <v>556</v>
+      </c>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65" t="s">
+        <v>531</v>
+      </c>
+      <c r="J121" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K121" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L121" s="16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="18">
-      <c r="A121" s="28">
-        <v>120</v>
-      </c>
-      <c r="B121" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>596</v>
-      </c>
-      <c r="E121" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="F121" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27" t="s">
+      <c r="M121" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="N121" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A122" s="63">
+        <v>112</v>
+      </c>
+      <c r="B122" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D122" s="65" t="s">
+        <v>601</v>
+      </c>
+      <c r="E122" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F122" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G122" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65" t="s">
+        <v>529</v>
+      </c>
+      <c r="J122" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K122" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L122" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M122" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="N122" s="17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="63">
+        <v>113</v>
+      </c>
+      <c r="B123" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="E123" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F123" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G123" s="65" t="s">
+        <v>553</v>
+      </c>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65" t="s">
+        <v>530</v>
+      </c>
+      <c r="J123" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K123" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L123" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M123" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="N123" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A124" s="63">
+        <v>114</v>
+      </c>
+      <c r="B124" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D124" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="E124" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F124" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G124" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65" t="s">
         <v>524</v>
       </c>
-      <c r="J121" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K121" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L121" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M121" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="N121" s="17" t="s">
+      <c r="J124" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K124" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L124" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M124" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="N124" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="18">
-      <c r="A122" s="28">
-        <v>121</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="C122" s="29" t="s">
-        <v>620</v>
-      </c>
-      <c r="D122" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="E122" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="F122" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="J122" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K122" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L122" s="16" t="s">
+    <row r="125" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A125" s="63">
+        <v>115</v>
+      </c>
+      <c r="B125" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D125" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="E125" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F125" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G125" s="65" t="s">
+        <v>554</v>
+      </c>
+      <c r="H125" s="65"/>
+      <c r="I125" s="65" t="s">
+        <v>523</v>
+      </c>
+      <c r="J125" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K125" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L125" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M122" s="14" t="s">
+      <c r="M125" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="N122" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="18">
-      <c r="A123" s="28">
-        <v>122</v>
-      </c>
-      <c r="B123" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D123" s="27" t="s">
-        <v>598</v>
-      </c>
-      <c r="E123" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="F123" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27" t="s">
+      <c r="N125" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A126" s="63">
+        <v>116</v>
+      </c>
+      <c r="B126" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="E126" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F126" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G126" s="65" t="s">
+        <v>667</v>
+      </c>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65" t="s">
         <v>526</v>
       </c>
-      <c r="J123" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K123" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L123" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M123" s="14" t="s">
+      <c r="J126" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K126" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L126" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M126" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="N123" s="17" t="s">
+      <c r="N126" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="18">
-      <c r="A124" s="28">
-        <v>123</v>
-      </c>
-      <c r="B124" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D124" s="27" t="s">
-        <v>599</v>
-      </c>
-      <c r="E124" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="F124" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="J124" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K124" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L124" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M124" s="14" t="s">
+    <row r="127" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A127" s="63">
+        <v>118</v>
+      </c>
+      <c r="B127" s="63" t="s">
+        <v>668</v>
+      </c>
+      <c r="C127" s="65" t="s">
+        <v>669</v>
+      </c>
+      <c r="D127" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="E127" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F127" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G127" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65" t="s">
+        <v>529</v>
+      </c>
+      <c r="J127" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K127" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L127" s="16"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="17"/>
+    </row>
+    <row r="128" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A128" s="63">
+        <v>117</v>
+      </c>
+      <c r="B128" s="63" t="s">
+        <v>680</v>
+      </c>
+      <c r="C128" s="65" t="s">
+        <v>645</v>
+      </c>
+      <c r="D128" s="65" t="s">
+        <v>672</v>
+      </c>
+      <c r="E128" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F128" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="G128" s="65"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="65" t="s">
+        <v>634</v>
+      </c>
+      <c r="J128" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K128" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L128" s="16"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="17"/>
+    </row>
+    <row r="129" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A129" s="72">
+        <v>87</v>
+      </c>
+      <c r="B129" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="D129" s="50" t="s">
+        <v>613</v>
+      </c>
+      <c r="E129" s="50" t="s">
+        <v>683</v>
+      </c>
+      <c r="F129" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="G129" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="H129" s="50"/>
+      <c r="I129" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="J129" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K129" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L129" s="16"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A130" s="72">
+        <v>88</v>
+      </c>
+      <c r="B130" s="49" t="s">
+        <v>497</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>500</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="E130" s="50" t="s">
+        <v>683</v>
+      </c>
+      <c r="F130" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="G130" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="H130" s="50"/>
+      <c r="I130" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="J130" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K130" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L130" s="16"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A131" s="72">
+        <v>89</v>
+      </c>
+      <c r="B131" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E131" s="50" t="s">
+        <v>683</v>
+      </c>
+      <c r="F131" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="G131" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="H131" s="50"/>
+      <c r="I131" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="J131" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K131" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L131" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="M131" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="N124" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" ht="18">
-      <c r="A125" s="28">
-        <v>124</v>
-      </c>
-      <c r="B125" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="C125" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D125" s="27" t="s">
-        <v>687</v>
-      </c>
-      <c r="E125" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="F125" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="J125" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K125" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L125" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M125" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="N125" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" ht="18">
-      <c r="A126" s="66">
-        <v>125</v>
-      </c>
-      <c r="B126" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="C126" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D126" s="67" t="s">
-        <v>608</v>
-      </c>
-      <c r="E126" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="F126" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
-      <c r="I126" s="67" t="s">
-        <v>525</v>
-      </c>
-      <c r="J126" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K126" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L126" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="M126" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="N126" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="18">
-      <c r="A127" s="66">
-        <v>126</v>
-      </c>
-      <c r="B127" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D127" s="67" t="s">
-        <v>347</v>
-      </c>
-      <c r="E127" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="F127" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="J127" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K127" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L127" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="M127" s="67"/>
-      <c r="N127" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" ht="18">
-      <c r="A128" s="66">
-        <v>127</v>
-      </c>
-      <c r="B128" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="C128" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D128" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="E128" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="F128" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="J128" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K128" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L128" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="M128" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="N128" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" ht="18">
-      <c r="A129" s="66">
-        <v>128</v>
-      </c>
-      <c r="B129" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="C129" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D129" s="67" t="s">
-        <v>607</v>
-      </c>
-      <c r="E129" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="F129" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="67" t="s">
-        <v>526</v>
-      </c>
-      <c r="J129" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K129" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L129" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="M129" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="N129" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" ht="18">
-      <c r="A130" s="66">
-        <v>129</v>
-      </c>
-      <c r="B130" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="C130" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D130" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="E130" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="F130" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
-      <c r="I130" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="J130" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K130" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L130" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="M130" s="67"/>
-      <c r="N130" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" ht="18">
-      <c r="A131" s="66">
-        <v>130</v>
-      </c>
-      <c r="B131" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="C131" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D131" s="67" t="s">
-        <v>606</v>
-      </c>
-      <c r="E131" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="F131" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67" t="s">
-        <v>527</v>
-      </c>
-      <c r="J131" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K131" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L131" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M131" s="67" t="s">
-        <v>478</v>
-      </c>
       <c r="N131" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="18">
-      <c r="A132" s="66">
-        <v>131</v>
-      </c>
-      <c r="B132" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="C132" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D132" s="67" t="s">
-        <v>605</v>
-      </c>
-      <c r="E132" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="F132" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
-      <c r="I132" s="67" t="s">
-        <v>528</v>
-      </c>
-      <c r="J132" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="K132" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="L132" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="M132" s="67" t="s">
-        <v>480</v>
-      </c>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A132" s="72">
+        <v>90</v>
+      </c>
+      <c r="B132" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="D132" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="E132" s="50" t="s">
+        <v>683</v>
+      </c>
+      <c r="F132" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="G132" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="H132" s="50"/>
+      <c r="I132" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="J132" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K132" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L132" s="16"/>
+      <c r="M132" s="14"/>
       <c r="N132" s="17" t="s">
-        <v>162</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:O131">
-    <sortCondition ref="F2:F131"/>
-    <sortCondition ref="G2:G131"/>
-    <sortCondition ref="C2:C131"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N132">
+    <sortCondition ref="F2:F132"/>
+    <sortCondition ref="G2:G132"/>
+    <sortCondition ref="C2:C132"/>
+    <sortCondition ref="I2:I132"/>
   </sortState>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="aedes">
+      <formula>NOT(ISERROR(SEARCH("aedes",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -9533,16 +9588,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>69</v>
       </c>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6239C82-BA1F-4743-AFE9-E7F923F8ECB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E2F11C-C464-044F-B615-801854D41470}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3060" windowWidth="25620" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="7200" windowWidth="25620" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -1276,9 +1276,6 @@
     <t>JS804</t>
   </si>
   <si>
-    <t>DONV</t>
-  </si>
-  <si>
     <t>CHAOV</t>
   </si>
   <si>
@@ -1645,9 +1642,6 @@
     <t xml:space="preserve">Ochlerotatus riparius and/or Anopheles spp. </t>
   </si>
   <si>
-    <t>Ochlerotatus, Anopheles</t>
-  </si>
-  <si>
     <t>Ae. cinereus</t>
   </si>
   <si>
@@ -2002,9 +1996,6 @@
     <t>marsupials</t>
   </si>
   <si>
-    <t>Uranotaenia?</t>
-  </si>
-  <si>
     <t>BCV</t>
   </si>
   <si>
@@ -2111,6 +2102,15 @@
   </si>
   <si>
     <t>Aedes/Anopheles</t>
+  </si>
+  <si>
+    <t>DONV/DGV</t>
+  </si>
+  <si>
+    <t>Aedes/Ochlerotatus, Anopheles</t>
+  </si>
+  <si>
+    <t>Aedes/Uranotaenia?</t>
   </si>
 </sst>
 </file>
@@ -3752,7 +3752,27 @@
     <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4121,8 +4141,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4145,7 +4165,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>213</v>
@@ -4157,7 +4177,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>64</v>
@@ -4166,25 +4186,25 @@
         <v>65</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,17 +4221,17 @@
         <v>411</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>197</v>
@@ -4223,7 +4243,7 @@
         <v>412</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>138</v>
@@ -4234,26 +4254,26 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>197</v>
@@ -4279,17 +4299,17 @@
         <v>343</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>197</v>
@@ -4301,7 +4321,7 @@
         <v>344</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>211</v>
@@ -4321,13 +4341,13 @@
         <v>385</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
@@ -4343,7 +4363,7 @@
         <v>335</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>386</v>
@@ -4363,13 +4383,13 @@
         <v>315</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
@@ -4385,7 +4405,7 @@
         <v>178</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>76</v>
@@ -4405,17 +4425,17 @@
         <v>317</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>197</v>
@@ -4427,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>318</v>
@@ -4447,17 +4467,17 @@
         <v>209</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>197</v>
@@ -4469,7 +4489,7 @@
         <v>23</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>377</v>
@@ -4486,16 +4506,16 @@
         <v>179</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
@@ -4511,7 +4531,7 @@
         <v>50</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>160</v>
@@ -4528,16 +4548,16 @@
         <v>145</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
@@ -4553,7 +4573,7 @@
         <v>31</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>146</v>
@@ -4564,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>75</v>
@@ -4573,17 +4593,17 @@
         <v>312</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>197</v>
@@ -4595,7 +4615,7 @@
         <v>314</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>313</v>
@@ -4612,16 +4632,16 @@
         <v>159</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
@@ -4637,7 +4657,7 @@
         <v>37</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>160</v>
@@ -4657,17 +4677,17 @@
         <v>320</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>197</v>
@@ -4679,7 +4699,7 @@
         <v>56</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>84</v>
@@ -4696,20 +4716,20 @@
         <v>178</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>197</v>
@@ -4721,10 +4741,10 @@
         <v>49</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4741,13 +4761,13 @@
         <v>406</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
@@ -4763,7 +4783,7 @@
         <v>25</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N15" s="17" t="s">
         <v>134</v>
@@ -4783,13 +4803,13 @@
         <v>319</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>191</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
@@ -4805,7 +4825,7 @@
         <v>12</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N16" s="17" t="s">
         <v>82</v>
@@ -4822,20 +4842,20 @@
         <v>141</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>191</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>197</v>
@@ -4847,10 +4867,10 @@
         <v>28</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4864,20 +4884,20 @@
         <v>140</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>415</v>
+        <v>691</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>191</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>197</v>
@@ -4889,7 +4909,7 @@
         <v>27</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N18" s="17" t="s">
         <v>86</v>
@@ -4903,23 +4923,23 @@
         <v>39</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>191</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24" t="s">
-        <v>538</v>
+        <v>692</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>197</v>
@@ -4931,10 +4951,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4951,17 +4971,17 @@
         <v>329</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>191</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>197</v>
@@ -4973,7 +4993,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N20" s="17" t="s">
         <v>90</v>
@@ -4990,20 +5010,20 @@
         <v>163</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>191</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>197</v>
@@ -5015,10 +5035,10 @@
         <v>42</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,17 +5055,17 @@
         <v>327</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>191</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>197</v>
@@ -5057,7 +5077,7 @@
         <v>328</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N22" s="17" t="s">
         <v>89</v>
@@ -5074,16 +5094,16 @@
         <v>156</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>191</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24" t="s">
@@ -5096,10 +5116,10 @@
         <v>197</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N23" s="17" t="s">
         <v>157</v>
@@ -5119,17 +5139,17 @@
         <v>330</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>191</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>197</v>
@@ -5141,7 +5161,7 @@
         <v>20</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N24" s="17" t="s">
         <v>331</v>
@@ -5158,20 +5178,20 @@
         <v>181</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>191</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>197</v>
@@ -5183,7 +5203,7 @@
         <v>52</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N25" s="17" t="s">
         <v>182</v>
@@ -5203,13 +5223,13 @@
         <v>294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
@@ -5219,13 +5239,13 @@
         <v>80</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>296</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N26" s="17" t="s">
         <v>295</v>
@@ -5245,13 +5265,13 @@
         <v>403</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
@@ -5261,13 +5281,13 @@
         <v>80</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>405</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N27" s="17" t="s">
         <v>404</v>
@@ -5281,35 +5301,35 @@
         <v>15</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>80</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>324</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N28" s="17" t="s">
         <v>86</v>
@@ -5329,13 +5349,13 @@
         <v>394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
@@ -5345,13 +5365,13 @@
         <v>80</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N29" s="17" t="s">
         <v>395</v>
@@ -5368,16 +5388,16 @@
         <v>172</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
@@ -5387,13 +5407,13 @@
         <v>80</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N30" s="17" t="s">
         <v>173</v>
@@ -5413,29 +5433,29 @@
         <v>340</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J31" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>341</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N31" s="17" t="s">
         <v>1</v>
@@ -5455,29 +5475,29 @@
         <v>337</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L32" s="16">
         <v>16681</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N32" s="17" t="s">
         <v>119</v>
@@ -5497,29 +5517,29 @@
         <v>338</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J33" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>339</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N33" s="17" t="s">
         <v>1</v>
@@ -5539,29 +5559,29 @@
         <v>206</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J34" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N34" s="17" t="s">
         <v>1</v>
@@ -5581,13 +5601,13 @@
         <v>289</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
@@ -5597,13 +5617,13 @@
         <v>80</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>291</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N35" s="36" t="s">
         <v>290</v>
@@ -5623,13 +5643,13 @@
         <v>396</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
@@ -5639,13 +5659,13 @@
         <v>80</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N36" s="17" t="s">
         <v>397</v>
@@ -5662,16 +5682,16 @@
         <v>93</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
@@ -5681,11 +5701,11 @@
         <v>80</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N37" s="17" t="s">
         <v>119</v>
@@ -5705,29 +5725,29 @@
         <v>400</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J38" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L38" s="16" t="s">
         <v>402</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N38" s="17" t="s">
         <v>401</v>
@@ -5747,29 +5767,29 @@
         <v>307</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J39" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L39" s="16" t="s">
         <v>309</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N39" s="17" t="s">
         <v>308</v>
@@ -5789,13 +5809,13 @@
         <v>332</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
@@ -5805,13 +5825,13 @@
         <v>80</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>334</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N40" s="17" t="s">
         <v>119</v>
@@ -5825,19 +5845,19 @@
         <v>276</v>
       </c>
       <c r="C41" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>447</v>
-      </c>
       <c r="E41" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
@@ -5847,13 +5867,13 @@
         <v>80</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N41" s="17" t="s">
         <v>333</v>
@@ -5873,29 +5893,29 @@
         <v>310</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>191</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H42" s="31"/>
       <c r="I42" s="7" t="s">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="J42" s="35" t="s">
         <v>80</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>311</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N42" s="17" t="s">
         <v>74</v>
@@ -5912,16 +5932,16 @@
         <v>142</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7" t="s">
@@ -5931,13 +5951,13 @@
         <v>80</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L43" s="16" t="s">
         <v>29</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N43" s="17" t="s">
         <v>1</v>
@@ -5957,29 +5977,29 @@
         <v>292</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>80</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>293</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N44" s="17" t="s">
         <v>119</v>
@@ -5996,35 +6016,35 @@
         <v>183</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J45" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6041,13 +6061,13 @@
         <v>384</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7" t="s">
@@ -6057,13 +6077,13 @@
         <v>80</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L46" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N46" s="17" t="s">
         <v>119</v>
@@ -6083,29 +6103,29 @@
         <v>321</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J47" s="35" t="s">
         <v>80</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>323</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N47" s="17" t="s">
         <v>322</v>
@@ -6125,13 +6145,13 @@
         <v>413</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7" t="s">
@@ -6141,16 +6161,16 @@
         <v>80</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L48" s="16" t="s">
         <v>414</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6164,16 +6184,16 @@
         <v>87</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
@@ -6183,13 +6203,13 @@
         <v>80</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L49" s="16" t="s">
         <v>325</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N49" s="17" t="s">
         <v>138</v>
@@ -6209,13 +6229,13 @@
         <v>378</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
@@ -6225,13 +6245,13 @@
         <v>80</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L50" s="16" t="s">
         <v>380</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N50" s="17" t="s">
         <v>379</v>
@@ -6251,13 +6271,13 @@
         <v>203</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7" t="s">
@@ -6267,13 +6287,13 @@
         <v>80</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L51" s="16" t="s">
         <v>342</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N51" s="17" t="s">
         <v>119</v>
@@ -6293,13 +6313,13 @@
         <v>304</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
@@ -6309,13 +6329,13 @@
         <v>80</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L52" s="16" t="s">
         <v>306</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N52" s="17" t="s">
         <v>305</v>
@@ -6335,29 +6355,29 @@
         <v>398</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J53" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L53" s="16" t="s">
         <v>399</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N53" s="17" t="s">
         <v>130</v>
@@ -6377,29 +6397,29 @@
         <v>302</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F54" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H54" s="38"/>
       <c r="I54" s="38" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="J54" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L54" s="16" t="s">
         <v>303</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N54" s="17" t="s">
         <v>119</v>
@@ -6413,38 +6433,38 @@
         <v>54</v>
       </c>
       <c r="C55" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="D55" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>450</v>
-      </c>
       <c r="E55" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F55" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H55" s="38"/>
       <c r="I55" s="38" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J55" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6458,32 +6478,32 @@
         <v>184</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H56" s="38"/>
       <c r="I56" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J56" s="35" t="s">
         <v>80</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N56" s="17" t="s">
         <v>322</v>
@@ -6500,35 +6520,35 @@
         <v>187</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F57" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J57" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6542,32 +6562,32 @@
         <v>185</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H58" s="38"/>
       <c r="I58" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J58" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N58" s="17" t="s">
         <v>308</v>
@@ -6587,29 +6607,29 @@
         <v>390</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H59" s="38"/>
       <c r="I59" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J59" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L59" s="16" t="s">
         <v>392</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N59" s="17" t="s">
         <v>391</v>
@@ -6626,35 +6646,35 @@
         <v>186</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H60" s="38"/>
       <c r="I60" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J60" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L60" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N60" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6671,29 +6691,29 @@
         <v>407</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F61" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H61" s="38"/>
       <c r="I61" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J61" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L61" s="16" t="s">
         <v>409</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N61" s="17" t="s">
         <v>408</v>
@@ -6713,32 +6733,32 @@
         <v>205</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F62" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H62" s="38"/>
       <c r="I62" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J62" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L62" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6755,29 +6775,29 @@
         <v>359</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F63" s="40" t="s">
         <v>191</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J63" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K63" s="40" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L63" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N63" s="17" t="s">
         <v>360</v>
@@ -6788,32 +6808,32 @@
         <v>67</v>
       </c>
       <c r="B64" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>652</v>
+      </c>
+      <c r="D64" s="40" t="s">
         <v>655</v>
       </c>
-      <c r="C64" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="D64" s="40" t="s">
-        <v>658</v>
-      </c>
       <c r="E64" s="40" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F64" s="40" t="s">
         <v>191</v>
       </c>
       <c r="G64" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H64" s="40"/>
       <c r="I64" s="40" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J64" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K64" s="40" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="14"/>
@@ -6830,32 +6850,32 @@
         <v>170</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F65" s="40" t="s">
         <v>191</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H65" s="40"/>
       <c r="I65" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J65" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K65" s="40" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N65" s="17" t="s">
         <v>171</v>
@@ -6875,29 +6895,29 @@
         <v>354</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F66" s="40" t="s">
         <v>191</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H66" s="40"/>
       <c r="I66" s="40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J66" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K66" s="40" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L66" s="16" t="s">
         <v>355</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N66" s="17" t="s">
         <v>148</v>
@@ -6917,29 +6937,29 @@
         <v>370</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F67" s="40" t="s">
         <v>191</v>
       </c>
       <c r="G67" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J67" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K67" s="40" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L67" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N67" s="17" t="s">
         <v>371</v>
@@ -6959,29 +6979,29 @@
         <v>356</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F68" s="40" t="s">
         <v>191</v>
       </c>
       <c r="G68" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H68" s="40"/>
       <c r="I68" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J68" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K68" s="40" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L68" s="16" t="s">
         <v>358</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N68" s="17" t="s">
         <v>357</v>
@@ -7001,29 +7021,29 @@
         <v>387</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F69" s="43" t="s">
         <v>191</v>
       </c>
       <c r="G69" s="43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H69" s="43"/>
       <c r="I69" s="43" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J69" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K69" s="43" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L69" s="16" t="s">
         <v>389</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N69" s="17" t="s">
         <v>388</v>
@@ -7037,35 +7057,35 @@
         <v>269</v>
       </c>
       <c r="C70" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D70" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="D70" s="43" t="s">
-        <v>433</v>
-      </c>
       <c r="E70" s="43" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F70" s="43" t="s">
         <v>191</v>
       </c>
       <c r="G70" s="43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H70" s="43"/>
       <c r="I70" s="43" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="J70" s="41" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K70" s="43" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N70" s="17" t="s">
         <v>174</v>
@@ -7085,13 +7105,13 @@
         <v>373</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F71" s="43" t="s">
         <v>191</v>
       </c>
       <c r="G71" s="43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H71" s="43"/>
       <c r="I71" s="43" t="s">
@@ -7101,16 +7121,16 @@
         <v>80</v>
       </c>
       <c r="K71" s="43" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="L71" s="16" t="s">
         <v>374</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7124,32 +7144,32 @@
         <v>189</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F72" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G72" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H72" s="45"/>
       <c r="I72" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J72" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K72" s="46" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N72" s="17" t="s">
         <v>153</v>
@@ -7166,35 +7186,35 @@
         <v>190</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F73" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G73" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H73" s="45"/>
       <c r="I73" s="45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J73" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K73" s="46" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N73" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7208,32 +7228,32 @@
         <v>154</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F74" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G74" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H74" s="45"/>
       <c r="I74" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J74" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K74" s="46" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L74" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N74" s="17" t="s">
         <v>155</v>
@@ -7253,29 +7273,29 @@
         <v>381</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F75" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G75" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H75" s="45"/>
       <c r="I75" s="45" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J75" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K75" s="46" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L75" s="16" t="s">
         <v>383</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N75" s="17" t="s">
         <v>382</v>
@@ -7295,29 +7315,29 @@
         <v>316</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F76" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G76" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H76" s="45"/>
       <c r="I76" s="45" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J76" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K76" s="46" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L76" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N76" s="17" t="s">
         <v>78</v>
@@ -7337,29 +7357,29 @@
         <v>364</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F77" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G77" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H77" s="45"/>
       <c r="I77" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J77" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K77" s="46" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L77" s="16" t="s">
         <v>366</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N77" s="17" t="s">
         <v>365</v>
@@ -7379,27 +7399,27 @@
         <v>204</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F78" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G78" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H78" s="45"/>
       <c r="I78" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J78" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K78" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N78" s="17" t="s">
         <v>348</v>
@@ -7416,35 +7436,35 @@
         <v>188</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F79" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G79" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H79" s="45"/>
       <c r="I79" s="45" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J79" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K79" s="46" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7461,29 +7481,29 @@
         <v>375</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F80" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G80" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H80" s="45"/>
       <c r="I80" s="45" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J80" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K80" s="46" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L80" s="16" t="s">
         <v>376</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N80" s="17" t="s">
         <v>119</v>
@@ -7503,29 +7523,29 @@
         <v>362</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F81" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H81" s="45"/>
       <c r="I81" s="45" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J81" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K81" s="46" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L81" s="16" t="s">
         <v>363</v>
       </c>
       <c r="M81" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N81" s="17" t="s">
         <v>119</v>
@@ -7545,29 +7565,29 @@
         <v>297</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F82" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G82" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H82" s="45"/>
       <c r="I82" s="45" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J82" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K82" s="46" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L82" s="16" t="s">
         <v>299</v>
       </c>
       <c r="M82" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N82" s="47" t="s">
         <v>298</v>
@@ -7584,32 +7604,32 @@
         <v>202</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F83" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H83" s="45"/>
       <c r="I83" s="45" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J83" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K83" s="46" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N83" s="17" t="s">
         <v>210</v>
@@ -7626,32 +7646,32 @@
         <v>176</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F84" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G84" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H84" s="45"/>
       <c r="I84" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J84" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K84" s="46" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L84" s="16" t="s">
         <v>48</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N84" s="17" t="s">
         <v>177</v>
@@ -7671,29 +7691,29 @@
         <v>345</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F85" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G85" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H85" s="45"/>
       <c r="I85" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J85" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K85" s="46" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L85" s="16" t="s">
         <v>346</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N85" s="17" t="s">
         <v>1</v>
@@ -7713,29 +7733,29 @@
         <v>300</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F86" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G86" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H86" s="45"/>
       <c r="I86" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J86" s="48" t="s">
         <v>192</v>
       </c>
       <c r="K86" s="46" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L86" s="16" t="s">
         <v>301</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N86" s="17" t="s">
         <v>1</v>
@@ -7752,32 +7772,32 @@
         <v>152</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F87" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G87" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H87" s="45"/>
       <c r="I87" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J87" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K87" s="46" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N87" s="17" t="s">
         <v>153</v>
@@ -7807,7 +7827,7 @@
       </c>
       <c r="H88" s="27"/>
       <c r="I88" s="27" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J88" s="15" t="s">
         <v>197</v>
@@ -7834,7 +7854,7 @@
         <v>175</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E89" s="27" t="s">
         <v>369</v>
@@ -7845,7 +7865,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J89" s="15" t="s">
         <v>197</v>
@@ -7857,7 +7877,7 @@
         <v>47</v>
       </c>
       <c r="M89" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N89" s="17" t="s">
         <v>136</v>
@@ -7871,10 +7891,10 @@
         <v>262</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>369</v>
@@ -7885,7 +7905,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J90" s="15" t="s">
         <v>197</v>
@@ -7897,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="M90" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N90" s="17" t="s">
         <v>164</v>
@@ -7914,7 +7934,7 @@
         <v>165</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E91" s="27" t="s">
         <v>369</v>
@@ -7925,7 +7945,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J91" s="15" t="s">
         <v>197</v>
@@ -7937,7 +7957,7 @@
         <v>43</v>
       </c>
       <c r="M91" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N91" s="17" t="s">
         <v>166</v>
@@ -7954,7 +7974,7 @@
         <v>167</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E92" s="27" t="s">
         <v>369</v>
@@ -7965,7 +7985,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J92" s="15" t="s">
         <v>197</v>
@@ -7977,7 +7997,7 @@
         <v>44</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N92" s="17" t="s">
         <v>166</v>
@@ -7994,7 +8014,7 @@
         <v>147</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E93" s="27" t="s">
         <v>369</v>
@@ -8005,7 +8025,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J93" s="15" t="s">
         <v>197</v>
@@ -8017,7 +8037,7 @@
         <v>32</v>
       </c>
       <c r="M93" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N93" s="17" t="s">
         <v>148</v>
@@ -8028,28 +8048,28 @@
         <v>91</v>
       </c>
       <c r="B94" s="51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E94" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="F94" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="G94" s="52" t="s">
         <v>683</v>
-      </c>
-      <c r="F94" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="G94" s="52" t="s">
-        <v>686</v>
       </c>
       <c r="H94" s="52">
         <v>1</v>
       </c>
       <c r="I94" s="52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J94" s="15" t="s">
         <v>197</v>
@@ -8058,11 +8078,11 @@
         <v>197</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M94" s="53"/>
       <c r="N94" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8070,28 +8090,28 @@
         <v>92</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E95" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="F95" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="G95" s="52" t="s">
         <v>683</v>
-      </c>
-      <c r="F95" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="G95" s="52" t="s">
-        <v>686</v>
       </c>
       <c r="H95" s="52">
         <v>1</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J95" s="15" t="s">
         <v>197</v>
@@ -8100,11 +8120,11 @@
         <v>197</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M95" s="53"/>
       <c r="N95" s="17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8112,28 +8132,28 @@
         <v>97</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E96" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="F96" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="G96" s="52" t="s">
         <v>683</v>
-      </c>
-      <c r="F96" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="G96" s="52" t="s">
-        <v>686</v>
       </c>
       <c r="H96" s="52">
         <v>1</v>
       </c>
       <c r="I96" s="52" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J96" s="15" t="s">
         <v>197</v>
@@ -8150,22 +8170,22 @@
         <v>93</v>
       </c>
       <c r="B97" s="51" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E97" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="F97" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="G97" s="52" t="s">
         <v>683</v>
-      </c>
-      <c r="F97" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="G97" s="52" t="s">
-        <v>686</v>
       </c>
       <c r="H97" s="52">
         <v>1</v>
@@ -8180,11 +8200,11 @@
         <v>197</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="M97" s="53"/>
       <c r="N97" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8192,28 +8212,28 @@
         <v>94</v>
       </c>
       <c r="B98" s="51" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D98" s="52" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E98" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="F98" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="G98" s="52" t="s">
         <v>683</v>
-      </c>
-      <c r="F98" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="G98" s="52" t="s">
-        <v>686</v>
       </c>
       <c r="H98" s="52">
         <v>1</v>
       </c>
       <c r="I98" s="52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J98" s="15" t="s">
         <v>197</v>
@@ -8222,11 +8242,11 @@
         <v>197</v>
       </c>
       <c r="L98" s="16" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M98" s="53"/>
       <c r="N98" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8234,28 +8254,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="51" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E99" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="F99" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="G99" s="52" t="s">
         <v>683</v>
-      </c>
-      <c r="F99" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="G99" s="52" t="s">
-        <v>686</v>
       </c>
       <c r="H99" s="52">
         <v>1</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J99" s="15" t="s">
         <v>197</v>
@@ -8272,28 +8292,28 @@
         <v>96</v>
       </c>
       <c r="B100" s="51" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E100" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="F100" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="G100" s="52" t="s">
         <v>683</v>
-      </c>
-      <c r="F100" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="G100" s="52" t="s">
-        <v>686</v>
       </c>
       <c r="H100" s="52">
         <v>1</v>
       </c>
       <c r="I100" s="52" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J100" s="15" t="s">
         <v>197</v>
@@ -8304,7 +8324,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="53"/>
       <c r="N100" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8312,28 +8332,28 @@
         <v>95</v>
       </c>
       <c r="B101" s="51" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E101" s="52" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F101" s="52" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G101" s="52" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H101" s="52">
         <v>3</v>
       </c>
       <c r="I101" s="52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J101" s="15" t="s">
         <v>197</v>
@@ -8342,7 +8362,7 @@
         <v>197</v>
       </c>
       <c r="L101" s="16" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M101" s="53"/>
       <c r="N101" s="17"/>
@@ -8358,18 +8378,18 @@
         <v>144</v>
       </c>
       <c r="D102" s="67" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E102" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F102" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G102" s="67"/>
       <c r="H102" s="67"/>
       <c r="I102" s="67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J102" s="67" t="s">
         <v>197</v>
@@ -8381,7 +8401,7 @@
         <v>30</v>
       </c>
       <c r="M102" s="67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N102" s="17" t="s">
         <v>164</v>
@@ -8401,15 +8421,15 @@
         <v>347</v>
       </c>
       <c r="E103" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F103" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G103" s="67"/>
       <c r="H103" s="67"/>
       <c r="I103" s="67" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J103" s="67" t="s">
         <v>197</v>
@@ -8436,18 +8456,18 @@
         <v>180</v>
       </c>
       <c r="D104" s="67" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E104" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F104" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G104" s="67"/>
       <c r="H104" s="67"/>
       <c r="I104" s="67" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J104" s="67" t="s">
         <v>197</v>
@@ -8459,7 +8479,7 @@
         <v>51</v>
       </c>
       <c r="M104" s="67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N104" s="17" t="s">
         <v>119</v>
@@ -8476,18 +8496,18 @@
         <v>169</v>
       </c>
       <c r="D105" s="67" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E105" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G105" s="67"/>
       <c r="H105" s="67"/>
       <c r="I105" s="67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J105" s="67" t="s">
         <v>197</v>
@@ -8499,7 +8519,7 @@
         <v>46</v>
       </c>
       <c r="M105" s="67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N105" s="17" t="s">
         <v>166</v>
@@ -8519,15 +8539,15 @@
         <v>349</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G106" s="67"/>
       <c r="H106" s="67"/>
       <c r="I106" s="67" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J106" s="67" t="s">
         <v>197</v>
@@ -8554,18 +8574,18 @@
         <v>149</v>
       </c>
       <c r="D107" s="67" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E107" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F107" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G107" s="67"/>
       <c r="H107" s="67"/>
       <c r="I107" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J107" s="67" t="s">
         <v>197</v>
@@ -8577,7 +8597,7 @@
         <v>33</v>
       </c>
       <c r="M107" s="67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N107" s="17" t="s">
         <v>150</v>
@@ -8594,18 +8614,18 @@
         <v>161</v>
       </c>
       <c r="D108" s="67" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E108" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F108" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G108" s="67"/>
       <c r="H108" s="67"/>
       <c r="I108" s="67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J108" s="67" t="s">
         <v>197</v>
@@ -8617,7 +8637,7 @@
         <v>38</v>
       </c>
       <c r="M108" s="67" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N108" s="17" t="s">
         <v>162</v>
@@ -8628,26 +8648,26 @@
         <v>99</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C109" s="56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D109" s="57" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E109" s="58" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F109" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G109" s="57" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H109" s="57"/>
       <c r="I109" s="57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J109" s="15" t="s">
         <v>197</v>
@@ -8658,7 +8678,7 @@
       <c r="L109" s="16"/>
       <c r="M109" s="59"/>
       <c r="N109" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8666,26 +8686,26 @@
         <v>100</v>
       </c>
       <c r="B110" s="61" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C110" s="56" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D110" s="56" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E110" s="58" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F110" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G110" s="56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H110" s="56"/>
       <c r="I110" s="56" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J110" s="15" t="s">
         <v>197</v>
@@ -8696,7 +8716,7 @@
       <c r="L110" s="16"/>
       <c r="M110" s="14"/>
       <c r="N110" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8704,26 +8724,26 @@
         <v>101</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C111" s="56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D111" s="56" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E111" s="58" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F111" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G111" s="57" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H111" s="57"/>
       <c r="I111" s="57" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J111" s="15" t="s">
         <v>197</v>
@@ -8734,7 +8754,7 @@
       <c r="L111" s="54"/>
       <c r="M111" s="53"/>
       <c r="N111" s="60" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8742,26 +8762,26 @@
         <v>102</v>
       </c>
       <c r="B112" s="61" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C112" s="56" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D112" s="56" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E112" s="58" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F112" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G112" s="56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H112" s="56"/>
       <c r="I112" s="56" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J112" s="15" t="s">
         <v>197</v>
@@ -8772,7 +8792,7 @@
       <c r="L112" s="16"/>
       <c r="M112" s="14"/>
       <c r="N112" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8780,26 +8800,26 @@
         <v>103</v>
       </c>
       <c r="B113" s="61" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C113" s="56" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D113" s="56" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E113" s="58" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F113" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G113" s="56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H113" s="56"/>
       <c r="I113" s="56" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J113" s="15" t="s">
         <v>197</v>
@@ -8810,7 +8830,7 @@
       <c r="L113" s="16"/>
       <c r="M113" s="14"/>
       <c r="N113" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8818,26 +8838,26 @@
         <v>106</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C114" s="56" t="s">
+        <v>640</v>
+      </c>
+      <c r="D114" s="57" t="s">
         <v>642</v>
       </c>
-      <c r="D114" s="57" t="s">
-        <v>644</v>
-      </c>
       <c r="E114" s="58" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F114" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G114" s="57" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H114" s="57"/>
       <c r="I114" s="57" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J114" s="15" t="s">
         <v>197</v>
@@ -8854,26 +8874,26 @@
         <v>104</v>
       </c>
       <c r="B115" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="C115" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="D115" s="57" t="s">
+        <v>487</v>
+      </c>
+      <c r="E115" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="F115" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="C115" s="56" t="s">
-        <v>491</v>
-      </c>
-      <c r="D115" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="E115" s="58" t="s">
-        <v>683</v>
-      </c>
-      <c r="F115" s="58" t="s">
-        <v>485</v>
-      </c>
       <c r="G115" s="57" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H115" s="57"/>
       <c r="I115" s="57" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J115" s="15" t="s">
         <v>197</v>
@@ -8884,7 +8904,7 @@
       <c r="L115" s="62"/>
       <c r="M115" s="59"/>
       <c r="N115" s="60" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8892,26 +8912,26 @@
         <v>105</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C116" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="D116" s="57" t="s">
         <v>486</v>
       </c>
-      <c r="D116" s="57" t="s">
-        <v>487</v>
-      </c>
       <c r="E116" s="58" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F116" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G116" s="57" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H116" s="57"/>
       <c r="I116" s="57" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J116" s="15" t="s">
         <v>197</v>
@@ -8922,7 +8942,7 @@
       <c r="L116" s="62"/>
       <c r="M116" s="59"/>
       <c r="N116" s="60" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8939,17 +8959,17 @@
         <v>336</v>
       </c>
       <c r="E117" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F117" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G117" s="65" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H117" s="65"/>
       <c r="I117" s="65" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J117" s="15" t="s">
         <v>197</v>
@@ -8979,17 +8999,17 @@
         <v>350</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F118" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G118" s="65" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H118" s="65"/>
       <c r="I118" s="65" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J118" s="15" t="s">
         <v>197</v>
@@ -9001,7 +9021,7 @@
         <v>351</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N118" s="17" t="s">
         <v>136</v>
@@ -9021,17 +9041,17 @@
         <v>352</v>
       </c>
       <c r="E119" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F119" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G119" s="65" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H119" s="65"/>
       <c r="I119" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J119" s="15" t="s">
         <v>197</v>
@@ -9044,7 +9064,7 @@
       </c>
       <c r="M119" s="14"/>
       <c r="N119" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -9058,20 +9078,20 @@
         <v>112</v>
       </c>
       <c r="D120" s="65" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E120" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F120" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G120" s="65" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H120" s="65"/>
       <c r="I120" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J120" s="15" t="s">
         <v>197</v>
@@ -9098,20 +9118,20 @@
         <v>158</v>
       </c>
       <c r="D121" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F121" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G121" s="65" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H121" s="65"/>
       <c r="I121" s="65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J121" s="15" t="s">
         <v>197</v>
@@ -9123,10 +9143,10 @@
         <v>1</v>
       </c>
       <c r="M121" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N121" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -9140,20 +9160,20 @@
         <v>151</v>
       </c>
       <c r="D122" s="65" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E122" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F122" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G122" s="65" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H122" s="65"/>
       <c r="I122" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J122" s="15" t="s">
         <v>197</v>
@@ -9165,10 +9185,10 @@
         <v>34</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N122" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -9182,20 +9202,20 @@
         <v>198</v>
       </c>
       <c r="D123" s="65" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E123" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F123" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G123" s="65" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H123" s="65"/>
       <c r="I123" s="65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J123" s="15" t="s">
         <v>197</v>
@@ -9207,7 +9227,7 @@
         <v>21</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N123" s="17" t="s">
         <v>111</v>
@@ -9227,17 +9247,17 @@
         <v>410</v>
       </c>
       <c r="E124" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F124" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G124" s="65" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H124" s="65"/>
       <c r="I124" s="65" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J124" s="15" t="s">
         <v>197</v>
@@ -9249,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N124" s="17" t="s">
         <v>136</v>
@@ -9266,20 +9286,20 @@
         <v>143</v>
       </c>
       <c r="D125" s="65" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E125" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F125" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G125" s="65" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H125" s="65"/>
       <c r="I125" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J125" s="15" t="s">
         <v>197</v>
@@ -9291,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N125" s="17" t="s">
         <v>212</v>
@@ -9308,20 +9328,20 @@
         <v>168</v>
       </c>
       <c r="D126" s="65" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E126" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F126" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G126" s="65" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H126" s="65"/>
       <c r="I126" s="65" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J126" s="15" t="s">
         <v>197</v>
@@ -9333,7 +9353,7 @@
         <v>45</v>
       </c>
       <c r="M126" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N126" s="17" t="s">
         <v>166</v>
@@ -9344,26 +9364,26 @@
         <v>118</v>
       </c>
       <c r="B127" s="63" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C127" s="65" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D127" s="65" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F127" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G127" s="65" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H127" s="65"/>
       <c r="I127" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J127" s="15" t="s">
         <v>197</v>
@@ -9380,16 +9400,16 @@
         <v>117</v>
       </c>
       <c r="B128" s="63" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C128" s="65" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D128" s="65" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F128" s="65" t="s">
         <v>326</v>
@@ -9397,7 +9417,7 @@
       <c r="G128" s="65"/>
       <c r="H128" s="65"/>
       <c r="I128" s="65" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J128" s="15" t="s">
         <v>197</v>
@@ -9414,26 +9434,26 @@
         <v>87</v>
       </c>
       <c r="B129" s="49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D129" s="50" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E129" s="50" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F129" s="50" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G129" s="50" t="s">
         <v>367</v>
       </c>
       <c r="H129" s="50"/>
       <c r="I129" s="50" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J129" s="15" t="s">
         <v>197</v>
@@ -9444,7 +9464,7 @@
       <c r="L129" s="16"/>
       <c r="M129" s="14"/>
       <c r="N129" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -9452,26 +9472,26 @@
         <v>88</v>
       </c>
       <c r="B130" s="49" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D130" s="50" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E130" s="50" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F130" s="50" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G130" s="50" t="s">
         <v>367</v>
       </c>
       <c r="H130" s="50"/>
       <c r="I130" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J130" s="15" t="s">
         <v>197</v>
@@ -9482,7 +9502,7 @@
       <c r="L130" s="16"/>
       <c r="M130" s="14"/>
       <c r="N130" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -9499,17 +9519,17 @@
         <v>367</v>
       </c>
       <c r="E131" s="50" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F131" s="50" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G131" s="50" t="s">
         <v>367</v>
       </c>
       <c r="H131" s="50"/>
       <c r="I131" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J131" s="15" t="s">
         <v>197</v>
@@ -9521,7 +9541,7 @@
         <v>368</v>
       </c>
       <c r="M131" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N131" s="17" t="s">
         <v>116</v>
@@ -9532,26 +9552,26 @@
         <v>90</v>
       </c>
       <c r="B132" s="49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C132" s="50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D132" s="50" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E132" s="50" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F132" s="50" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G132" s="50" t="s">
         <v>367</v>
       </c>
       <c r="H132" s="50"/>
       <c r="I132" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J132" s="15" t="s">
         <v>197</v>
@@ -9562,7 +9582,7 @@
       <c r="L132" s="16"/>
       <c r="M132" s="14"/>
       <c r="N132" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -9572,11 +9592,6 @@
     <sortCondition ref="C2:C132"/>
     <sortCondition ref="I2:I132"/>
   </sortState>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="aedes">
-      <formula>NOT(ISERROR(SEARCH("aedes",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -9602,7 +9617,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>118</v>
@@ -9614,7 +9629,7 @@
         <v>191</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>119</v>
@@ -9626,10 +9641,10 @@
         <v>1176</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E2F11C-C464-044F-B615-801854D41470}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE974D10-2E3B-8945-888F-50DE06837702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="7200" windowWidth="25620" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="1940" windowWidth="25620" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$B$1:$M$112</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="685">
   <si>
     <t>AY632538</t>
   </si>
@@ -1633,9 +1634,6 @@
     <t>Ae. vexans,  Ae. albopictus,  Ae. bekkui,  Armigeres subalbatus, Cx. Pipiens</t>
   </si>
   <si>
-    <t>Aedes, Armigeres, Culex</t>
-  </si>
-  <si>
     <t>Ilomantsi virus</t>
   </si>
   <si>
@@ -1933,12 +1931,6 @@
     <t>Ornithodoros</t>
   </si>
   <si>
-    <t>Dermacentor, Ixodes</t>
-  </si>
-  <si>
-    <t>Ixodes, Hemaphysalis</t>
-  </si>
-  <si>
     <t>Argas</t>
   </si>
   <si>
@@ -2020,9 +2012,6 @@
     <t>Siv7</t>
   </si>
   <si>
-    <t>Chrysopidae sp., Psychoda alternata, Dipterasp.</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -2089,28 +2078,13 @@
     <t>Jingmenvirus</t>
   </si>
   <si>
-    <t>Aedes? Culex</t>
-  </si>
-  <si>
-    <t>Aedes/culex</t>
-  </si>
-  <si>
-    <t>aedes/Culicidae</t>
-  </si>
-  <si>
-    <t>Aedes/Culex</t>
-  </si>
-  <si>
-    <t>Aedes/Anopheles</t>
-  </si>
-  <si>
     <t>DONV/DGV</t>
   </si>
   <si>
-    <t>Aedes/Ochlerotatus, Anopheles</t>
-  </si>
-  <si>
-    <t>Aedes/Uranotaenia?</t>
+    <t>aedes</t>
+  </si>
+  <si>
+    <t>Chrysopidae spp</t>
   </si>
 </sst>
 </file>
@@ -3752,37 +3726,7 @@
     <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4141,8 +4085,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4165,7 +4109,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>213</v>
@@ -4177,7 +4121,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>64</v>
@@ -4186,16 +4130,16 @@
         <v>65</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>505</v>
@@ -4204,7 +4148,7 @@
         <v>475</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4221,7 +4165,7 @@
         <v>411</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>191</v>
@@ -4254,16 +4198,16 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>191</v>
@@ -4273,7 +4217,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>197</v>
@@ -4299,7 +4243,7 @@
         <v>343</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>191</v>
@@ -4341,7 +4285,7 @@
         <v>385</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>191</v>
@@ -4383,7 +4327,7 @@
         <v>315</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>191</v>
@@ -4425,7 +4369,7 @@
         <v>317</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>191</v>
@@ -4467,7 +4411,7 @@
         <v>209</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>191</v>
@@ -4509,7 +4453,7 @@
         <v>437</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>191</v>
@@ -4548,10 +4492,10 @@
         <v>145</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>191</v>
@@ -4584,7 +4528,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>75</v>
@@ -4593,7 +4537,7 @@
         <v>312</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>191</v>
@@ -4635,7 +4579,7 @@
         <v>424</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>191</v>
@@ -4677,7 +4621,7 @@
         <v>320</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>191</v>
@@ -4719,7 +4663,7 @@
         <v>435</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>191</v>
@@ -4761,7 +4705,7 @@
         <v>406</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>191</v>
@@ -4803,7 +4747,7 @@
         <v>319</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>191</v>
@@ -4845,7 +4789,7 @@
         <v>415</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>191</v>
@@ -4855,7 +4799,7 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>197</v>
@@ -4884,10 +4828,10 @@
         <v>140</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>191</v>
@@ -4923,13 +4867,13 @@
         <v>39</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>425</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>191</v>
@@ -4939,7 +4883,7 @@
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24" t="s">
-        <v>692</v>
+        <v>506</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>197</v>
@@ -4954,7 +4898,7 @@
         <v>478</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4971,7 +4915,7 @@
         <v>329</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>191</v>
@@ -5013,7 +4957,7 @@
         <v>426</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>191</v>
@@ -5038,7 +4982,7 @@
         <v>478</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5055,7 +4999,7 @@
         <v>327</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>191</v>
@@ -5097,7 +5041,7 @@
         <v>421</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>191</v>
@@ -5139,7 +5083,7 @@
         <v>330</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>191</v>
@@ -5181,7 +5125,7 @@
         <v>439</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>191</v>
@@ -5223,13 +5167,13 @@
         <v>294</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
@@ -5239,7 +5183,7 @@
         <v>80</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>296</v>
@@ -5265,13 +5209,13 @@
         <v>403</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
@@ -5281,7 +5225,7 @@
         <v>80</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>405</v>
@@ -5301,19 +5245,19 @@
         <v>15</v>
       </c>
       <c r="C28" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>592</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
@@ -5323,7 +5267,7 @@
         <v>80</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>324</v>
@@ -5349,13 +5293,13 @@
         <v>394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
@@ -5365,7 +5309,7 @@
         <v>80</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>24</v>
@@ -5391,13 +5335,13 @@
         <v>429</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
@@ -5407,7 +5351,7 @@
         <v>80</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L30" s="16" t="s">
         <v>430</v>
@@ -5433,13 +5377,13 @@
         <v>340</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
@@ -5449,7 +5393,7 @@
         <v>80</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>341</v>
@@ -5475,13 +5419,13 @@
         <v>337</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
@@ -5491,7 +5435,7 @@
         <v>80</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L32" s="16">
         <v>16681</v>
@@ -5517,13 +5461,13 @@
         <v>338</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
@@ -5533,7 +5477,7 @@
         <v>80</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>339</v>
@@ -5559,13 +5503,13 @@
         <v>206</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
@@ -5575,7 +5519,7 @@
         <v>80</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>1</v>
@@ -5601,13 +5545,13 @@
         <v>289</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
@@ -5617,7 +5561,7 @@
         <v>80</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>291</v>
@@ -5643,13 +5587,13 @@
         <v>396</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
@@ -5659,7 +5603,7 @@
         <v>80</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>1</v>
@@ -5685,13 +5629,13 @@
         <v>474</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
@@ -5701,7 +5645,7 @@
         <v>80</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="14" t="s">
@@ -5725,13 +5669,13 @@
         <v>400</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
@@ -5741,7 +5685,7 @@
         <v>80</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L38" s="16" t="s">
         <v>402</v>
@@ -5767,23 +5711,23 @@
         <v>307</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>686</v>
+        <v>404</v>
       </c>
       <c r="J39" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L39" s="16" t="s">
         <v>309</v>
@@ -5809,13 +5753,13 @@
         <v>332</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
@@ -5825,7 +5769,7 @@
         <v>80</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>334</v>
@@ -5851,13 +5795,13 @@
         <v>446</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
@@ -5867,7 +5811,7 @@
         <v>80</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>447</v>
@@ -5893,23 +5837,23 @@
         <v>310</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>191</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H42" s="31"/>
       <c r="I42" s="7" t="s">
-        <v>693</v>
+        <v>506</v>
       </c>
       <c r="J42" s="35" t="s">
         <v>80</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>311</v>
@@ -5935,13 +5879,13 @@
         <v>416</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7" t="s">
@@ -5951,7 +5895,7 @@
         <v>80</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L43" s="16" t="s">
         <v>29</v>
@@ -5977,23 +5921,23 @@
         <v>292</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>687</v>
+        <v>404</v>
       </c>
       <c r="J44" s="35" t="s">
         <v>80</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>293</v>
@@ -6019,23 +5963,23 @@
         <v>440</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="J45" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>442</v>
@@ -6061,13 +6005,13 @@
         <v>384</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7" t="s">
@@ -6077,7 +6021,7 @@
         <v>80</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L46" s="16" t="s">
         <v>1</v>
@@ -6103,23 +6047,23 @@
         <v>321</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7" t="s">
-        <v>687</v>
+        <v>404</v>
       </c>
       <c r="J47" s="35" t="s">
         <v>80</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>323</v>
@@ -6145,13 +6089,13 @@
         <v>413</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7" t="s">
@@ -6161,7 +6105,7 @@
         <v>80</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L48" s="16" t="s">
         <v>414</v>
@@ -6170,7 +6114,7 @@
         <v>476</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,16 +6128,16 @@
         <v>87</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
@@ -6203,7 +6147,7 @@
         <v>80</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L49" s="16" t="s">
         <v>325</v>
@@ -6229,13 +6173,13 @@
         <v>378</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
@@ -6245,7 +6189,7 @@
         <v>80</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L50" s="16" t="s">
         <v>380</v>
@@ -6271,13 +6215,13 @@
         <v>203</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7" t="s">
@@ -6287,7 +6231,7 @@
         <v>80</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L51" s="16" t="s">
         <v>342</v>
@@ -6313,13 +6257,13 @@
         <v>304</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
@@ -6329,7 +6273,7 @@
         <v>80</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L52" s="16" t="s">
         <v>306</v>
@@ -6355,13 +6299,13 @@
         <v>398</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7" t="s">
@@ -6371,7 +6315,7 @@
         <v>80</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L53" s="16" t="s">
         <v>399</v>
@@ -6397,23 +6341,23 @@
         <v>302</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F54" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H54" s="38"/>
       <c r="I54" s="38" t="s">
-        <v>689</v>
+        <v>506</v>
       </c>
       <c r="J54" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L54" s="16" t="s">
         <v>303</v>
@@ -6439,23 +6383,23 @@
         <v>449</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F55" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H55" s="38"/>
       <c r="I55" s="38" t="s">
-        <v>690</v>
+        <v>506</v>
       </c>
       <c r="J55" s="32" t="s">
         <v>80</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>451</v>
@@ -6481,13 +6425,13 @@
         <v>443</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H56" s="38"/>
       <c r="I56" s="38" t="s">
@@ -6497,7 +6441,7 @@
         <v>80</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L56" s="16" t="s">
         <v>444</v>
@@ -6523,13 +6467,13 @@
         <v>456</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F57" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="38" t="s">
@@ -6539,7 +6483,7 @@
         <v>80</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L57" s="16" t="s">
         <v>458</v>
@@ -6565,13 +6509,13 @@
         <v>452</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H58" s="38"/>
       <c r="I58" s="38" t="s">
@@ -6581,7 +6525,7 @@
         <v>80</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L58" s="16" t="s">
         <v>453</v>
@@ -6607,13 +6551,13 @@
         <v>390</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H59" s="38"/>
       <c r="I59" s="38" t="s">
@@ -6623,7 +6567,7 @@
         <v>80</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L59" s="16" t="s">
         <v>392</v>
@@ -6649,13 +6593,13 @@
         <v>454</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H60" s="38"/>
       <c r="I60" s="38" t="s">
@@ -6665,7 +6609,7 @@
         <v>80</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L60" s="16" t="s">
         <v>1</v>
@@ -6691,13 +6635,13 @@
         <v>407</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F61" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H61" s="38"/>
       <c r="I61" s="38" t="s">
@@ -6707,7 +6651,7 @@
         <v>80</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L61" s="16" t="s">
         <v>409</v>
@@ -6733,13 +6677,13 @@
         <v>205</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F62" s="38" t="s">
         <v>191</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H62" s="38"/>
       <c r="I62" s="38" t="s">
@@ -6749,7 +6693,7 @@
         <v>80</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L62" s="16" t="s">
         <v>1</v>
@@ -6758,7 +6702,7 @@
         <v>482</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6775,7 +6719,7 @@
         <v>359</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F63" s="40" t="s">
         <v>191</v>
@@ -6788,10 +6732,10 @@
         <v>511</v>
       </c>
       <c r="J63" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K63" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L63" s="16" t="s">
         <v>1</v>
@@ -6808,16 +6752,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C64" s="40" t="s">
+        <v>649</v>
+      </c>
+      <c r="D64" s="40" t="s">
         <v>652</v>
       </c>
-      <c r="D64" s="40" t="s">
-        <v>655</v>
-      </c>
       <c r="E64" s="40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F64" s="40" t="s">
         <v>191</v>
@@ -6827,13 +6771,13 @@
       </c>
       <c r="H64" s="40"/>
       <c r="I64" s="40" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J64" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K64" s="40" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L64" s="16"/>
       <c r="M64" s="14"/>
@@ -6853,7 +6797,7 @@
         <v>427</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F65" s="40" t="s">
         <v>191</v>
@@ -6866,10 +6810,10 @@
         <v>512</v>
       </c>
       <c r="J65" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K65" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L65" s="16" t="s">
         <v>428</v>
@@ -6895,7 +6839,7 @@
         <v>354</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F66" s="40" t="s">
         <v>191</v>
@@ -6908,10 +6852,10 @@
         <v>513</v>
       </c>
       <c r="J66" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K66" s="40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L66" s="16" t="s">
         <v>355</v>
@@ -6937,7 +6881,7 @@
         <v>370</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F67" s="40" t="s">
         <v>191</v>
@@ -6950,10 +6894,10 @@
         <v>514</v>
       </c>
       <c r="J67" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K67" s="40" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L67" s="16" t="s">
         <v>1</v>
@@ -6979,7 +6923,7 @@
         <v>356</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F68" s="40" t="s">
         <v>191</v>
@@ -6992,10 +6936,10 @@
         <v>515</v>
       </c>
       <c r="J68" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K68" s="40" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L68" s="16" t="s">
         <v>358</v>
@@ -7021,7 +6965,7 @@
         <v>387</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F69" s="43" t="s">
         <v>191</v>
@@ -7031,13 +6975,13 @@
       </c>
       <c r="H69" s="43"/>
       <c r="I69" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J69" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K69" s="43" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L69" s="16" t="s">
         <v>389</v>
@@ -7063,7 +7007,7 @@
         <v>432</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F70" s="43" t="s">
         <v>191</v>
@@ -7073,13 +7017,13 @@
       </c>
       <c r="H70" s="43"/>
       <c r="I70" s="43" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="J70" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K70" s="43" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L70" s="16" t="s">
         <v>433</v>
@@ -7105,7 +7049,7 @@
         <v>373</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F71" s="43" t="s">
         <v>191</v>
@@ -7121,7 +7065,7 @@
         <v>80</v>
       </c>
       <c r="K71" s="43" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L71" s="16" t="s">
         <v>374</v>
@@ -7130,7 +7074,7 @@
         <v>476</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7147,13 +7091,13 @@
         <v>462</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F72" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G72" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H72" s="45"/>
       <c r="I72" s="45" t="s">
@@ -7163,7 +7107,7 @@
         <v>192</v>
       </c>
       <c r="K72" s="46" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L72" s="16" t="s">
         <v>463</v>
@@ -7189,13 +7133,13 @@
         <v>464</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F73" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G73" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H73" s="45"/>
       <c r="I73" s="45" t="s">
@@ -7205,7 +7149,7 @@
         <v>192</v>
       </c>
       <c r="K73" s="46" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L73" s="16" t="s">
         <v>466</v>
@@ -7231,13 +7175,13 @@
         <v>420</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F74" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G74" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H74" s="45"/>
       <c r="I74" s="45" t="s">
@@ -7247,7 +7191,7 @@
         <v>192</v>
       </c>
       <c r="K74" s="46" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L74" s="16" t="s">
         <v>1</v>
@@ -7273,23 +7217,23 @@
         <v>381</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F75" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G75" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H75" s="45"/>
       <c r="I75" s="45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J75" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K75" s="46" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L75" s="16" t="s">
         <v>383</v>
@@ -7315,23 +7259,23 @@
         <v>316</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F76" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G76" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H76" s="45"/>
       <c r="I76" s="45" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J76" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K76" s="46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L76" s="16" t="s">
         <v>1</v>
@@ -7357,13 +7301,13 @@
         <v>364</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F77" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G77" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H77" s="45"/>
       <c r="I77" s="45" t="s">
@@ -7373,7 +7317,7 @@
         <v>192</v>
       </c>
       <c r="K77" s="46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L77" s="16" t="s">
         <v>366</v>
@@ -7399,13 +7343,13 @@
         <v>204</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F78" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G78" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H78" s="45"/>
       <c r="I78" s="45" t="s">
@@ -7415,7 +7359,7 @@
         <v>192</v>
       </c>
       <c r="K78" s="46" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="14" t="s">
@@ -7439,23 +7383,23 @@
         <v>459</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F79" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G79" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H79" s="45"/>
       <c r="I79" s="45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J79" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K79" s="46" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L79" s="16" t="s">
         <v>461</v>
@@ -7481,23 +7425,23 @@
         <v>375</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F80" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G80" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H80" s="45"/>
       <c r="I80" s="45" t="s">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="J80" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K80" s="46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L80" s="16" t="s">
         <v>376</v>
@@ -7523,23 +7467,23 @@
         <v>362</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F81" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H81" s="45"/>
       <c r="I81" s="45" t="s">
-        <v>635</v>
+        <v>520</v>
       </c>
       <c r="J81" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K81" s="46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L81" s="16" t="s">
         <v>363</v>
@@ -7565,23 +7509,23 @@
         <v>297</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F82" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G82" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H82" s="45"/>
       <c r="I82" s="45" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J82" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K82" s="46" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L82" s="16" t="s">
         <v>299</v>
@@ -7607,23 +7551,23 @@
         <v>467</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F83" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H83" s="45"/>
       <c r="I83" s="45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J83" s="46" t="s">
         <v>192</v>
       </c>
       <c r="K83" s="46" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L83" s="16" t="s">
         <v>468</v>
@@ -7649,13 +7593,13 @@
         <v>434</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F84" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G84" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H84" s="45"/>
       <c r="I84" s="45" t="s">
@@ -7665,7 +7609,7 @@
         <v>192</v>
       </c>
       <c r="K84" s="46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L84" s="16" t="s">
         <v>48</v>
@@ -7691,13 +7635,13 @@
         <v>345</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F85" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G85" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H85" s="45"/>
       <c r="I85" s="45" t="s">
@@ -7707,7 +7651,7 @@
         <v>192</v>
       </c>
       <c r="K85" s="46" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="L85" s="16" t="s">
         <v>346</v>
@@ -7733,13 +7677,13 @@
         <v>300</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F86" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G86" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H86" s="45"/>
       <c r="I86" s="45" t="s">
@@ -7749,7 +7693,7 @@
         <v>192</v>
       </c>
       <c r="K86" s="46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L86" s="16" t="s">
         <v>301</v>
@@ -7775,13 +7719,13 @@
         <v>418</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F87" s="45" t="s">
         <v>191</v>
       </c>
       <c r="G87" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H87" s="45"/>
       <c r="I87" s="45" t="s">
@@ -7791,7 +7735,7 @@
         <v>192</v>
       </c>
       <c r="K87" s="46" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="L87" s="16" t="s">
         <v>419</v>
@@ -7827,7 +7771,7 @@
       </c>
       <c r="H88" s="27"/>
       <c r="I88" s="27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J88" s="15" t="s">
         <v>197</v>
@@ -7854,7 +7798,7 @@
         <v>175</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E89" s="27" t="s">
         <v>369</v>
@@ -7891,10 +7835,10 @@
         <v>262</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>369</v>
@@ -7934,7 +7878,7 @@
         <v>165</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E91" s="27" t="s">
         <v>369</v>
@@ -7974,7 +7918,7 @@
         <v>167</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E92" s="27" t="s">
         <v>369</v>
@@ -8014,7 +7958,7 @@
         <v>147</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E93" s="27" t="s">
         <v>369</v>
@@ -8048,22 +7992,22 @@
         <v>91</v>
       </c>
       <c r="B94" s="51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E94" s="52" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F94" s="52" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G94" s="52" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H94" s="52">
         <v>1</v>
@@ -8078,11 +8022,11 @@
         <v>197</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="M94" s="53"/>
       <c r="N94" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8090,28 +8034,28 @@
         <v>92</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G95" s="52" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H95" s="52">
         <v>1</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J95" s="15" t="s">
         <v>197</v>
@@ -8120,11 +8064,11 @@
         <v>197</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="M95" s="53"/>
       <c r="N95" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8132,28 +8076,28 @@
         <v>97</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E96" s="52" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F96" s="52" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G96" s="52" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H96" s="52">
         <v>1</v>
       </c>
       <c r="I96" s="52" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J96" s="15" t="s">
         <v>197</v>
@@ -8170,22 +8114,22 @@
         <v>93</v>
       </c>
       <c r="B97" s="51" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E97" s="52" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F97" s="52" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G97" s="52" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H97" s="52">
         <v>1</v>
@@ -8200,11 +8144,11 @@
         <v>197</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="M97" s="53"/>
       <c r="N97" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8212,22 +8156,22 @@
         <v>94</v>
       </c>
       <c r="B98" s="51" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C98" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="D98" s="52" t="s">
         <v>575</v>
       </c>
-      <c r="D98" s="52" t="s">
-        <v>576</v>
-      </c>
       <c r="E98" s="52" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F98" s="52" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G98" s="52" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H98" s="52">
         <v>1</v>
@@ -8242,11 +8186,11 @@
         <v>197</v>
       </c>
       <c r="L98" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M98" s="53"/>
       <c r="N98" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8254,28 +8198,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="51" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G99" s="52" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H99" s="52">
         <v>1</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>663</v>
+        <v>684</v>
       </c>
       <c r="J99" s="15" t="s">
         <v>197</v>
@@ -8292,28 +8236,28 @@
         <v>96</v>
       </c>
       <c r="B100" s="51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E100" s="52" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F100" s="52" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G100" s="52" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H100" s="52">
         <v>1</v>
       </c>
       <c r="I100" s="52" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J100" s="15" t="s">
         <v>197</v>
@@ -8324,7 +8268,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="53"/>
       <c r="N100" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8332,22 +8276,22 @@
         <v>95</v>
       </c>
       <c r="B101" s="51" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C101" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="D101" s="52" t="s">
         <v>575</v>
       </c>
-      <c r="D101" s="52" t="s">
-        <v>576</v>
-      </c>
       <c r="E101" s="52" t="s">
+        <v>676</v>
+      </c>
+      <c r="F101" s="52" t="s">
+        <v>681</v>
+      </c>
+      <c r="G101" s="52" t="s">
         <v>680</v>
-      </c>
-      <c r="F101" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="G101" s="52" t="s">
-        <v>684</v>
       </c>
       <c r="H101" s="52">
         <v>3</v>
@@ -8362,7 +8306,7 @@
         <v>197</v>
       </c>
       <c r="L101" s="16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M101" s="53"/>
       <c r="N101" s="17"/>
@@ -8378,7 +8322,7 @@
         <v>144</v>
       </c>
       <c r="D102" s="67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E102" s="67" t="s">
         <v>417</v>
@@ -8429,7 +8373,7 @@
       <c r="G103" s="67"/>
       <c r="H103" s="67"/>
       <c r="I103" s="67" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J103" s="67" t="s">
         <v>197</v>
@@ -8467,7 +8411,7 @@
       <c r="G104" s="67"/>
       <c r="H104" s="67"/>
       <c r="I104" s="67" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J104" s="67" t="s">
         <v>197</v>
@@ -8496,7 +8440,7 @@
         <v>169</v>
       </c>
       <c r="D105" s="67" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E105" s="41" t="s">
         <v>417</v>
@@ -8547,7 +8491,7 @@
       <c r="G106" s="67"/>
       <c r="H106" s="67"/>
       <c r="I106" s="67" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J106" s="67" t="s">
         <v>197</v>
@@ -8574,7 +8518,7 @@
         <v>149</v>
       </c>
       <c r="D107" s="67" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E107" s="67" t="s">
         <v>417</v>
@@ -8614,7 +8558,7 @@
         <v>161</v>
       </c>
       <c r="D108" s="67" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E108" s="67" t="s">
         <v>417</v>
@@ -8648,22 +8592,22 @@
         <v>99</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C109" s="56" t="s">
         <v>489</v>
       </c>
       <c r="D109" s="57" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E109" s="58" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F109" s="58" t="s">
         <v>484</v>
       </c>
       <c r="G109" s="57" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H109" s="57"/>
       <c r="I109" s="57" t="s">
@@ -8686,26 +8630,26 @@
         <v>100</v>
       </c>
       <c r="B110" s="61" t="s">
+        <v>558</v>
+      </c>
+      <c r="C110" s="56" t="s">
         <v>559</v>
       </c>
-      <c r="C110" s="56" t="s">
-        <v>560</v>
-      </c>
       <c r="D110" s="56" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E110" s="58" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F110" s="58" t="s">
         <v>484</v>
       </c>
       <c r="G110" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H110" s="56"/>
       <c r="I110" s="56" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J110" s="15" t="s">
         <v>197</v>
@@ -8716,7 +8660,7 @@
       <c r="L110" s="16"/>
       <c r="M110" s="14"/>
       <c r="N110" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8724,22 +8668,22 @@
         <v>101</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C111" s="56" t="s">
         <v>491</v>
       </c>
       <c r="D111" s="56" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E111" s="58" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F111" s="58" t="s">
         <v>484</v>
       </c>
       <c r="G111" s="57" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H111" s="57"/>
       <c r="I111" s="57" t="s">
@@ -8762,26 +8706,26 @@
         <v>102</v>
       </c>
       <c r="B112" s="61" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C112" s="56" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D112" s="56" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E112" s="58" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F112" s="58" t="s">
         <v>484</v>
       </c>
       <c r="G112" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H112" s="56"/>
       <c r="I112" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J112" s="15" t="s">
         <v>197</v>
@@ -8792,7 +8736,7 @@
       <c r="L112" s="16"/>
       <c r="M112" s="14"/>
       <c r="N112" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8800,26 +8744,26 @@
         <v>103</v>
       </c>
       <c r="B113" s="61" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C113" s="56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D113" s="56" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E113" s="58" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F113" s="58" t="s">
         <v>484</v>
       </c>
       <c r="G113" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H113" s="56"/>
       <c r="I113" s="56" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J113" s="15" t="s">
         <v>197</v>
@@ -8830,7 +8774,7 @@
       <c r="L113" s="16"/>
       <c r="M113" s="14"/>
       <c r="N113" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8838,26 +8782,26 @@
         <v>106</v>
       </c>
       <c r="B114" s="55" t="s">
+        <v>636</v>
+      </c>
+      <c r="C114" s="56" t="s">
+        <v>637</v>
+      </c>
+      <c r="D114" s="57" t="s">
         <v>639</v>
       </c>
-      <c r="C114" s="56" t="s">
-        <v>640</v>
-      </c>
-      <c r="D114" s="57" t="s">
-        <v>642</v>
-      </c>
       <c r="E114" s="58" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F114" s="58" t="s">
         <v>484</v>
       </c>
       <c r="G114" s="57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H114" s="57"/>
       <c r="I114" s="57" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J114" s="15" t="s">
         <v>197</v>
@@ -8883,17 +8827,17 @@
         <v>487</v>
       </c>
       <c r="E115" s="58" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F115" s="58" t="s">
         <v>484</v>
       </c>
       <c r="G115" s="57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H115" s="57"/>
       <c r="I115" s="57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J115" s="15" t="s">
         <v>197</v>
@@ -8904,7 +8848,7 @@
       <c r="L115" s="62"/>
       <c r="M115" s="59"/>
       <c r="N115" s="60" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8921,17 +8865,17 @@
         <v>486</v>
       </c>
       <c r="E116" s="58" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F116" s="58" t="s">
         <v>484</v>
       </c>
       <c r="G116" s="57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H116" s="57"/>
       <c r="I116" s="57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J116" s="15" t="s">
         <v>197</v>
@@ -8942,7 +8886,7 @@
       <c r="L116" s="62"/>
       <c r="M116" s="59"/>
       <c r="N116" s="60" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8959,13 +8903,13 @@
         <v>336</v>
       </c>
       <c r="E117" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F117" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G117" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H117" s="65"/>
       <c r="I117" s="65" t="s">
@@ -8999,13 +8943,13 @@
         <v>350</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F118" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G118" s="65" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H118" s="65"/>
       <c r="I118" s="65" t="s">
@@ -9041,13 +8985,13 @@
         <v>352</v>
       </c>
       <c r="E119" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F119" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G119" s="65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H119" s="65"/>
       <c r="I119" s="65" t="s">
@@ -9078,16 +9022,16 @@
         <v>112</v>
       </c>
       <c r="D120" s="65" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E120" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F120" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G120" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H120" s="65"/>
       <c r="I120" s="65" t="s">
@@ -9121,13 +9065,13 @@
         <v>423</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F121" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G121" s="65" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H121" s="65"/>
       <c r="I121" s="65" t="s">
@@ -9160,16 +9104,16 @@
         <v>151</v>
       </c>
       <c r="D122" s="65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E122" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F122" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G122" s="65" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H122" s="65"/>
       <c r="I122" s="65" t="s">
@@ -9202,16 +9146,16 @@
         <v>198</v>
       </c>
       <c r="D123" s="65" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E123" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F123" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G123" s="65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H123" s="65"/>
       <c r="I123" s="65" t="s">
@@ -9247,13 +9191,13 @@
         <v>410</v>
       </c>
       <c r="E124" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F124" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G124" s="65" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H124" s="65"/>
       <c r="I124" s="65" t="s">
@@ -9286,16 +9230,16 @@
         <v>143</v>
       </c>
       <c r="D125" s="65" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E125" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F125" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G125" s="65" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H125" s="65"/>
       <c r="I125" s="65" t="s">
@@ -9328,16 +9272,16 @@
         <v>168</v>
       </c>
       <c r="D126" s="65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E126" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F126" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G126" s="65" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H126" s="65"/>
       <c r="I126" s="65" t="s">
@@ -9364,22 +9308,22 @@
         <v>118</v>
       </c>
       <c r="B127" s="63" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C127" s="65" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D127" s="65" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F127" s="65" t="s">
         <v>326</v>
       </c>
       <c r="G127" s="65" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H127" s="65"/>
       <c r="I127" s="65" t="s">
@@ -9400,16 +9344,16 @@
         <v>117</v>
       </c>
       <c r="B128" s="63" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C128" s="65" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D128" s="65" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F128" s="65" t="s">
         <v>326</v>
@@ -9417,7 +9361,7 @@
       <c r="G128" s="65"/>
       <c r="H128" s="65"/>
       <c r="I128" s="65" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J128" s="15" t="s">
         <v>197</v>
@@ -9440,13 +9384,13 @@
         <v>503</v>
       </c>
       <c r="D129" s="50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E129" s="50" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F129" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G129" s="50" t="s">
         <v>367</v>
@@ -9478,13 +9422,13 @@
         <v>499</v>
       </c>
       <c r="D130" s="50" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E130" s="50" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F130" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G130" s="50" t="s">
         <v>367</v>
@@ -9519,10 +9463,10 @@
         <v>367</v>
       </c>
       <c r="E131" s="50" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F131" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G131" s="50" t="s">
         <v>367</v>
@@ -9558,13 +9502,13 @@
         <v>500</v>
       </c>
       <c r="D132" s="50" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E132" s="50" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F132" s="50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G132" s="50" t="s">
         <v>367</v>
@@ -9617,7 +9561,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>118</v>
@@ -9629,7 +9573,7 @@
         <v>191</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>119</v>
@@ -9644,7 +9588,7 @@
         <v>476</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,20 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE974D10-2E3B-8945-888F-50DE06837702}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BE6E6-DDE5-E64C-A071-96F84D007334}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1940" windowWidth="25620" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$B$1:$M$112</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2091,7 +2097,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2191,6 +2197,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -2309,7 +2321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2317,6 +2329,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="621">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2941,7 +2981,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3101,6 +3141,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="621">
@@ -3726,28 +3772,7 @@
     <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4085,8 +4110,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9530,11 +9555,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N132">
-    <sortCondition ref="F2:F132"/>
-    <sortCondition ref="G2:G132"/>
-    <sortCondition ref="C2:C132"/>
-    <sortCondition ref="I2:I132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N133">
+    <sortCondition ref="F2:F133"/>
+    <sortCondition ref="G2:G133"/>
+    <sortCondition ref="C2:C133"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9547,6 +9571,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15435155-FEDC-4A4F-B6FC-9E903CB0280B}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>SUM(A1:A15)</f>
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BE6E6-DDE5-E64C-A071-96F84D007334}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E8196-3694-5D49-BA34-8A8851DF5735}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1940" windowWidth="25620" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="460" windowWidth="18980" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -4110,8 +4110,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4220,16 +4220,16 @@
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>646</v>
+        <v>280</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>647</v>
+        <v>99</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>675</v>
+        <v>343</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>676</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>628</v>
+        <v>506</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>197</v>
@@ -4250,22 +4250,28 @@
       <c r="K3" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="17"/>
+      <c r="L3" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>676</v>
@@ -4278,7 +4284,7 @@
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>506</v>
+        <v>404</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>197</v>
@@ -4287,27 +4293,27 @@
         <v>197</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>211</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>125</v>
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>385</v>
+        <v>315</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>676</v>
@@ -4328,28 +4334,28 @@
       <c r="K5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>335</v>
+      <c r="L5" s="16">
+        <v>178</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>386</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>676</v>
@@ -4362,7 +4368,7 @@
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>197</v>
@@ -4370,28 +4376,28 @@
       <c r="K6" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="16">
-        <v>178</v>
+      <c r="L6" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>478</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>76</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>79</v>
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>676</v>
@@ -4404,7 +4410,7 @@
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>197</v>
@@ -4413,27 +4419,27 @@
         <v>197</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>209</v>
+        <v>437</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>676</v>
@@ -4446,7 +4452,7 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>506</v>
+        <v>404</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>197</v>
@@ -4455,27 +4461,27 @@
         <v>197</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>377</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>437</v>
+        <v>618</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>676</v>
@@ -4497,27 +4503,27 @@
         <v>197</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>145</v>
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>618</v>
+        <v>312</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>676</v>
@@ -4530,7 +4536,7 @@
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>404</v>
+        <v>509</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>197</v>
@@ -4539,27 +4545,27 @@
         <v>197</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>645</v>
+        <v>36</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>312</v>
+        <v>424</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>676</v>
@@ -4572,7 +4578,7 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>197</v>
@@ -4581,27 +4587,27 @@
         <v>197</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>479</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>676</v>
@@ -4614,7 +4620,7 @@
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>404</v>
+        <v>508</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>197</v>
@@ -4622,28 +4628,28 @@
       <c r="K12" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>37</v>
+      <c r="L12" s="16">
+        <v>56</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>83</v>
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>320</v>
+        <v>435</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>676</v>
@@ -4656,7 +4662,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>197</v>
@@ -4664,28 +4670,28 @@
       <c r="K13" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L13" s="16">
-        <v>56</v>
+      <c r="L13" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>480</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>84</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>676</v>
@@ -4698,7 +4704,7 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>506</v>
+        <v>404</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>197</v>
@@ -4707,27 +4713,27 @@
         <v>197</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>436</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>248</v>
+        <v>646</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>133</v>
+        <v>647</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>406</v>
+        <v>675</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>676</v>
@@ -4740,7 +4746,7 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>404</v>
+        <v>628</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>197</v>
@@ -4748,15 +4754,9 @@
       <c r="K15" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>134</v>
-      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -6774,16 +6774,16 @@
     </row>
     <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="69">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>650</v>
+        <v>267</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>649</v>
+        <v>170</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>652</v>
+        <v>427</v>
       </c>
       <c r="E64" s="40" t="s">
         <v>676</v>
@@ -6796,30 +6796,36 @@
       </c>
       <c r="H64" s="40"/>
       <c r="I64" s="40" t="s">
-        <v>631</v>
+        <v>512</v>
       </c>
       <c r="J64" s="41" t="s">
         <v>631</v>
       </c>
       <c r="K64" s="40" t="s">
-        <v>631</v>
-      </c>
-      <c r="L64" s="16"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="17"/>
+        <v>629</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="N64" s="17" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="69">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="E65" s="40" t="s">
         <v>676</v>
@@ -6832,7 +6838,7 @@
       </c>
       <c r="H65" s="40"/>
       <c r="I65" s="40" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J65" s="41" t="s">
         <v>631</v>
@@ -6841,27 +6847,27 @@
         <v>629</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="M65" s="14" t="s">
         <v>477</v>
       </c>
       <c r="N65" s="17" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="69">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="E66" s="40" t="s">
         <v>676</v>
@@ -6874,36 +6880,36 @@
       </c>
       <c r="H66" s="40"/>
       <c r="I66" s="40" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J66" s="41" t="s">
         <v>631</v>
       </c>
       <c r="K66" s="40" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>355</v>
+        <v>1</v>
       </c>
       <c r="M66" s="14" t="s">
         <v>477</v>
       </c>
       <c r="N66" s="17" t="s">
-        <v>148</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="69">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E67" s="40" t="s">
         <v>676</v>
@@ -6916,7 +6922,7 @@
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="40" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J67" s="41" t="s">
         <v>631</v>
@@ -6925,27 +6931,27 @@
         <v>654</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="M67" s="14" t="s">
         <v>477</v>
       </c>
       <c r="N67" s="17" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="69">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>229</v>
+        <v>650</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>109</v>
+        <v>649</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>356</v>
+        <v>652</v>
       </c>
       <c r="E68" s="40" t="s">
         <v>676</v>
@@ -6958,23 +6964,17 @@
       </c>
       <c r="H68" s="40"/>
       <c r="I68" s="40" t="s">
-        <v>515</v>
+        <v>631</v>
       </c>
       <c r="J68" s="41" t="s">
         <v>631</v>
       </c>
       <c r="K68" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="M68" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="N68" s="17" t="s">
-        <v>357</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="L68" s="16"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="17"/>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
@@ -8098,16 +8098,16 @@
     </row>
     <row r="96" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="73">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>641</v>
+        <v>570</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
       <c r="E96" s="52" t="s">
         <v>676</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="52" t="s">
-        <v>657</v>
+        <v>404</v>
       </c>
       <c r="J96" s="15" t="s">
         <v>197</v>
@@ -8130,22 +8130,26 @@
       <c r="K96" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L96" s="16"/>
+      <c r="L96" s="16" t="s">
+        <v>670</v>
+      </c>
       <c r="M96" s="53"/>
-      <c r="N96" s="17"/>
+      <c r="N96" s="17" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="97" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="73">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B97" s="51" t="s">
-        <v>570</v>
+        <v>667</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="E97" s="52" t="s">
         <v>676</v>
@@ -8160,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="I97" s="52" t="s">
-        <v>404</v>
+        <v>521</v>
       </c>
       <c r="J97" s="15" t="s">
         <v>197</v>
@@ -8169,25 +8173,25 @@
         <v>197</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M97" s="53"/>
       <c r="N97" s="17" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="73">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" s="51" t="s">
-        <v>667</v>
+        <v>572</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D98" s="52" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="E98" s="52" t="s">
         <v>676</v>
@@ -8202,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="52" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="J98" s="15" t="s">
         <v>197</v>
@@ -8210,26 +8214,24 @@
       <c r="K98" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L98" s="16" t="s">
-        <v>669</v>
-      </c>
+      <c r="L98" s="16"/>
       <c r="M98" s="53"/>
       <c r="N98" s="17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="73">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="51" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E99" s="52" t="s">
         <v>676</v>
@@ -8244,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="J99" s="15" t="s">
         <v>197</v>
@@ -8258,16 +8260,16 @@
     </row>
     <row r="100" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="73">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="51" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>609</v>
+        <v>659</v>
       </c>
       <c r="E100" s="52" t="s">
         <v>676</v>
@@ -8282,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="52" t="s">
-        <v>583</v>
+        <v>684</v>
       </c>
       <c r="J100" s="15" t="s">
         <v>197</v>
@@ -8292,9 +8294,7 @@
       </c>
       <c r="L100" s="16"/>
       <c r="M100" s="53"/>
-      <c r="N100" s="17" t="s">
-        <v>582</v>
-      </c>
+      <c r="N100" s="17"/>
     </row>
     <row r="101" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="73">
@@ -8804,16 +8804,16 @@
     </row>
     <row r="114" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="55">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>636</v>
+        <v>483</v>
       </c>
       <c r="C114" s="56" t="s">
-        <v>637</v>
+        <v>490</v>
       </c>
       <c r="D114" s="57" t="s">
-        <v>639</v>
+        <v>487</v>
       </c>
       <c r="E114" s="58" t="s">
         <v>676</v>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="H114" s="57"/>
       <c r="I114" s="57" t="s">
-        <v>638</v>
+        <v>542</v>
       </c>
       <c r="J114" s="15" t="s">
         <v>197</v>
@@ -8836,20 +8836,22 @@
       </c>
       <c r="L114" s="62"/>
       <c r="M114" s="59"/>
-      <c r="N114" s="60"/>
+      <c r="N114" s="60" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="115" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="55">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B115" s="55" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C115" s="56" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D115" s="57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E115" s="58" t="s">
         <v>676</v>
@@ -8862,7 +8864,7 @@
       </c>
       <c r="H115" s="57"/>
       <c r="I115" s="57" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J115" s="15" t="s">
         <v>197</v>
@@ -8873,21 +8875,21 @@
       <c r="L115" s="62"/>
       <c r="M115" s="59"/>
       <c r="N115" s="60" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="55">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>488</v>
+        <v>636</v>
       </c>
       <c r="C116" s="56" t="s">
-        <v>485</v>
+        <v>637</v>
       </c>
       <c r="D116" s="57" t="s">
-        <v>486</v>
+        <v>639</v>
       </c>
       <c r="E116" s="58" t="s">
         <v>676</v>
@@ -8900,7 +8902,7 @@
       </c>
       <c r="H116" s="57"/>
       <c r="I116" s="57" t="s">
-        <v>540</v>
+        <v>638</v>
       </c>
       <c r="J116" s="15" t="s">
         <v>197</v>
@@ -8910,9 +8912,7 @@
       </c>
       <c r="L116" s="62"/>
       <c r="M116" s="59"/>
-      <c r="N116" s="60" t="s">
-        <v>539</v>
-      </c>
+      <c r="N116" s="60"/>
     </row>
     <row r="117" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="63">
@@ -9555,10 +9555,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N133">
-    <sortCondition ref="F2:F133"/>
-    <sortCondition ref="G2:G133"/>
-    <sortCondition ref="C2:C133"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N135">
+    <sortCondition ref="F2:F135"/>
+    <sortCondition ref="G2:G135"/>
+    <sortCondition ref="A2:A135"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E8196-3694-5D49-BA34-8A8851DF5735}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF878A0-E93A-D840-AAA8-DE9921725439}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="460" windowWidth="18980" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9820" yWindow="460" windowWidth="18980" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="687">
   <si>
     <t>AY632538</t>
   </si>
@@ -2091,13 +2091,19 @@
   </si>
   <si>
     <t>Chrysopidae spp</t>
+  </si>
+  <si>
+    <t>dISF1A</t>
+  </si>
+  <si>
+    <t>dISF1B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2197,12 +2203,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -2321,7 +2321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2329,34 +2329,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="621">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2981,7 +2953,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3141,12 +3113,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="621">
@@ -4110,8 +4076,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4778,7 +4744,7 @@
         <v>191</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>472</v>
+        <v>685</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
@@ -4820,7 +4786,7 @@
         <v>191</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>472</v>
+        <v>686</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24" t="s">
@@ -4862,7 +4828,7 @@
         <v>191</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>472</v>
+        <v>686</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="24" t="s">
@@ -4904,7 +4870,7 @@
         <v>191</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>472</v>
+        <v>686</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24" t="s">
@@ -4988,7 +4954,7 @@
         <v>191</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>472</v>
+        <v>686</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24" t="s">
@@ -5072,7 +5038,7 @@
         <v>191</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>472</v>
+        <v>685</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24" t="s">
@@ -9572,96 +9538,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15435155-FEDC-4A4F-B6FC-9E903CB0280B}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f>SUM(A1:A15)</f>
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E8196-3694-5D49-BA34-8A8851DF5735}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="460" windowWidth="18980" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17440" yWindow="2940" windowWidth="27360" windowHeight="22060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -20,23 +14,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$B$1:$M$112</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="704">
   <si>
     <t>AY632538</t>
   </si>
@@ -2091,18 +2085,76 @@
   </si>
   <si>
     <t>Chrysopidae spp</t>
+  </si>
+  <si>
+    <t>KY370092</t>
+  </si>
+  <si>
+    <t>MG599987</t>
+  </si>
+  <si>
+    <t>NC_028377</t>
+  </si>
+  <si>
+    <t>MG334001</t>
+  </si>
+  <si>
+    <t>MG599996</t>
+  </si>
+  <si>
+    <t>MG599993</t>
+  </si>
+  <si>
+    <t>MG599991</t>
+  </si>
+  <si>
+    <t>U22303</t>
+  </si>
+  <si>
+    <t>KC145265</t>
+  </si>
+  <si>
+    <t>KT439329</t>
+  </si>
+  <si>
+    <t>MG599990</t>
+  </si>
+  <si>
+    <t>D00246</t>
+  </si>
+  <si>
+    <t>KC734550</t>
+  </si>
+  <si>
+    <t>JX477686</t>
+  </si>
+  <si>
+    <t>JF312912</t>
+  </si>
+  <si>
+    <t>KF917538</t>
+  </si>
+  <si>
+    <t>NC_009029</t>
+  </si>
+  <si>
+    <t>DQ859067</t>
+  </si>
+  <si>
+    <t>JF926699</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2331,29 +2383,29 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4106,15 +4158,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -4132,7 +4184,7 @@
     <col min="14" max="14" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18">
       <c r="A1" s="9" t="s">
         <v>621</v>
       </c>
@@ -4176,7 +4228,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" customHeight="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4218,7 +4270,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4260,7 +4312,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4302,7 +4354,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -4344,7 +4396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -4386,7 +4438,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4428,7 +4480,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4470,7 +4522,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4512,7 +4564,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -4554,7 +4606,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -4596,7 +4648,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -4638,7 +4690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4680,7 +4732,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -4722,7 +4774,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -4758,7 +4810,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -4800,7 +4852,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="18" customHeight="1">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -4842,7 +4894,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="18" customHeight="1">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -4884,7 +4936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="18" customHeight="1">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -4926,7 +4978,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="18" customHeight="1">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -4968,7 +5020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="18" customHeight="1">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -5010,7 +5062,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="18" customHeight="1">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -5052,7 +5104,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="18" customHeight="1">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -5094,7 +5146,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="18" customHeight="1">
       <c r="A24" s="25">
         <v>23</v>
       </c>
@@ -5136,7 +5188,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="18" customHeight="1">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -5178,7 +5230,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="18" customHeight="1">
       <c r="A26" s="30">
         <v>25</v>
       </c>
@@ -5220,7 +5272,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="18" customHeight="1">
       <c r="A27" s="33">
         <v>26</v>
       </c>
@@ -5262,7 +5314,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="18" customHeight="1">
       <c r="A28" s="30">
         <v>27</v>
       </c>
@@ -5304,7 +5356,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="18" customHeight="1">
       <c r="A29" s="33">
         <v>28</v>
       </c>
@@ -5346,7 +5398,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="18" customHeight="1">
       <c r="A30" s="33">
         <v>29</v>
       </c>
@@ -5388,7 +5440,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="18" customHeight="1">
       <c r="A31" s="33">
         <v>30</v>
       </c>
@@ -5430,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="18" customHeight="1">
       <c r="A32" s="33">
         <v>31</v>
       </c>
@@ -5472,7 +5524,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="18" customHeight="1">
       <c r="A33" s="33">
         <v>32</v>
       </c>
@@ -5514,7 +5566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="18" customHeight="1">
       <c r="A34" s="33">
         <v>33</v>
       </c>
@@ -5556,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="18" customHeight="1">
       <c r="A35" s="30">
         <v>34</v>
       </c>
@@ -5598,7 +5650,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="18" customHeight="1">
       <c r="A36" s="33">
         <v>35</v>
       </c>
@@ -5640,7 +5692,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="18" customHeight="1">
       <c r="A37" s="33">
         <v>36</v>
       </c>
@@ -5680,7 +5732,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="18" customHeight="1">
       <c r="A38" s="33">
         <v>37</v>
       </c>
@@ -5722,7 +5774,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="18" customHeight="1">
       <c r="A39" s="30">
         <v>38</v>
       </c>
@@ -5764,7 +5816,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="18" customHeight="1">
       <c r="A40" s="33">
         <v>39</v>
       </c>
@@ -5806,7 +5858,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="18" customHeight="1">
       <c r="A41" s="33">
         <v>40</v>
       </c>
@@ -5848,7 +5900,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="18" customHeight="1">
       <c r="A42" s="30">
         <v>41</v>
       </c>
@@ -5890,7 +5942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="18" customHeight="1">
       <c r="A43" s="33">
         <v>42</v>
       </c>
@@ -5932,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="18" customHeight="1">
       <c r="A44" s="30">
         <v>43</v>
       </c>
@@ -5974,7 +6026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="18" customHeight="1">
       <c r="A45" s="33">
         <v>44</v>
       </c>
@@ -6016,7 +6068,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="18" customHeight="1">
       <c r="A46" s="33">
         <v>45</v>
       </c>
@@ -6058,7 +6110,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="18" customHeight="1">
       <c r="A47" s="30">
         <v>46</v>
       </c>
@@ -6100,7 +6152,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="18" customHeight="1">
       <c r="A48" s="33">
         <v>47</v>
       </c>
@@ -6142,7 +6194,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="18" customHeight="1">
       <c r="A49" s="30">
         <v>48</v>
       </c>
@@ -6184,7 +6236,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="18" customHeight="1">
       <c r="A50" s="33">
         <v>49</v>
       </c>
@@ -6226,7 +6278,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="18" customHeight="1">
       <c r="A51" s="33">
         <v>50</v>
       </c>
@@ -6268,7 +6320,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="18" customHeight="1">
       <c r="A52" s="30">
         <v>51</v>
       </c>
@@ -6310,7 +6362,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="18" customHeight="1">
       <c r="A53" s="33">
         <v>52</v>
       </c>
@@ -6352,7 +6404,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="18" customHeight="1">
       <c r="A54" s="68">
         <v>53</v>
       </c>
@@ -6394,7 +6446,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="18" customHeight="1">
       <c r="A55" s="68">
         <v>54</v>
       </c>
@@ -6436,7 +6488,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="18" customHeight="1">
       <c r="A56" s="68">
         <v>55</v>
       </c>
@@ -6478,7 +6530,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="18" customHeight="1">
       <c r="A57" s="68">
         <v>56</v>
       </c>
@@ -6520,7 +6572,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="18" customHeight="1">
       <c r="A58" s="68">
         <v>57</v>
       </c>
@@ -6562,7 +6614,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="18" customHeight="1">
       <c r="A59" s="68">
         <v>58</v>
       </c>
@@ -6604,7 +6656,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="18" customHeight="1">
       <c r="A60" s="68">
         <v>59</v>
       </c>
@@ -6646,7 +6698,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="18" customHeight="1">
       <c r="A61" s="68">
         <v>60</v>
       </c>
@@ -6688,7 +6740,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="18" customHeight="1">
       <c r="A62" s="68">
         <v>61</v>
       </c>
@@ -6730,7 +6782,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="18" customHeight="1">
       <c r="A63" s="69">
         <v>62</v>
       </c>
@@ -6772,7 +6824,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="18" customHeight="1">
       <c r="A64" s="69">
         <v>63</v>
       </c>
@@ -6814,7 +6866,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="18" customHeight="1">
       <c r="A65" s="69">
         <v>64</v>
       </c>
@@ -6856,7 +6908,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="18" customHeight="1">
       <c r="A66" s="69">
         <v>65</v>
       </c>
@@ -6898,7 +6950,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="18" customHeight="1">
       <c r="A67" s="69">
         <v>66</v>
       </c>
@@ -6940,7 +6992,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="18" customHeight="1">
       <c r="A68" s="69">
         <v>67</v>
       </c>
@@ -6976,7 +7028,7 @@
       <c r="M68" s="14"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="18" customHeight="1">
       <c r="A69" s="70">
         <v>68</v>
       </c>
@@ -7018,7 +7070,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="18" customHeight="1">
       <c r="A70" s="70">
         <v>69</v>
       </c>
@@ -7060,7 +7112,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="18" customHeight="1">
       <c r="A71" s="70">
         <v>70</v>
       </c>
@@ -7102,7 +7154,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="18" customHeight="1">
       <c r="A72" s="71">
         <v>71</v>
       </c>
@@ -7144,7 +7196,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="18" customHeight="1">
       <c r="A73" s="71">
         <v>72</v>
       </c>
@@ -7186,7 +7238,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="18" customHeight="1">
       <c r="A74" s="71">
         <v>73</v>
       </c>
@@ -7228,7 +7280,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="18" customHeight="1">
       <c r="A75" s="71">
         <v>74</v>
       </c>
@@ -7270,7 +7322,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="18" customHeight="1">
       <c r="A76" s="71">
         <v>75</v>
       </c>
@@ -7312,7 +7364,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="18" customHeight="1">
       <c r="A77" s="71">
         <v>76</v>
       </c>
@@ -7354,7 +7406,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="18" customHeight="1">
       <c r="A78" s="71">
         <v>77</v>
       </c>
@@ -7394,7 +7446,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="18" customHeight="1">
       <c r="A79" s="71">
         <v>78</v>
       </c>
@@ -7436,7 +7488,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="18" customHeight="1">
       <c r="A80" s="71">
         <v>79</v>
       </c>
@@ -7478,7 +7530,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="18" customHeight="1">
       <c r="A81" s="71">
         <v>80</v>
       </c>
@@ -7520,7 +7572,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="18">
       <c r="A82" s="71">
         <v>81</v>
       </c>
@@ -7562,7 +7614,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="18">
       <c r="A83" s="71">
         <v>82</v>
       </c>
@@ -7604,7 +7656,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="18">
       <c r="A84" s="71">
         <v>83</v>
       </c>
@@ -7646,7 +7698,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="18">
       <c r="A85" s="71">
         <v>84</v>
       </c>
@@ -7688,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="18">
       <c r="A86" s="71">
         <v>85</v>
       </c>
@@ -7730,7 +7782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="18">
       <c r="A87" s="71">
         <v>86</v>
       </c>
@@ -7772,7 +7824,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="18" customHeight="1">
       <c r="A88" s="28">
         <v>119</v>
       </c>
@@ -7812,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="18" customHeight="1">
       <c r="A89" s="28">
         <v>120</v>
       </c>
@@ -7852,7 +7904,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="18" customHeight="1">
       <c r="A90" s="28">
         <v>121</v>
       </c>
@@ -7892,7 +7944,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="18" customHeight="1">
       <c r="A91" s="28">
         <v>122</v>
       </c>
@@ -7932,7 +7984,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="18">
       <c r="A92" s="28">
         <v>123</v>
       </c>
@@ -7972,7 +8024,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="18">
       <c r="A93" s="28">
         <v>124</v>
       </c>
@@ -8012,7 +8064,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="18">
       <c r="A94" s="73">
         <v>91</v>
       </c>
@@ -8054,7 +8106,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="18">
       <c r="A95" s="73">
         <v>92</v>
       </c>
@@ -8096,7 +8148,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="18">
       <c r="A96" s="73">
         <v>93</v>
       </c>
@@ -8138,7 +8190,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="18">
       <c r="A97" s="73">
         <v>94</v>
       </c>
@@ -8180,7 +8232,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="18">
       <c r="A98" s="73">
         <v>96</v>
       </c>
@@ -8220,7 +8272,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="18">
       <c r="A99" s="73">
         <v>97</v>
       </c>
@@ -8258,7 +8310,7 @@
       <c r="M99" s="53"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="18">
       <c r="A100" s="73">
         <v>98</v>
       </c>
@@ -8296,7 +8348,7 @@
       <c r="M100" s="53"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="18">
       <c r="A101" s="73">
         <v>95</v>
       </c>
@@ -8336,7 +8388,7 @@
       <c r="M101" s="53"/>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="18">
       <c r="A102" s="66">
         <v>125</v>
       </c>
@@ -8376,7 +8428,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="18">
       <c r="A103" s="66">
         <v>126</v>
       </c>
@@ -8414,7 +8466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="18">
       <c r="A104" s="66">
         <v>127</v>
       </c>
@@ -8454,7 +8506,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="18">
       <c r="A105" s="66">
         <v>128</v>
       </c>
@@ -8494,7 +8546,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="18">
       <c r="A106" s="66">
         <v>129</v>
       </c>
@@ -8532,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="18">
       <c r="A107" s="66">
         <v>130</v>
       </c>
@@ -8572,7 +8624,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="18">
       <c r="A108" s="66">
         <v>131</v>
       </c>
@@ -8612,7 +8664,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="18">
       <c r="A109" s="55">
         <v>99</v>
       </c>
@@ -8650,7 +8702,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="18">
       <c r="A110" s="61">
         <v>100</v>
       </c>
@@ -8688,7 +8740,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="18">
       <c r="A111" s="55">
         <v>101</v>
       </c>
@@ -8726,7 +8778,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="18">
       <c r="A112" s="61">
         <v>102</v>
       </c>
@@ -8764,7 +8816,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="18">
       <c r="A113" s="61">
         <v>103</v>
       </c>
@@ -8802,7 +8854,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="18">
       <c r="A114" s="55">
         <v>104</v>
       </c>
@@ -8840,7 +8892,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="18">
       <c r="A115" s="55">
         <v>105</v>
       </c>
@@ -8878,7 +8930,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="18">
       <c r="A116" s="55">
         <v>106</v>
       </c>
@@ -8914,7 +8966,7 @@
       <c r="M116" s="59"/>
       <c r="N116" s="60"/>
     </row>
-    <row r="117" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="18">
       <c r="A117" s="63">
         <v>107</v>
       </c>
@@ -8954,7 +9006,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="18">
       <c r="A118" s="63">
         <v>108</v>
       </c>
@@ -8996,7 +9048,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="18">
       <c r="A119" s="63">
         <v>109</v>
       </c>
@@ -9036,7 +9088,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="18">
       <c r="A120" s="63">
         <v>110</v>
       </c>
@@ -9076,7 +9128,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="18">
       <c r="A121" s="63">
         <v>111</v>
       </c>
@@ -9118,7 +9170,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="18">
       <c r="A122" s="63">
         <v>112</v>
       </c>
@@ -9160,7 +9212,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="18">
       <c r="A123" s="63">
         <v>113</v>
       </c>
@@ -9202,7 +9254,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="18">
       <c r="A124" s="63">
         <v>114</v>
       </c>
@@ -9244,7 +9296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="18">
       <c r="A125" s="63">
         <v>115</v>
       </c>
@@ -9286,7 +9338,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="18">
       <c r="A126" s="63">
         <v>116</v>
       </c>
@@ -9328,7 +9380,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="18">
       <c r="A127" s="63">
         <v>118</v>
       </c>
@@ -9364,7 +9416,7 @@
       <c r="M127" s="14"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="18">
       <c r="A128" s="63">
         <v>117</v>
       </c>
@@ -9398,7 +9450,7 @@
       <c r="M128" s="14"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="18">
       <c r="A129" s="72">
         <v>87</v>
       </c>
@@ -9436,7 +9488,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="18">
       <c r="A130" s="72">
         <v>88</v>
       </c>
@@ -9474,7 +9526,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="18">
       <c r="A131" s="72">
         <v>89</v>
       </c>
@@ -9516,7 +9568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="18">
       <c r="A132" s="72">
         <v>90</v>
       </c>
@@ -9554,8 +9606,118 @@
         <v>501</v>
       </c>
     </row>
+    <row r="133" spans="1:14">
+      <c r="B133" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="B134" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="B135" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="B136" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="B137" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="B138" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="B139" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="B140" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="B141" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="B142" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="B143" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="B144" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>703</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N135">
+  <sortState ref="A2:N135">
     <sortCondition ref="F2:F135"/>
     <sortCondition ref="G2:G135"/>
     <sortCondition ref="A2:A135"/>
@@ -9571,91 +9733,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15435155-FEDC-4A4F-B6FC-9E903CB0280B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16" thickBot="1">
       <c r="A1" s="74">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="16" thickBot="1">
       <c r="A2" s="75">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="16" thickBot="1">
       <c r="A3" s="75">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="16" thickBot="1">
       <c r="A4" s="75">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="16" thickBot="1">
       <c r="A5" s="75">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="16" thickBot="1">
       <c r="A6" s="75">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="16" thickBot="1">
       <c r="A7" s="75">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="16" thickBot="1">
       <c r="A8" s="75">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="16" thickBot="1">
       <c r="A9" s="75">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="16" thickBot="1">
       <c r="A10" s="75">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="16" thickBot="1">
       <c r="A11" s="75">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="16" thickBot="1">
       <c r="A12" s="75">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="16" thickBot="1">
       <c r="A13" s="75">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="16" thickBot="1">
       <c r="A14" s="75">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="16" thickBot="1">
       <c r="A15" s="75">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16">
         <f>SUM(A1:A15)</f>
         <v>130</v>
@@ -9663,20 +9825,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18" customHeight="1">
       <c r="A1" s="5">
         <v>69</v>
       </c>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF878A0-E93A-D840-AAA8-DE9921725439}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D89788-4AC6-C44C-BC1A-82D097CAD689}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9820" yWindow="460" windowWidth="18980" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4076,8 +4076,8 @@
   <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16:G23"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus-group/Flaviviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2891B9CC-7397-5044-87CF-28D59F3671B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C121C55-56D1-B043-A1E9-6622376B5F13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="755">
   <si>
     <t>AY632538</t>
   </si>
@@ -908,9 +908,6 @@
     <t>IGUV</t>
   </si>
   <si>
-    <t>sentinel mouse</t>
-  </si>
-  <si>
     <t>SPAn 71686</t>
   </si>
   <si>
@@ -2087,9 +2084,6 @@
     <t>DONV/DGV</t>
   </si>
   <si>
-    <t>aedes</t>
-  </si>
-  <si>
     <t>Chrysopidae spp</t>
   </si>
   <si>
@@ -2298,13 +2292,22 @@
   </si>
   <si>
     <t>POTV</t>
+  </si>
+  <si>
+    <t>Saguinus</t>
+  </si>
+  <si>
+    <t>Chordata</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2364,14 +2367,6 @@
     <font>
       <i/>
       <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3204,7 +3199,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3291,7 +3286,6 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3316,24 +3310,18 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3365,15 +3353,15 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4338,15 +4326,15 @@
   <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
@@ -4362,7 +4350,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>213</v>
@@ -4374,7 +4362,7 @@
         <v>62</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>64</v>
@@ -4383,25 +4371,25 @@
         <v>65</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>625</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,20 +4403,20 @@
         <v>137</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>197</v>
@@ -4437,10 +4425,10 @@
         <v>197</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>138</v>
@@ -4457,20 +4445,20 @@
         <v>99</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>197</v>
@@ -4479,10 +4467,10 @@
         <v>197</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>211</v>
@@ -4499,20 +4487,20 @@
         <v>125</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>197</v>
@@ -4521,13 +4509,13 @@
         <v>197</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4541,20 +4529,20 @@
         <v>194</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>197</v>
@@ -4566,7 +4554,7 @@
         <v>178</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>76</v>
@@ -4583,20 +4571,20 @@
         <v>79</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>197</v>
@@ -4608,10 +4596,10 @@
         <v>1</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4628,17 +4616,17 @@
         <v>209</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>197</v>
@@ -4650,10 +4638,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4667,20 +4655,20 @@
         <v>179</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>197</v>
@@ -4692,7 +4680,7 @@
         <v>50</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>160</v>
@@ -4709,20 +4697,20 @@
         <v>145</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>197</v>
@@ -4734,7 +4722,7 @@
         <v>31</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>146</v>
@@ -4745,26 +4733,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>197</v>
@@ -4773,13 +4761,13 @@
         <v>197</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4793,20 +4781,20 @@
         <v>159</v>
       </c>
   